--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5E29D78-0CDB-A248-93A8-FAFB4487DD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF963E6-DBFF-6A4D-B05C-82EFF54BA7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="2200" windowWidth="28300" windowHeight="17440" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>j</t>
   </si>
@@ -73,16 +73,6 @@
     <t>maxRhat</t>
   </si>
   <si>
-    <t>赤字＝悪い</t>
-    <rPh sb="0" eb="2">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ワルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>r</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -123,6 +113,140 @@
   </si>
   <si>
     <t>maxRhat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字＝0.5以上</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pai_1rの生成を変えたら</t>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カエタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと良くはなった</t>
+    <rPh sb="4" eb="5">
+      <t>ヨクハナt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルのpai_1rの部分を修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結構改善</t>
+    <rPh sb="0" eb="2">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイゼn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha_rtの生成を変更</t>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pai_0rが改善！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あとここ?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループ回数増やしてもう一回</t>
+    <rPh sb="5" eb="6">
+      <t>フヤセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pai_0rの生成を変更</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぜかここが改善してる、たまたま？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.7がcategory_prmにかかってなかったので修正</t>
+    <rPh sb="27" eb="29">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に改善せず</t>
+    <rPh sb="0" eb="2">
+      <t>トクニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beta_rkの生成を変更</t>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に改善しないけどこれは必要な修正だと思う</t>
+    <rPh sb="0" eb="2">
+      <t>トクニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トクニ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RMSEとか求めるところのalpha_rtを修正(beta_rkと同じ感じに)</t>
+    <rPh sb="6" eb="7">
+      <t>モトメルテ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>akoha_rtの生成を変更</t>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -533,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B5D9D-DC95-E543-B24D-F58D47733086}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -544,7 +668,7 @@
     <row r="1" spans="1:16">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -785,6 +909,53 @@
         <v>1.0109203347951801</v>
       </c>
     </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="8" spans="1:16">
       <c r="B8" s="2">
         <v>30</v>
@@ -971,6 +1142,2707 @@
       </c>
       <c r="P11" s="3">
         <v>1.01088741379995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.43250780521247301</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.60757342030060502</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.47827426232151399</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.1140199282036001</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.48347086285579899</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-6.6826525980286003E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-8.1537979463188304E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.400064068786954</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.17981162155059899</v>
+      </c>
+      <c r="N13" s="4">
+        <v>-2.7755575615628901E-17</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.999604811471689</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1.0065684294354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="2">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.401306560533984</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.80555213305602</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.09966141891863</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.40208888928654</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.17490094823663299</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-0.20592460238388099</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.446390060759699</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.81360581032565304</v>
+      </c>
+      <c r="M14" s="3">
+        <v>-0.25163312426937401</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2.7755575615628901E-17</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.99927428643688898</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1.0059835004658999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.485246641358974</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.7686842372778699</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.46027175337145</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.1469541810469499</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.434546869326496</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-0.122840052258923</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1.0753560273235101</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.79212655862618098</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-0.32173663128996299</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2.7755575615628901E-17</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.99924635759893998</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1.0026814190950399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.25159274210044102</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.3026061480095199</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1.42607070615972</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1.41798059066122</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.41040444283947303</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-3.35711772452124E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>-0.41187592630284497</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.60473522115541301</v>
+      </c>
+      <c r="M16" s="3">
+        <v>5.41607750086378E-2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2.0816681711721701E-17</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.99927008386620797</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1.01531995192532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="B18" s="2">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.41255238196019101</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.0074207666169399</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.59025385932608898</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.14793136803227</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.51421700358525801</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7.6375915058990796E-3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.206092913344329</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.52104091224096505</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-3.3882549407437501E-3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>3.2959746043559298E-17</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1.0001826665481</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1.00963923210065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="B19" s="2">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.346874754535755</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.96909325303046101</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.69744905167551197</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.900766029605787</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.419855069751704</v>
+      </c>
+      <c r="J19" s="3">
+        <v>-1.24101651481073E-2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>-0.22599860899645699</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.54898473349145505</v>
+      </c>
+      <c r="M19" s="3">
+        <v>4.1108757859838502E-2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>-4.1633363423443401E-17</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.99938418724224098</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1.00675573623908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="B20" s="2">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.41874839361352101</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.91671091466653098</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.65227190692744796</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.89207152017378799</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.27526042814358598</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1.3778056459245E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-3.92007084965467E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.59919092883218605</v>
+      </c>
+      <c r="M20" s="3">
+        <v>4.88043718515732E-2</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3.46944695195361E-18</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.99951327813123003</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1.0092134194501601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="B21" s="2">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.30981874015378802</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1.07366536323215</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.68652645366328702</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.99673136054604405</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.39954286376208098</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1.8005866035936499E-2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.5965101384557701E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.58530853208973099</v>
+      </c>
+      <c r="M21" s="3">
+        <v>4.66249193171695E-2</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.99945056422793699</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1.0078615553654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="B22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="B23" s="2">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.52669359424643802</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.1015986571268399</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.65172559744456005</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.1026716404099299</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.35519292596400598</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2.2482353019324101E-2</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-0.249885570922357</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.42902200267819102</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.198962488914011</v>
+      </c>
+      <c r="N23" s="4">
+        <v>-4.6837533851373798E-17</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1.00017710178764</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1.0121769696221801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="B24" s="2">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.31364944781563397</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.987567542023706</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.73582414343839098</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1.0579857526877201</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.34226568979585298</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-8.8436621604259497E-2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-3.45957443128884E-2</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.55639145496179898</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-2.8164830981991001E-2</v>
+      </c>
+      <c r="N24" s="4">
+        <v>-2.0816681711721701E-17</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.99949704714940402</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1.0077055479635499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="B25" s="2">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.39892269148265203</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.13819438706642</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.62916046795789304</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1.06943848314538</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.46600281964919099</v>
+      </c>
+      <c r="J25" s="3">
+        <v>4.2697005299449899E-2</v>
+      </c>
+      <c r="K25" s="3">
+        <v>-0.53217538246045704</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.55312494431472803</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.50738833520336601</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1.2143064331837701E-17</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.99938762433504102</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1.0068660238210601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="2">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.33913703023921199</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.91944237976420295</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.67611635058750397</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.97672009990547104</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.31840277145992402</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1.3579008756221599E-2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-9.9140931719427006E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.54195911202637304</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.21555166418163799</v>
+      </c>
+      <c r="N26" s="4">
+        <v>-1.7347234759768102E-18</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.99947673116180402</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1.01421633968242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="B28" s="2">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.41137626685509499</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.91749705714620999</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.30781905244626001</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.915904114543314</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.44465280649946698</v>
+      </c>
+      <c r="J28" s="3">
+        <v>-4.0488562169501002E-2</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.33959888555551199</v>
+      </c>
+      <c r="L28" s="3">
+        <v>-4.28096013893247E-2</v>
+      </c>
+      <c r="M28" s="3">
+        <v>-0.35153051162816101</v>
+      </c>
+      <c r="N28" s="4">
+        <v>-2.7755575615628901E-17</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.99942095701652001</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1.0047001339247901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="B29" s="2">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.336589119564916</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1.2632276685456301</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.403056316215465</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1.06624062336068</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.61961539061312099</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2.8090150455872601E-2</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-1.3863550672719299E-2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>-4.3752486299945E-2</v>
+      </c>
+      <c r="M29" s="3">
+        <v>6.14483432758978E-2</v>
+      </c>
+      <c r="N29" s="4">
+        <v>-6.9388939039072299E-18</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1.00024235244824</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1.0083303888887101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="B30" s="2">
+        <v>50</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.44594574160580402</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1.15899802638994</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.52340707774524298</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1.0918487801832899</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.49319402674123303</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-2.84911870431531E-2</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.36591378727173801</v>
+      </c>
+      <c r="L30" s="3">
+        <v>-0.122429295925655</v>
+      </c>
+      <c r="M30" s="3">
+        <v>-0.31846019123991498</v>
+      </c>
+      <c r="N30" s="4">
+        <v>-1.38777878078145E-17</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.99969995314589499</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1.0099801876515699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="B31" s="2">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.42820775740655598</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1.6750449695732901</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.50575642538288501</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1.35499254297151</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.31625872028429403</v>
+      </c>
+      <c r="J31" s="3">
+        <v>-0.119251564245624</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.46554969078411002</v>
+      </c>
+      <c r="L31" s="3">
+        <v>-4.7710043329693197E-2</v>
+      </c>
+      <c r="M31" s="3">
+        <v>-0.37374248616906403</v>
+      </c>
+      <c r="N31" s="4">
+        <v>3.64291929955129E-17</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1.00009057979602</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1.00877161419151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="B34" s="2">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.525299365843796</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.30635129495269697</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.52134937367676504</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.81089123181575595</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.26692364936709301</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2.37659204127726E-2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.165408214397047</v>
+      </c>
+      <c r="L34" s="3">
+        <v>-0.118686718684175</v>
+      </c>
+      <c r="M34" s="3">
+        <v>-7.3237819319940903E-2</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1.38777878078145E-17</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1.00045030255832</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1.01431648080972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="B35" s="2">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.47011119134148399</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.27469273508546999</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.45385890538071499</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.78060141769902203</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.451685933774292</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1.8899713818421902E-2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-6.6336638316047206E-2</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-9.6482785725336306E-2</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2.8939250900720099E-2</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1.0408340855860799E-17</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1.0001173381464099</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1.01596453130819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="B36" s="2">
+        <v>50</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.62444740806458898</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.21145051995651101</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.27191324138852702</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.77843275890850905</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.49915878996145402</v>
+      </c>
+      <c r="J36" s="3">
+        <v>-8.60656614040025E-3</v>
+      </c>
+      <c r="K36" s="3">
+        <v>9.7501282936165196E-2</v>
+      </c>
+      <c r="L36" s="3">
+        <v>-7.66680288676901E-2</v>
+      </c>
+      <c r="M36" s="3">
+        <v>-3.6357288613011497E-2</v>
+      </c>
+      <c r="N36" s="4">
+        <v>3.4694469519536204E-18</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.99944731640080797</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1.0081979659970399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="B37" s="2">
+        <v>50</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.41915275129768498</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.209575624388075</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.35433782572408601</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.81222230634855597</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.27206245671047402</v>
+      </c>
+      <c r="J37" s="3">
+        <v>-4.8863362844325402E-2</v>
+      </c>
+      <c r="K37" s="3">
+        <v>-0.121763481313615</v>
+      </c>
+      <c r="L37" s="3">
+        <v>-7.1137782507509004E-2</v>
+      </c>
+      <c r="M37" s="3">
+        <v>3.5326744360724402E-2</v>
+      </c>
+      <c r="N37" s="4">
+        <v>-1.5612511283791301E-17</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.999572788541364</v>
+      </c>
+      <c r="P37" s="3">
+        <v>1.0092128829467899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="B39" s="2">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.55593072651087005</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.29935400019755798</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.41405171939285601</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.813486214859237</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.38786372624830501</v>
+      </c>
+      <c r="J39" s="3">
+        <v>-6.8252251401346206E-2</v>
+      </c>
+      <c r="K39" s="3">
+        <v>-7.3654262386530101E-3</v>
+      </c>
+      <c r="L39" s="3">
+        <v>-2.0724013278449901E-2</v>
+      </c>
+      <c r="M39" s="3">
+        <v>-6.2563699218187996E-3</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1.7347234759768102E-18</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.99978041376467497</v>
+      </c>
+      <c r="P39" s="3">
+        <v>1.0065140348892001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="B40" s="2">
+        <v>30</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.42045943319671197</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.25980933619330798</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.564460413941543</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.76782661635987404</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.193952739788707</v>
+      </c>
+      <c r="J40" s="3">
+        <v>5.6540481778248899E-2</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.110893345735155</v>
+      </c>
+      <c r="L40" s="3">
+        <v>-0.110280702789486</v>
+      </c>
+      <c r="M40" s="3">
+        <v>-3.1887509729795899E-2</v>
+      </c>
+      <c r="N40" s="4">
+        <v>-1.5612511283791199E-17</v>
+      </c>
+      <c r="O40" s="3">
+        <v>1.00048913580262</v>
+      </c>
+      <c r="P40" s="3">
+        <v>1.0153456631234401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="B41" s="2">
+        <v>50</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.53087725321697299</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.24083685815504499</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.47470024862087901</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.81747237492429103</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.19439123764026101</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3.3453251327111397E-2</v>
+      </c>
+      <c r="K41" s="3">
+        <v>-6.5878312688111701E-2</v>
+      </c>
+      <c r="L41" s="3">
+        <v>-9.5709804922643804E-2</v>
+      </c>
+      <c r="M41" s="3">
+        <v>4.6384765086024897E-2</v>
+      </c>
+      <c r="N41" s="4">
+        <v>-1.6479873021779701E-17</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1.00016768961109</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1.0118766311959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="B42" s="2">
+        <v>50</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.41474819289458897</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.24599712173791199</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.48800399052944199</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.79284505389858995</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.28400235668903201</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1.3301996742859699E-3</v>
+      </c>
+      <c r="K42" s="3">
+        <v>-2.1578114246513E-2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>-9.7788216063635899E-2</v>
+      </c>
+      <c r="M42" s="4">
+        <v>-2.8916343322449801E-5</v>
+      </c>
+      <c r="N42" s="4">
+        <v>-3.4694469519536204E-18</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1.0002065005441401</v>
+      </c>
+      <c r="P42" s="3">
+        <v>1.0153342013044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="B44" s="2">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.53215264667875095</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.18123773106396501</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.50510165819457498</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.80786601988974804</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.35104070017747502</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2.8596936843788899E-3</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1.5322244567223401E-2</v>
+      </c>
+      <c r="L44" s="3">
+        <v>-0.149752875782278</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1.4975831590178E-2</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1.99493199737333E-17</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1.00043319357607</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1.00887342858513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="B45" s="2">
+        <v>30</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.35569284211350799</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.21451844241835999</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.508508821301764</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.77211621596513402</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.29028641683287698</v>
+      </c>
+      <c r="J45" s="3">
+        <v>-8.8652867520998008E-3</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1.60440670049074E-2</v>
+      </c>
+      <c r="L45" s="3">
+        <v>-0.111513908021518</v>
+      </c>
+      <c r="M45" s="3">
+        <v>-3.3834483511486997E-2</v>
+      </c>
+      <c r="N45" s="4">
+        <v>5.2041704279304298E-18</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1.0006331281079699</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1.0125383947862401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="B46" s="2">
+        <v>50</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.52465068312180696</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.22254108512224199</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.297630218407198</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.75140170820068597</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.36461649927703599</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3.2668258841822202E-3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>-7.7195087507082802E-3</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1.2616080759751701E-2</v>
+      </c>
+      <c r="M46" s="3">
+        <v>-1.0773987567313599E-2</v>
+      </c>
+      <c r="N46" s="4">
+        <v>6.9388939039072499E-18</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.99996552277016004</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1.0119799054092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="B47" s="2">
+        <v>50</v>
+      </c>
+      <c r="C47" s="3">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.45004882636502203</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.190011685390199</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.32073576601847198</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.77968165716878302</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.43395960932801397</v>
+      </c>
+      <c r="J47" s="3">
+        <v>-1.5814744187745899E-3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1.22024876719714E-2</v>
+      </c>
+      <c r="L47" s="3">
+        <v>-8.0262505749767399E-2</v>
+      </c>
+      <c r="M47" s="3">
+        <v>-1.8697592275647699E-3</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1.7347234759768202E-18</v>
+      </c>
+      <c r="O47" s="3">
+        <v>1.0001855979310199</v>
+      </c>
+      <c r="P47" s="3">
+        <v>1.0181378873620199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="B48" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="B49" s="2">
+        <v>30</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.58907292182784299</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.28431192695372398</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.30846649029851902</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.77670998011042303</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.59117154152962004</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1.1166704039762601E-2</v>
+      </c>
+      <c r="K49" s="3">
+        <v>-5.7656755136897497E-2</v>
+      </c>
+      <c r="L49" s="3">
+        <v>-8.0070385192048E-3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>3.20629799850344E-2</v>
+      </c>
+      <c r="N49" s="4">
+        <v>-6.9388939039072299E-18</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.99953798509489</v>
+      </c>
+      <c r="P49" s="3">
+        <v>1.0057021648191999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="B50" s="2">
+        <v>30</v>
+      </c>
+      <c r="C50" s="3">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.51988459459193104</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.29033441499887702</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.86469681467560999</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.79897885050323403</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.354270053487869</v>
+      </c>
+      <c r="J50" s="3">
+        <v>-3.93591382465701E-2</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.100355739954871</v>
+      </c>
+      <c r="L50" s="3">
+        <v>-0.24425172264330899</v>
+      </c>
+      <c r="M50" s="3">
+        <v>-4.1794524313220199E-2</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1.5612511283791301E-17</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0.99991497868554702</v>
+      </c>
+      <c r="P50" s="3">
+        <v>1.00819444605589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.52068613384085305</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.29435542194109598</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.47153176753351</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.78885319769994999</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.30638322223852799</v>
+      </c>
+      <c r="J51" s="3">
+        <v>1.09427217723174E-2</v>
+      </c>
+      <c r="K51" s="3">
+        <v>-0.15170557843131099</v>
+      </c>
+      <c r="L51" s="3">
+        <v>-1.36970230620066E-2</v>
+      </c>
+      <c r="M51" s="3">
+        <v>3.7154207592159198E-2</v>
+      </c>
+      <c r="N51" s="4">
+        <v>-1.0408340855860799E-17</v>
+      </c>
+      <c r="O51" s="3">
+        <v>1.0003482161155901</v>
+      </c>
+      <c r="P51" s="3">
+        <v>1.01311044180982</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="3">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.45453108675322401</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.184128139022148</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.51133088060007303</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.76439161353366902</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.42858326834429999</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1.59184890727297E-3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1.65428981452197E-3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>-0.10466585253402599</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1.3984295358950599E-2</v>
+      </c>
+      <c r="N52" s="4">
+        <v>4.8572257327350802E-17</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.99989164753926696</v>
+      </c>
+      <c r="P52" s="3">
+        <v>1.0101743809956301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="B54" s="2">
+        <v>30</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.43333680242531403</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.29843044616833297</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.37486352524134398</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.74709150007359704</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.43249542098495602</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5.0793012135808401E-3</v>
+      </c>
+      <c r="K54" s="3">
+        <v>-1.7034357494725299E-2</v>
+      </c>
+      <c r="L54" s="3">
+        <v>-7.4563186690774497E-2</v>
+      </c>
+      <c r="M54" s="3">
+        <v>-2.71738727721911E-3</v>
+      </c>
+      <c r="N54" s="4">
+        <v>2.0816681711721799E-17</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.99965196247670896</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1.0078340868704401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="B55" s="2">
+        <v>30</v>
+      </c>
+      <c r="C55" s="3">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.470510310642338</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.29132581069662</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.48470166149542898</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.75642426589502498</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.43101706255758698</v>
+      </c>
+      <c r="J55" s="3">
+        <v>2.0309158123811899E-2</v>
+      </c>
+      <c r="K55" s="3">
+        <v>-5.7926945033370002E-2</v>
+      </c>
+      <c r="L55" s="3">
+        <v>-8.9512898671493799E-2</v>
+      </c>
+      <c r="M55" s="3">
+        <v>4.6938578485890801E-2</v>
+      </c>
+      <c r="N55" s="4">
+        <v>3.4694469519535999E-18</v>
+      </c>
+      <c r="O55" s="3">
+        <v>1.0002979941655099</v>
+      </c>
+      <c r="P55" s="3">
+        <v>1.0124848625706699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="B56" s="2">
+        <v>50</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3">
+        <v>5</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.50984393954138896</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.18466427955529</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.31766447706782402</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.736288912865666</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.25891872375337199</v>
+      </c>
+      <c r="J56" s="3">
+        <v>-2.5467229061389698E-3</v>
+      </c>
+      <c r="K56" s="3">
+        <v>-3.08737917605925E-2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>-8.0695178528519901E-2</v>
+      </c>
+      <c r="M56" s="3">
+        <v>3.9481212226323203E-3</v>
+      </c>
+      <c r="N56" s="4">
+        <v>2.46519032881566E-32</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0.99992288073045799</v>
+      </c>
+      <c r="P56" s="3">
+        <v>1.01239089670405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="B57" s="2">
+        <v>50</v>
+      </c>
+      <c r="C57" s="3">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.40894577162732099</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.19833710906593599</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.39836037837757898</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0.75796314059098102</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0.32690384388018501</v>
+      </c>
+      <c r="J57" s="3">
+        <v>-7.8475648837057505E-3</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3.1807442550008898E-2</v>
+      </c>
+      <c r="L57" s="3">
+        <v>-3.9786649079911397E-2</v>
+      </c>
+      <c r="M57" s="3">
+        <v>-3.3117341036538302E-2</v>
+      </c>
+      <c r="N57" s="4">
+        <v>-6.9388939039071999E-18</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1.0000771599167799</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1.01239912768028</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="B59" s="2">
+        <v>30</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.55525340834682202</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.25072649612808301</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.42146328341777201</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.69705458232856299</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.21382251125436</v>
+      </c>
+      <c r="J59" s="3">
+        <v>-1.1342306627349299E-2</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.116297511562336</v>
+      </c>
+      <c r="L59" s="3">
+        <v>-7.4751235699185598E-2</v>
+      </c>
+      <c r="M59" s="3">
+        <v>-3.8719644458920399E-2</v>
+      </c>
+      <c r="N59" s="4">
+        <v>1.90819582357449E-17</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1.0007100089721099</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1.0115559739764299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="B60" s="2">
+        <v>30</v>
+      </c>
+      <c r="C60" s="3">
+        <v>10</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.403469894611233</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.34067390610835002</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.494415653732104</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0.74049996913621996</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0.111603553559395</v>
+      </c>
+      <c r="J60" s="3">
+        <v>-1.1434502311775299E-2</v>
+      </c>
+      <c r="K60" s="3">
+        <v>5.5425261050006301E-2</v>
+      </c>
+      <c r="L60" s="3">
+        <v>-4.2147924235263902E-2</v>
+      </c>
+      <c r="M60" s="3">
+        <v>-5.4623794834477497E-2</v>
+      </c>
+      <c r="N60" s="4">
+        <v>5.2041704279304498E-18</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1.0005438480943301</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1.0151028484768201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="B61" s="2">
+        <v>50</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.43865596224067299</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.16796366819717001</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.24621728148018901</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0.706499340378687</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0.111837638960264</v>
+      </c>
+      <c r="J61" s="3">
+        <v>-4.90987537620554E-3</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1.5219562184997201E-2</v>
+      </c>
+      <c r="L61" s="3">
+        <v>-4.6614493643730603E-2</v>
+      </c>
+      <c r="M61" s="3">
+        <v>9.3380216576143E-3</v>
+      </c>
+      <c r="N61" s="4">
+        <v>-3.20923843055709E-17</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0.99987886738668297</v>
+      </c>
+      <c r="P61" s="3">
+        <v>1.01645604247888</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="B62" s="2">
+        <v>50</v>
+      </c>
+      <c r="C62" s="3">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.41596885169911901</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.22696366831627501</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.33899772896367802</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0.75164204110815303</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0.161068767938878</v>
+      </c>
+      <c r="J62" s="3">
+        <v>-2.3302047293005499E-3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>5.6786607149999599E-2</v>
+      </c>
+      <c r="L62" s="3">
+        <v>-4.6195366520755697E-2</v>
+      </c>
+      <c r="M62" s="3">
+        <v>2.4652607750579002E-2</v>
+      </c>
+      <c r="N62" s="4">
+        <v>3.46944695195361E-18</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1.0000246278270699</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1.0144524459523301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="B64" s="2">
+        <v>30</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0.60504885881867798</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.22118442159277801</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.30909658956480102</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0.72661409504561103</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0.15226418886696599</v>
+      </c>
+      <c r="J64" s="3">
+        <v>-7.3053961433428702E-3</v>
+      </c>
+      <c r="K64" s="3">
+        <v>3.9209275478173503E-2</v>
+      </c>
+      <c r="L64" s="3">
+        <v>-5.4124528715257199E-2</v>
+      </c>
+      <c r="M64" s="3">
+        <v>1.5441798218096801E-2</v>
+      </c>
+      <c r="N64" s="4">
+        <v>-2.4286128663675299E-17</v>
+      </c>
+      <c r="O64" s="3">
+        <v>1.0002782064983999</v>
+      </c>
+      <c r="P64" s="3">
+        <v>1.0100224676370499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="B65" s="2">
+        <v>30</v>
+      </c>
+      <c r="C65" s="3">
+        <v>10</v>
+      </c>
+      <c r="D65" s="3">
+        <v>5</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.42114052049860101</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.32218709176323901</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.34153165503835903</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0.75628699901030505</v>
+      </c>
+      <c r="I65" s="3">
+        <v>7.1266479008160702E-2</v>
+      </c>
+      <c r="J65" s="3">
+        <v>-3.2928231878878002E-3</v>
+      </c>
+      <c r="K65" s="3">
+        <v>-3.4745309434705499E-3</v>
+      </c>
+      <c r="L65" s="3">
+        <v>-2.3390819208982599E-2</v>
+      </c>
+      <c r="M65" s="3">
+        <v>-1.6052215156572999E-2</v>
+      </c>
+      <c r="N65" s="4">
+        <v>3.1225022567582503E-17</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0.99997800715785701</v>
+      </c>
+      <c r="P65" s="3">
+        <v>1.00954451864981</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="B66" s="2">
+        <v>50</v>
+      </c>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.49852389674382402</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.178374989562683</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.138069754915465</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0.68229067646825303</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0.105980594955247</v>
+      </c>
+      <c r="J66" s="3">
+        <v>-5.9674791266574496E-3</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2.3327479526975101E-2</v>
+      </c>
+      <c r="L66" s="3">
+        <v>-1.7289143238357001E-2</v>
+      </c>
+      <c r="M66" s="3">
+        <v>-4.6155413819338499E-2</v>
+      </c>
+      <c r="N66" s="4">
+        <v>-8.6736173798840293E-18</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0.99971499078775194</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1.0100889158464199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="B67" s="2">
+        <v>50</v>
+      </c>
+      <c r="C67" s="3">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3">
+        <v>5</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.40216414631085501</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0.16020991900847201</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.34207120611604902</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0.74026782631875399</v>
+      </c>
+      <c r="I67" s="3">
+        <v>7.3318210811735604E-2</v>
+      </c>
+      <c r="J67" s="3">
+        <v>-8.2012482039024101E-3</v>
+      </c>
+      <c r="K67" s="3">
+        <v>4.80410343276651E-2</v>
+      </c>
+      <c r="L67" s="3">
+        <v>-4.2345746454319197E-2</v>
+      </c>
+      <c r="M67" s="3">
+        <v>-3.00397381866883E-2</v>
+      </c>
+      <c r="N67" s="4">
+        <v>2.46519032881566E-32</v>
+      </c>
+      <c r="O67" s="3">
+        <v>1.00021030915229</v>
+      </c>
+      <c r="P67" s="3">
+        <v>1.02178827593324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="B68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="B69" s="2">
+        <v>30</v>
+      </c>
+      <c r="C69" s="3">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3">
+        <v>5</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0.51291229767850599</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.20523799121875</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.28541300524566199</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0.71896645489092303</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.16788194571512699</v>
+      </c>
+      <c r="J69" s="3">
+        <v>9.2155530114730305E-3</v>
+      </c>
+      <c r="K69" s="3">
+        <v>-6.2254476216530297E-2</v>
+      </c>
+      <c r="L69" s="3">
+        <v>-6.7255956740038994E-2</v>
+      </c>
+      <c r="M69" s="3">
+        <v>4.1431003365126902E-2</v>
+      </c>
+      <c r="N69" s="4">
+        <v>3.4694469519536204E-18</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0.99981993582420603</v>
+      </c>
+      <c r="P69" s="3">
+        <v>1.0084649432486901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="B70" s="2">
+        <v>30</v>
+      </c>
+      <c r="C70" s="3">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3">
+        <v>5</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.48290250320913602</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.307922195374145</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.41604260962302497</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0.73894610400849803</v>
+      </c>
+      <c r="I70" s="3">
+        <v>9.9703008754323794E-2</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1.30392095740483E-2</v>
+      </c>
+      <c r="K70" s="3">
+        <v>-5.5248327860001702E-2</v>
+      </c>
+      <c r="L70" s="3">
+        <v>-8.1458078619176699E-2</v>
+      </c>
+      <c r="M70" s="3">
+        <v>-2.98045051150421E-3</v>
+      </c>
+      <c r="N70" s="4">
+        <v>-3.4694469519536099E-17</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0.99972418367253202</v>
+      </c>
+      <c r="P70" s="3">
+        <v>1.01078328434384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="B71" s="2">
+        <v>50</v>
+      </c>
+      <c r="C71" s="3">
+        <v>5</v>
+      </c>
+      <c r="D71" s="3">
+        <v>5</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.54760593685454295</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.20805648906220101</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0.41502972473292499</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0.70227902277224197</v>
+      </c>
+      <c r="I71" s="3">
+        <v>9.4834230732430205E-2</v>
+      </c>
+      <c r="J71" s="3">
+        <v>-5.0360124162060699E-3</v>
+      </c>
+      <c r="K71" s="3">
+        <v>5.6894503158982403E-2</v>
+      </c>
+      <c r="L71" s="3">
+        <v>-0.10086519072323701</v>
+      </c>
+      <c r="M71" s="3">
+        <v>-5.1583457336999899E-2</v>
+      </c>
+      <c r="N71" s="4">
+        <v>-2.7755575615628901E-17</v>
+      </c>
+      <c r="O71" s="3">
+        <v>1.00016061036835</v>
+      </c>
+      <c r="P71" s="3">
+        <v>1.0106066677341401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="B72" s="2">
+        <v>50</v>
+      </c>
+      <c r="C72" s="3">
+        <v>10</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.39249273357094699</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.23464179424266801</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.29878608218223102</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0.74091343254838105</v>
+      </c>
+      <c r="I72" s="3">
+        <v>4.33863201895444E-2</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1.20544666383181E-3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-3.5636790556983502E-3</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-4.7662212444850201E-2</v>
+      </c>
+      <c r="M72" s="3">
+        <v>2.6145525301615E-2</v>
+      </c>
+      <c r="N72" s="4">
+        <v>8.6736173798842493E-19</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0.99997194082057395</v>
+      </c>
+      <c r="P72" s="3">
+        <v>1.0173870923844901</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="B74" s="2">
+        <v>30</v>
+      </c>
+      <c r="C74" s="3">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3">
+        <v>5</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.68524185963741202</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.22297682732810101</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.28928978608324402</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0.71324010502966095</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0.112928172291833</v>
+      </c>
+      <c r="J74" s="3">
+        <v>2.7087107056338999E-3</v>
+      </c>
+      <c r="K74" s="3">
+        <v>-4.7166843038375797E-3</v>
+      </c>
+      <c r="L74" s="3">
+        <v>-1.12072272844833E-2</v>
+      </c>
+      <c r="M74" s="3">
+        <v>3.07136263825974E-3</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1.90819582357449E-17</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0.99986950528391605</v>
+      </c>
+      <c r="P74" s="3">
+        <v>1.00747093053032</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="B75" s="2">
+        <v>30</v>
+      </c>
+      <c r="C75" s="3">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3">
+        <v>5</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.364525313739751</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.151327870379737</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.33123295121794699</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0.69632253575640901</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0.13790714740239801</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1.13061137630173E-2</v>
+      </c>
+      <c r="K75" s="3">
+        <v>-5.0476620662729E-3</v>
+      </c>
+      <c r="L75" s="3">
+        <v>-5.3802538422096598E-2</v>
+      </c>
+      <c r="M75" s="3">
+        <v>-1.5459224024945201E-3</v>
+      </c>
+      <c r="N75" s="4">
+        <v>2.46519032881566E-32</v>
+      </c>
+      <c r="O75" s="3">
+        <v>1.00032350002542</v>
+      </c>
+      <c r="P75" s="3">
+        <v>1.01138342880456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="B76" s="2">
+        <v>50</v>
+      </c>
+      <c r="C76" s="3">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>5</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0.53089541320833999</v>
+      </c>
+      <c r="F76" s="3">
+        <v>8.4286698733173904E-2</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.16700497646309001</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0.71797767030025705</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0.102706112300794</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4.4091559970813902E-3</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-1.8922837446389101E-2</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-1.7388232991225199E-2</v>
+      </c>
+      <c r="M76" s="3">
+        <v>5.9171405658375899E-3</v>
+      </c>
+      <c r="N76" s="4">
+        <v>-1.0408340855860799E-17</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0.99965791037205898</v>
+      </c>
+      <c r="P76" s="3">
+        <v>1.00916353820991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="B77" s="2">
+        <v>50</v>
+      </c>
+      <c r="C77" s="3">
+        <v>10</v>
+      </c>
+      <c r="D77" s="3">
+        <v>5</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.41803337456592099</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.206019889931494</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.32068696587354401</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0.72903429877651305</v>
+      </c>
+      <c r="I77" s="3">
+        <v>8.4631067666876295E-2</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1.2311358923630599E-3</v>
+      </c>
+      <c r="K77" s="3">
+        <v>2.1991272625657001E-2</v>
+      </c>
+      <c r="L77" s="3">
+        <v>-6.0554695836177397E-2</v>
+      </c>
+      <c r="M77" s="3">
+        <v>2.8487340467979899E-3</v>
+      </c>
+      <c r="N77" s="4">
+        <v>8.6736173798840293E-18</v>
+      </c>
+      <c r="O77" s="3">
+        <v>1.0001761004259799</v>
+      </c>
+      <c r="P77" s="3">
+        <v>1.01144355441061</v>
       </c>
     </row>
   </sheetData>
@@ -981,10 +3853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59088491-4DA9-9046-B8F1-E0B2E1149923}">
-  <dimension ref="A2:N6"/>
+  <dimension ref="A2:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -994,43 +3866,43 @@
         <v>44434</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1195,6 +4067,175 @@
       </c>
       <c r="N6" s="3">
         <v>1.0049778779821099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="2">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.360688094612236</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.72719316125116396</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.26119712518842803</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.60196504262037298</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7.1572606917949699E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-0.23813940895489499</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-7.3650023915921306E-2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-2.7755575615628901E-17</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.0058917939021501</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.0117218724763699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.265693179544505</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.510340162111245</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.27506553398176298</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.38401207695384199</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9.7598895953656103E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-0.11840034774565</v>
+      </c>
+      <c r="K9" s="3">
+        <v>9.1266818820219406E-2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1.38777878078145E-17</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.0027250536703201</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.00823836419538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="2">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.37150457652702501</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.55965519780565698</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.21729456927575</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.33002931677068997</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-2.4195734085919E-4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4.1903937581920798E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>6.0859880045568797E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1.8214596497756499E-17</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1.0032771273316099</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.00739082553818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="2">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.23446241496154099</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.41185103643504001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.26850784500741298</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.33677603972580999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-9.5857870974751704E-3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-9.1695091786584304E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-3.2188248486839703E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>-4.5536491244391202E-18</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.0028306650724801</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.0083342527243599</v>
       </c>
     </row>
   </sheetData>

--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64138B7-0BC4-E840-9722-88B842020173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D90E443-45EC-F746-BF19-0A987F545D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="2200" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
@@ -22,12 +22,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="69">
   <si>
     <t>j</t>
   </si>
@@ -364,13 +371,17 @@
     <t>AVG</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>WBIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -491,14 +502,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B5D9D-DC95-E543-B24D-F58D47733086}">
-  <dimension ref="A1:Z87"/>
+  <dimension ref="A1:Z89"/>
   <sheetViews>
     <sheetView topLeftCell="N64" workbookViewId="0">
-      <selection activeCell="W90" sqref="W90"/>
+      <selection activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4501,6 +4512,31 @@
       <c r="O87" s="3">
         <v>1.00282905280934</v>
       </c>
+      <c r="S87" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26">
+      <c r="T88" t="s">
+        <v>55</v>
+      </c>
+      <c r="U88" t="s">
+        <v>56</v>
+      </c>
+      <c r="V88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26">
+      <c r="T89">
+        <v>1825.6479999999999</v>
+      </c>
+      <c r="U89">
+        <v>1916.0350000000001</v>
+      </c>
+      <c r="V89">
+        <v>2016.664</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4510,15 +4546,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59088491-4DA9-9046-B8F1-E0B2E1149923}">
-  <dimension ref="A2:AC71"/>
+  <dimension ref="A2:AH71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P18" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71:L71"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:34">
       <c r="A2" s="1">
         <v>44434</v>
       </c>
@@ -4570,8 +4606,11 @@
       <c r="AB2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="B3" s="2">
         <v>30</v>
       </c>
@@ -4618,8 +4657,17 @@
       <c r="U3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AF3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="B4" s="2">
         <v>30</v>
       </c>
@@ -4680,8 +4728,17 @@
       <c r="AC4" s="3">
         <v>2961.46126411149</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AF4">
+        <v>1808.674</v>
+      </c>
+      <c r="AG4">
+        <v>1807.423</v>
+      </c>
+      <c r="AH4">
+        <v>1806.655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="B5" s="2">
         <v>50</v>
       </c>
@@ -4743,7 +4800,7 @@
         <v>1.0834169105495399</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:34">
       <c r="B6" s="2">
         <v>50</v>
       </c>
@@ -4805,7 +4862,7 @@
         <v>1.01066101044891</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:34">
       <c r="A7" s="1">
         <v>44438</v>
       </c>
@@ -4831,7 +4888,7 @@
         <v>0.17909053760031199</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:34">
       <c r="B8" s="2">
         <v>30</v>
       </c>
@@ -4892,8 +4949,11 @@
       <c r="AC8" s="3">
         <v>4.4296728478314404E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AE8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="B9" s="2">
         <v>30</v>
       </c>
@@ -4933,8 +4993,17 @@
       <c r="N9" s="3">
         <v>1.00823836419538</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AF9">
+        <v>1690.7729999999999</v>
+      </c>
+      <c r="AG9">
+        <v>1690.0909999999999</v>
+      </c>
+      <c r="AH9">
+        <v>1696.864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="B10" s="2">
         <v>50</v>
       </c>
@@ -4975,7 +5044,7 @@
         <v>1.00739082553818</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:34">
       <c r="B11" s="2">
         <v>50</v>
       </c>
@@ -5019,7 +5088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -5032,8 +5101,11 @@
       <c r="AB12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AE12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="B13" s="2">
         <v>30</v>
       </c>
@@ -5091,8 +5163,17 @@
       <c r="AC13" s="3">
         <v>3030.3845716249698</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AF13">
+        <v>1940.703</v>
+      </c>
+      <c r="AG13">
+        <v>2048.4279999999999</v>
+      </c>
+      <c r="AH13">
+        <v>2192.1260000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="B14" s="2">
         <v>30</v>
       </c>
@@ -5151,7 +5232,7 @@
         <v>1.10111640820083</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:34">
       <c r="B15" s="2">
         <v>50</v>
       </c>
@@ -5210,7 +5291,7 @@
         <v>1.03389281850285</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:34">
       <c r="B16" s="2">
         <v>50</v>
       </c>
@@ -5268,8 +5349,11 @@
       <c r="AC16" s="3">
         <v>0.171016400394297</v>
       </c>
-    </row>
-    <row r="17" spans="2:29">
+      <c r="AE16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34">
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
@@ -5330,8 +5414,17 @@
       <c r="AC17" s="3">
         <v>6.0774106902788498E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:29">
+      <c r="AF17">
+        <v>1799.617</v>
+      </c>
+      <c r="AG17">
+        <v>1804.586</v>
+      </c>
+      <c r="AH17">
+        <v>1803.356</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34">
       <c r="B18" s="2">
         <v>30</v>
       </c>
@@ -5375,7 +5468,7 @@
         <v>1.0083607277464199</v>
       </c>
     </row>
-    <row r="19" spans="2:29">
+    <row r="19" spans="2:34">
       <c r="B19" s="2">
         <v>30</v>
       </c>
@@ -5422,7 +5515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:34">
       <c r="B20" s="2">
         <v>30</v>
       </c>
@@ -5475,7 +5568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:34">
       <c r="B21" s="2">
         <v>30</v>
       </c>
@@ -5537,7 +5630,7 @@
         <v>3132.4742792585398</v>
       </c>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:34">
       <c r="B22" s="2">
         <v>60</v>
       </c>
@@ -5599,7 +5692,7 @@
         <v>1.0265946731503699</v>
       </c>
     </row>
-    <row r="23" spans="2:29">
+    <row r="23" spans="2:34">
       <c r="B23" s="2">
         <v>60</v>
       </c>
@@ -5661,7 +5754,7 @@
         <v>1.00208778897742</v>
       </c>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:34">
       <c r="B24" s="2">
         <v>60</v>
       </c>
@@ -5723,7 +5816,7 @@
         <v>0.21349011721733299</v>
       </c>
     </row>
-    <row r="25" spans="2:29">
+    <row r="25" spans="2:34">
       <c r="B25" s="2">
         <v>60</v>
       </c>
@@ -5785,7 +5878,7 @@
         <v>8.1121642001923001E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:34">
       <c r="B27" s="2">
         <v>30</v>
       </c>
@@ -5832,7 +5925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:34">
       <c r="B28" s="2">
         <v>30</v>
       </c>
@@ -5885,7 +5978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="2:34">
       <c r="B29" s="2">
         <v>30</v>
       </c>
@@ -5947,7 +6040,7 @@
         <v>2969.49965433017</v>
       </c>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:34">
       <c r="B30" s="2">
         <v>30</v>
       </c>
@@ -6009,7 +6102,7 @@
         <v>1.04101572786507</v>
       </c>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="2:34">
       <c r="B31" s="2">
         <v>60</v>
       </c>
@@ -6071,7 +6164,7 @@
         <v>1.0068266876682599</v>
       </c>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="2:34">
       <c r="B32" s="2">
         <v>60</v>
       </c>
@@ -6239,6 +6332,11 @@
         <v>1.0123404127655999</v>
       </c>
     </row>
+    <row r="35" spans="1:29">
+      <c r="S35" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="36" spans="1:29">
       <c r="B36" s="2">
         <v>60</v>
@@ -6282,6 +6380,15 @@
       <c r="O36" s="3">
         <v>1.0127326837970601</v>
       </c>
+      <c r="T36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" t="s">
+        <v>56</v>
+      </c>
+      <c r="V36" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="37" spans="1:29">
       <c r="B37" s="2">
@@ -6325,6 +6432,15 @@
       </c>
       <c r="O37" s="3">
         <v>1.00936275079646</v>
+      </c>
+      <c r="T37">
+        <v>1809.0409999999999</v>
+      </c>
+      <c r="U37">
+        <v>1810.8409999999999</v>
+      </c>
+      <c r="V37">
+        <v>1808.2080000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -7176,25 +7292,25 @@
       <c r="D59" s="3">
         <v>3</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <v>0.23800672984063001</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="13">
         <v>0.26658956733554401</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="13">
         <v>0.202534968164791</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>0.40172446397113198</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="13">
         <v>2.2249971691260501E-2</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="13">
         <v>1.9212921896682E-2</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="13">
         <v>6.4945288466180806E-2</v>
       </c>
       <c r="L59" s="4">
@@ -7217,25 +7333,25 @@
       <c r="D60" s="3">
         <v>5</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="13">
         <v>0.30098717066667602</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="13">
         <v>0.23591821946795599</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="13">
         <v>0.30532985092319198</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <v>0.38313889710980398</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="13">
         <v>-1.47933096233407E-2</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="13">
         <v>-9.3203704860725996E-4</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="13">
         <v>-2.8470722081945801E-2</v>
       </c>
       <c r="L60" s="4">
@@ -7258,25 +7374,25 @@
       <c r="D61" s="3">
         <v>10</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="13">
         <v>0.316954228058065</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="13">
         <v>0.36308390921476102</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="13">
         <v>0.361905831795092</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <v>0.405076858456208</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="13">
         <v>7.8210308773227002E-3</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="13">
         <v>3.5713384171738201E-2</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="13">
         <v>-1.5092220406270101E-2</v>
       </c>
       <c r="L61" s="4">
@@ -7299,25 +7415,25 @@
       <c r="D62" s="3">
         <v>3</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="13">
         <v>0.25208619001500399</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="13">
         <v>0.29693966591026799</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="13">
         <v>0.248799595254839</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="13">
         <v>0.37126525430884899</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="13">
         <v>3.2227363033082601E-2</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="13">
         <v>1.1151831734871E-2</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K62" s="13">
         <v>6.2030437405142302E-2</v>
       </c>
       <c r="L62" s="4">
@@ -7340,25 +7456,25 @@
       <c r="D63" s="3">
         <v>5</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="13">
         <v>0.245048514592725</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="13">
         <v>0.231443016677399</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="13">
         <v>0.189467308444665</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <v>0.34325067148764299</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="13">
         <v>2.7734498326832599E-2</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="13">
         <v>8.3967468224183696E-3</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="13">
         <v>5.1395491470773201E-3</v>
       </c>
       <c r="L63" s="4">
@@ -7381,25 +7497,25 @@
       <c r="D64" s="3">
         <v>10</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="13">
         <v>0.24107637671138199</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="13">
         <v>0.26079945941773802</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="13">
         <v>0.33017422465428797</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>0.39372227366012202</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="13">
         <v>1.74103751971416E-2</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="13">
         <v>1.9662861483485301E-2</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K64" s="13">
         <v>2.6157470459204302E-2</v>
       </c>
       <c r="L64" s="4">
@@ -7422,25 +7538,25 @@
       <c r="D65" s="3">
         <v>3</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="13">
         <v>0.25925392519921497</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="13">
         <v>0.188977138832471</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="13">
         <v>0.12533150975832499</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>0.280303404821173</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="13">
         <v>-1.9149448380611899E-2</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="13">
         <v>1.04692381229484E-4</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="13">
         <v>-8.5201551873198902E-3</v>
       </c>
       <c r="L65" s="4">
@@ -7463,25 +7579,25 @@
       <c r="D66" s="3">
         <v>5</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="13">
         <v>0.27257523961109698</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="13">
         <v>0.19245959791022901</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="13">
         <v>0.13325375708943901</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <v>0.26820918926683801</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I66" s="13">
         <v>1.00631636524599E-2</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="13">
         <v>-3.4370073235118499E-3</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K66" s="13">
         <v>3.7664612752103701E-3</v>
       </c>
       <c r="L66" s="4">
@@ -7504,25 +7620,25 @@
       <c r="D67" s="3">
         <v>10</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="13">
         <v>0.26464046943210001</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="13">
         <v>0.17815895870541401</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="13">
         <v>0.185486776255474</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <v>0.29821944290921398</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="13">
         <v>-2.35891144827199E-2</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="13">
         <v>2.1907368710976101E-2</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="13">
         <v>-2.9559108102827199E-2</v>
       </c>
       <c r="L67" s="4">
@@ -7545,25 +7661,25 @@
       <c r="D68" s="3">
         <v>3</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="13">
         <v>0.23196637434600501</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="13">
         <v>0.22192446731632201</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="13">
         <v>0.19534481293780101</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="13">
         <v>0.30360859202741097</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="13">
         <v>1.92547959750664E-3</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="13">
         <v>1.6128221571730699E-2</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="13">
         <v>-1.29134701634532E-3</v>
       </c>
       <c r="L68" s="4">
@@ -7586,25 +7702,25 @@
       <c r="D69" s="3">
         <v>5</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="13">
         <v>0.23102704020703599</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="13">
         <v>0.20162169987282999</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="13">
         <v>0.17506193742655399</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="13">
         <v>0.30685892280523103</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I69" s="13">
         <v>2.7002792090656001E-2</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="13">
         <v>8.9805322787849494E-3</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K69" s="13">
         <v>5.7046334543498001E-2</v>
       </c>
       <c r="L69" s="4">
@@ -7627,25 +7743,25 @@
       <c r="D70" s="3">
         <v>10</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="13">
         <v>0.237842382241683</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="13">
         <v>0.25176752266607499</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="13">
         <v>0.401418057983498</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="13">
         <v>0.38261091099821198</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="13">
         <v>1.2591765625792299E-2</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="13">
         <v>2.3712468527091E-2</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K70" s="13">
         <v>-5.0894787184215399E-3</v>
       </c>
       <c r="L70" s="4">
@@ -7659,35 +7775,35 @@
       </c>
     </row>
     <row r="71" spans="2:14">
-      <c r="E71" s="15">
+      <c r="E71" s="14">
         <f>AVERAGE(E59:E70)</f>
         <v>0.25762205341013483</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="14">
         <f t="shared" ref="F71:L71" si="2">AVERAGE(F59:F70)</f>
         <v>0.24080693527725061</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="14">
         <f t="shared" si="2"/>
         <v>0.23784238589066317</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="14">
         <f t="shared" si="2"/>
         <v>0.34483240681848643</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="14">
         <f t="shared" si="2"/>
         <v>8.457880633781863E-3</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="14">
         <f t="shared" si="2"/>
         <v>1.3383498767240666E-2</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="14">
         <f t="shared" si="2"/>
         <v>1.0921875815265268E-2</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L71" s="14">
         <f t="shared" si="2"/>
         <v>1.0932371905895486E-18</v>
       </c>
@@ -7857,64 +7973,64 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AM1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13" t="s">
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="15"/>
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="15"/>
       <c r="BM1" s="12"/>
-      <c r="BN1" s="13" t="s">
+      <c r="BN1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15"/>
+      <c r="BS1" s="15"/>
+      <c r="BT1" s="15"/>
+      <c r="BU1" s="15"/>
+      <c r="BV1" s="15"/>
+      <c r="BW1" s="15"/>
+      <c r="BX1" s="15"/>
+      <c r="BY1" s="15"/>
+      <c r="BZ1" s="15"/>
+      <c r="CA1" s="15"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
     </row>
     <row r="2" spans="1:87">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8093,7 +8209,7 @@
       <c r="CI2" s="2"/>
     </row>
     <row r="3" spans="1:87">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -8244,7 +8360,7 @@
       </c>
     </row>
     <row r="4" spans="1:87">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
@@ -8363,67 +8479,67 @@
         <v>1</v>
       </c>
       <c r="AQ4" s="3"/>
-      <c r="AR4" s="14">
+      <c r="AR4" s="13">
         <v>0.24864279435377301</v>
       </c>
-      <c r="AS4" s="14">
+      <c r="AS4" s="13">
         <v>2.5237627693352999E-2</v>
       </c>
-      <c r="AT4" s="14">
+      <c r="AT4" s="13">
         <v>-4.3252858185084701E-3</v>
       </c>
-      <c r="AU4" s="14">
+      <c r="AU4" s="13">
         <v>2.0741916442613001E-2</v>
       </c>
-      <c r="AV4" s="14">
+      <c r="AV4" s="13">
         <v>0</v>
       </c>
-      <c r="AW4" s="14">
+      <c r="AW4" s="13">
         <v>-1.0058915628304901</v>
       </c>
-      <c r="AX4" s="14">
+      <c r="AX4" s="13">
         <v>0.224351510139392</v>
       </c>
-      <c r="AY4" s="14">
+      <c r="AY4" s="13">
         <v>3.7023697476801999E-3</v>
       </c>
-      <c r="AZ4" s="14">
+      <c r="AZ4" s="13">
         <v>0.77783768294342204</v>
       </c>
-      <c r="BA4" s="14">
+      <c r="BA4" s="13">
         <v>0.24543524864972699</v>
       </c>
-      <c r="BB4" s="14">
+      <c r="BB4" s="13">
         <v>0.243800278469607</v>
       </c>
-      <c r="BC4" s="14">
+      <c r="BC4" s="13">
         <v>1.4697868368913399E-2</v>
       </c>
-      <c r="BD4" s="14">
+      <c r="BD4" s="13">
         <v>5.7948957424350201E-4</v>
       </c>
-      <c r="BE4" s="14">
+      <c r="BE4" s="13">
         <v>-1.9500888728453201E-3</v>
       </c>
-      <c r="BF4" s="14">
+      <c r="BF4" s="13">
         <v>1.25881182187337E-2</v>
       </c>
-      <c r="BG4" s="14">
+      <c r="BG4" s="13">
         <v>1.8533838065975399E-2</v>
       </c>
-      <c r="BH4" s="14">
+      <c r="BH4" s="13">
         <v>0</v>
       </c>
-      <c r="BI4" s="14">
+      <c r="BI4" s="13">
         <v>-1.00822574575712</v>
       </c>
-      <c r="BJ4" s="14">
+      <c r="BJ4" s="13">
         <v>0.22928825656796101</v>
       </c>
-      <c r="BK4" s="14">
+      <c r="BK4" s="13">
         <v>9.2294009395044608E-3</v>
       </c>
-      <c r="BL4" s="14">
+      <c r="BL4" s="13">
         <v>0.76970808824965398</v>
       </c>
       <c r="BM4" s="3"/>
@@ -8436,59 +8552,59 @@
         <v>1</v>
       </c>
       <c r="BR4" s="3"/>
-      <c r="BS4" s="14">
+      <c r="BS4" s="13">
         <v>0.24853570769355299</v>
       </c>
-      <c r="BT4" s="14">
+      <c r="BT4" s="13">
         <v>3.7235941617589897E-2</v>
       </c>
-      <c r="BU4" s="14">
+      <c r="BU4" s="13">
         <v>3.4823191085082403E-2</v>
       </c>
-      <c r="BV4" s="14">
+      <c r="BV4" s="13">
         <v>3.2849384305065003E-2</v>
       </c>
-      <c r="BW4" s="14">
+      <c r="BW4" s="13">
         <v>2.6853007146152099E-2</v>
       </c>
-      <c r="BX4" s="14">
+      <c r="BX4" s="13">
         <v>2.4020701768599498E-2</v>
       </c>
-      <c r="BY4" s="14">
+      <c r="BY4" s="13">
         <v>2.7503170705294799E-2</v>
       </c>
-      <c r="BZ4" s="14">
+      <c r="BZ4" s="13">
         <v>3.2152802787144899E-2</v>
       </c>
-      <c r="CA4" s="14">
+      <c r="CA4" s="13">
         <v>3.8094309783083098E-2</v>
       </c>
-      <c r="CB4" s="14">
+      <c r="CB4" s="13">
         <v>4.1885986261630502E-2</v>
       </c>
-      <c r="CC4" s="14">
+      <c r="CC4" s="13">
         <v>4.09259954595734E-2</v>
       </c>
-      <c r="CE4" s="14">
+      <c r="CE4" s="13">
         <v>0</v>
       </c>
-      <c r="CF4" s="14">
+      <c r="CF4" s="13">
         <v>-0.99462129177423797</v>
       </c>
-      <c r="CG4" s="14">
+      <c r="CG4" s="13">
         <v>0.21309498634794499</v>
       </c>
-      <c r="CH4" s="14">
+      <c r="CH4" s="13">
         <v>5.3893406281265103E-3</v>
       </c>
-      <c r="CI4" s="14">
+      <c r="CI4" s="13">
         <v>0.77613696479816696</v>
       </c>
     </row>
     <row r="5" spans="1:87">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="AL5">
-        <f>AL4+1</f>
+        <f t="shared" ref="AL5:AL37" si="1">AL4+1</f>
         <v>2</v>
       </c>
       <c r="AM5" s="3">
@@ -8501,67 +8617,67 @@
         <v>2</v>
       </c>
       <c r="AQ5" s="3"/>
-      <c r="AR5" s="14">
+      <c r="AR5" s="13">
         <v>1.33263104451527</v>
       </c>
-      <c r="AS5" s="14">
+      <c r="AS5" s="13">
         <v>0.197557211787801</v>
       </c>
-      <c r="AT5" s="14">
+      <c r="AT5" s="13">
         <v>0.18128743060986699</v>
       </c>
-      <c r="AU5" s="14">
+      <c r="AU5" s="13">
         <v>0.123462379607043</v>
       </c>
-      <c r="AV5" s="14">
+      <c r="AV5" s="13">
         <v>0</v>
       </c>
-      <c r="AW5" s="14">
+      <c r="AW5" s="13">
         <v>1.78963841618557E-2</v>
       </c>
-      <c r="AX5" s="14">
+      <c r="AX5" s="13">
         <v>-0.63418653472846997</v>
       </c>
-      <c r="AY5" s="14">
+      <c r="AY5" s="13">
         <v>-0.18907647395442001</v>
       </c>
-      <c r="AZ5" s="14">
+      <c r="AZ5" s="13">
         <v>0.80536662452103402</v>
       </c>
-      <c r="BA5" s="14">
+      <c r="BA5" s="13">
         <v>0.16130991221582999</v>
       </c>
-      <c r="BB5" s="14">
+      <c r="BB5" s="13">
         <v>1.3087025925895699</v>
       </c>
-      <c r="BC5" s="14">
+      <c r="BC5" s="13">
         <v>0.20594674218408801</v>
       </c>
-      <c r="BD5" s="14">
+      <c r="BD5" s="13">
         <v>0.18343394707692101</v>
       </c>
-      <c r="BE5" s="14">
+      <c r="BE5" s="13">
         <v>0.172802682905043</v>
       </c>
-      <c r="BF5" s="14">
+      <c r="BF5" s="13">
         <v>0.147581084859533</v>
       </c>
-      <c r="BG5" s="14">
+      <c r="BG5" s="13">
         <v>0.13334933902858201</v>
       </c>
-      <c r="BH5" s="14">
+      <c r="BH5" s="13">
         <v>0</v>
       </c>
-      <c r="BI5" s="14">
+      <c r="BI5" s="13">
         <v>1.45286633761793E-2</v>
       </c>
-      <c r="BJ5" s="14">
+      <c r="BJ5" s="13">
         <v>-0.64857486500472905</v>
       </c>
-      <c r="BK5" s="14">
+      <c r="BK5" s="13">
         <v>-0.20089320300032901</v>
       </c>
-      <c r="BL5" s="14">
+      <c r="BL5" s="13">
         <v>0.83493940462887795</v>
       </c>
       <c r="BM5" s="3"/>
@@ -8575,57 +8691,57 @@
         <v>2</v>
       </c>
       <c r="BR5" s="3"/>
-      <c r="BS5" s="14">
+      <c r="BS5" s="13">
         <v>1.3026856251093599</v>
       </c>
-      <c r="BT5" s="14">
+      <c r="BT5" s="13">
         <v>0.211426026609636</v>
       </c>
-      <c r="BU5" s="14">
+      <c r="BU5" s="13">
         <v>0.20829425003117399</v>
       </c>
-      <c r="BV5" s="14">
+      <c r="BV5" s="13">
         <v>0.202464750024685</v>
       </c>
-      <c r="BW5" s="14">
+      <c r="BW5" s="13">
         <v>0.19979301443580899</v>
       </c>
-      <c r="BX5" s="14">
+      <c r="BX5" s="13">
         <v>0.19384350078186299</v>
       </c>
-      <c r="BY5" s="14">
+      <c r="BY5" s="13">
         <v>0.18348055313120201</v>
       </c>
-      <c r="BZ5" s="14">
+      <c r="BZ5" s="13">
         <v>0.17380120260956999</v>
       </c>
-      <c r="CA5" s="14">
+      <c r="CA5" s="13">
         <v>0.15941434530173801</v>
       </c>
-      <c r="CB5" s="14">
+      <c r="CB5" s="13">
         <v>0.15429601283536101</v>
       </c>
-      <c r="CC5" s="14">
+      <c r="CC5" s="13">
         <v>0.15954276730440001</v>
       </c>
-      <c r="CE5" s="14">
+      <c r="CE5" s="13">
         <v>0</v>
       </c>
-      <c r="CF5" s="14">
+      <c r="CF5" s="13">
         <v>2.8709921387496E-2</v>
       </c>
-      <c r="CG5" s="14">
+      <c r="CG5" s="13">
         <v>-0.64803825787909297</v>
       </c>
-      <c r="CH5" s="14">
+      <c r="CH5" s="13">
         <v>-0.20302053516947599</v>
       </c>
-      <c r="CI5" s="14">
+      <c r="CI5" s="13">
         <v>0.82234887166107296</v>
       </c>
     </row>
     <row r="6" spans="1:87">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
@@ -8735,7 +8851,7 @@
         <v>-4.6082420422587998E-2</v>
       </c>
       <c r="AL6">
-        <f>AL5+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AM6" s="3">
@@ -8744,71 +8860,71 @@
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
       <c r="AP6" s="3">
-        <f t="shared" ref="AP6:AP37" si="1">AP5+1</f>
+        <f t="shared" ref="AP6:AP37" si="2">AP5+1</f>
         <v>3</v>
       </c>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="14">
+      <c r="AR6" s="13">
         <v>1.01462018608271</v>
       </c>
-      <c r="AS6" s="14">
+      <c r="AS6" s="13">
         <v>4.0044328781309403E-2</v>
       </c>
-      <c r="AT6" s="14">
+      <c r="AT6" s="13">
         <v>8.01706057600544E-2</v>
       </c>
-      <c r="AU6" s="14">
+      <c r="AU6" s="13">
         <v>0.124535797155148</v>
       </c>
-      <c r="AV6" s="14">
+      <c r="AV6" s="13">
         <v>0</v>
       </c>
-      <c r="AW6" s="14">
+      <c r="AW6" s="13">
         <v>-0.85308453219349201</v>
       </c>
-      <c r="AX6" s="14">
+      <c r="AX6" s="13">
         <v>-0.49383718926745102</v>
       </c>
-      <c r="AY6" s="14">
+      <c r="AY6" s="13">
         <v>0.763069374455149</v>
       </c>
-      <c r="AZ6" s="14">
+      <c r="AZ6" s="13">
         <v>0.58385234700579403</v>
       </c>
-      <c r="BA6" s="14">
+      <c r="BA6" s="13">
         <v>-9.4806899324596499E-3</v>
       </c>
-      <c r="BB6" s="14">
+      <c r="BB6" s="13">
         <v>1.0054109167931899</v>
       </c>
-      <c r="BC6" s="14">
+      <c r="BC6" s="13">
         <v>5.0572790249427103E-2</v>
       </c>
-      <c r="BD6" s="14">
+      <c r="BD6" s="13">
         <v>5.4740352819345202E-2</v>
       </c>
-      <c r="BE6" s="14">
+      <c r="BE6" s="13">
         <v>7.6736145167637507E-2</v>
       </c>
-      <c r="BF6" s="14">
+      <c r="BF6" s="13">
         <v>0.1029377205911</v>
       </c>
-      <c r="BG6" s="14">
+      <c r="BG6" s="13">
         <v>9.67102209662557E-2</v>
       </c>
-      <c r="BH6" s="14">
+      <c r="BH6" s="13">
         <v>0</v>
       </c>
-      <c r="BI6" s="14">
+      <c r="BI6" s="13">
         <v>-0.85109948069514796</v>
       </c>
-      <c r="BJ6" s="14">
+      <c r="BJ6" s="13">
         <v>-0.49072366145924901</v>
       </c>
-      <c r="BK6" s="14">
+      <c r="BK6" s="13">
         <v>0.76986061738744305</v>
       </c>
-      <c r="BL6" s="14">
+      <c r="BL6" s="13">
         <v>0.57196252476695397</v>
       </c>
       <c r="BM6" s="3"/>
@@ -8818,61 +8934,61 @@
       <c r="BO6" s="3"/>
       <c r="BP6" s="3"/>
       <c r="BQ6" s="3">
-        <f t="shared" ref="BQ6:BQ37" si="2">BQ5+1</f>
+        <f t="shared" ref="BQ6:BQ27" si="3">BQ5+1</f>
         <v>3</v>
       </c>
       <c r="BR6" s="3"/>
-      <c r="BS6" s="14">
+      <c r="BS6" s="13">
         <v>0.98806992539444305</v>
       </c>
-      <c r="BT6" s="14">
+      <c r="BT6" s="13">
         <v>6.7531208808159202E-2</v>
       </c>
-      <c r="BU6" s="14">
+      <c r="BU6" s="13">
         <v>7.1591217148684702E-2</v>
       </c>
-      <c r="BV6" s="14">
+      <c r="BV6" s="13">
         <v>7.2033525162791698E-2</v>
       </c>
-      <c r="BW6" s="14">
+      <c r="BW6" s="13">
         <v>8.1460847624815202E-2</v>
       </c>
-      <c r="BX6" s="14">
+      <c r="BX6" s="13">
         <v>8.7631056878735902E-2</v>
       </c>
-      <c r="BY6" s="14">
+      <c r="BY6" s="13">
         <v>9.5883130149720497E-2</v>
       </c>
-      <c r="BZ6" s="14">
+      <c r="BZ6" s="13">
         <v>0.107257874881413</v>
       </c>
-      <c r="CA6" s="14">
+      <c r="CA6" s="13">
         <v>0.11348051010125799</v>
       </c>
-      <c r="CB6" s="14">
+      <c r="CB6" s="13">
         <v>0.112220709719168</v>
       </c>
-      <c r="CC6" s="14">
+      <c r="CC6" s="13">
         <v>0.108805864718584</v>
       </c>
-      <c r="CE6" s="14">
+      <c r="CE6" s="13">
         <v>0</v>
       </c>
-      <c r="CF6" s="14">
+      <c r="CF6" s="13">
         <v>-0.873202224428966</v>
       </c>
-      <c r="CG6" s="14">
+      <c r="CG6" s="13">
         <v>-0.49282747745616001</v>
       </c>
-      <c r="CH6" s="14">
+      <c r="CH6" s="13">
         <v>0.79030400193375105</v>
       </c>
-      <c r="CI6" s="14">
+      <c r="CI6" s="13">
         <v>0.57572569995137501</v>
       </c>
     </row>
     <row r="7" spans="1:87">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>2</v>
@@ -8980,7 +9096,7 @@
         <v>-4.9232542061791999E-2</v>
       </c>
       <c r="AL7">
-        <f>AL6+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AM7" s="3">
@@ -8989,71 +9105,71 @@
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AQ7" s="3"/>
-      <c r="AR7" s="14">
+      <c r="AR7" s="13">
         <v>1.30911936822831</v>
       </c>
-      <c r="AS7" s="14">
+      <c r="AS7" s="13">
         <v>3.7632017845467602E-2</v>
       </c>
-      <c r="AT7" s="14">
+      <c r="AT7" s="13">
         <v>3.9219461192636598E-2</v>
       </c>
-      <c r="AU7" s="14">
+      <c r="AU7" s="13">
         <v>5.5001979954753102E-2</v>
       </c>
-      <c r="AV7" s="14">
+      <c r="AV7" s="13">
         <v>0</v>
       </c>
-      <c r="AW7" s="14">
+      <c r="AW7" s="13">
         <v>-1.3114346978767699</v>
       </c>
-      <c r="AX7" s="14">
+      <c r="AX7" s="13">
         <v>-0.21824448963402801</v>
       </c>
-      <c r="AY7" s="14">
+      <c r="AY7" s="13">
         <v>0.246232624266604</v>
       </c>
-      <c r="AZ7" s="14">
+      <c r="AZ7" s="13">
         <v>1.28344656324419</v>
       </c>
-      <c r="BA7" s="14">
+      <c r="BA7" s="13">
         <v>0.24498568849855801</v>
       </c>
-      <c r="BB7" s="14">
+      <c r="BB7" s="13">
         <v>1.3254828761444399</v>
       </c>
-      <c r="BC7" s="14">
+      <c r="BC7" s="13">
         <v>4.06035858182167E-2</v>
       </c>
-      <c r="BD7" s="14">
+      <c r="BD7" s="13">
         <v>3.0096029185761701E-2</v>
       </c>
-      <c r="BE7" s="14">
+      <c r="BE7" s="13">
         <v>4.5805446668583001E-2</v>
       </c>
-      <c r="BF7" s="14">
+      <c r="BF7" s="13">
         <v>4.9094506845071002E-2</v>
       </c>
-      <c r="BG7" s="14">
+      <c r="BG7" s="13">
         <v>8.1483423707893493E-2</v>
       </c>
-      <c r="BH7" s="14">
+      <c r="BH7" s="13">
         <v>0</v>
       </c>
-      <c r="BI7" s="14">
+      <c r="BI7" s="13">
         <v>-1.30745796765411</v>
       </c>
-      <c r="BJ7" s="14">
+      <c r="BJ7" s="13">
         <v>-0.225792964801725</v>
       </c>
-      <c r="BK7" s="14">
+      <c r="BK7" s="13">
         <v>0.236036394162987</v>
       </c>
-      <c r="BL7" s="14">
+      <c r="BL7" s="13">
         <v>1.2972145382928499</v>
       </c>
       <c r="BM7" s="3"/>
@@ -9063,61 +9179,61 @@
       <c r="BO7" s="3"/>
       <c r="BP7" s="3"/>
       <c r="BQ7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BR7" s="3"/>
-      <c r="BS7" s="14">
+      <c r="BS7" s="13">
         <v>1.3124481148288401</v>
       </c>
-      <c r="BT7" s="14">
+      <c r="BT7" s="13">
         <v>7.2843022450154796E-2</v>
       </c>
-      <c r="BU7" s="14">
+      <c r="BU7" s="13">
         <v>6.5109342473355397E-2</v>
       </c>
-      <c r="BV7" s="14">
+      <c r="BV7" s="13">
         <v>6.6105073600745995E-2</v>
       </c>
-      <c r="BW7" s="14">
+      <c r="BW7" s="13">
         <v>6.4207932134003096E-2</v>
       </c>
-      <c r="BX7" s="14">
+      <c r="BX7" s="13">
         <v>6.7129224007730304E-2</v>
       </c>
-      <c r="BY7" s="14">
+      <c r="BY7" s="13">
         <v>6.8089266834968701E-2</v>
       </c>
-      <c r="BZ7" s="14">
+      <c r="BZ7" s="13">
         <v>7.0379548922367099E-2</v>
       </c>
-      <c r="CA7" s="14">
+      <c r="CA7" s="13">
         <v>7.8581410226482407E-2</v>
       </c>
-      <c r="CB7" s="14">
+      <c r="CB7" s="13">
         <v>8.8299915981035398E-2</v>
       </c>
-      <c r="CC7" s="14">
+      <c r="CC7" s="13">
         <v>9.3717999818995201E-2</v>
       </c>
-      <c r="CE7" s="14">
+      <c r="CE7" s="13">
         <v>0</v>
       </c>
-      <c r="CF7" s="14">
+      <c r="CF7" s="13">
         <v>-1.3077088097643199</v>
       </c>
-      <c r="CG7" s="14">
+      <c r="CG7" s="13">
         <v>-0.22607445142885901</v>
       </c>
-      <c r="CH7" s="14">
+      <c r="CH7" s="13">
         <v>0.237898129791385</v>
       </c>
-      <c r="CI7" s="14">
+      <c r="CI7" s="13">
         <v>1.2958851314018001</v>
       </c>
     </row>
     <row r="8" spans="1:87">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>3</v>
@@ -9225,7 +9341,7 @@
         <v>-1.2115312500399201E-2</v>
       </c>
       <c r="AL8">
-        <f>AL7+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AM8" s="3">
@@ -9234,71 +9350,71 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="14">
+      <c r="AR8" s="13">
         <v>1.0250524030850801</v>
       </c>
-      <c r="AS8" s="14">
+      <c r="AS8" s="13">
         <v>-0.252398596269234</v>
       </c>
-      <c r="AT8" s="14">
+      <c r="AT8" s="13">
         <v>-0.26580428440635401</v>
       </c>
-      <c r="AU8" s="14">
+      <c r="AU8" s="13">
         <v>-0.24317166492532499</v>
       </c>
-      <c r="AV8" s="14">
+      <c r="AV8" s="13">
         <v>0</v>
       </c>
-      <c r="AW8" s="14">
+      <c r="AW8" s="13">
         <v>-1.52696644533367</v>
       </c>
-      <c r="AX8" s="14">
+      <c r="AX8" s="13">
         <v>-0.14878835382393599</v>
       </c>
-      <c r="AY8" s="14">
+      <c r="AY8" s="13">
         <v>0.43435800591132101</v>
       </c>
-      <c r="AZ8" s="14">
+      <c r="AZ8" s="13">
         <v>1.2413967932462899</v>
       </c>
-      <c r="BA8" s="14">
+      <c r="BA8" s="13">
         <v>-0.214936974245585</v>
       </c>
-      <c r="BB8" s="14">
+      <c r="BB8" s="13">
         <v>1.0290185630372899</v>
       </c>
-      <c r="BC8" s="14">
+      <c r="BC8" s="13">
         <v>-0.25089736782062799</v>
       </c>
-      <c r="BD8" s="14">
+      <c r="BD8" s="13">
         <v>-0.24983086122113299</v>
       </c>
-      <c r="BE8" s="14">
+      <c r="BE8" s="13">
         <v>-0.246748355594406</v>
       </c>
-      <c r="BF8" s="14">
+      <c r="BF8" s="13">
         <v>-0.23887003528181899</v>
       </c>
-      <c r="BG8" s="14">
+      <c r="BG8" s="13">
         <v>-0.23308506727418801</v>
       </c>
-      <c r="BH8" s="14">
+      <c r="BH8" s="13">
         <v>0</v>
       </c>
-      <c r="BI8" s="14">
+      <c r="BI8" s="13">
         <v>-1.4876124053447799</v>
       </c>
-      <c r="BJ8" s="14">
+      <c r="BJ8" s="13">
         <v>-0.16955069068211401</v>
       </c>
-      <c r="BK8" s="14">
+      <c r="BK8" s="13">
         <v>0.42004966165610202</v>
       </c>
-      <c r="BL8" s="14">
+      <c r="BL8" s="13">
         <v>1.2371134343707899</v>
       </c>
       <c r="BM8" s="3"/>
@@ -9308,63 +9424,63 @@
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
       <c r="BQ8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BR8" s="3"/>
-      <c r="BS8" s="14">
+      <c r="BS8" s="13">
         <v>1.0325302909049501</v>
       </c>
-      <c r="BT8" s="14">
+      <c r="BT8" s="13">
         <v>-0.23892897331167701</v>
       </c>
-      <c r="BU8" s="14">
+      <c r="BU8" s="13">
         <v>-0.236267834073524</v>
       </c>
-      <c r="BV8" s="14">
+      <c r="BV8" s="13">
         <v>-0.234313318854972</v>
       </c>
-      <c r="BW8" s="14">
+      <c r="BW8" s="13">
         <v>-0.236823963055104</v>
       </c>
-      <c r="BX8" s="14">
+      <c r="BX8" s="13">
         <v>-0.23528311090603099</v>
       </c>
-      <c r="BY8" s="14">
+      <c r="BY8" s="13">
         <v>-0.23374389170741</v>
       </c>
-      <c r="BZ8" s="14">
+      <c r="BZ8" s="13">
         <v>-0.22805091845167499</v>
       </c>
-      <c r="CA8" s="14">
+      <c r="CA8" s="13">
         <v>-0.22382057635090599</v>
       </c>
-      <c r="CB8" s="14">
+      <c r="CB8" s="13">
         <v>-0.22310451227983299</v>
       </c>
-      <c r="CC8" s="14">
+      <c r="CC8" s="13">
         <v>-0.22241432391716601</v>
       </c>
-      <c r="CE8" s="14">
+      <c r="CE8" s="13">
         <v>0</v>
       </c>
-      <c r="CF8" s="14">
+      <c r="CF8" s="13">
         <v>-1.49881430225163</v>
       </c>
-      <c r="CG8" s="14">
+      <c r="CG8" s="13">
         <v>-0.16680839904920999</v>
       </c>
-      <c r="CH8" s="14">
+      <c r="CH8" s="13">
         <v>0.42935455280903001</v>
       </c>
-      <c r="CI8" s="14">
+      <c r="CI8" s="13">
         <v>1.2362681484918101</v>
       </c>
     </row>
     <row r="9" spans="1:87">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="AL9">
-        <f>AL8+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AM9" s="3">
@@ -9373,71 +9489,71 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="14">
+      <c r="AR9" s="13">
         <v>0.86761727612123896</v>
       </c>
-      <c r="AS9" s="14">
+      <c r="AS9" s="13">
         <v>-0.23279138157249801</v>
       </c>
-      <c r="AT9" s="14">
+      <c r="AT9" s="13">
         <v>-0.29180635177742897</v>
       </c>
-      <c r="AU9" s="14">
+      <c r="AU9" s="13">
         <v>-0.29024337271395301</v>
       </c>
-      <c r="AV9" s="14">
+      <c r="AV9" s="13">
         <v>0</v>
       </c>
-      <c r="AW9" s="14">
+      <c r="AW9" s="13">
         <v>-1.4821135147129501</v>
       </c>
-      <c r="AX9" s="14">
+      <c r="AX9" s="13">
         <v>-9.9331788412692398E-2</v>
       </c>
-      <c r="AY9" s="14">
+      <c r="AY9" s="13">
         <v>0.21271388272174799</v>
       </c>
-      <c r="AZ9" s="14">
+      <c r="AZ9" s="13">
         <v>1.3687314204039001</v>
       </c>
-      <c r="BA9" s="14">
+      <c r="BA9" s="13">
         <v>-0.32419123555926399</v>
       </c>
-      <c r="BB9" s="14">
+      <c r="BB9" s="13">
         <v>0.85766099287804198</v>
       </c>
-      <c r="BC9" s="14">
+      <c r="BC9" s="13">
         <v>-0.241155954916808</v>
       </c>
-      <c r="BD9" s="14">
+      <c r="BD9" s="13">
         <v>-0.256879301616391</v>
       </c>
-      <c r="BE9" s="14">
+      <c r="BE9" s="13">
         <v>-0.27883727976079897</v>
       </c>
-      <c r="BF9" s="14">
+      <c r="BF9" s="13">
         <v>-0.28063105449238401</v>
       </c>
-      <c r="BG9" s="14">
+      <c r="BG9" s="13">
         <v>-0.28418889185471302</v>
       </c>
-      <c r="BH9" s="14">
+      <c r="BH9" s="13">
         <v>0</v>
       </c>
-      <c r="BI9" s="14">
+      <c r="BI9" s="13">
         <v>-1.5093254615640099</v>
       </c>
-      <c r="BJ9" s="14">
+      <c r="BJ9" s="13">
         <v>-9.7788712204883693E-2</v>
       </c>
-      <c r="BK9" s="14">
+      <c r="BK9" s="13">
         <v>0.203937169414385</v>
       </c>
-      <c r="BL9" s="14">
+      <c r="BL9" s="13">
         <v>1.40317700435451</v>
       </c>
       <c r="BM9" s="3"/>
@@ -9447,61 +9563,61 @@
       <c r="BO9" s="3"/>
       <c r="BP9" s="3"/>
       <c r="BQ9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="BR9" s="3"/>
-      <c r="BS9" s="14">
+      <c r="BS9" s="13">
         <v>0.854885311708245</v>
       </c>
-      <c r="BT9" s="14">
+      <c r="BT9" s="13">
         <v>-0.23495630437840001</v>
       </c>
-      <c r="BU9" s="14">
+      <c r="BU9" s="13">
         <v>-0.23510600679420801</v>
       </c>
-      <c r="BV9" s="14">
+      <c r="BV9" s="13">
         <v>-0.241328773927587</v>
       </c>
-      <c r="BW9" s="14">
+      <c r="BW9" s="13">
         <v>-0.25284168996529899</v>
       </c>
-      <c r="BX9" s="14">
+      <c r="BX9" s="13">
         <v>-0.26129385154538798</v>
       </c>
-      <c r="BY9" s="14">
+      <c r="BY9" s="13">
         <v>-0.26341907661497899</v>
       </c>
-      <c r="BZ9" s="14">
+      <c r="BZ9" s="13">
         <v>-0.263215109853216</v>
       </c>
-      <c r="CA9" s="14">
+      <c r="CA9" s="13">
         <v>-0.26589159746532498</v>
       </c>
-      <c r="CB9" s="14">
+      <c r="CB9" s="13">
         <v>-0.26801407311250403</v>
       </c>
-      <c r="CC9" s="14">
+      <c r="CC9" s="13">
         <v>-0.268294814802637</v>
       </c>
-      <c r="CE9" s="14">
+      <c r="CE9" s="13">
         <v>0</v>
       </c>
-      <c r="CF9" s="14">
+      <c r="CF9" s="13">
         <v>-1.51362387925089</v>
       </c>
-      <c r="CG9" s="14">
+      <c r="CG9" s="13">
         <v>-8.3060637124106995E-2</v>
       </c>
-      <c r="CH9" s="14">
+      <c r="CH9" s="13">
         <v>0.20413509712672701</v>
       </c>
-      <c r="CI9" s="14">
+      <c r="CI9" s="13">
         <v>1.3925494192482699</v>
       </c>
     </row>
     <row r="10" spans="1:87">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
@@ -9611,7 +9727,7 @@
         <v>-1.03410659655836</v>
       </c>
       <c r="AL10">
-        <f>AL9+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AM10" s="3">
@@ -9620,71 +9736,71 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="14">
+      <c r="AR10" s="13">
         <v>1.74236913958124</v>
       </c>
-      <c r="AS10" s="14">
+      <c r="AS10" s="13">
         <v>0.295960636916478</v>
       </c>
-      <c r="AT10" s="14">
+      <c r="AT10" s="13">
         <v>0.25409506867163201</v>
       </c>
-      <c r="AU10" s="14">
+      <c r="AU10" s="13">
         <v>0.26331204298088901</v>
       </c>
-      <c r="AV10" s="14">
+      <c r="AV10" s="13">
         <v>0</v>
       </c>
-      <c r="AW10" s="14">
+      <c r="AW10" s="13">
         <v>-0.85761041747078104</v>
       </c>
-      <c r="AX10" s="14">
+      <c r="AX10" s="13">
         <v>-6.7155694020379894E-2</v>
       </c>
-      <c r="AY10" s="14">
+      <c r="AY10" s="13">
         <v>0.51801532569817998</v>
       </c>
-      <c r="AZ10" s="14">
+      <c r="AZ10" s="13">
         <v>0.40675078579298102</v>
       </c>
-      <c r="BA10" s="14">
+      <c r="BA10" s="13">
         <v>0.47666893694572299</v>
       </c>
-      <c r="BB10" s="14">
+      <c r="BB10" s="13">
         <v>1.73602115692819</v>
       </c>
-      <c r="BC10" s="14">
+      <c r="BC10" s="13">
         <v>0.28846886515646097</v>
       </c>
-      <c r="BD10" s="14">
+      <c r="BD10" s="13">
         <v>0.27505037043456598</v>
       </c>
-      <c r="BE10" s="14">
+      <c r="BE10" s="13">
         <v>0.25260062112145298</v>
       </c>
-      <c r="BF10" s="14">
+      <c r="BF10" s="13">
         <v>0.26009793577128498</v>
       </c>
-      <c r="BG10" s="14">
+      <c r="BG10" s="13">
         <v>0.27120791395076499</v>
       </c>
-      <c r="BH10" s="14">
+      <c r="BH10" s="13">
         <v>0</v>
       </c>
-      <c r="BI10" s="14">
+      <c r="BI10" s="13">
         <v>-0.86866466373890705</v>
       </c>
-      <c r="BJ10" s="14">
+      <c r="BJ10" s="13">
         <v>-6.6264238529674904E-2</v>
       </c>
-      <c r="BK10" s="14">
+      <c r="BK10" s="13">
         <v>0.51456414000361705</v>
       </c>
-      <c r="BL10" s="14">
+      <c r="BL10" s="13">
         <v>0.420364762264965</v>
       </c>
       <c r="BM10" s="3"/>
@@ -9694,61 +9810,61 @@
       <c r="BO10" s="3"/>
       <c r="BP10" s="3"/>
       <c r="BQ10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="BR10" s="3"/>
-      <c r="BS10" s="14">
+      <c r="BS10" s="13">
         <v>1.72657771490376</v>
       </c>
-      <c r="BT10" s="14">
+      <c r="BT10" s="13">
         <v>0.29956913788131001</v>
       </c>
-      <c r="BU10" s="14">
+      <c r="BU10" s="13">
         <v>0.30014448234089097</v>
       </c>
-      <c r="BV10" s="14">
+      <c r="BV10" s="13">
         <v>0.29542498986990601</v>
       </c>
-      <c r="BW10" s="14">
+      <c r="BW10" s="13">
         <v>0.28561621638590501</v>
       </c>
-      <c r="BX10" s="14">
+      <c r="BX10" s="13">
         <v>0.278379496825717</v>
       </c>
-      <c r="BY10" s="14">
+      <c r="BY10" s="13">
         <v>0.27466747427506399</v>
       </c>
-      <c r="BZ10" s="14">
+      <c r="BZ10" s="13">
         <v>0.27920722044318202</v>
       </c>
-      <c r="CA10" s="14">
+      <c r="CA10" s="13">
         <v>0.28487118065481898</v>
       </c>
-      <c r="CB10" s="14">
+      <c r="CB10" s="13">
         <v>0.28871894421034899</v>
       </c>
-      <c r="CC10" s="14">
+      <c r="CC10" s="13">
         <v>0.29410351228992698</v>
       </c>
-      <c r="CE10" s="14">
+      <c r="CE10" s="13">
         <v>0</v>
       </c>
-      <c r="CF10" s="14">
+      <c r="CF10" s="13">
         <v>-0.86139306608274402</v>
       </c>
-      <c r="CG10" s="14">
+      <c r="CG10" s="13">
         <v>-6.6790762355120797E-2</v>
       </c>
-      <c r="CH10" s="14">
+      <c r="CH10" s="13">
         <v>0.516142845851428</v>
       </c>
-      <c r="CI10" s="14">
+      <c r="CI10" s="13">
         <v>0.41204098258643701</v>
       </c>
     </row>
     <row r="11" spans="1:87">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="C11" s="2">
         <v>3</v>
       </c>
@@ -9855,7 +9971,7 @@
         <v>0.340661535965537</v>
       </c>
       <c r="AL11">
-        <f>AL10+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AM11" s="3">
@@ -9864,71 +9980,71 @@
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="14">
+      <c r="AR11" s="13">
         <v>1.07245280251999</v>
       </c>
-      <c r="AS11" s="14">
+      <c r="AS11" s="13">
         <v>-7.3806108995992506E-2</v>
       </c>
-      <c r="AT11" s="14">
+      <c r="AT11" s="13">
         <v>-2.69104469748951E-2</v>
       </c>
-      <c r="AU11" s="14">
+      <c r="AU11" s="13">
         <v>-3.5068835097479399E-2</v>
       </c>
-      <c r="AV11" s="14">
+      <c r="AV11" s="13">
         <v>0</v>
       </c>
-      <c r="AW11" s="14">
+      <c r="AW11" s="13">
         <v>-1.59067753179549</v>
       </c>
-      <c r="AX11" s="14">
+      <c r="AX11" s="13">
         <v>-0.71083424199845202</v>
       </c>
-      <c r="AY11" s="14">
+      <c r="AY11" s="13">
         <v>1.2307567036665501</v>
       </c>
-      <c r="AZ11" s="14">
+      <c r="AZ11" s="13">
         <v>1.07075507012739</v>
       </c>
-      <c r="BA11" s="14">
+      <c r="BA11" s="13">
         <v>0.26308126885085098</v>
       </c>
-      <c r="BB11" s="14">
+      <c r="BB11" s="13">
         <v>1.0597602543970599</v>
       </c>
-      <c r="BC11" s="14">
+      <c r="BC11" s="13">
         <v>-7.5403807565818104E-2</v>
       </c>
-      <c r="BD11" s="14">
+      <c r="BD11" s="13">
         <v>-6.4453455485250499E-2</v>
       </c>
-      <c r="BE11" s="14">
+      <c r="BE11" s="13">
         <v>-3.5510200581198498E-2</v>
       </c>
-      <c r="BF11" s="14">
+      <c r="BF11" s="13">
         <v>-3.2647049413483502E-2</v>
       </c>
-      <c r="BG11" s="14">
+      <c r="BG11" s="13">
         <v>-4.8898401051894601E-2</v>
       </c>
-      <c r="BH11" s="14">
+      <c r="BH11" s="13">
         <v>0</v>
       </c>
-      <c r="BI11" s="14">
+      <c r="BI11" s="13">
         <v>-1.58557964989121</v>
       </c>
-      <c r="BJ11" s="14">
+      <c r="BJ11" s="13">
         <v>-0.72820645978830201</v>
       </c>
-      <c r="BK11" s="14">
+      <c r="BK11" s="13">
         <v>1.2239627309849701</v>
       </c>
-      <c r="BL11" s="14">
+      <c r="BL11" s="13">
         <v>1.0898233786945399</v>
       </c>
       <c r="BM11" s="3"/>
@@ -9938,61 +10054,61 @@
       <c r="BO11" s="3"/>
       <c r="BP11" s="3"/>
       <c r="BQ11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="BR11" s="3"/>
-      <c r="BS11" s="14">
+      <c r="BS11" s="13">
         <v>1.05570520247914</v>
       </c>
-      <c r="BT11" s="14">
+      <c r="BT11" s="13">
         <v>-4.0673819392894398E-2</v>
       </c>
-      <c r="BU11" s="14">
+      <c r="BU11" s="13">
         <v>-4.1387561422093502E-2</v>
       </c>
-      <c r="BV11" s="14">
+      <c r="BV11" s="13">
         <v>-3.6600579547105203E-2</v>
       </c>
-      <c r="BW11" s="14">
+      <c r="BW11" s="13">
         <v>-2.7834521918406002E-2</v>
       </c>
-      <c r="BX11" s="14">
+      <c r="BX11" s="13">
         <v>-2.13874837716545E-2</v>
       </c>
-      <c r="BY11" s="14">
+      <c r="BY11" s="13">
         <v>-1.68420208879679E-2</v>
       </c>
-      <c r="BZ11" s="14">
+      <c r="BZ11" s="13">
         <v>-1.8910703962933501E-2</v>
       </c>
-      <c r="CA11" s="14">
+      <c r="CA11" s="13">
         <v>-2.18790674516267E-2</v>
       </c>
-      <c r="CB11" s="14">
+      <c r="CB11" s="13">
         <v>-2.72464843047662E-2</v>
       </c>
-      <c r="CC11" s="14">
+      <c r="CC11" s="13">
         <v>-3.0469299264253201E-2</v>
       </c>
-      <c r="CE11" s="14">
+      <c r="CE11" s="13">
         <v>0</v>
       </c>
-      <c r="CF11" s="14">
+      <c r="CF11" s="13">
         <v>-1.59053832367074</v>
       </c>
-      <c r="CG11" s="14">
+      <c r="CG11" s="13">
         <v>-0.72162698485855703</v>
       </c>
-      <c r="CH11" s="14">
+      <c r="CH11" s="13">
         <v>1.23137953553765</v>
       </c>
-      <c r="CI11" s="14">
+      <c r="CI11" s="13">
         <v>1.0807857729916499</v>
       </c>
     </row>
     <row r="12" spans="1:87">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="C12" s="2">
         <v>4</v>
       </c>
@@ -10099,7 +10215,7 @@
         <v>-0.13483924845454801</v>
       </c>
       <c r="AL12">
-        <f>AL11+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AM12" s="3">
@@ -10108,71 +10224,71 @@
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="14">
+      <c r="AR12" s="13">
         <v>1.11991583235842</v>
       </c>
-      <c r="AS12" s="14">
+      <c r="AS12" s="13">
         <v>0.305264878338946</v>
       </c>
-      <c r="AT12" s="14">
+      <c r="AT12" s="13">
         <v>0.326907515509885</v>
       </c>
-      <c r="AU12" s="14">
+      <c r="AU12" s="13">
         <v>0.36226974460230899</v>
       </c>
-      <c r="AV12" s="14">
+      <c r="AV12" s="13">
         <v>0</v>
       </c>
-      <c r="AW12" s="14">
+      <c r="AW12" s="13">
         <v>-1.3910174541895799</v>
       </c>
-      <c r="AX12" s="14">
+      <c r="AX12" s="13">
         <v>-0.54326474631806398</v>
       </c>
-      <c r="AY12" s="14">
+      <c r="AY12" s="13">
         <v>0.62497291861052395</v>
       </c>
-      <c r="AZ12" s="14">
+      <c r="AZ12" s="13">
         <v>1.3093092818971199</v>
       </c>
-      <c r="BA12" s="14">
+      <c r="BA12" s="13">
         <v>0.70410976759645205</v>
       </c>
-      <c r="BB12" s="14">
+      <c r="BB12" s="13">
         <v>1.10761785097675</v>
       </c>
-      <c r="BC12" s="14">
+      <c r="BC12" s="13">
         <v>0.32551031837426198</v>
       </c>
-      <c r="BD12" s="14">
+      <c r="BD12" s="13">
         <v>0.31924797509356301</v>
       </c>
-      <c r="BE12" s="14">
+      <c r="BE12" s="13">
         <v>0.33437751845866098</v>
       </c>
-      <c r="BF12" s="14">
+      <c r="BF12" s="13">
         <v>0.34091463745490203</v>
       </c>
-      <c r="BG12" s="14">
+      <c r="BG12" s="13">
         <v>0.35740921401639902</v>
       </c>
-      <c r="BH12" s="14">
+      <c r="BH12" s="13">
         <v>0</v>
       </c>
-      <c r="BI12" s="14">
+      <c r="BI12" s="13">
         <v>-1.3981595168263301</v>
       </c>
-      <c r="BJ12" s="14">
+      <c r="BJ12" s="13">
         <v>-0.54631798667377096</v>
       </c>
-      <c r="BK12" s="14">
+      <c r="BK12" s="13">
         <v>0.61985460364197198</v>
       </c>
-      <c r="BL12" s="14">
+      <c r="BL12" s="13">
         <v>1.32462289985813</v>
       </c>
       <c r="BM12" s="3"/>
@@ -10182,61 +10298,61 @@
       <c r="BO12" s="3"/>
       <c r="BP12" s="3"/>
       <c r="BQ12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="BR12" s="3"/>
-      <c r="BS12" s="14">
+      <c r="BS12" s="13">
         <v>1.11172422883672</v>
       </c>
-      <c r="BT12" s="14">
+      <c r="BT12" s="13">
         <v>0.34010491911168</v>
       </c>
-      <c r="BU12" s="14">
+      <c r="BU12" s="13">
         <v>0.34108817181734502</v>
       </c>
-      <c r="BV12" s="14">
+      <c r="BV12" s="13">
         <v>0.33914473204266898</v>
       </c>
-      <c r="BW12" s="14">
+      <c r="BW12" s="13">
         <v>0.34610371730200001</v>
       </c>
-      <c r="BX12" s="14">
+      <c r="BX12" s="13">
         <v>0.34895442414833799</v>
       </c>
-      <c r="BY12" s="14">
+      <c r="BY12" s="13">
         <v>0.35007581898670698</v>
       </c>
-      <c r="BZ12" s="14">
+      <c r="BZ12" s="13">
         <v>0.35513889259338499</v>
       </c>
-      <c r="CA12" s="14">
+      <c r="CA12" s="13">
         <v>0.35826406909427799</v>
       </c>
-      <c r="CB12" s="14">
+      <c r="CB12" s="13">
         <v>0.361973198278224</v>
       </c>
-      <c r="CC12" s="14">
+      <c r="CC12" s="13">
         <v>0.36472447520830298</v>
       </c>
-      <c r="CE12" s="14">
+      <c r="CE12" s="13">
         <v>0</v>
       </c>
-      <c r="CF12" s="14">
+      <c r="CF12" s="13">
         <v>-1.4015441972226701</v>
       </c>
-      <c r="CG12" s="14">
+      <c r="CG12" s="13">
         <v>-0.54027239681244799</v>
       </c>
-      <c r="CH12" s="14">
+      <c r="CH12" s="13">
         <v>0.62145038599695401</v>
       </c>
-      <c r="CI12" s="14">
+      <c r="CI12" s="13">
         <v>1.32036620803816</v>
       </c>
     </row>
     <row r="13" spans="1:87">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="C13" s="2">
         <v>5</v>
       </c>
@@ -10343,7 +10459,7 @@
         <v>0.82828430904736705</v>
       </c>
       <c r="AL13">
-        <f>AL12+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AM13" s="3">
@@ -10352,71 +10468,71 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
       <c r="AP13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="14">
+      <c r="AR13" s="13">
         <v>1.0351011074883401</v>
       </c>
-      <c r="AS13" s="14">
+      <c r="AS13" s="13">
         <v>-0.172564628859872</v>
       </c>
-      <c r="AT13" s="14">
+      <c r="AT13" s="13">
         <v>-0.19215270832883399</v>
       </c>
-      <c r="AU13" s="14">
+      <c r="AU13" s="13">
         <v>-0.22267304230520599</v>
       </c>
-      <c r="AV13" s="14">
+      <c r="AV13" s="13">
         <v>0</v>
       </c>
-      <c r="AW13" s="14">
+      <c r="AW13" s="13">
         <v>-0.30772393415675198</v>
       </c>
-      <c r="AX13" s="14">
+      <c r="AX13" s="13">
         <v>-0.42778855579480202</v>
       </c>
-      <c r="AY13" s="14">
+      <c r="AY13" s="13">
         <v>0.17653211575288399</v>
       </c>
-      <c r="AZ13" s="14">
+      <c r="AZ13" s="13">
         <v>0.55898037419866997</v>
       </c>
-      <c r="BA13" s="14">
+      <c r="BA13" s="13">
         <v>0.17392606465509</v>
       </c>
-      <c r="BB13" s="14">
+      <c r="BB13" s="13">
         <v>1.0600181343177799</v>
       </c>
-      <c r="BC13" s="14">
+      <c r="BC13" s="13">
         <v>-0.18458320076417001</v>
       </c>
-      <c r="BD13" s="14">
+      <c r="BD13" s="13">
         <v>-0.19144437392267499</v>
       </c>
-      <c r="BE13" s="14">
+      <c r="BE13" s="13">
         <v>-0.19150855178995699</v>
       </c>
-      <c r="BF13" s="14">
+      <c r="BF13" s="13">
         <v>-0.21849525916305901</v>
       </c>
-      <c r="BG13" s="14">
+      <c r="BG13" s="13">
         <v>-0.228880833389528</v>
       </c>
-      <c r="BH13" s="14">
+      <c r="BH13" s="13">
         <v>0</v>
       </c>
-      <c r="BI13" s="14">
+      <c r="BI13" s="13">
         <v>-0.33405933556957701</v>
       </c>
-      <c r="BJ13" s="14">
+      <c r="BJ13" s="13">
         <v>-0.40564106970977298</v>
       </c>
-      <c r="BK13" s="14">
+      <c r="BK13" s="13">
         <v>0.186774199505368</v>
       </c>
-      <c r="BL13" s="14">
+      <c r="BL13" s="13">
         <v>0.55292620577398099</v>
       </c>
       <c r="BM13" s="3"/>
@@ -10426,61 +10542,61 @@
       <c r="BO13" s="3"/>
       <c r="BP13" s="3"/>
       <c r="BQ13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="BR13" s="3"/>
-      <c r="BS13" s="14">
+      <c r="BS13" s="13">
         <v>1.05515905531481</v>
       </c>
-      <c r="BT13" s="14">
+      <c r="BT13" s="13">
         <v>-0.159197428141161</v>
       </c>
-      <c r="BU13" s="14">
+      <c r="BU13" s="13">
         <v>-0.15959889226627899</v>
       </c>
-      <c r="BV13" s="14">
+      <c r="BV13" s="13">
         <v>-0.16390823138074401</v>
       </c>
-      <c r="BW13" s="14">
+      <c r="BW13" s="13">
         <v>-0.16895067484871301</v>
       </c>
-      <c r="BX13" s="14">
+      <c r="BX13" s="13">
         <v>-0.17093721363512099</v>
       </c>
-      <c r="BY13" s="14">
+      <c r="BY13" s="13">
         <v>-0.18005614133714901</v>
       </c>
-      <c r="BZ13" s="14">
+      <c r="BZ13" s="13">
         <v>-0.18791000358913901</v>
       </c>
-      <c r="CA13" s="14">
+      <c r="CA13" s="13">
         <v>-0.19248124470220199</v>
       </c>
-      <c r="CB13" s="14">
+      <c r="CB13" s="13">
         <v>-0.19353399480494199</v>
       </c>
-      <c r="CC13" s="14">
+      <c r="CC13" s="13">
         <v>-0.19764899547456399</v>
       </c>
-      <c r="CE13" s="14">
+      <c r="CE13" s="13">
         <v>0</v>
       </c>
-      <c r="CF13" s="14">
+      <c r="CF13" s="13">
         <v>-0.30587863495936601</v>
       </c>
-      <c r="CG13" s="14">
+      <c r="CG13" s="13">
         <v>-0.41856952173881601</v>
       </c>
-      <c r="CH13" s="14">
+      <c r="CH13" s="13">
         <v>0.178679308974558</v>
       </c>
-      <c r="CI13" s="14">
+      <c r="CI13" s="13">
         <v>0.545768847723623</v>
       </c>
     </row>
     <row r="14" spans="1:87">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -10589,7 +10705,7 @@
         <v>-0.34555781088927701</v>
       </c>
       <c r="AL14">
-        <f>AL13+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AM14" s="3">
@@ -10598,71 +10714,71 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="14">
+      <c r="AR14" s="13">
         <v>0.89869374633173704</v>
       </c>
-      <c r="AS14" s="14">
+      <c r="AS14" s="13">
         <v>-0.42012903121960499</v>
       </c>
-      <c r="AT14" s="14">
+      <c r="AT14" s="13">
         <v>-0.40451924263779698</v>
       </c>
-      <c r="AU14" s="14">
+      <c r="AU14" s="13">
         <v>-0.39649555287795502</v>
       </c>
-      <c r="AV14" s="14">
+      <c r="AV14" s="13">
         <v>0</v>
       </c>
-      <c r="AW14" s="14">
+      <c r="AW14" s="13">
         <v>-0.55641562259743105</v>
       </c>
-      <c r="AX14" s="14">
+      <c r="AX14" s="13">
         <v>-0.266134620067706</v>
       </c>
-      <c r="AY14" s="14">
+      <c r="AY14" s="13">
         <v>-0.47444291782192899</v>
       </c>
-      <c r="AZ14" s="14">
+      <c r="AZ14" s="13">
         <v>1.2969931604870699</v>
       </c>
-      <c r="BA14" s="14">
+      <c r="BA14" s="13">
         <v>0.45310072523425599</v>
       </c>
-      <c r="BB14" s="14">
+      <c r="BB14" s="13">
         <v>0.90517060593519805</v>
       </c>
-      <c r="BC14" s="14">
+      <c r="BC14" s="13">
         <v>-0.41607245028065598</v>
       </c>
-      <c r="BD14" s="14">
+      <c r="BD14" s="13">
         <v>-0.41620538180571998</v>
       </c>
-      <c r="BE14" s="14">
+      <c r="BE14" s="13">
         <v>-0.39889146005688603</v>
       </c>
-      <c r="BF14" s="14">
+      <c r="BF14" s="13">
         <v>-0.40455678079822899</v>
       </c>
-      <c r="BG14" s="14">
+      <c r="BG14" s="13">
         <v>-0.391366352969724</v>
       </c>
-      <c r="BH14" s="14">
+      <c r="BH14" s="13">
         <v>0</v>
       </c>
-      <c r="BI14" s="14">
+      <c r="BI14" s="13">
         <v>-0.54177421958420902</v>
       </c>
-      <c r="BJ14" s="14">
+      <c r="BJ14" s="13">
         <v>-0.258226624726696</v>
       </c>
-      <c r="BK14" s="14">
+      <c r="BK14" s="13">
         <v>-0.48153152109354103</v>
       </c>
-      <c r="BL14" s="14">
+      <c r="BL14" s="13">
         <v>1.2815323654044499</v>
       </c>
       <c r="BM14" s="3"/>
@@ -10672,63 +10788,63 @@
       <c r="BO14" s="3"/>
       <c r="BP14" s="3"/>
       <c r="BQ14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="BR14" s="3"/>
-      <c r="BS14" s="14">
+      <c r="BS14" s="13">
         <v>0.925225083507353</v>
       </c>
-      <c r="BT14" s="14">
+      <c r="BT14" s="13">
         <v>-0.38413979603841703</v>
       </c>
-      <c r="BU14" s="14">
+      <c r="BU14" s="13">
         <v>-0.39043553617133397</v>
       </c>
-      <c r="BV14" s="14">
+      <c r="BV14" s="13">
         <v>-0.39138266243368602</v>
       </c>
-      <c r="BW14" s="14">
+      <c r="BW14" s="13">
         <v>-0.38593048158573301</v>
       </c>
-      <c r="BX14" s="14">
+      <c r="BX14" s="13">
         <v>-0.378990170777111</v>
       </c>
-      <c r="BY14" s="14">
+      <c r="BY14" s="13">
         <v>-0.38034669660343701</v>
       </c>
-      <c r="BZ14" s="14">
+      <c r="BZ14" s="13">
         <v>-0.38233430689959702</v>
       </c>
-      <c r="CA14" s="14">
+      <c r="CA14" s="13">
         <v>-0.378751513077623</v>
       </c>
-      <c r="CB14" s="14">
+      <c r="CB14" s="13">
         <v>-0.37243708063166903</v>
       </c>
-      <c r="CC14" s="14">
+      <c r="CC14" s="13">
         <v>-0.37573264125794997</v>
       </c>
-      <c r="CE14" s="14">
+      <c r="CE14" s="13">
         <v>0</v>
       </c>
-      <c r="CF14" s="14">
+      <c r="CF14" s="13">
         <v>-0.540454755711402</v>
       </c>
-      <c r="CG14" s="14">
+      <c r="CG14" s="13">
         <v>-0.26508213238731798</v>
       </c>
-      <c r="CH14" s="14">
+      <c r="CH14" s="13">
         <v>-0.45271751806685501</v>
       </c>
-      <c r="CI14" s="14">
+      <c r="CI14" s="13">
         <v>1.25825440616558</v>
       </c>
     </row>
     <row r="15" spans="1:87">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="AL15">
-        <f>AL14+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AM15" s="3">
@@ -10737,71 +10853,71 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="14">
+      <c r="AR15" s="13">
         <v>0.79512870450276796</v>
       </c>
-      <c r="AS15" s="14">
+      <c r="AS15" s="13">
         <v>-0.25883940860555499</v>
       </c>
-      <c r="AT15" s="14">
+      <c r="AT15" s="13">
         <v>-0.27631077877348798</v>
       </c>
-      <c r="AU15" s="14">
+      <c r="AU15" s="13">
         <v>-0.282081040095434</v>
       </c>
-      <c r="AV15" s="14">
+      <c r="AV15" s="13">
         <v>0</v>
       </c>
-      <c r="AW15" s="14">
+      <c r="AW15" s="13">
         <v>-1.4049604757760701</v>
       </c>
-      <c r="AX15" s="14">
+      <c r="AX15" s="13">
         <v>-0.292297840489116</v>
       </c>
-      <c r="AY15" s="14">
+      <c r="AY15" s="13">
         <v>0.25447640832829399</v>
       </c>
-      <c r="AZ15" s="14">
+      <c r="AZ15" s="13">
         <v>1.44278190793689</v>
       </c>
-      <c r="BA15" s="14">
+      <c r="BA15" s="13">
         <v>0.42956380748834699</v>
       </c>
-      <c r="BB15" s="14">
+      <c r="BB15" s="13">
         <v>0.79032809341084898</v>
       </c>
-      <c r="BC15" s="14">
+      <c r="BC15" s="13">
         <v>-0.262286184003304</v>
       </c>
-      <c r="BD15" s="14">
+      <c r="BD15" s="13">
         <v>-0.28120230411788499</v>
       </c>
-      <c r="BE15" s="14">
+      <c r="BE15" s="13">
         <v>-0.29703820821686699</v>
       </c>
-      <c r="BF15" s="14">
+      <c r="BF15" s="13">
         <v>-0.29122834982175599</v>
       </c>
-      <c r="BG15" s="14">
+      <c r="BG15" s="13">
         <v>-0.30197416340372801</v>
       </c>
-      <c r="BH15" s="14">
+      <c r="BH15" s="13">
         <v>0</v>
       </c>
-      <c r="BI15" s="14">
+      <c r="BI15" s="13">
         <v>-1.42409309671365</v>
       </c>
-      <c r="BJ15" s="14">
+      <c r="BJ15" s="13">
         <v>-0.27501840580319797</v>
       </c>
-      <c r="BK15" s="14">
+      <c r="BK15" s="13">
         <v>0.25768227090920198</v>
       </c>
-      <c r="BL15" s="14">
+      <c r="BL15" s="13">
         <v>1.44142923160765</v>
       </c>
       <c r="BM15" s="3"/>
@@ -10811,61 +10927,61 @@
       <c r="BO15" s="3"/>
       <c r="BP15" s="3"/>
       <c r="BQ15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="BR15" s="3"/>
-      <c r="BS15" s="14">
+      <c r="BS15" s="13">
         <v>0.79067072650183701</v>
       </c>
-      <c r="BT15" s="14">
+      <c r="BT15" s="13">
         <v>-0.25934930716683202</v>
       </c>
-      <c r="BU15" s="14">
+      <c r="BU15" s="13">
         <v>-0.26194054492280699</v>
       </c>
-      <c r="BV15" s="14">
+      <c r="BV15" s="13">
         <v>-0.26844004042703601</v>
       </c>
-      <c r="BW15" s="14">
+      <c r="BW15" s="13">
         <v>-0.27208474959927398</v>
       </c>
-      <c r="BX15" s="14">
+      <c r="BX15" s="13">
         <v>-0.28038110640609099</v>
       </c>
-      <c r="BY15" s="14">
+      <c r="BY15" s="13">
         <v>-0.28359837861881898</v>
       </c>
-      <c r="BZ15" s="14">
+      <c r="BZ15" s="13">
         <v>-0.28450415411410401</v>
       </c>
-      <c r="CA15" s="14">
+      <c r="CA15" s="13">
         <v>-0.291820698010816</v>
       </c>
-      <c r="CB15" s="14">
+      <c r="CB15" s="13">
         <v>-0.29358790870082502</v>
       </c>
-      <c r="CC15" s="14">
+      <c r="CC15" s="13">
         <v>-0.29682306957454102</v>
       </c>
-      <c r="CE15" s="14">
+      <c r="CE15" s="13">
         <v>0</v>
       </c>
-      <c r="CF15" s="14">
+      <c r="CF15" s="13">
         <v>-1.44541086221467</v>
       </c>
-      <c r="CG15" s="14">
+      <c r="CG15" s="13">
         <v>-0.273094593950093</v>
       </c>
-      <c r="CH15" s="14">
+      <c r="CH15" s="13">
         <v>0.27566523203510501</v>
       </c>
-      <c r="CI15" s="14">
+      <c r="CI15" s="13">
         <v>1.4428402241296501</v>
       </c>
     </row>
     <row r="16" spans="1:87">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
@@ -10972,7 +11088,7 @@
         <v>1.38098426989899</v>
       </c>
       <c r="AL16">
-        <f>AL15+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="AM16" s="3">
@@ -10981,71 +11097,71 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="AQ16" s="3"/>
-      <c r="AR16" s="14">
+      <c r="AR16" s="13">
         <v>0.86875323493163503</v>
       </c>
-      <c r="AS16" s="14">
+      <c r="AS16" s="13">
         <v>5.9811588564280802E-2</v>
       </c>
-      <c r="AT16" s="14">
+      <c r="AT16" s="13">
         <v>7.7298561741211497E-2</v>
       </c>
-      <c r="AU16" s="14">
+      <c r="AU16" s="13">
         <v>9.1641111081950902E-2</v>
       </c>
-      <c r="AV16" s="14">
+      <c r="AV16" s="13">
         <v>0</v>
       </c>
-      <c r="AW16" s="14">
+      <c r="AW16" s="13">
         <v>-0.95692960897884405</v>
       </c>
-      <c r="AX16" s="14">
+      <c r="AX16" s="13">
         <v>0.33850169408098502</v>
       </c>
-      <c r="AY16" s="14">
+      <c r="AY16" s="13">
         <v>0.36148567880236498</v>
       </c>
-      <c r="AZ16" s="14">
+      <c r="AZ16" s="13">
         <v>0.25694223609549399</v>
       </c>
-      <c r="BA16" s="14">
+      <c r="BA16" s="13">
         <v>-0.17802528162995099</v>
       </c>
-      <c r="BB16" s="14">
+      <c r="BB16" s="13">
         <v>0.86930553305218305</v>
       </c>
-      <c r="BC16" s="14">
+      <c r="BC16" s="13">
         <v>5.2709059691339502E-2</v>
       </c>
-      <c r="BD16" s="14">
+      <c r="BD16" s="13">
         <v>6.07112455868727E-2</v>
       </c>
-      <c r="BE16" s="14">
+      <c r="BE16" s="13">
         <v>6.0833677175256902E-2</v>
       </c>
-      <c r="BF16" s="14">
+      <c r="BF16" s="13">
         <v>7.8368873974371603E-2</v>
       </c>
-      <c r="BG16" s="14">
+      <c r="BG16" s="13">
         <v>7.5891964826495795E-2</v>
       </c>
-      <c r="BH16" s="14">
+      <c r="BH16" s="13">
         <v>0</v>
       </c>
-      <c r="BI16" s="14">
+      <c r="BI16" s="13">
         <v>-0.970340580027376</v>
       </c>
-      <c r="BJ16" s="14">
+      <c r="BJ16" s="13">
         <v>0.355074942444077</v>
       </c>
-      <c r="BK16" s="14">
+      <c r="BK16" s="13">
         <v>0.36809300509375897</v>
       </c>
-      <c r="BL16" s="14">
+      <c r="BL16" s="13">
         <v>0.24717263248954</v>
       </c>
       <c r="BM16" s="3"/>
@@ -11055,63 +11171,63 @@
       <c r="BO16" s="3"/>
       <c r="BP16" s="3"/>
       <c r="BQ16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="BR16" s="3"/>
-      <c r="BS16" s="14">
+      <c r="BS16" s="13">
         <v>0.87012730430302299</v>
       </c>
-      <c r="BT16" s="14">
+      <c r="BT16" s="13">
         <v>8.1394880173846398E-2</v>
       </c>
-      <c r="BU16" s="14">
+      <c r="BU16" s="13">
         <v>8.1777181440496297E-2</v>
       </c>
-      <c r="BV16" s="14">
+      <c r="BV16" s="13">
         <v>8.5255859339581297E-2</v>
       </c>
-      <c r="BW16" s="14">
+      <c r="BW16" s="13">
         <v>8.9806043187176499E-2</v>
       </c>
-      <c r="BX16" s="14">
+      <c r="BX16" s="13">
         <v>9.1993751158920001E-2</v>
       </c>
-      <c r="BY16" s="14">
+      <c r="BY16" s="13">
         <v>9.3331274148893695E-2</v>
       </c>
-      <c r="BZ16" s="14">
+      <c r="BZ16" s="13">
         <v>9.9675473640692597E-2</v>
       </c>
-      <c r="CA16" s="14">
+      <c r="CA16" s="13">
         <v>0.101026871534268</v>
       </c>
-      <c r="CB16" s="14">
+      <c r="CB16" s="13">
         <v>9.9930373327037594E-2</v>
       </c>
-      <c r="CC16" s="14">
+      <c r="CC16" s="13">
         <v>9.9992449319603202E-2</v>
       </c>
-      <c r="CE16" s="14">
+      <c r="CE16" s="13">
         <v>0</v>
       </c>
-      <c r="CF16" s="14">
+      <c r="CF16" s="13">
         <v>-0.95069695704776402</v>
       </c>
-      <c r="CG16" s="14">
+      <c r="CG16" s="13">
         <v>0.33839393499832099</v>
       </c>
-      <c r="CH16" s="14">
+      <c r="CH16" s="13">
         <v>0.35316203666068002</v>
       </c>
-      <c r="CI16" s="14">
+      <c r="CI16" s="13">
         <v>0.25914098538876301</v>
       </c>
     </row>
     <row r="17" spans="1:87">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="AL17">
-        <f>AL16+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AM17" s="3">
@@ -11120,71 +11236,71 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="AQ17" s="3"/>
-      <c r="AR17" s="14">
+      <c r="AR17" s="13">
         <v>0.81620864095775103</v>
       </c>
-      <c r="AS17" s="14">
+      <c r="AS17" s="13">
         <v>0.22812430241912199</v>
       </c>
-      <c r="AT17" s="14">
+      <c r="AT17" s="13">
         <v>0.19038669371015501</v>
       </c>
-      <c r="AU17" s="14">
+      <c r="AU17" s="13">
         <v>0.15473667534753899</v>
       </c>
-      <c r="AV17" s="14">
+      <c r="AV17" s="13">
         <v>0</v>
       </c>
-      <c r="AW17" s="14">
+      <c r="AW17" s="13">
         <v>-1.2648969889942201</v>
       </c>
-      <c r="AX17" s="14">
+      <c r="AX17" s="13">
         <v>-6.0858870745011097E-2</v>
       </c>
-      <c r="AY17" s="14">
+      <c r="AY17" s="13">
         <v>0.62204784301244298</v>
       </c>
-      <c r="AZ17" s="14">
+      <c r="AZ17" s="13">
         <v>0.70370801672679195</v>
       </c>
-      <c r="BA17" s="14">
+      <c r="BA17" s="13">
         <v>0.85574625664552695</v>
       </c>
-      <c r="BB17" s="14">
+      <c r="BB17" s="13">
         <v>0.81469708893433401</v>
       </c>
-      <c r="BC17" s="14">
+      <c r="BC17" s="13">
         <v>0.24223138406800199</v>
       </c>
-      <c r="BD17" s="14">
+      <c r="BD17" s="13">
         <v>0.229879825931321</v>
       </c>
-      <c r="BE17" s="14">
+      <c r="BE17" s="13">
         <v>0.20991165733811901</v>
       </c>
-      <c r="BF17" s="14">
+      <c r="BF17" s="13">
         <v>0.19108211939932601</v>
       </c>
-      <c r="BG17" s="14">
+      <c r="BG17" s="13">
         <v>0.17127232093244599</v>
       </c>
-      <c r="BH17" s="14">
+      <c r="BH17" s="13">
         <v>0</v>
       </c>
-      <c r="BI17" s="14">
+      <c r="BI17" s="13">
         <v>-1.2532476175801599</v>
       </c>
-      <c r="BJ17" s="14">
+      <c r="BJ17" s="13">
         <v>-6.7969244424436095E-2</v>
       </c>
-      <c r="BK17" s="14">
+      <c r="BK17" s="13">
         <v>0.58781677846013702</v>
       </c>
-      <c r="BL17" s="14">
+      <c r="BL17" s="13">
         <v>0.73340008354445596</v>
       </c>
       <c r="BM17" s="3"/>
@@ -11194,61 +11310,61 @@
       <c r="BO17" s="3"/>
       <c r="BP17" s="3"/>
       <c r="BQ17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="BR17" s="3"/>
-      <c r="BS17" s="14">
+      <c r="BS17" s="13">
         <v>0.80938028935361095</v>
       </c>
-      <c r="BT17" s="14">
+      <c r="BT17" s="13">
         <v>0.23412738984164999</v>
       </c>
-      <c r="BU17" s="14">
+      <c r="BU17" s="13">
         <v>0.23167312236735599</v>
       </c>
-      <c r="BV17" s="14">
+      <c r="BV17" s="13">
         <v>0.22400473099613399</v>
       </c>
-      <c r="BW17" s="14">
+      <c r="BW17" s="13">
         <v>0.216542301610577</v>
       </c>
-      <c r="BX17" s="14">
+      <c r="BX17" s="13">
         <v>0.21235957840415601</v>
       </c>
-      <c r="BY17" s="14">
+      <c r="BY17" s="13">
         <v>0.20854582073970299</v>
       </c>
-      <c r="BZ17" s="14">
+      <c r="BZ17" s="13">
         <v>0.203414864006039</v>
       </c>
-      <c r="CA17" s="14">
+      <c r="CA17" s="13">
         <v>0.197382972976162</v>
       </c>
-      <c r="CB17" s="14">
+      <c r="CB17" s="13">
         <v>0.18940522315757499</v>
       </c>
-      <c r="CC17" s="14">
+      <c r="CC17" s="13">
         <v>0.18434633763721101</v>
       </c>
-      <c r="CE17" s="14">
+      <c r="CE17" s="13">
         <v>0</v>
       </c>
-      <c r="CF17" s="14">
+      <c r="CF17" s="13">
         <v>-1.2766564911004299</v>
       </c>
-      <c r="CG17" s="14">
+      <c r="CG17" s="13">
         <v>-5.0992443951842201E-2</v>
       </c>
-      <c r="CH17" s="14">
+      <c r="CH17" s="13">
         <v>0.61786961426448295</v>
       </c>
-      <c r="CI17" s="14">
+      <c r="CI17" s="13">
         <v>0.70977932078779105</v>
       </c>
     </row>
     <row r="18" spans="1:87">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
@@ -11358,7 +11474,7 @@
         <v>-3.7583919011536002E-2</v>
       </c>
       <c r="AL18">
-        <f>AL17+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="AM18" s="3">
@@ -11367,71 +11483,71 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="AQ18" s="3"/>
-      <c r="AR18" s="14">
+      <c r="AR18" s="13">
         <v>1.3587986240096801</v>
       </c>
-      <c r="AS18" s="14">
+      <c r="AS18" s="13">
         <v>-0.242992116201075</v>
       </c>
-      <c r="AT18" s="14">
+      <c r="AT18" s="13">
         <v>-0.20484823031218699</v>
       </c>
-      <c r="AU18" s="14">
+      <c r="AU18" s="13">
         <v>-0.17469139309573101</v>
       </c>
-      <c r="AV18" s="14">
+      <c r="AV18" s="13">
         <v>0</v>
       </c>
-      <c r="AW18" s="14">
+      <c r="AW18" s="13">
         <v>-1.3424181296648801</v>
       </c>
-      <c r="AX18" s="14">
+      <c r="AX18" s="13">
         <v>-0.60297309087041095</v>
       </c>
-      <c r="AY18" s="14">
+      <c r="AY18" s="13">
         <v>0.76086248152244196</v>
       </c>
-      <c r="AZ18" s="14">
+      <c r="AZ18" s="13">
         <v>1.1845287390128401</v>
       </c>
-      <c r="BA18" s="14">
+      <c r="BA18" s="13">
         <v>7.5883231060924997E-2</v>
       </c>
-      <c r="BB18" s="14">
+      <c r="BB18" s="13">
         <v>1.3506622502747101</v>
       </c>
-      <c r="BC18" s="14">
+      <c r="BC18" s="13">
         <v>-0.24281164718616599</v>
       </c>
-      <c r="BD18" s="14">
+      <c r="BD18" s="13">
         <v>-0.227711117612757</v>
       </c>
-      <c r="BE18" s="14">
+      <c r="BE18" s="13">
         <v>-0.210738468759362</v>
       </c>
-      <c r="BF18" s="14">
+      <c r="BF18" s="13">
         <v>-0.19265029547064599</v>
       </c>
-      <c r="BG18" s="14">
+      <c r="BG18" s="13">
         <v>-0.17808676028546899</v>
       </c>
-      <c r="BH18" s="14">
+      <c r="BH18" s="13">
         <v>0</v>
       </c>
-      <c r="BI18" s="14">
+      <c r="BI18" s="13">
         <v>-1.35494851131268</v>
       </c>
-      <c r="BJ18" s="14">
+      <c r="BJ18" s="13">
         <v>-0.61046216776696605</v>
       </c>
-      <c r="BK18" s="14">
+      <c r="BK18" s="13">
         <v>0.776680500318362</v>
       </c>
-      <c r="BL18" s="14">
+      <c r="BL18" s="13">
         <v>1.1887301787612901</v>
       </c>
       <c r="BM18" s="3"/>
@@ -11441,61 +11557,61 @@
       <c r="BO18" s="3"/>
       <c r="BP18" s="3"/>
       <c r="BQ18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="BR18" s="3"/>
-      <c r="BS18" s="14">
+      <c r="BS18" s="13">
         <v>1.36147895529243</v>
       </c>
-      <c r="BT18" s="14">
+      <c r="BT18" s="13">
         <v>-0.20441432426452499</v>
       </c>
-      <c r="BU18" s="14">
+      <c r="BU18" s="13">
         <v>-0.209113276299323</v>
       </c>
-      <c r="BV18" s="14">
+      <c r="BV18" s="13">
         <v>-0.20002293445184</v>
       </c>
-      <c r="BW18" s="14">
+      <c r="BW18" s="13">
         <v>-0.191694008890722</v>
       </c>
-      <c r="BX18" s="14">
+      <c r="BX18" s="13">
         <v>-0.183926903417995</v>
       </c>
-      <c r="BY18" s="14">
+      <c r="BY18" s="13">
         <v>-0.178538600765624</v>
       </c>
-      <c r="BZ18" s="14">
+      <c r="BZ18" s="13">
         <v>-0.17115273188979499</v>
       </c>
-      <c r="CA18" s="14">
+      <c r="CA18" s="13">
         <v>-0.163205745587399</v>
       </c>
-      <c r="CB18" s="14">
+      <c r="CB18" s="13">
         <v>-0.15867409093288501</v>
       </c>
-      <c r="CC18" s="14">
+      <c r="CC18" s="13">
         <v>-0.15536692428649301</v>
       </c>
-      <c r="CE18" s="14">
+      <c r="CE18" s="13">
         <v>0</v>
       </c>
-      <c r="CF18" s="14">
+      <c r="CF18" s="13">
         <v>-1.31923264987884</v>
       </c>
-      <c r="CG18" s="14">
+      <c r="CG18" s="13">
         <v>-0.60735456073102401</v>
       </c>
-      <c r="CH18" s="14">
+      <c r="CH18" s="13">
         <v>0.75440969778882006</v>
       </c>
-      <c r="CI18" s="14">
+      <c r="CI18" s="13">
         <v>1.1721775128210401</v>
       </c>
     </row>
     <row r="19" spans="1:87">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19">
         <v>2</v>
@@ -11603,7 +11719,7 @@
         <v>-6.31441734326839E-2</v>
       </c>
       <c r="AL19">
-        <f>AL18+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="AM19" s="3">
@@ -11612,71 +11728,71 @@
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="AQ19" s="3"/>
-      <c r="AR19" s="14">
+      <c r="AR19" s="13">
         <v>0.88553010034534196</v>
       </c>
-      <c r="AS19" s="14">
+      <c r="AS19" s="13">
         <v>0.20206148311276001</v>
       </c>
-      <c r="AT19" s="14">
+      <c r="AT19" s="13">
         <v>0.158988456589543</v>
       </c>
-      <c r="AU19" s="14">
+      <c r="AU19" s="13">
         <v>0.117970503264512</v>
       </c>
-      <c r="AV19" s="14">
+      <c r="AV19" s="13">
         <v>0</v>
       </c>
-      <c r="AW19" s="14">
+      <c r="AW19" s="13">
         <v>0.191284789241849</v>
       </c>
-      <c r="AX19" s="14">
+      <c r="AX19" s="13">
         <v>-1.3589331157393501</v>
       </c>
-      <c r="AY19" s="14">
+      <c r="AY19" s="13">
         <v>-0.42147670380454</v>
       </c>
-      <c r="AZ19" s="14">
+      <c r="AZ19" s="13">
         <v>1.5891250303020401</v>
       </c>
-      <c r="BA19" s="14">
+      <c r="BA19" s="13">
         <v>-0.610183303596326</v>
       </c>
-      <c r="BB19" s="14">
+      <c r="BB19" s="13">
         <v>0.87762375755647704</v>
       </c>
-      <c r="BC19" s="14">
+      <c r="BC19" s="13">
         <v>0.19979788521189801</v>
       </c>
-      <c r="BD19" s="14">
+      <c r="BD19" s="13">
         <v>0.17874199361284901</v>
       </c>
-      <c r="BE19" s="14">
+      <c r="BE19" s="13">
         <v>0.15395324388888501</v>
       </c>
-      <c r="BF19" s="14">
+      <c r="BF19" s="13">
         <v>0.138267744585405</v>
       </c>
-      <c r="BG19" s="14">
+      <c r="BG19" s="13">
         <v>0.116471095617105</v>
       </c>
-      <c r="BH19" s="14">
+      <c r="BH19" s="13">
         <v>0</v>
       </c>
-      <c r="BI19" s="14">
+      <c r="BI19" s="13">
         <v>0.185941691319609</v>
       </c>
-      <c r="BJ19" s="14">
+      <c r="BJ19" s="13">
         <v>-1.3599179872265801</v>
       </c>
-      <c r="BK19" s="14">
+      <c r="BK19" s="13">
         <v>-0.43221553391870099</v>
       </c>
-      <c r="BL19" s="14">
+      <c r="BL19" s="13">
         <v>1.6061918298256701</v>
       </c>
       <c r="BM19" s="3"/>
@@ -11686,61 +11802,61 @@
       <c r="BO19" s="3"/>
       <c r="BP19" s="3"/>
       <c r="BQ19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="BR19" s="3"/>
-      <c r="BS19" s="14">
+      <c r="BS19" s="13">
         <v>0.88367227456859498</v>
       </c>
-      <c r="BT19" s="14">
+      <c r="BT19" s="13">
         <v>0.20184191149066899</v>
       </c>
-      <c r="BU19" s="14">
+      <c r="BU19" s="13">
         <v>0.197966802068753</v>
       </c>
-      <c r="BV19" s="14">
+      <c r="BV19" s="13">
         <v>0.189474804961663</v>
       </c>
-      <c r="BW19" s="14">
+      <c r="BW19" s="13">
         <v>0.18060017356500399</v>
       </c>
-      <c r="BX19" s="14">
+      <c r="BX19" s="13">
         <v>0.17683927803712499</v>
       </c>
-      <c r="BY19" s="14">
+      <c r="BY19" s="13">
         <v>0.175917978240691</v>
       </c>
-      <c r="BZ19" s="14">
+      <c r="BZ19" s="13">
         <v>0.171642629248456</v>
       </c>
-      <c r="CA19" s="14">
+      <c r="CA19" s="13">
         <v>0.16210198918343</v>
       </c>
-      <c r="CB19" s="14">
+      <c r="CB19" s="13">
         <v>0.15531146522925901</v>
       </c>
-      <c r="CC19" s="14">
+      <c r="CC19" s="13">
         <v>0.14827613871693299</v>
       </c>
-      <c r="CE19" s="14">
+      <c r="CE19" s="13">
         <v>0</v>
       </c>
-      <c r="CF19" s="14">
+      <c r="CF19" s="13">
         <v>0.17059133211937699</v>
       </c>
-      <c r="CG19" s="14">
+      <c r="CG19" s="13">
         <v>-1.36160579601591</v>
       </c>
-      <c r="CH19" s="14">
+      <c r="CH19" s="13">
         <v>-0.41898185538731902</v>
       </c>
-      <c r="CI19" s="14">
+      <c r="CI19" s="13">
         <v>1.60999631928385</v>
       </c>
     </row>
     <row r="20" spans="1:87">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2"/>
       <c r="C20">
         <v>3</v>
@@ -11848,7 +11964,7 @@
         <v>-4.8609114465110098E-2</v>
       </c>
       <c r="AL20">
-        <f>AL19+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AM20" s="3">
@@ -11857,71 +11973,71 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="AQ20" s="3"/>
-      <c r="AR20" s="14">
+      <c r="AR20" s="13">
         <v>0.93575370364418198</v>
       </c>
-      <c r="AS20" s="14">
+      <c r="AS20" s="13">
         <v>-0.37674912510174802</v>
       </c>
-      <c r="AT20" s="14">
+      <c r="AT20" s="13">
         <v>-0.40350724929134202</v>
       </c>
-      <c r="AU20" s="14">
+      <c r="AU20" s="13">
         <v>-0.40996869697737598</v>
       </c>
-      <c r="AV20" s="14">
+      <c r="AV20" s="13">
         <v>0</v>
       </c>
-      <c r="AW20" s="14">
+      <c r="AW20" s="13">
         <v>-1.2247876866023599</v>
       </c>
-      <c r="AX20" s="14">
+      <c r="AX20" s="13">
         <v>-0.44524858474531298</v>
       </c>
-      <c r="AY20" s="14">
+      <c r="AY20" s="13">
         <v>0.55711709451922398</v>
       </c>
-      <c r="AZ20" s="14">
+      <c r="AZ20" s="13">
         <v>1.1129191768284501</v>
       </c>
-      <c r="BA20" s="14">
+      <c r="BA20" s="13">
         <v>0.12343739462678401</v>
       </c>
-      <c r="BB20" s="14">
+      <c r="BB20" s="13">
         <v>0.93513451097092803</v>
       </c>
-      <c r="BC20" s="14">
+      <c r="BC20" s="13">
         <v>-0.38936541623430698</v>
       </c>
-      <c r="BD20" s="14">
+      <c r="BD20" s="13">
         <v>-0.40562350225721899</v>
       </c>
-      <c r="BE20" s="14">
+      <c r="BE20" s="13">
         <v>-0.41645925903286302</v>
       </c>
-      <c r="BF20" s="14">
+      <c r="BF20" s="13">
         <v>-0.41695394048286299</v>
       </c>
-      <c r="BG20" s="14">
+      <c r="BG20" s="13">
         <v>-0.420992594260297</v>
       </c>
-      <c r="BH20" s="14">
+      <c r="BH20" s="13">
         <v>0</v>
       </c>
-      <c r="BI20" s="14">
+      <c r="BI20" s="13">
         <v>-1.2402121467224001</v>
       </c>
-      <c r="BJ20" s="14">
+      <c r="BJ20" s="13">
         <v>-0.44160481094876602</v>
       </c>
-      <c r="BK20" s="14">
+      <c r="BK20" s="13">
         <v>0.57896855876877895</v>
       </c>
-      <c r="BL20" s="14">
+      <c r="BL20" s="13">
         <v>1.1028483989023901</v>
       </c>
       <c r="BM20" s="3"/>
@@ -11931,61 +12047,61 @@
       <c r="BO20" s="3"/>
       <c r="BP20" s="3"/>
       <c r="BQ20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="BR20" s="3"/>
-      <c r="BS20" s="14">
+      <c r="BS20" s="13">
         <v>0.94959349763788603</v>
       </c>
-      <c r="BT20" s="14">
+      <c r="BT20" s="13">
         <v>-0.37450037958406102</v>
       </c>
-      <c r="BU20" s="14">
+      <c r="BU20" s="13">
         <v>-0.38118720858744798</v>
       </c>
-      <c r="BV20" s="14">
+      <c r="BV20" s="13">
         <v>-0.389966528844014</v>
       </c>
-      <c r="BW20" s="14">
+      <c r="BW20" s="13">
         <v>-0.39446365509037301</v>
       </c>
-      <c r="BX20" s="14">
+      <c r="BX20" s="13">
         <v>-0.39570729693905998</v>
       </c>
-      <c r="BY20" s="14">
+      <c r="BY20" s="13">
         <v>-0.39493926166367999</v>
       </c>
-      <c r="BZ20" s="14">
+      <c r="BZ20" s="13">
         <v>-0.39533624551347601</v>
       </c>
-      <c r="CA20" s="14">
+      <c r="CA20" s="13">
         <v>-0.39415268897408301</v>
       </c>
-      <c r="CB20" s="14">
+      <c r="CB20" s="13">
         <v>-0.39455356895455501</v>
       </c>
-      <c r="CC20" s="14">
+      <c r="CC20" s="13">
         <v>-0.39740938253769598</v>
       </c>
-      <c r="CE20" s="14">
+      <c r="CE20" s="13">
         <v>0</v>
       </c>
-      <c r="CF20" s="14">
+      <c r="CF20" s="13">
         <v>-1.2115422876247</v>
       </c>
-      <c r="CG20" s="14">
+      <c r="CG20" s="13">
         <v>-0.449501440316737</v>
       </c>
-      <c r="CH20" s="14">
+      <c r="CH20" s="13">
         <v>0.56926923550471797</v>
       </c>
-      <c r="CI20" s="14">
+      <c r="CI20" s="13">
         <v>1.0917744924367201</v>
       </c>
     </row>
     <row r="21" spans="1:87">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21">
         <v>4</v>
@@ -12093,7 +12209,7 @@
         <v>-2.4779507195465698E-2</v>
       </c>
       <c r="AL21">
-        <f>AL20+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AM21" s="3">
@@ -12102,71 +12218,71 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="AQ21" s="3"/>
-      <c r="AR21" s="14">
+      <c r="AR21" s="13">
         <v>1.08447778717362</v>
       </c>
-      <c r="AS21" s="14">
+      <c r="AS21" s="13">
         <v>-0.104373929409967</v>
       </c>
-      <c r="AT21" s="14">
+      <c r="AT21" s="13">
         <v>-0.12156904484670999</v>
       </c>
-      <c r="AU21" s="14">
+      <c r="AU21" s="13">
         <v>-0.13967671942901</v>
       </c>
-      <c r="AV21" s="14">
+      <c r="AV21" s="13">
         <v>0</v>
       </c>
-      <c r="AW21" s="14">
+      <c r="AW21" s="13">
         <v>-1.5880718664664899</v>
       </c>
-      <c r="AX21" s="14">
+      <c r="AX21" s="13">
         <v>-0.31016087340783599</v>
       </c>
-      <c r="AY21" s="14">
+      <c r="AY21" s="13">
         <v>0.32474224582821298</v>
       </c>
-      <c r="AZ21" s="14">
+      <c r="AZ21" s="13">
         <v>1.5734904940461101</v>
       </c>
-      <c r="BA21" s="14">
+      <c r="BA21" s="13">
         <v>-0.24999111146762901</v>
       </c>
-      <c r="BB21" s="14">
+      <c r="BB21" s="13">
         <v>1.08872086795227</v>
       </c>
-      <c r="BC21" s="14">
+      <c r="BC21" s="13">
         <v>-8.9313187339192898E-2</v>
       </c>
-      <c r="BD21" s="14">
+      <c r="BD21" s="13">
         <v>-9.3546543844927194E-2</v>
       </c>
-      <c r="BE21" s="14">
+      <c r="BE21" s="13">
         <v>-0.1037334364125</v>
       </c>
-      <c r="BF21" s="14">
+      <c r="BF21" s="13">
         <v>-0.115342447147169</v>
       </c>
-      <c r="BG21" s="14">
+      <c r="BG21" s="13">
         <v>-0.14739608807698101</v>
       </c>
-      <c r="BH21" s="14">
+      <c r="BH21" s="13">
         <v>0</v>
       </c>
-      <c r="BI21" s="14">
+      <c r="BI21" s="13">
         <v>-1.5665944293501199</v>
       </c>
-      <c r="BJ21" s="14">
+      <c r="BJ21" s="13">
         <v>-0.33017088866051902</v>
       </c>
-      <c r="BK21" s="14">
+      <c r="BK21" s="13">
         <v>0.31498039175133902</v>
       </c>
-      <c r="BL21" s="14">
+      <c r="BL21" s="13">
         <v>1.5817849262593</v>
       </c>
       <c r="BM21" s="3"/>
@@ -12176,61 +12292,61 @@
       <c r="BO21" s="3"/>
       <c r="BP21" s="3"/>
       <c r="BQ21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="BR21" s="3"/>
-      <c r="BS21" s="14">
+      <c r="BS21" s="13">
         <v>1.0770511822229401</v>
       </c>
-      <c r="BT21" s="14">
+      <c r="BT21" s="13">
         <v>-9.7668086271565799E-2</v>
       </c>
-      <c r="BU21" s="14">
+      <c r="BU21" s="13">
         <v>-9.4029403650845306E-2</v>
       </c>
-      <c r="BV21" s="14">
+      <c r="BV21" s="13">
         <v>-9.6129188931315099E-2</v>
       </c>
-      <c r="BW21" s="14">
+      <c r="BW21" s="13">
         <v>-9.9630995947344494E-2</v>
       </c>
-      <c r="BX21" s="14">
+      <c r="BX21" s="13">
         <v>-0.107935395090801</v>
       </c>
-      <c r="BY21" s="14">
+      <c r="BY21" s="13">
         <v>-0.11388071872757601</v>
       </c>
-      <c r="BZ21" s="14">
+      <c r="BZ21" s="13">
         <v>-0.11831888683538</v>
       </c>
-      <c r="CA21" s="14">
+      <c r="CA21" s="13">
         <v>-0.122502046740649</v>
       </c>
-      <c r="CB21" s="14">
+      <c r="CB21" s="13">
         <v>-0.132046076059541</v>
       </c>
-      <c r="CC21" s="14">
+      <c r="CC21" s="13">
         <v>-0.13307672807761101</v>
       </c>
-      <c r="CE21" s="14">
+      <c r="CE21" s="13">
         <v>0</v>
       </c>
-      <c r="CF21" s="14">
+      <c r="CF21" s="13">
         <v>-1.59881406194447</v>
       </c>
-      <c r="CG21" s="14">
+      <c r="CG21" s="13">
         <v>-0.31801691983955599</v>
       </c>
-      <c r="CH21" s="14">
+      <c r="CH21" s="13">
         <v>0.33516529329984401</v>
       </c>
-      <c r="CI21" s="14">
+      <c r="CI21" s="13">
         <v>1.58166568848418</v>
       </c>
     </row>
     <row r="22" spans="1:87">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2"/>
       <c r="C22">
         <v>5</v>
@@ -12338,7 +12454,7 @@
         <v>-8.3974915575126905E-3</v>
       </c>
       <c r="AL22">
-        <f>AL21+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AM22" s="3">
@@ -12347,71 +12463,71 @@
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AQ22" s="3"/>
-      <c r="AR22" s="14">
+      <c r="AR22" s="13">
         <v>1.21112267519517</v>
       </c>
-      <c r="AS22" s="14">
+      <c r="AS22" s="13">
         <v>-4.8385570245790101E-3</v>
       </c>
-      <c r="AT22" s="14">
+      <c r="AT22" s="13">
         <v>8.8291184950726308E-3</v>
       </c>
-      <c r="AU22" s="14">
+      <c r="AU22" s="13">
         <v>1.69667332041063E-3</v>
       </c>
-      <c r="AV22" s="14">
+      <c r="AV22" s="13">
         <v>0</v>
       </c>
-      <c r="AW22" s="14">
+      <c r="AW22" s="13">
         <v>-1.59670708772637</v>
       </c>
-      <c r="AX22" s="14">
+      <c r="AX22" s="13">
         <v>-0.74644806074852599</v>
       </c>
-      <c r="AY22" s="14">
+      <c r="AY22" s="13">
         <v>1.71680188824258</v>
       </c>
-      <c r="AZ22" s="14">
+      <c r="AZ22" s="13">
         <v>0.62635326023232396</v>
       </c>
-      <c r="BA22" s="14">
+      <c r="BA22" s="13">
         <v>-0.71991864362977298</v>
       </c>
-      <c r="BB22" s="14">
+      <c r="BB22" s="13">
         <v>1.2190294758076801</v>
       </c>
-      <c r="BC22" s="14">
+      <c r="BC22" s="13">
         <v>-1.0207913177199201E-2</v>
       </c>
-      <c r="BD22" s="14">
+      <c r="BD22" s="13">
         <v>1.24122322927932E-3</v>
       </c>
-      <c r="BE22" s="14">
+      <c r="BE22" s="13">
         <v>7.68295967322813E-3</v>
       </c>
-      <c r="BF22" s="14">
+      <c r="BF22" s="13">
         <v>1.26406025577249E-2</v>
       </c>
-      <c r="BG22" s="14">
+      <c r="BG22" s="13">
         <v>-2.3521027408515498E-3</v>
       </c>
-      <c r="BH22" s="14">
+      <c r="BH22" s="13">
         <v>0</v>
       </c>
-      <c r="BI22" s="14">
+      <c r="BI22" s="13">
         <v>-1.5926913779766401</v>
       </c>
-      <c r="BJ22" s="14">
+      <c r="BJ22" s="13">
         <v>-0.74326464528593705</v>
       </c>
-      <c r="BK22" s="14">
+      <c r="BK22" s="13">
         <v>1.7093245025322401</v>
       </c>
-      <c r="BL22" s="14">
+      <c r="BL22" s="13">
         <v>0.62663152073033901</v>
       </c>
       <c r="BM22" s="3"/>
@@ -12421,63 +12537,63 @@
       <c r="BO22" s="3"/>
       <c r="BP22" s="3"/>
       <c r="BQ22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="BR22" s="3"/>
-      <c r="BS22" s="14">
+      <c r="BS22" s="13">
         <v>1.2234567744984099</v>
       </c>
-      <c r="BT22" s="14">
+      <c r="BT22" s="13">
         <v>-3.30904372272E-3</v>
       </c>
-      <c r="BU22" s="14">
+      <c r="BU22" s="13">
         <v>9.70950568302717E-4</v>
       </c>
-      <c r="BV22" s="14">
+      <c r="BV22" s="13">
         <v>5.0092177895616902E-3</v>
       </c>
-      <c r="BW22" s="14">
+      <c r="BW22" s="13">
         <v>1.06635397514188E-2</v>
       </c>
-      <c r="BX22" s="14">
+      <c r="BX22" s="13">
         <v>1.4976217152533699E-2</v>
       </c>
-      <c r="BY22" s="14">
+      <c r="BY22" s="13">
         <v>1.76771525245807E-2</v>
       </c>
-      <c r="BZ22" s="14">
+      <c r="BZ22" s="13">
         <v>1.7418876052059301E-2</v>
       </c>
-      <c r="CA22" s="14">
+      <c r="CA22" s="13">
         <v>1.6548607581398998E-2</v>
       </c>
-      <c r="CB22" s="14">
+      <c r="CB22" s="13">
         <v>1.2171252554410501E-2</v>
       </c>
-      <c r="CC22" s="14">
+      <c r="CC22" s="13">
         <v>1.14294020838062E-2</v>
       </c>
-      <c r="CE22" s="14">
+      <c r="CE22" s="13">
         <v>0</v>
       </c>
-      <c r="CF22" s="14">
+      <c r="CF22" s="13">
         <v>-1.57953857491302</v>
       </c>
-      <c r="CG22" s="14">
+      <c r="CG22" s="13">
         <v>-0.73398003690120395</v>
       </c>
-      <c r="CH22" s="14">
+      <c r="CH22" s="13">
         <v>1.72059901973567</v>
       </c>
-      <c r="CI22" s="14">
+      <c r="CI22" s="13">
         <v>0.59291959207856004</v>
       </c>
     </row>
     <row r="23" spans="1:87">
-      <c r="A23" s="13"/>
+      <c r="A23" s="15"/>
       <c r="AL23">
-        <f>AL22+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AM23" s="3">
@@ -12486,71 +12602,71 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="14">
+      <c r="AR23" s="13">
         <v>1.4715390161124899</v>
       </c>
-      <c r="AS23" s="14">
+      <c r="AS23" s="13">
         <v>0.25344015211321402</v>
       </c>
-      <c r="AT23" s="14">
+      <c r="AT23" s="13">
         <v>0.24899422368316301</v>
       </c>
-      <c r="AU23" s="14">
+      <c r="AU23" s="13">
         <v>0.23812876135478001</v>
       </c>
-      <c r="AV23" s="14">
+      <c r="AV23" s="13">
         <v>0</v>
       </c>
-      <c r="AW23" s="14">
+      <c r="AW23" s="13">
         <v>-1.55265608861999</v>
       </c>
-      <c r="AX23" s="14">
+      <c r="AX23" s="13">
         <v>-8.0185586981740095E-2</v>
       </c>
-      <c r="AY23" s="14">
+      <c r="AY23" s="13">
         <v>0.15274824994459099</v>
       </c>
-      <c r="AZ23" s="14">
+      <c r="AZ23" s="13">
         <v>1.4800934256571301</v>
       </c>
-      <c r="BA23" s="14">
+      <c r="BA23" s="13">
         <v>0.13844928578228899</v>
       </c>
-      <c r="BB23" s="14">
+      <c r="BB23" s="13">
         <v>1.47438215659303</v>
       </c>
-      <c r="BC23" s="14">
+      <c r="BC23" s="13">
         <v>0.247623436428306</v>
       </c>
-      <c r="BD23" s="14">
+      <c r="BD23" s="13">
         <v>0.23788497316969701</v>
       </c>
-      <c r="BE23" s="14">
+      <c r="BE23" s="13">
         <v>0.254035555692737</v>
       </c>
-      <c r="BF23" s="14">
+      <c r="BF23" s="13">
         <v>0.25430848468428802</v>
       </c>
-      <c r="BG23" s="14">
+      <c r="BG23" s="13">
         <v>0.23928369601289401</v>
       </c>
-      <c r="BH23" s="14">
+      <c r="BH23" s="13">
         <v>0</v>
       </c>
-      <c r="BI23" s="14">
+      <c r="BI23" s="13">
         <v>-1.5552442120287999</v>
       </c>
-      <c r="BJ23" s="14">
+      <c r="BJ23" s="13">
         <v>-8.27523070271768E-2</v>
       </c>
-      <c r="BK23" s="14">
+      <c r="BK23" s="13">
         <v>0.14294726041341099</v>
       </c>
-      <c r="BL23" s="14">
+      <c r="BL23" s="13">
         <v>1.4950492586425601</v>
       </c>
       <c r="BM23" s="3"/>
@@ -12560,61 +12676,61 @@
       <c r="BO23" s="3"/>
       <c r="BP23" s="3"/>
       <c r="BQ23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="BR23" s="3"/>
-      <c r="BS23" s="14">
+      <c r="BS23" s="13">
         <v>1.48116907349424</v>
       </c>
-      <c r="BT23" s="14">
+      <c r="BT23" s="13">
         <v>0.26629361149834402</v>
       </c>
-      <c r="BU23" s="14">
+      <c r="BU23" s="13">
         <v>0.26757597545794598</v>
       </c>
-      <c r="BV23" s="14">
+      <c r="BV23" s="13">
         <v>0.26498053427174201</v>
       </c>
-      <c r="BW23" s="14">
+      <c r="BW23" s="13">
         <v>0.26321796303213801</v>
       </c>
-      <c r="BX23" s="14">
+      <c r="BX23" s="13">
         <v>0.26589439405049697</v>
       </c>
-      <c r="BY23" s="14">
+      <c r="BY23" s="13">
         <v>0.26749522640336498</v>
       </c>
-      <c r="BZ23" s="14">
+      <c r="BZ23" s="13">
         <v>0.26628886802193003</v>
       </c>
-      <c r="CA23" s="14">
+      <c r="CA23" s="13">
         <v>0.26775270444450799</v>
       </c>
-      <c r="CB23" s="14">
+      <c r="CB23" s="13">
         <v>0.262572651111733</v>
       </c>
-      <c r="CC23" s="14">
+      <c r="CC23" s="13">
         <v>0.25702600237028</v>
       </c>
-      <c r="CE23" s="14">
+      <c r="CE23" s="13">
         <v>0</v>
       </c>
-      <c r="CF23" s="14">
+      <c r="CF23" s="13">
         <v>-1.5494375571867001</v>
       </c>
-      <c r="CG23" s="14">
+      <c r="CG23" s="13">
         <v>-8.1227433175037805E-2</v>
       </c>
-      <c r="CH23" s="14">
+      <c r="CH23" s="13">
         <v>0.13582889332026701</v>
       </c>
-      <c r="CI23" s="14">
+      <c r="CI23" s="13">
         <v>1.49483609704147</v>
       </c>
     </row>
     <row r="24" spans="1:87">
-      <c r="A24" s="13"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
@@ -12724,7 +12840,7 @@
         <v>-1.0361471892946199</v>
       </c>
       <c r="AL24">
-        <f>AL23+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AM24" s="3">
@@ -12733,71 +12849,71 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="AQ24" s="3"/>
-      <c r="AR24" s="14">
+      <c r="AR24" s="13">
         <v>1.2116075158258801</v>
       </c>
-      <c r="AS24" s="14">
+      <c r="AS24" s="13">
         <v>1.1200764089723999E-2</v>
       </c>
-      <c r="AT24" s="14">
+      <c r="AT24" s="13">
         <v>4.3225066600156702E-2</v>
       </c>
-      <c r="AU24" s="14">
+      <c r="AU24" s="13">
         <v>2.12041830888735E-2</v>
       </c>
-      <c r="AV24" s="14">
+      <c r="AV24" s="13">
         <v>0</v>
       </c>
-      <c r="AW24" s="14">
+      <c r="AW24" s="13">
         <v>-0.31341222170439698</v>
       </c>
-      <c r="AX24" s="14">
+      <c r="AX24" s="13">
         <v>-0.44401533887079803</v>
       </c>
-      <c r="AY24" s="14">
+      <c r="AY24" s="13">
         <v>0.17151112309050301</v>
       </c>
-      <c r="AZ24" s="14">
+      <c r="AZ24" s="13">
         <v>0.58591643748469202</v>
       </c>
-      <c r="BA24" s="14">
+      <c r="BA24" s="13">
         <v>0.271801684925572</v>
       </c>
-      <c r="BB24" s="14">
+      <c r="BB24" s="13">
         <v>1.2277542789434801</v>
       </c>
-      <c r="BC24" s="14">
+      <c r="BC24" s="13">
         <v>5.6369151403654902E-3</v>
       </c>
-      <c r="BD24" s="14">
+      <c r="BD24" s="13">
         <v>3.3541927320217602E-2</v>
       </c>
-      <c r="BE24" s="14">
+      <c r="BE24" s="13">
         <v>3.5898221333701297E-2</v>
       </c>
-      <c r="BF24" s="14">
+      <c r="BF24" s="13">
         <v>2.9277047641334701E-2</v>
       </c>
-      <c r="BG24" s="14">
+      <c r="BG24" s="13">
         <v>1.32281464229046E-2</v>
       </c>
-      <c r="BH24" s="14">
+      <c r="BH24" s="13">
         <v>0</v>
       </c>
-      <c r="BI24" s="14">
+      <c r="BI24" s="13">
         <v>-0.31277135926222599</v>
       </c>
-      <c r="BJ24" s="14">
+      <c r="BJ24" s="13">
         <v>-0.442152980304517</v>
       </c>
-      <c r="BK24" s="14">
+      <c r="BK24" s="13">
         <v>0.16952464562990199</v>
       </c>
-      <c r="BL24" s="14">
+      <c r="BL24" s="13">
         <v>0.58539969393684199</v>
       </c>
       <c r="BM24" s="3"/>
@@ -12807,61 +12923,61 @@
       <c r="BO24" s="3"/>
       <c r="BP24" s="3"/>
       <c r="BQ24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="BR24" s="3"/>
-      <c r="BS24" s="14">
+      <c r="BS24" s="13">
         <v>1.23595484442407</v>
       </c>
-      <c r="BT24" s="14">
+      <c r="BT24" s="13">
         <v>2.9829814375606601E-2</v>
       </c>
-      <c r="BU24" s="14">
+      <c r="BU24" s="13">
         <v>3.2706940011787401E-2</v>
       </c>
-      <c r="BV24" s="14">
+      <c r="BV24" s="13">
         <v>4.6456162126279003E-2</v>
       </c>
-      <c r="BW24" s="14">
+      <c r="BW24" s="13">
         <v>5.3988232953660099E-2</v>
       </c>
-      <c r="BX24" s="14">
+      <c r="BX24" s="13">
         <v>5.53430715410171E-2</v>
       </c>
-      <c r="BY24" s="14">
+      <c r="BY24" s="13">
         <v>4.9660881113140702E-2</v>
       </c>
-      <c r="BZ24" s="14">
+      <c r="BZ24" s="13">
         <v>4.4370783637069901E-2</v>
       </c>
-      <c r="CA24" s="14">
+      <c r="CA24" s="13">
         <v>3.7184264406778897E-2</v>
       </c>
-      <c r="CB24" s="14">
+      <c r="CB24" s="13">
         <v>3.1736070459845001E-2</v>
       </c>
-      <c r="CC24" s="14">
+      <c r="CC24" s="13">
         <v>2.57895805327427E-2</v>
       </c>
-      <c r="CE24" s="14">
+      <c r="CE24" s="13">
         <v>0</v>
       </c>
-      <c r="CF24" s="14">
+      <c r="CF24" s="13">
         <v>-0.32430839022128399</v>
       </c>
-      <c r="CG24" s="14">
+      <c r="CG24" s="13">
         <v>-0.43842946844243302</v>
       </c>
-      <c r="CH24" s="14">
+      <c r="CH24" s="13">
         <v>0.17674479140516799</v>
       </c>
-      <c r="CI24" s="14">
+      <c r="CI24" s="13">
         <v>0.58599306725854905</v>
       </c>
     </row>
     <row r="25" spans="1:87">
-      <c r="A25" s="13"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
       <c r="C25">
         <v>3</v>
@@ -12969,7 +13085,7 @@
         <v>0.34008512378095201</v>
       </c>
       <c r="AL25">
-        <f>AL24+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AM25" s="3">
@@ -12978,71 +13094,71 @@
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="AQ25" s="3"/>
-      <c r="AR25" s="14">
+      <c r="AR25" s="13">
         <v>1.02221313108839</v>
       </c>
-      <c r="AS25" s="14">
+      <c r="AS25" s="13">
         <v>0.25884459402008397</v>
       </c>
-      <c r="AT25" s="14">
+      <c r="AT25" s="13">
         <v>0.27651010114834801</v>
       </c>
-      <c r="AU25" s="14">
+      <c r="AU25" s="13">
         <v>0.28029566069659301</v>
       </c>
-      <c r="AV25" s="14">
+      <c r="AV25" s="13">
         <v>0</v>
       </c>
-      <c r="AW25" s="14">
+      <c r="AW25" s="13">
         <v>-1.66318927018191</v>
       </c>
-      <c r="AX25" s="14">
+      <c r="AX25" s="13">
         <v>-0.44897069881759899</v>
       </c>
-      <c r="AY25" s="14">
+      <c r="AY25" s="13">
         <v>0.72827425248708499</v>
       </c>
-      <c r="AZ25" s="14">
+      <c r="AZ25" s="13">
         <v>1.3838857165124201</v>
       </c>
-      <c r="BA25" s="14">
+      <c r="BA25" s="13">
         <v>-5.0583684859950802E-2</v>
       </c>
-      <c r="BB25" s="14">
+      <c r="BB25" s="13">
         <v>1.02008534757416</v>
       </c>
-      <c r="BC25" s="14">
+      <c r="BC25" s="13">
         <v>0.25168914452942898</v>
       </c>
-      <c r="BD25" s="14">
+      <c r="BD25" s="13">
         <v>0.269581895398327</v>
       </c>
-      <c r="BE25" s="14">
+      <c r="BE25" s="13">
         <v>0.27897926403906198</v>
       </c>
-      <c r="BF25" s="14">
+      <c r="BF25" s="13">
         <v>0.28299053069629398</v>
       </c>
-      <c r="BG25" s="14">
+      <c r="BG25" s="13">
         <v>0.266239493723608</v>
       </c>
-      <c r="BH25" s="14">
+      <c r="BH25" s="13">
         <v>0</v>
       </c>
-      <c r="BI25" s="14">
+      <c r="BI25" s="13">
         <v>-1.6446826684335101</v>
       </c>
-      <c r="BJ25" s="14">
+      <c r="BJ25" s="13">
         <v>-0.460935748837071</v>
       </c>
-      <c r="BK25" s="14">
+      <c r="BK25" s="13">
         <v>0.71916895051677299</v>
       </c>
-      <c r="BL25" s="14">
+      <c r="BL25" s="13">
         <v>1.3864494667538101</v>
       </c>
       <c r="BM25" s="3"/>
@@ -13052,61 +13168,61 @@
       <c r="BO25" s="3"/>
       <c r="BP25" s="3"/>
       <c r="BQ25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="BR25" s="3"/>
-      <c r="BS25" s="14">
+      <c r="BS25" s="13">
         <v>1.03226026303414</v>
       </c>
-      <c r="BT25" s="14">
+      <c r="BT25" s="13">
         <v>0.27006348736626301</v>
       </c>
-      <c r="BU25" s="14">
+      <c r="BU25" s="13">
         <v>0.27113584980029698</v>
       </c>
-      <c r="BV25" s="14">
+      <c r="BV25" s="13">
         <v>0.27789614092345899</v>
       </c>
-      <c r="BW25" s="14">
+      <c r="BW25" s="13">
         <v>0.28354911919995002</v>
       </c>
-      <c r="BX25" s="14">
+      <c r="BX25" s="13">
         <v>0.28747072564895298</v>
       </c>
-      <c r="BY25" s="14">
+      <c r="BY25" s="13">
         <v>0.28757586719754502</v>
       </c>
-      <c r="BZ25" s="14">
+      <c r="BZ25" s="13">
         <v>0.28801793026275102</v>
       </c>
-      <c r="CA25" s="14">
+      <c r="CA25" s="13">
         <v>0.290898357667212</v>
       </c>
-      <c r="CB25" s="14">
+      <c r="CB25" s="13">
         <v>0.283956252150108</v>
       </c>
-      <c r="CC25" s="14">
+      <c r="CC25" s="13">
         <v>0.27956616484379299</v>
       </c>
-      <c r="CE25" s="14">
+      <c r="CE25" s="13">
         <v>0</v>
       </c>
-      <c r="CF25" s="14">
+      <c r="CF25" s="13">
         <v>-1.65078503002166</v>
       </c>
-      <c r="CG25" s="14">
+      <c r="CG25" s="13">
         <v>-0.46115203409983402</v>
       </c>
-      <c r="CH25" s="14">
+      <c r="CH25" s="13">
         <v>0.72788516989889096</v>
       </c>
-      <c r="CI25" s="14">
+      <c r="CI25" s="13">
         <v>1.3840518942226001</v>
       </c>
     </row>
     <row r="26" spans="1:87">
-      <c r="A26" s="13"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2"/>
       <c r="C26">
         <v>4</v>
@@ -13214,7 +13330,7 @@
         <v>-0.13223375086759201</v>
       </c>
       <c r="AL26">
-        <f>AL25+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="AM26" s="3">
@@ -13223,71 +13339,71 @@
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AQ26" s="3"/>
-      <c r="AR26" s="14">
+      <c r="AR26" s="13">
         <v>0.91341554074911202</v>
       </c>
-      <c r="AS26" s="14">
+      <c r="AS26" s="13">
         <v>4.1065742826028401E-2</v>
       </c>
-      <c r="AT26" s="14">
+      <c r="AT26" s="13">
         <v>1.4502464410344499E-2</v>
       </c>
-      <c r="AU26" s="14">
+      <c r="AU26" s="13">
         <v>2.79667063204463E-3</v>
       </c>
-      <c r="AV26" s="14">
+      <c r="AV26" s="13">
         <v>0</v>
       </c>
-      <c r="AW26" s="14">
+      <c r="AW26" s="13">
         <v>-1.02662275614765</v>
       </c>
-      <c r="AX26" s="14">
+      <c r="AX26" s="13">
         <v>-1.2052884651820599</v>
       </c>
-      <c r="AY26" s="14">
+      <c r="AY26" s="13">
         <v>1.01274106136844</v>
       </c>
-      <c r="AZ26" s="14">
+      <c r="AZ26" s="13">
         <v>1.2191701599612801</v>
       </c>
-      <c r="BA26" s="14">
+      <c r="BA26" s="13">
         <v>-0.74839899940480303</v>
       </c>
-      <c r="BB26" s="14">
+      <c r="BB26" s="13">
         <v>0.92559592350800601</v>
       </c>
-      <c r="BC26" s="14">
+      <c r="BC26" s="13">
         <v>2.4561363662051701E-2</v>
       </c>
-      <c r="BD26" s="14">
+      <c r="BD26" s="13">
         <v>3.01947301903298E-2</v>
       </c>
-      <c r="BE26" s="14">
+      <c r="BE26" s="13">
         <v>8.9385133765421797E-3</v>
       </c>
-      <c r="BF26" s="14">
+      <c r="BF26" s="13">
         <v>-1.02532865906198E-2</v>
       </c>
-      <c r="BG26" s="14">
+      <c r="BG26" s="13">
         <v>-1.6891311256032899E-2</v>
       </c>
-      <c r="BH26" s="14">
+      <c r="BH26" s="13">
         <v>0</v>
       </c>
-      <c r="BI26" s="14">
+      <c r="BI26" s="13">
         <v>-1.0236919725215901</v>
       </c>
-      <c r="BJ26" s="14">
+      <c r="BJ26" s="13">
         <v>-1.2038407162623701</v>
       </c>
-      <c r="BK26" s="14">
+      <c r="BK26" s="13">
         <v>1.01273905104091</v>
       </c>
-      <c r="BL26" s="14">
+      <c r="BL26" s="13">
         <v>1.2147936377430499</v>
       </c>
       <c r="BM26" s="3"/>
@@ -13297,61 +13413,61 @@
       <c r="BO26" s="3"/>
       <c r="BP26" s="3"/>
       <c r="BQ26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="BR26" s="3"/>
-      <c r="BS26" s="14">
+      <c r="BS26" s="13">
         <v>0.92903606834805097</v>
       </c>
-      <c r="BT26" s="14">
+      <c r="BT26" s="13">
         <v>4.81864946915719E-2</v>
       </c>
-      <c r="BU26" s="14">
+      <c r="BU26" s="13">
         <v>5.0014022035589897E-2</v>
       </c>
-      <c r="BV26" s="14">
+      <c r="BV26" s="13">
         <v>4.8552758339510699E-2</v>
       </c>
-      <c r="BW26" s="14">
+      <c r="BW26" s="13">
         <v>4.28467002359635E-2</v>
       </c>
-      <c r="BX26" s="14">
+      <c r="BX26" s="13">
         <v>3.91154975517993E-2</v>
       </c>
-      <c r="BY26" s="14">
+      <c r="BY26" s="13">
         <v>3.2255120575227302E-2</v>
       </c>
-      <c r="BZ26" s="14">
+      <c r="BZ26" s="13">
         <v>3.12049173992127E-2</v>
       </c>
-      <c r="CA26" s="14">
+      <c r="CA26" s="13">
         <v>2.8364306122751599E-2</v>
       </c>
-      <c r="CB26" s="14">
+      <c r="CB26" s="13">
         <v>2.5723031508559702E-2</v>
       </c>
-      <c r="CC26" s="14">
+      <c r="CC26" s="13">
         <v>2.25625026665623E-2</v>
       </c>
-      <c r="CE26" s="14">
+      <c r="CE26" s="13">
         <v>0</v>
       </c>
-      <c r="CF26" s="14">
+      <c r="CF26" s="13">
         <v>-0.99011511048691103</v>
       </c>
-      <c r="CG26" s="14">
+      <c r="CG26" s="13">
         <v>-1.2167598604430101</v>
       </c>
-      <c r="CH26" s="14">
+      <c r="CH26" s="13">
         <v>1.0078996556994699</v>
       </c>
-      <c r="CI26" s="14">
+      <c r="CI26" s="13">
         <v>1.1989753152304501</v>
       </c>
     </row>
     <row r="27" spans="1:87">
-      <c r="A27" s="13"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27">
         <v>5</v>
@@ -13459,7 +13575,7 @@
         <v>0.82829581638125904</v>
       </c>
       <c r="AL27">
-        <f>AL26+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AM27" s="3">
@@ -13468,71 +13584,71 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="AQ27" s="3"/>
-      <c r="AR27" s="14">
+      <c r="AR27" s="13">
         <v>0.53491840062076401</v>
       </c>
-      <c r="AS27" s="14">
+      <c r="AS27" s="13">
         <v>-2.8370436530647001E-2</v>
       </c>
-      <c r="AT27" s="14">
+      <c r="AT27" s="13">
         <v>-5.50246209267456E-2</v>
       </c>
-      <c r="AU27" s="14">
+      <c r="AU27" s="13">
         <v>-5.4953461268378703E-2</v>
       </c>
-      <c r="AV27" s="14">
+      <c r="AV27" s="13">
         <v>0</v>
       </c>
-      <c r="AW27" s="14">
+      <c r="AW27" s="13">
         <v>-1.2118281863709499</v>
       </c>
-      <c r="AX27" s="14">
+      <c r="AX27" s="13">
         <v>-0.14397742426754601</v>
       </c>
-      <c r="AY27" s="14">
+      <c r="AY27" s="13">
         <v>0.61705250138294099</v>
       </c>
-      <c r="AZ27" s="14">
+      <c r="AZ27" s="13">
         <v>0.73875310925555504</v>
       </c>
-      <c r="BA27" s="14">
+      <c r="BA27" s="13">
         <v>-0.48870313203900101</v>
       </c>
-      <c r="BB27" s="14">
+      <c r="BB27" s="13">
         <v>0.53839027597403499</v>
       </c>
-      <c r="BC27" s="14">
+      <c r="BC27" s="13">
         <v>-2.5196700096845302E-2</v>
       </c>
-      <c r="BD27" s="14">
+      <c r="BD27" s="13">
         <v>-3.9866126215094999E-2</v>
       </c>
-      <c r="BE27" s="14">
+      <c r="BE27" s="13">
         <v>-5.7736226679605603E-2</v>
       </c>
-      <c r="BF27" s="14">
+      <c r="BF27" s="13">
         <v>-6.9505548659618596E-2</v>
       </c>
-      <c r="BG27" s="14">
+      <c r="BG27" s="13">
         <v>-7.6186846467874297E-2</v>
       </c>
-      <c r="BH27" s="14">
+      <c r="BH27" s="13">
         <v>0</v>
       </c>
-      <c r="BI27" s="14">
+      <c r="BI27" s="13">
         <v>-1.22422425082032</v>
       </c>
-      <c r="BJ27" s="14">
+      <c r="BJ27" s="13">
         <v>-0.13074476214588199</v>
       </c>
-      <c r="BK27" s="14">
+      <c r="BK27" s="13">
         <v>0.62830069729576499</v>
       </c>
-      <c r="BL27" s="14">
+      <c r="BL27" s="13">
         <v>0.72666831567043599</v>
       </c>
       <c r="BM27" s="3"/>
@@ -13542,61 +13658,61 @@
       <c r="BO27" s="3"/>
       <c r="BP27" s="3"/>
       <c r="BQ27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="BR27" s="3"/>
-      <c r="BS27" s="14">
+      <c r="BS27" s="13">
         <v>0.54050058258304401</v>
       </c>
-      <c r="BT27" s="14">
+      <c r="BT27" s="13">
         <v>-1.6418847605538599E-2</v>
       </c>
-      <c r="BU27" s="14">
+      <c r="BU27" s="13">
         <v>-2.1307843416175701E-2</v>
       </c>
-      <c r="BV27" s="14">
+      <c r="BV27" s="13">
         <v>-3.0026201840034801E-2</v>
       </c>
-      <c r="BW27" s="14">
+      <c r="BW27" s="13">
         <v>-3.58025710180759E-2</v>
       </c>
-      <c r="BX27" s="14">
+      <c r="BX27" s="13">
         <v>-4.0030240894952197E-2</v>
       </c>
-      <c r="BY27" s="14">
+      <c r="BY27" s="13">
         <v>-4.2781483106627403E-2</v>
       </c>
-      <c r="BZ27" s="14">
+      <c r="BZ27" s="13">
         <v>-4.3100218243828099E-2</v>
       </c>
-      <c r="CA27" s="14">
+      <c r="CA27" s="13">
         <v>-4.7298379556311498E-2</v>
       </c>
-      <c r="CB27" s="14">
+      <c r="CB27" s="13">
         <v>-5.1015733511343801E-2</v>
       </c>
-      <c r="CC27" s="14">
+      <c r="CC27" s="13">
         <v>-5.3398419455502E-2</v>
       </c>
-      <c r="CE27" s="14">
+      <c r="CE27" s="13">
         <v>0</v>
       </c>
-      <c r="CF27" s="14">
+      <c r="CF27" s="13">
         <v>-1.2050103718267799</v>
       </c>
-      <c r="CG27" s="14">
+      <c r="CG27" s="13">
         <v>-0.15232998341079201</v>
       </c>
-      <c r="CH27" s="14">
+      <c r="CH27" s="13">
         <v>0.63045587681753501</v>
       </c>
-      <c r="CI27" s="14">
+      <c r="CI27" s="13">
         <v>0.72688447842003701</v>
       </c>
     </row>
     <row r="28" spans="1:87">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -13705,7 +13821,7 @@
         <v>-0.32816841123046703</v>
       </c>
       <c r="AL28">
-        <f>AL27+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AM28" s="3">
@@ -13718,67 +13834,67 @@
         <v>25</v>
       </c>
       <c r="AQ28" s="3"/>
-      <c r="AR28" s="14">
+      <c r="AR28" s="13">
         <v>0.90019876181051595</v>
       </c>
-      <c r="AS28" s="14">
+      <c r="AS28" s="13">
         <v>2.2510969311700098E-2</v>
       </c>
-      <c r="AT28" s="14">
+      <c r="AT28" s="13">
         <v>-2.33484363479558E-2</v>
       </c>
-      <c r="AU28" s="14">
+      <c r="AU28" s="13">
         <v>-9.3435152661373602E-2</v>
       </c>
-      <c r="AV28" s="14">
+      <c r="AV28" s="13">
         <v>0</v>
       </c>
-      <c r="AW28" s="14">
+      <c r="AW28" s="13">
         <v>-0.71839970420013299</v>
       </c>
-      <c r="AX28" s="14">
+      <c r="AX28" s="13">
         <v>0.132692033601194</v>
       </c>
-      <c r="AY28" s="14">
+      <c r="AY28" s="13">
         <v>0.46049677524357702</v>
       </c>
-      <c r="AZ28" s="14">
+      <c r="AZ28" s="13">
         <v>0.12521089535536301</v>
       </c>
-      <c r="BA28" s="14">
+      <c r="BA28" s="13">
         <v>5.9826323729761004E-3</v>
       </c>
-      <c r="BB28" s="14">
+      <c r="BB28" s="13">
         <v>0.88979695474703302</v>
       </c>
-      <c r="BC28" s="14">
+      <c r="BC28" s="13">
         <v>1.9973932705983799E-2</v>
       </c>
-      <c r="BD28" s="14">
+      <c r="BD28" s="13">
         <v>1.1470436342064501E-2</v>
       </c>
-      <c r="BE28" s="14">
+      <c r="BE28" s="13">
         <v>-3.3799372943811301E-2</v>
       </c>
-      <c r="BF28" s="14">
+      <c r="BF28" s="13">
         <v>-7.4982003712749198E-2</v>
       </c>
-      <c r="BG28" s="14">
+      <c r="BG28" s="13">
         <v>-9.4362043734862996E-2</v>
       </c>
-      <c r="BH28" s="14">
+      <c r="BH28" s="13">
         <v>0</v>
       </c>
-      <c r="BI28" s="14">
+      <c r="BI28" s="13">
         <v>-0.72403426774920199</v>
       </c>
-      <c r="BJ28" s="14">
+      <c r="BJ28" s="13">
         <v>0.13653965592287501</v>
       </c>
-      <c r="BK28" s="14">
+      <c r="BK28" s="13">
         <v>0.44846748517368501</v>
       </c>
-      <c r="BL28" s="14">
+      <c r="BL28" s="13">
         <v>0.139027126652641</v>
       </c>
       <c r="BM28" s="3"/>
@@ -13792,59 +13908,59 @@
         <v>25</v>
       </c>
       <c r="BR28" s="3"/>
-      <c r="BS28" s="14">
+      <c r="BS28" s="13">
         <v>0.86901899917788505</v>
       </c>
-      <c r="BT28" s="14">
+      <c r="BT28" s="13">
         <v>1.5867944994925699E-2</v>
       </c>
-      <c r="BU28" s="14">
+      <c r="BU28" s="13">
         <v>1.3828506885904E-2</v>
       </c>
-      <c r="BV28" s="14">
+      <c r="BV28" s="13">
         <v>1.13457721920289E-2</v>
       </c>
-      <c r="BW28" s="14">
+      <c r="BW28" s="13">
         <v>1.8296155883103099E-3</v>
       </c>
-      <c r="BX28" s="14">
+      <c r="BX28" s="13">
         <v>-1.4302186484454599E-2</v>
       </c>
-      <c r="BY28" s="14">
+      <c r="BY28" s="13">
         <v>-2.8163067299400699E-2</v>
       </c>
-      <c r="BZ28" s="14">
+      <c r="BZ28" s="13">
         <v>-3.9363408384956999E-2</v>
       </c>
-      <c r="CA28" s="14">
+      <c r="CA28" s="13">
         <v>-5.4532878273541398E-2</v>
       </c>
-      <c r="CB28" s="14">
+      <c r="CB28" s="13">
         <v>-6.1869237633695201E-2</v>
       </c>
-      <c r="CC28" s="14">
+      <c r="CC28" s="13">
         <v>-6.2679782295158804E-2</v>
       </c>
-      <c r="CE28" s="14">
+      <c r="CE28" s="13">
         <v>0</v>
       </c>
-      <c r="CF28" s="14">
+      <c r="CF28" s="13">
         <v>-0.72073001990935004</v>
       </c>
-      <c r="CG28" s="14">
+      <c r="CG28" s="13">
         <v>0.12970854494956899</v>
       </c>
-      <c r="CH28" s="14">
+      <c r="CH28" s="13">
         <v>0.46038586805134402</v>
       </c>
-      <c r="CI28" s="14">
+      <c r="CI28" s="13">
         <v>0.13063560690843801</v>
       </c>
     </row>
     <row r="29" spans="1:87">
-      <c r="A29" s="13"/>
+      <c r="A29" s="15"/>
       <c r="AL29">
-        <f>AL28+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="AM29" s="3">
@@ -13853,71 +13969,71 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="AQ29" s="3"/>
-      <c r="AR29" s="14">
+      <c r="AR29" s="13">
         <v>1.6905864960555399</v>
       </c>
-      <c r="AS29" s="14">
+      <c r="AS29" s="13">
         <v>0.113140364115038</v>
       </c>
-      <c r="AT29" s="14">
+      <c r="AT29" s="13">
         <v>0.148095673782973</v>
       </c>
-      <c r="AU29" s="14">
+      <c r="AU29" s="13">
         <v>0.166969845779047</v>
       </c>
-      <c r="AV29" s="14">
+      <c r="AV29" s="13">
         <v>0</v>
       </c>
-      <c r="AW29" s="14">
+      <c r="AW29" s="13">
         <v>-0.55606928508005804</v>
       </c>
-      <c r="AX29" s="14">
+      <c r="AX29" s="13">
         <v>-0.39494862360499799</v>
       </c>
-      <c r="AY29" s="14">
+      <c r="AY29" s="13">
         <v>0.39050611093853599</v>
       </c>
-      <c r="AZ29" s="14">
+      <c r="AZ29" s="13">
         <v>0.56051179774652105</v>
       </c>
-      <c r="BA29" s="14">
+      <c r="BA29" s="13">
         <v>-6.6394633209795995E-2</v>
       </c>
-      <c r="BB29" s="14">
+      <c r="BB29" s="13">
         <v>1.7024575289953701</v>
       </c>
-      <c r="BC29" s="14">
+      <c r="BC29" s="13">
         <v>0.100057440252969</v>
       </c>
-      <c r="BD29" s="14">
+      <c r="BD29" s="13">
         <v>0.11423700074059499</v>
       </c>
-      <c r="BE29" s="14">
+      <c r="BE29" s="13">
         <v>0.148973419938979</v>
       </c>
-      <c r="BF29" s="14">
+      <c r="BF29" s="13">
         <v>0.156799028671017</v>
       </c>
-      <c r="BG29" s="14">
+      <c r="BG29" s="13">
         <v>0.175317514433599</v>
       </c>
-      <c r="BH29" s="14">
+      <c r="BH29" s="13">
         <v>0</v>
       </c>
-      <c r="BI29" s="14">
+      <c r="BI29" s="13">
         <v>-0.55999218085597202</v>
       </c>
-      <c r="BJ29" s="14">
+      <c r="BJ29" s="13">
         <v>-0.394336899765386</v>
       </c>
-      <c r="BK29" s="14">
+      <c r="BK29" s="13">
         <v>0.38926522122196899</v>
       </c>
-      <c r="BL29" s="14">
+      <c r="BL29" s="13">
         <v>0.56506385939938897</v>
       </c>
       <c r="BM29" s="3"/>
@@ -13927,61 +14043,61 @@
       <c r="BO29" s="3"/>
       <c r="BP29" s="3"/>
       <c r="BQ29" s="3">
-        <f t="shared" ref="BQ29:BQ60" si="3">BQ28+1</f>
+        <f t="shared" ref="BQ29:BQ37" si="4">BQ28+1</f>
         <v>26</v>
       </c>
       <c r="BR29" s="3"/>
-      <c r="BS29" s="14">
+      <c r="BS29" s="13">
         <v>1.68711473790024</v>
       </c>
-      <c r="BT29" s="14">
+      <c r="BT29" s="13">
         <v>0.126484787254734</v>
       </c>
-      <c r="BU29" s="14">
+      <c r="BU29" s="13">
         <v>0.13623811688204401</v>
       </c>
-      <c r="BV29" s="14">
+      <c r="BV29" s="13">
         <v>0.142846733465956</v>
       </c>
-      <c r="BW29" s="14">
+      <c r="BW29" s="13">
         <v>0.15038664395983201</v>
       </c>
-      <c r="BX29" s="14">
+      <c r="BX29" s="13">
         <v>0.159719774645802</v>
       </c>
-      <c r="BY29" s="14">
+      <c r="BY29" s="13">
         <v>0.16676908439041199</v>
       </c>
-      <c r="BZ29" s="14">
+      <c r="BZ29" s="13">
         <v>0.171623387284391</v>
       </c>
-      <c r="CA29" s="14">
+      <c r="CA29" s="13">
         <v>0.174355091395653</v>
       </c>
-      <c r="CB29" s="14">
+      <c r="CB29" s="13">
         <v>0.180488404953805</v>
       </c>
-      <c r="CC29" s="14">
+      <c r="CC29" s="13">
         <v>0.18759690899766199</v>
       </c>
-      <c r="CE29" s="14">
+      <c r="CE29" s="13">
         <v>0</v>
       </c>
-      <c r="CF29" s="14">
+      <c r="CF29" s="13">
         <v>-0.56191844829433502</v>
       </c>
-      <c r="CG29" s="14">
+      <c r="CG29" s="13">
         <v>-0.39776920010523897</v>
       </c>
-      <c r="CH29" s="14">
+      <c r="CH29" s="13">
         <v>0.38867144811515703</v>
       </c>
-      <c r="CI29" s="14">
+      <c r="CI29" s="13">
         <v>0.57101620028441702</v>
       </c>
     </row>
     <row r="30" spans="1:87">
-      <c r="A30" s="13"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
@@ -14088,7 +14204,7 @@
         <v>1.3814465048911599</v>
       </c>
       <c r="AL30">
-        <f>AL29+1</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="AM30" s="3">
@@ -14097,71 +14213,71 @@
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="AQ30" s="3"/>
-      <c r="AR30" s="14">
+      <c r="AR30" s="13">
         <v>0.85306112646889298</v>
       </c>
-      <c r="AS30" s="14">
+      <c r="AS30" s="13">
         <v>-0.49542192312484701</v>
       </c>
-      <c r="AT30" s="14">
+      <c r="AT30" s="13">
         <v>-0.501296452205372</v>
       </c>
-      <c r="AU30" s="14">
+      <c r="AU30" s="13">
         <v>-0.48644771969165101</v>
       </c>
-      <c r="AV30" s="14">
+      <c r="AV30" s="13">
         <v>0</v>
       </c>
-      <c r="AW30" s="14">
+      <c r="AW30" s="13">
         <v>-1.24407000294144</v>
       </c>
-      <c r="AX30" s="14">
+      <c r="AX30" s="13">
         <v>-0.172465069879048</v>
       </c>
-      <c r="AY30" s="14">
+      <c r="AY30" s="13">
         <v>0.65202961161138195</v>
       </c>
-      <c r="AZ30" s="14">
+      <c r="AZ30" s="13">
         <v>0.76450546120910301</v>
       </c>
-      <c r="BA30" s="14">
+      <c r="BA30" s="13">
         <v>-0.55199694537197497</v>
       </c>
-      <c r="BB30" s="14">
+      <c r="BB30" s="13">
         <v>0.84281108651060299</v>
       </c>
-      <c r="BC30" s="14">
+      <c r="BC30" s="13">
         <v>-0.50388281098980603</v>
       </c>
-      <c r="BD30" s="14">
+      <c r="BD30" s="13">
         <v>-0.491405127183971</v>
       </c>
-      <c r="BE30" s="14">
+      <c r="BE30" s="13">
         <v>-0.50192407808343698</v>
       </c>
-      <c r="BF30" s="14">
+      <c r="BF30" s="13">
         <v>-0.49204455451114998</v>
       </c>
-      <c r="BG30" s="14">
+      <c r="BG30" s="13">
         <v>-0.48145204444037798</v>
       </c>
-      <c r="BH30" s="14">
+      <c r="BH30" s="13">
         <v>0</v>
       </c>
-      <c r="BI30" s="14">
+      <c r="BI30" s="13">
         <v>-1.2526966176677701</v>
       </c>
-      <c r="BJ30" s="14">
+      <c r="BJ30" s="13">
         <v>-0.167001448776745</v>
       </c>
-      <c r="BK30" s="14">
+      <c r="BK30" s="13">
         <v>0.63576881464555302</v>
       </c>
-      <c r="BL30" s="14">
+      <c r="BL30" s="13">
         <v>0.783929251798962</v>
       </c>
       <c r="BM30" s="3"/>
@@ -14171,63 +14287,63 @@
       <c r="BO30" s="3"/>
       <c r="BP30" s="3"/>
       <c r="BQ30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="BR30" s="3"/>
-      <c r="BS30" s="14">
+      <c r="BS30" s="13">
         <v>0.85461356416269796</v>
       </c>
-      <c r="BT30" s="14">
+      <c r="BT30" s="13">
         <v>-0.48865343631900998</v>
       </c>
-      <c r="BU30" s="14">
+      <c r="BU30" s="13">
         <v>-0.48701510549902899</v>
       </c>
-      <c r="BV30" s="14">
+      <c r="BV30" s="13">
         <v>-0.483528136439145</v>
       </c>
-      <c r="BW30" s="14">
+      <c r="BW30" s="13">
         <v>-0.48634453736495697</v>
       </c>
-      <c r="BX30" s="14">
+      <c r="BX30" s="13">
         <v>-0.483670969627015</v>
       </c>
-      <c r="BY30" s="14">
+      <c r="BY30" s="13">
         <v>-0.48128360527728098</v>
       </c>
-      <c r="BZ30" s="14">
+      <c r="BZ30" s="13">
         <v>-0.47736305847044502</v>
       </c>
-      <c r="CA30" s="14">
+      <c r="CA30" s="13">
         <v>-0.47790044629996598</v>
       </c>
-      <c r="CB30" s="14">
+      <c r="CB30" s="13">
         <v>-0.47497314796638501</v>
       </c>
-      <c r="CC30" s="14">
+      <c r="CC30" s="13">
         <v>-0.47010292981208501</v>
       </c>
-      <c r="CE30" s="14">
+      <c r="CE30" s="13">
         <v>0</v>
       </c>
-      <c r="CF30" s="14">
+      <c r="CF30" s="13">
         <v>-1.2386860886827</v>
       </c>
-      <c r="CG30" s="14">
+      <c r="CG30" s="13">
         <v>-0.189092663213204</v>
       </c>
-      <c r="CH30" s="14">
+      <c r="CH30" s="13">
         <v>0.66243027350527295</v>
       </c>
-      <c r="CI30" s="14">
+      <c r="CI30" s="13">
         <v>0.76534847839063003</v>
       </c>
     </row>
     <row r="31" spans="1:87">
-      <c r="A31" s="13"/>
+      <c r="A31" s="15"/>
       <c r="AL31">
-        <f>AL30+1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="AM31" s="3">
@@ -14236,71 +14352,71 @@
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="AQ31" s="3"/>
-      <c r="AR31" s="14">
+      <c r="AR31" s="13">
         <v>0.92321585641280002</v>
       </c>
-      <c r="AS31" s="14">
+      <c r="AS31" s="13">
         <v>-0.31254257182758599</v>
       </c>
-      <c r="AT31" s="14">
+      <c r="AT31" s="13">
         <v>-0.28867078821492997</v>
       </c>
-      <c r="AU31" s="14">
+      <c r="AU31" s="13">
         <v>-0.28091823575853297</v>
       </c>
-      <c r="AV31" s="14">
+      <c r="AV31" s="13">
         <v>0</v>
       </c>
-      <c r="AW31" s="14">
+      <c r="AW31" s="13">
         <v>-1.44941444455131</v>
       </c>
-      <c r="AX31" s="14">
+      <c r="AX31" s="13">
         <v>-0.417958019569453</v>
       </c>
-      <c r="AY31" s="14">
+      <c r="AY31" s="13">
         <v>0.94641836928490197</v>
       </c>
-      <c r="AZ31" s="14">
+      <c r="AZ31" s="13">
         <v>0.92095409483585999</v>
       </c>
-      <c r="BA31" s="14">
+      <c r="BA31" s="13">
         <v>0.537223605441845</v>
       </c>
-      <c r="BB31" s="14">
+      <c r="BB31" s="13">
         <v>0.94491281410538996</v>
       </c>
-      <c r="BC31" s="14">
+      <c r="BC31" s="13">
         <v>-0.32036642950371702</v>
       </c>
-      <c r="BD31" s="14">
+      <c r="BD31" s="13">
         <v>-0.28111635382821898</v>
       </c>
-      <c r="BE31" s="14">
+      <c r="BE31" s="13">
         <v>-0.26762094326499503</v>
       </c>
-      <c r="BF31" s="14">
+      <c r="BF31" s="13">
         <v>-0.26869314228100699</v>
       </c>
-      <c r="BG31" s="14">
+      <c r="BG31" s="13">
         <v>-0.26781896941519601</v>
       </c>
-      <c r="BH31" s="14">
+      <c r="BH31" s="13">
         <v>0</v>
       </c>
-      <c r="BI31" s="14">
+      <c r="BI31" s="13">
         <v>-1.4220507740425601</v>
       </c>
-      <c r="BJ31" s="14">
+      <c r="BJ31" s="13">
         <v>-0.41314169047801302</v>
       </c>
-      <c r="BK31" s="14">
+      <c r="BK31" s="13">
         <v>0.92004629774159197</v>
       </c>
-      <c r="BL31" s="14">
+      <c r="BL31" s="13">
         <v>0.91514616677897997</v>
       </c>
       <c r="BM31" s="3"/>
@@ -14310,61 +14426,61 @@
       <c r="BO31" s="3"/>
       <c r="BP31" s="3"/>
       <c r="BQ31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="BR31" s="3"/>
-      <c r="BS31" s="14">
+      <c r="BS31" s="13">
         <v>0.92969500311865905</v>
       </c>
-      <c r="BT31" s="14">
+      <c r="BT31" s="13">
         <v>-0.280324359998115</v>
       </c>
-      <c r="BU31" s="14">
+      <c r="BU31" s="13">
         <v>-0.27702837890077597</v>
       </c>
-      <c r="BV31" s="14">
+      <c r="BV31" s="13">
         <v>-0.26542408601193501</v>
       </c>
-      <c r="BW31" s="14">
+      <c r="BW31" s="13">
         <v>-0.260618005306407</v>
       </c>
-      <c r="BX31" s="14">
+      <c r="BX31" s="13">
         <v>-0.25820768889851098</v>
       </c>
-      <c r="BY31" s="14">
+      <c r="BY31" s="13">
         <v>-0.25723284723688</v>
       </c>
-      <c r="BZ31" s="14">
+      <c r="BZ31" s="13">
         <v>-0.25699491431871102</v>
       </c>
-      <c r="CA31" s="14">
+      <c r="CA31" s="13">
         <v>-0.252931480377037</v>
       </c>
-      <c r="CB31" s="14">
+      <c r="CB31" s="13">
         <v>-0.25250914847710898</v>
       </c>
-      <c r="CC31" s="14">
+      <c r="CC31" s="13">
         <v>-0.25533347524223599</v>
       </c>
-      <c r="CE31" s="14">
+      <c r="CE31" s="13">
         <v>0</v>
       </c>
-      <c r="CF31" s="14">
+      <c r="CF31" s="13">
         <v>-1.40765653505685</v>
       </c>
-      <c r="CG31" s="14">
+      <c r="CG31" s="13">
         <v>-0.43363163272896399</v>
       </c>
-      <c r="CH31" s="14">
+      <c r="CH31" s="13">
         <v>0.93319515994408797</v>
       </c>
-      <c r="CI31" s="14">
+      <c r="CI31" s="13">
         <v>0.90809300784173097</v>
       </c>
     </row>
     <row r="32" spans="1:87">
-      <c r="A32" s="13"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
@@ -14474,7 +14590,7 @@
         <v>-2.8691346191311199E-2</v>
       </c>
       <c r="AL32">
-        <f>AL31+1</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AM32" s="3">
@@ -14483,71 +14599,71 @@
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="AQ32" s="3"/>
-      <c r="AR32" s="14">
+      <c r="AR32" s="13">
         <v>1.21689333400542</v>
       </c>
-      <c r="AS32" s="14">
+      <c r="AS32" s="13">
         <v>-0.16042008053267601</v>
       </c>
-      <c r="AT32" s="14">
+      <c r="AT32" s="13">
         <v>-9.0931927725063796E-2</v>
       </c>
-      <c r="AU32" s="14">
+      <c r="AU32" s="13">
         <v>-7.3267085078942501E-2</v>
       </c>
-      <c r="AV32" s="14">
+      <c r="AV32" s="13">
         <v>0</v>
       </c>
-      <c r="AW32" s="14">
+      <c r="AW32" s="13">
         <v>-0.61668790424012998</v>
       </c>
-      <c r="AX32" s="14">
+      <c r="AX32" s="13">
         <v>-0.25146326537185199</v>
       </c>
-      <c r="AY32" s="14">
+      <c r="AY32" s="13">
         <v>0.77527009044974704</v>
       </c>
-      <c r="AZ32" s="14">
+      <c r="AZ32" s="13">
         <v>9.2881079162234897E-2</v>
       </c>
-      <c r="BA32" s="14">
+      <c r="BA32" s="13">
         <v>0.187388879328242</v>
       </c>
-      <c r="BB32" s="14">
+      <c r="BB32" s="13">
         <v>1.2333781763771401</v>
       </c>
-      <c r="BC32" s="14">
+      <c r="BC32" s="13">
         <v>-0.17738736993269899</v>
       </c>
-      <c r="BD32" s="14">
+      <c r="BD32" s="13">
         <v>-0.12897785896101099</v>
       </c>
-      <c r="BE32" s="14">
+      <c r="BE32" s="13">
         <v>-8.8838058702621597E-2</v>
       </c>
-      <c r="BF32" s="14">
+      <c r="BF32" s="13">
         <v>-7.1043272517703704E-2</v>
       </c>
-      <c r="BG32" s="14">
+      <c r="BG32" s="13">
         <v>-8.6462974644139795E-2</v>
       </c>
-      <c r="BH32" s="14">
+      <c r="BH32" s="13">
         <v>0</v>
       </c>
-      <c r="BI32" s="14">
+      <c r="BI32" s="13">
         <v>-0.615191254950329</v>
       </c>
-      <c r="BJ32" s="14">
+      <c r="BJ32" s="13">
         <v>-0.265383284938708</v>
       </c>
-      <c r="BK32" s="14">
+      <c r="BK32" s="13">
         <v>0.77090046259369904</v>
       </c>
-      <c r="BL32" s="14">
+      <c r="BL32" s="13">
         <v>0.109674077295338</v>
       </c>
       <c r="BM32" s="3"/>
@@ -14557,61 +14673,61 @@
       <c r="BO32" s="3"/>
       <c r="BP32" s="3"/>
       <c r="BQ32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="BR32" s="3"/>
-      <c r="BS32" s="14">
+      <c r="BS32" s="13">
         <v>1.2081713717443401</v>
       </c>
-      <c r="BT32" s="14">
+      <c r="BT32" s="13">
         <v>-0.13678471588614499</v>
       </c>
-      <c r="BU32" s="14">
+      <c r="BU32" s="13">
         <v>-0.12397959382239</v>
       </c>
-      <c r="BV32" s="14">
+      <c r="BV32" s="13">
         <v>-0.10916584285322201</v>
       </c>
-      <c r="BW32" s="14">
+      <c r="BW32" s="13">
         <v>-9.20605373286877E-2</v>
       </c>
-      <c r="BX32" s="14">
+      <c r="BX32" s="13">
         <v>-8.6101316909634407E-2</v>
       </c>
-      <c r="BY32" s="14">
+      <c r="BY32" s="13">
         <v>-8.4016413644036197E-2</v>
       </c>
-      <c r="BZ32" s="14">
+      <c r="BZ32" s="13">
         <v>-7.6870026287637699E-2</v>
       </c>
-      <c r="CA32" s="14">
+      <c r="CA32" s="13">
         <v>-7.4869916312265097E-2</v>
       </c>
-      <c r="CB32" s="14">
+      <c r="CB32" s="13">
         <v>-7.9833162982365702E-2</v>
       </c>
-      <c r="CC32" s="14">
+      <c r="CC32" s="13">
         <v>-7.7564511275623305E-2</v>
       </c>
-      <c r="CE32" s="14">
+      <c r="CE32" s="13">
         <v>0</v>
       </c>
-      <c r="CF32" s="14">
+      <c r="CF32" s="13">
         <v>-0.61486471925099895</v>
       </c>
-      <c r="CG32" s="14">
+      <c r="CG32" s="13">
         <v>-0.25240829439158602</v>
       </c>
-      <c r="CH32" s="14">
+      <c r="CH32" s="13">
         <v>0.76170554018634795</v>
       </c>
-      <c r="CI32" s="14">
+      <c r="CI32" s="13">
         <v>0.105567473456237</v>
       </c>
     </row>
     <row r="33" spans="1:87">
-      <c r="A33" s="13"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2"/>
       <c r="C33">
         <v>2</v>
@@ -14719,7 +14835,7 @@
         <v>-2.9523596478842101E-2</v>
       </c>
       <c r="AL33">
-        <f>AL32+1</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AM33" s="3">
@@ -14728,71 +14844,71 @@
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AQ33" s="3"/>
-      <c r="AR33" s="14">
+      <c r="AR33" s="13">
         <v>0.69339077309464003</v>
       </c>
-      <c r="AS33" s="14">
+      <c r="AS33" s="13">
         <v>-9.66757521497464E-2</v>
       </c>
-      <c r="AT33" s="14">
+      <c r="AT33" s="13">
         <v>-0.113600612845159</v>
       </c>
-      <c r="AU33" s="14">
+      <c r="AU33" s="13">
         <v>-0.12060651647335301</v>
       </c>
-      <c r="AV33" s="14">
+      <c r="AV33" s="13">
         <v>0</v>
       </c>
-      <c r="AW33" s="14">
+      <c r="AW33" s="13">
         <v>-0.90550736953520605</v>
       </c>
-      <c r="AX33" s="14">
+      <c r="AX33" s="13">
         <v>0.45840098103700699</v>
       </c>
-      <c r="AY33" s="14">
+      <c r="AY33" s="13">
         <v>-0.22597392317949599</v>
       </c>
-      <c r="AZ33" s="14">
+      <c r="AZ33" s="13">
         <v>0.673080311677695</v>
       </c>
-      <c r="BA33" s="14">
+      <c r="BA33" s="13">
         <v>-0.17452426572316501</v>
       </c>
-      <c r="BB33" s="14">
+      <c r="BB33" s="13">
         <v>0.70263032573249495</v>
       </c>
-      <c r="BC33" s="14">
+      <c r="BC33" s="13">
         <v>-8.3532587791168803E-2</v>
       </c>
-      <c r="BD33" s="14">
+      <c r="BD33" s="13">
         <v>-8.8703236543304601E-2</v>
       </c>
-      <c r="BE33" s="14">
+      <c r="BE33" s="13">
         <v>-0.103612831425564</v>
       </c>
-      <c r="BF33" s="14">
+      <c r="BF33" s="13">
         <v>-0.11399045603539899</v>
       </c>
-      <c r="BG33" s="14">
+      <c r="BG33" s="13">
         <v>-0.10120674614509099</v>
       </c>
-      <c r="BH33" s="14">
+      <c r="BH33" s="13">
         <v>0</v>
       </c>
-      <c r="BI33" s="14">
+      <c r="BI33" s="13">
         <v>-0.86974388579814099</v>
       </c>
-      <c r="BJ33" s="14">
+      <c r="BJ33" s="13">
         <v>0.46008085907433199</v>
       </c>
-      <c r="BK33" s="14">
+      <c r="BK33" s="13">
         <v>-0.24005126259062001</v>
       </c>
-      <c r="BL33" s="14">
+      <c r="BL33" s="13">
         <v>0.64971428931442798</v>
       </c>
       <c r="BM33" s="3"/>
@@ -14802,61 +14918,61 @@
       <c r="BO33" s="3"/>
       <c r="BP33" s="3"/>
       <c r="BQ33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="BR33" s="3"/>
-      <c r="BS33" s="14">
+      <c r="BS33" s="13">
         <v>0.70534301209625505</v>
       </c>
-      <c r="BT33" s="14">
+      <c r="BT33" s="13">
         <v>-6.9137338097936304E-2</v>
       </c>
-      <c r="BU33" s="14">
+      <c r="BU33" s="13">
         <v>-6.9458903137691305E-2</v>
       </c>
-      <c r="BV33" s="14">
+      <c r="BV33" s="13">
         <v>-7.1991425337425294E-2</v>
       </c>
-      <c r="BW33" s="14">
+      <c r="BW33" s="13">
         <v>-7.6095905445527995E-2</v>
       </c>
-      <c r="BX33" s="14">
+      <c r="BX33" s="13">
         <v>-8.1795413815518303E-2</v>
       </c>
-      <c r="BY33" s="14">
+      <c r="BY33" s="13">
         <v>-8.9508674720796697E-2</v>
       </c>
-      <c r="BZ33" s="14">
+      <c r="BZ33" s="13">
         <v>-9.4134553975478402E-2</v>
       </c>
-      <c r="CA33" s="14">
+      <c r="CA33" s="13">
         <v>-9.2770756935597998E-2</v>
       </c>
-      <c r="CB33" s="14">
+      <c r="CB33" s="13">
         <v>-8.8425326151729794E-2</v>
       </c>
-      <c r="CC33" s="14">
+      <c r="CC33" s="13">
         <v>-9.0602086386912598E-2</v>
       </c>
-      <c r="CE33" s="14">
+      <c r="CE33" s="13">
         <v>0</v>
       </c>
-      <c r="CF33" s="14">
+      <c r="CF33" s="13">
         <v>-0.88229731202307704</v>
       </c>
-      <c r="CG33" s="14">
+      <c r="CG33" s="13">
         <v>0.431949579827831</v>
       </c>
-      <c r="CH33" s="14">
+      <c r="CH33" s="13">
         <v>-0.223701853763212</v>
       </c>
-      <c r="CI33" s="14">
+      <c r="CI33" s="13">
         <v>0.67404958595845799</v>
       </c>
     </row>
     <row r="34" spans="1:87">
-      <c r="A34" s="13"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2"/>
       <c r="C34">
         <v>3</v>
@@ -14964,7 +15080,7 @@
         <v>-3.5466159675444503E-2</v>
       </c>
       <c r="AL34">
-        <f>AL33+1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="AM34" s="3">
@@ -14973,71 +15089,71 @@
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="AQ34" s="3"/>
-      <c r="AR34" s="14">
+      <c r="AR34" s="13">
         <v>0.97171936436315598</v>
       </c>
-      <c r="AS34" s="14">
+      <c r="AS34" s="13">
         <v>-0.101279110924344</v>
       </c>
-      <c r="AT34" s="14">
+      <c r="AT34" s="13">
         <v>-0.13717307726172701</v>
       </c>
-      <c r="AU34" s="14">
+      <c r="AU34" s="13">
         <v>-0.116506020203716</v>
       </c>
-      <c r="AV34" s="14">
+      <c r="AV34" s="13">
         <v>0</v>
       </c>
-      <c r="AW34" s="14">
+      <c r="AW34" s="13">
         <v>-0.46638813911995602</v>
       </c>
-      <c r="AX34" s="14">
+      <c r="AX34" s="13">
         <v>-0.172637614250959</v>
       </c>
-      <c r="AY34" s="14">
+      <c r="AY34" s="13">
         <v>-0.36035948413357</v>
       </c>
-      <c r="AZ34" s="14">
+      <c r="AZ34" s="13">
         <v>0.99938523750448505</v>
       </c>
-      <c r="BA34" s="14">
+      <c r="BA34" s="13">
         <v>0.73702172109271802</v>
       </c>
-      <c r="BB34" s="14">
+      <c r="BB34" s="13">
         <v>0.960813817782739</v>
       </c>
-      <c r="BC34" s="14">
+      <c r="BC34" s="13">
         <v>-0.12570700165994</v>
       </c>
-      <c r="BD34" s="14">
+      <c r="BD34" s="13">
         <v>-0.11704263287049101</v>
       </c>
-      <c r="BE34" s="14">
+      <c r="BE34" s="13">
         <v>-0.13732396240436101</v>
       </c>
-      <c r="BF34" s="14">
+      <c r="BF34" s="13">
         <v>-0.131321069292129</v>
       </c>
-      <c r="BG34" s="14">
+      <c r="BG34" s="13">
         <v>-0.11422348595352599</v>
       </c>
-      <c r="BH34" s="14">
+      <c r="BH34" s="13">
         <v>0</v>
       </c>
-      <c r="BI34" s="14">
+      <c r="BI34" s="13">
         <v>-0.46734042795675501</v>
       </c>
-      <c r="BJ34" s="14">
+      <c r="BJ34" s="13">
         <v>-0.17030065718933099</v>
       </c>
-      <c r="BK34" s="14">
+      <c r="BK34" s="13">
         <v>-0.36537046853865601</v>
       </c>
-      <c r="BL34" s="14">
+      <c r="BL34" s="13">
         <v>1.0030115536847399</v>
       </c>
       <c r="BM34" s="3"/>
@@ -15047,61 +15163,61 @@
       <c r="BO34" s="3"/>
       <c r="BP34" s="3"/>
       <c r="BQ34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="BR34" s="3"/>
-      <c r="BS34" s="14">
+      <c r="BS34" s="13">
         <v>0.96315460615981197</v>
       </c>
-      <c r="BT34" s="14">
+      <c r="BT34" s="13">
         <v>-0.10946223995811501</v>
       </c>
-      <c r="BU34" s="14">
+      <c r="BU34" s="13">
         <v>-0.107810036302917</v>
       </c>
-      <c r="BV34" s="14">
+      <c r="BV34" s="13">
         <v>-0.104868192526647</v>
       </c>
-      <c r="BW34" s="14">
+      <c r="BW34" s="13">
         <v>-0.113107527837642</v>
       </c>
-      <c r="BX34" s="14">
+      <c r="BX34" s="13">
         <v>-0.114964814908871</v>
       </c>
-      <c r="BY34" s="14">
+      <c r="BY34" s="13">
         <v>-0.109348917043328</v>
       </c>
-      <c r="BZ34" s="14">
+      <c r="BZ34" s="13">
         <v>-0.10577962828196801</v>
       </c>
-      <c r="CA34" s="14">
+      <c r="CA34" s="13">
         <v>-0.105858682807546</v>
       </c>
-      <c r="CB34" s="14">
+      <c r="CB34" s="13">
         <v>-9.8368723236812602E-2</v>
       </c>
-      <c r="CC34" s="14">
+      <c r="CC34" s="13">
         <v>-9.2223379761888602E-2</v>
       </c>
-      <c r="CE34" s="14">
+      <c r="CE34" s="13">
         <v>0</v>
       </c>
-      <c r="CF34" s="14">
+      <c r="CF34" s="13">
         <v>-0.46950205148277702</v>
       </c>
-      <c r="CG34" s="14">
+      <c r="CG34" s="13">
         <v>-0.170097206253538</v>
       </c>
-      <c r="CH34" s="14">
+      <c r="CH34" s="13">
         <v>-0.36240073224903402</v>
       </c>
-      <c r="CI34" s="14">
+      <c r="CI34" s="13">
         <v>1.00199998998535</v>
       </c>
     </row>
     <row r="35" spans="1:87">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="2"/>
       <c r="C35">
         <v>4</v>
@@ -15209,7 +15325,7 @@
         <v>-3.58693190632145E-2</v>
       </c>
       <c r="AL35">
-        <f>AL34+1</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AM35" s="3">
@@ -15218,71 +15334,71 @@
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="AQ35" s="3"/>
-      <c r="AR35" s="14">
+      <c r="AR35" s="13">
         <v>1.2747234428699299</v>
       </c>
-      <c r="AS35" s="14">
+      <c r="AS35" s="13">
         <v>-0.56792392129181202</v>
       </c>
-      <c r="AT35" s="14">
+      <c r="AT35" s="13">
         <v>-0.54149556495274997</v>
       </c>
-      <c r="AU35" s="14">
+      <c r="AU35" s="13">
         <v>-0.57008717894093697</v>
       </c>
-      <c r="AV35" s="14">
+      <c r="AV35" s="13">
         <v>0</v>
       </c>
-      <c r="AW35" s="14">
+      <c r="AW35" s="13">
         <v>-0.65903498930883198</v>
       </c>
-      <c r="AX35" s="14">
+      <c r="AX35" s="13">
         <v>-0.72714355876453796</v>
       </c>
-      <c r="AY35" s="14">
+      <c r="AY35" s="13">
         <v>-0.19989447080150999</v>
       </c>
-      <c r="AZ35" s="14">
+      <c r="AZ35" s="13">
         <v>1.5860730188748799</v>
       </c>
-      <c r="BA35" s="14">
+      <c r="BA35" s="13">
         <v>0.28214209926939299</v>
       </c>
-      <c r="BB35" s="14">
+      <c r="BB35" s="13">
         <v>1.2706779326136799</v>
       </c>
-      <c r="BC35" s="14">
+      <c r="BC35" s="13">
         <v>-0.59029090044018895</v>
       </c>
-      <c r="BD35" s="14">
+      <c r="BD35" s="13">
         <v>-0.58346383574841698</v>
       </c>
-      <c r="BE35" s="14">
+      <c r="BE35" s="13">
         <v>-0.56929327057010304</v>
       </c>
-      <c r="BF35" s="14">
+      <c r="BF35" s="13">
         <v>-0.56148972147343901</v>
       </c>
-      <c r="BG35" s="14">
+      <c r="BG35" s="13">
         <v>-0.56598200263479204</v>
       </c>
-      <c r="BH35" s="14">
+      <c r="BH35" s="13">
         <v>0</v>
       </c>
-      <c r="BI35" s="14">
+      <c r="BI35" s="13">
         <v>-0.68161570346083</v>
       </c>
-      <c r="BJ35" s="14">
+      <c r="BJ35" s="13">
         <v>-0.72848157673842895</v>
       </c>
-      <c r="BK35" s="14">
+      <c r="BK35" s="13">
         <v>-0.18994475044269199</v>
       </c>
-      <c r="BL35" s="14">
+      <c r="BL35" s="13">
         <v>1.6000420306419501</v>
       </c>
       <c r="BM35" s="3"/>
@@ -15292,61 +15408,61 @@
       <c r="BO35" s="3"/>
       <c r="BP35" s="3"/>
       <c r="BQ35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="BR35" s="3"/>
-      <c r="BS35" s="14">
+      <c r="BS35" s="13">
         <v>1.2707350077786299</v>
       </c>
-      <c r="BT35" s="14">
+      <c r="BT35" s="13">
         <v>-0.57077078440916196</v>
       </c>
-      <c r="BU35" s="14">
+      <c r="BU35" s="13">
         <v>-0.57218448703317104</v>
       </c>
-      <c r="BV35" s="14">
+      <c r="BV35" s="13">
         <v>-0.56958964579167204</v>
       </c>
-      <c r="BW35" s="14">
+      <c r="BW35" s="13">
         <v>-0.56541022751269299</v>
       </c>
-      <c r="BX35" s="14">
+      <c r="BX35" s="13">
         <v>-0.560577054696068</v>
       </c>
-      <c r="BY35" s="14">
+      <c r="BY35" s="13">
         <v>-0.560137037671253</v>
       </c>
-      <c r="BZ35" s="14">
+      <c r="BZ35" s="13">
         <v>-0.562727952888748</v>
       </c>
-      <c r="CA35" s="14">
+      <c r="CA35" s="13">
         <v>-0.56529443053357598</v>
       </c>
-      <c r="CB35" s="14">
+      <c r="CB35" s="13">
         <v>-0.566564799117528</v>
       </c>
-      <c r="CC35" s="14">
+      <c r="CC35" s="13">
         <v>-0.56732500796172003</v>
       </c>
-      <c r="CE35" s="14">
+      <c r="CE35" s="13">
         <v>0</v>
       </c>
-      <c r="CF35" s="14">
+      <c r="CF35" s="13">
         <v>-0.68773344332870401</v>
       </c>
-      <c r="CG35" s="14">
+      <c r="CG35" s="13">
         <v>-0.74538987559709602</v>
       </c>
-      <c r="CH35" s="14">
+      <c r="CH35" s="13">
         <v>-0.17464624013806401</v>
       </c>
-      <c r="CI35" s="14">
+      <c r="CI35" s="13">
         <v>1.6077695590638601</v>
       </c>
     </row>
     <row r="36" spans="1:87">
-      <c r="A36" s="13"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="2"/>
       <c r="C36">
         <v>5</v>
@@ -15454,7 +15570,7 @@
         <v>-2.93707340897627E-2</v>
       </c>
       <c r="AL36">
-        <f>AL35+1</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="AM36" s="3">
@@ -15463,71 +15579,71 @@
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="AQ36" s="3"/>
-      <c r="AR36" s="14">
+      <c r="AR36" s="13">
         <v>1.02263462577922</v>
       </c>
-      <c r="AS36" s="14">
+      <c r="AS36" s="13">
         <v>-1.0295399326863399E-2</v>
       </c>
-      <c r="AT36" s="14">
+      <c r="AT36" s="13">
         <v>-3.90633712791209E-2</v>
       </c>
-      <c r="AU36" s="14">
+      <c r="AU36" s="13">
         <v>-2.6744997375695499E-2</v>
       </c>
-      <c r="AV36" s="14">
+      <c r="AV36" s="13">
         <v>0</v>
       </c>
-      <c r="AW36" s="14">
+      <c r="AW36" s="13">
         <v>-0.54332239690820605</v>
       </c>
-      <c r="AX36" s="14">
+      <c r="AX36" s="13">
         <v>-0.68004067460099604</v>
       </c>
-      <c r="AY36" s="14">
+      <c r="AY36" s="13">
         <v>0.48792701066016098</v>
       </c>
-      <c r="AZ36" s="14">
+      <c r="AZ36" s="13">
         <v>0.73543606084904101</v>
       </c>
-      <c r="BA36" s="14">
+      <c r="BA36" s="13">
         <v>0.13897500984653599</v>
       </c>
-      <c r="BB36" s="14">
+      <c r="BB36" s="13">
         <v>1.02043058369068</v>
       </c>
-      <c r="BC36" s="14">
+      <c r="BC36" s="13">
         <v>-1.0524245741289399E-2</v>
       </c>
-      <c r="BD36" s="14">
+      <c r="BD36" s="13">
         <v>-2.5829413459717902E-2</v>
       </c>
-      <c r="BE36" s="14">
+      <c r="BE36" s="13">
         <v>-3.6612817628833901E-2</v>
       </c>
-      <c r="BF36" s="14">
+      <c r="BF36" s="13">
         <v>-3.8881950908163002E-2</v>
       </c>
-      <c r="BG36" s="14">
+      <c r="BG36" s="13">
         <v>-3.61433397188438E-2</v>
       </c>
-      <c r="BH36" s="14">
+      <c r="BH36" s="13">
         <v>0</v>
       </c>
-      <c r="BI36" s="14">
+      <c r="BI36" s="13">
         <v>-0.54963343481472005</v>
       </c>
-      <c r="BJ36" s="14">
+      <c r="BJ36" s="13">
         <v>-0.66440142253577295</v>
       </c>
-      <c r="BK36" s="14">
+      <c r="BK36" s="13">
         <v>0.49033836576360001</v>
       </c>
-      <c r="BL36" s="14">
+      <c r="BL36" s="13">
         <v>0.72369649158689298</v>
       </c>
       <c r="BM36" s="3"/>
@@ -15537,61 +15653,61 @@
       <c r="BO36" s="3"/>
       <c r="BP36" s="3"/>
       <c r="BQ36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="BR36" s="3"/>
-      <c r="BS36" s="14">
+      <c r="BS36" s="13">
         <v>1.02159939134324</v>
       </c>
-      <c r="BT36" s="14">
+      <c r="BT36" s="13">
         <v>-1.8100760120101399E-3</v>
       </c>
-      <c r="BU36" s="14">
+      <c r="BU36" s="13">
         <v>1.2455418584403999E-3</v>
       </c>
-      <c r="BV36" s="14">
+      <c r="BV36" s="13">
         <v>-2.8826169863200202E-3</v>
       </c>
-      <c r="BW36" s="14">
+      <c r="BW36" s="13">
         <v>-8.3745847378534494E-3</v>
       </c>
-      <c r="BX36" s="14">
+      <c r="BX36" s="13">
         <v>-1.59234392437652E-2</v>
       </c>
-      <c r="BY36" s="14">
+      <c r="BY36" s="13">
         <v>-1.87026844946435E-2</v>
       </c>
-      <c r="BZ36" s="14">
+      <c r="BZ36" s="13">
         <v>-1.98183354552986E-2</v>
       </c>
-      <c r="CA36" s="14">
+      <c r="CA36" s="13">
         <v>-1.9820904450110501E-2</v>
       </c>
-      <c r="CB36" s="14">
+      <c r="CB36" s="13">
         <v>-1.7922873008106799E-2</v>
       </c>
-      <c r="CC36" s="14">
+      <c r="CC36" s="13">
         <v>-1.68115427710336E-2</v>
       </c>
-      <c r="CE36" s="14">
+      <c r="CE36" s="13">
         <v>0</v>
       </c>
-      <c r="CF36" s="14">
+      <c r="CF36" s="13">
         <v>-0.55286391871731499</v>
       </c>
-      <c r="CG36" s="14">
+      <c r="CG36" s="13">
         <v>-0.66835641744882301</v>
       </c>
-      <c r="CH36" s="14">
+      <c r="CH36" s="13">
         <v>0.50700393429542001</v>
       </c>
-      <c r="CI36" s="14">
+      <c r="CI36" s="13">
         <v>0.714216401870718</v>
       </c>
     </row>
     <row r="37" spans="1:87">
-      <c r="A37" s="13"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="2"/>
       <c r="C37">
         <v>6</v>
@@ -15699,7 +15815,7 @@
         <v>-1.9398217816089001E-2</v>
       </c>
       <c r="AL37">
-        <f>AL36+1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="AM37" s="3">
@@ -15708,71 +15824,71 @@
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="AQ37" s="3"/>
-      <c r="AR37" s="14">
+      <c r="AR37" s="13">
         <v>1.37973882222661</v>
       </c>
-      <c r="AS37" s="14">
+      <c r="AS37" s="13">
         <v>-4.6082420422587998E-2</v>
       </c>
-      <c r="AT37" s="14">
+      <c r="AT37" s="13">
         <v>-4.9232542061791999E-2</v>
       </c>
-      <c r="AU37" s="14">
+      <c r="AU37" s="13">
         <v>-1.2115312500399201E-2</v>
       </c>
-      <c r="AV37" s="14">
+      <c r="AV37" s="13">
         <v>0</v>
       </c>
-      <c r="AW37" s="14">
+      <c r="AW37" s="13">
         <v>-1.03410659655836</v>
       </c>
-      <c r="AX37" s="14">
+      <c r="AX37" s="13">
         <v>0.340661535965537</v>
       </c>
-      <c r="AY37" s="14">
+      <c r="AY37" s="13">
         <v>-0.13483924845454801</v>
       </c>
-      <c r="AZ37" s="14">
+      <c r="AZ37" s="13">
         <v>0.82828430904736705</v>
       </c>
-      <c r="BA37" s="14">
+      <c r="BA37" s="13">
         <v>-0.34555781088927701</v>
       </c>
-      <c r="BB37" s="14">
+      <c r="BB37" s="13">
         <v>1.38098426989899</v>
       </c>
-      <c r="BC37" s="14">
+      <c r="BC37" s="13">
         <v>-3.7583919011536002E-2</v>
       </c>
-      <c r="BD37" s="14">
+      <c r="BD37" s="13">
         <v>-6.31441734326839E-2</v>
       </c>
-      <c r="BE37" s="14">
+      <c r="BE37" s="13">
         <v>-4.8609114465110098E-2</v>
       </c>
-      <c r="BF37" s="14">
+      <c r="BF37" s="13">
         <v>-2.4779507195465698E-2</v>
       </c>
-      <c r="BG37" s="14">
+      <c r="BG37" s="13">
         <v>-8.3974915575126905E-3</v>
       </c>
-      <c r="BH37" s="14">
+      <c r="BH37" s="13">
         <v>0</v>
       </c>
-      <c r="BI37" s="14">
+      <c r="BI37" s="13">
         <v>-1.0361471892946199</v>
       </c>
-      <c r="BJ37" s="14">
+      <c r="BJ37" s="13">
         <v>0.34008512378095201</v>
       </c>
-      <c r="BK37" s="14">
+      <c r="BK37" s="13">
         <v>-0.13223375086759201</v>
       </c>
-      <c r="BL37" s="14">
+      <c r="BL37" s="13">
         <v>0.82829581638125904</v>
       </c>
       <c r="BM37" s="3"/>
@@ -15782,61 +15898,61 @@
       <c r="BO37" s="3"/>
       <c r="BP37" s="3"/>
       <c r="BQ37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="BR37" s="3"/>
-      <c r="BS37" s="14">
+      <c r="BS37" s="13">
         <v>1.3814465048911599</v>
       </c>
-      <c r="BT37" s="14">
+      <c r="BT37" s="13">
         <v>-2.8691346191311199E-2</v>
       </c>
-      <c r="BU37" s="14">
+      <c r="BU37" s="13">
         <v>-2.9523596478842101E-2</v>
       </c>
-      <c r="BV37" s="14">
+      <c r="BV37" s="13">
         <v>-3.5466159675444503E-2</v>
       </c>
-      <c r="BW37" s="14">
+      <c r="BW37" s="13">
         <v>-3.58693190632145E-2</v>
       </c>
-      <c r="BX37" s="14">
+      <c r="BX37" s="13">
         <v>-2.93707340897627E-2</v>
       </c>
-      <c r="BY37" s="14">
+      <c r="BY37" s="13">
         <v>-1.9398217816089001E-2</v>
       </c>
-      <c r="BZ37" s="14">
+      <c r="BZ37" s="13">
         <v>-1.0732739136727501E-2</v>
       </c>
-      <c r="CA37" s="14">
+      <c r="CA37" s="13">
         <v>-3.9018184563970599E-3</v>
       </c>
-      <c r="CB37" s="14">
+      <c r="CB37" s="13">
         <v>2.63893417004169E-4</v>
       </c>
-      <c r="CC37" s="14">
+      <c r="CC37" s="13">
         <v>3.8412788363078498E-3</v>
       </c>
-      <c r="CE37" s="14">
+      <c r="CE37" s="13">
         <v>0</v>
       </c>
-      <c r="CF37" s="14">
+      <c r="CF37" s="13">
         <v>-1.0393772037382301</v>
       </c>
-      <c r="CG37" s="14">
+      <c r="CG37" s="13">
         <v>0.34581068993484998</v>
       </c>
-      <c r="CH37" s="14">
+      <c r="CH37" s="13">
         <v>-0.14275911095796201</v>
       </c>
-      <c r="CI37" s="14">
+      <c r="CI37" s="13">
         <v>0.83632562476134498</v>
       </c>
     </row>
     <row r="38" spans="1:87">
-      <c r="A38" s="13"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="2"/>
       <c r="C38">
         <v>7</v>
@@ -15950,114 +16066,114 @@
         <f>AVERAGE(AM4:AM37)</f>
         <v>5.611372045078266E-2</v>
       </c>
-      <c r="AV38" s="14">
+      <c r="AV38" s="13">
         <v>0</v>
       </c>
-      <c r="AW38" s="15">
+      <c r="AW38" s="14">
         <f>AVERAGE(AW4:AW37)</f>
         <v>-1.0003892864538666</v>
       </c>
-      <c r="AX38" s="15">
-        <f t="shared" ref="AX38:AZ38" si="4">AVERAGE(AX4:AX37)</f>
+      <c r="AX38" s="14">
+        <f t="shared" ref="AX38:AZ38" si="5">AVERAGE(AX4:AX37)</f>
         <v>-0.32561685988673572</v>
       </c>
-      <c r="AY38" s="15">
-        <f t="shared" si="4"/>
+      <c r="AY38" s="14">
+        <f t="shared" si="5"/>
         <v>0.38814114398229571</v>
       </c>
-      <c r="AZ38" s="15">
-        <f t="shared" si="4"/>
+      <c r="AZ38" s="14">
+        <f t="shared" si="5"/>
         <v>0.93786500235830661</v>
       </c>
-      <c r="BI38" s="15">
+      <c r="BI38" s="14">
         <f>AVERAGE(BI4:BI37)</f>
         <v>-1.00096106033147</v>
       </c>
-      <c r="BJ38" s="15">
-        <f t="shared" ref="BJ38:BL38" si="5">AVERAGE(BJ4:BJ37)</f>
+      <c r="BJ38" s="14">
+        <f t="shared" ref="BJ38:BL38" si="6">AVERAGE(BJ4:BJ37)</f>
         <v>-0.32552647296783904</v>
       </c>
-      <c r="BK38" s="15">
-        <f t="shared" si="5"/>
+      <c r="BK38" s="14">
+        <f t="shared" si="6"/>
         <v>0.38420710844455586</v>
       </c>
-      <c r="BL38" s="15">
-        <f t="shared" si="5"/>
+      <c r="BL38" s="14">
+        <f t="shared" si="6"/>
         <v>0.94228042485475327</v>
       </c>
-      <c r="BM38" s="15"/>
-      <c r="BN38" s="15">
-        <f t="shared" ref="BN38" si="6">AVERAGE(BN4:BN37)</f>
+      <c r="BM38" s="14"/>
+      <c r="BN38" s="14">
+        <f t="shared" ref="BN38" si="7">AVERAGE(BN4:BN37)</f>
         <v>6.9899905792277714E-2</v>
       </c>
-      <c r="BS38" s="15">
+      <c r="BS38" s="14">
         <f>AVERAGE(BS4:BS37)</f>
         <v>1.0496703028034227</v>
       </c>
-      <c r="BT38" s="15">
+      <c r="BT38" s="14">
         <f>AVERAGE(BT4:BT37)</f>
         <v>-4.1070294958336938E-2</v>
       </c>
-      <c r="BU38" s="15">
-        <f t="shared" ref="BU38:CB38" si="7">AVERAGE(BU4:BU37)</f>
+      <c r="BU38" s="14">
+        <f t="shared" ref="BU38:CB38" si="8">AVERAGE(BU4:BU37)</f>
         <v>-4.0917368956041311E-2</v>
       </c>
-      <c r="BV38" s="15">
-        <f t="shared" si="7"/>
+      <c r="BV38" s="14">
+        <f t="shared" si="8"/>
         <v>-4.0917335201422544E-2</v>
       </c>
-      <c r="BW38" s="15">
-        <f t="shared" si="7"/>
+      <c r="BW38" s="14">
+        <f t="shared" si="8"/>
         <v>-4.136684965892095E-2</v>
       </c>
-      <c r="BX38" s="15">
-        <f t="shared" si="7"/>
+      <c r="BX38" s="14">
+        <f t="shared" si="8"/>
         <v>-4.1679873513412298E-2</v>
       </c>
-      <c r="BY38" s="15">
-        <f t="shared" si="7"/>
+      <c r="BY38" s="14">
+        <f t="shared" si="8"/>
         <v>-4.226499752413123E-2</v>
       </c>
-      <c r="BZ38" s="15">
-        <f t="shared" si="7"/>
+      <c r="BZ38" s="14">
+        <f t="shared" si="8"/>
         <v>-4.1912430140101514E-2</v>
       </c>
-      <c r="CA38" s="15">
-        <f t="shared" si="7"/>
+      <c r="CA38" s="14">
+        <f t="shared" si="8"/>
         <v>-4.2393055349681089E-2</v>
       </c>
-      <c r="CB38" s="15">
-        <f t="shared" si="7"/>
+      <c r="CB38" s="14">
+        <f t="shared" si="8"/>
         <v>-4.3109604609161509E-2</v>
       </c>
-      <c r="CC38" s="15">
+      <c r="CC38" s="14">
         <f>AVERAGE(CC4:CC37)</f>
         <v>-4.3559703922070217E-2</v>
       </c>
-      <c r="CD38" s="15"/>
-      <c r="CE38" s="15">
+      <c r="CD38" s="14"/>
+      <c r="CE38" s="14">
         <f>AVERAGE(CE4:CE37)</f>
         <v>0</v>
       </c>
-      <c r="CF38" s="15">
-        <f t="shared" ref="CF38:CI38" si="8">AVERAGE(CF4:CF37)</f>
+      <c r="CF38" s="14">
+        <f t="shared" ref="CF38:CI38" si="9">AVERAGE(CF4:CF37)</f>
         <v>-0.99898989166357832</v>
       </c>
-      <c r="CG38" s="15">
-        <f t="shared" si="8"/>
+      <c r="CG38" s="14">
+        <f t="shared" si="9"/>
         <v>-0.328570092530797</v>
       </c>
-      <c r="CH38" s="15">
-        <f t="shared" si="8"/>
+      <c r="CH38" s="14">
+        <f t="shared" si="9"/>
         <v>0.38984859098370495</v>
       </c>
-      <c r="CI38" s="15">
-        <f t="shared" si="8"/>
+      <c r="CI38" s="14">
+        <f t="shared" si="9"/>
         <v>0.93771139321067032</v>
       </c>
     </row>
     <row r="39" spans="1:87">
-      <c r="A39" s="13"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2"/>
       <c r="C39">
         <v>8</v>
@@ -16166,7 +16282,7 @@
       </c>
     </row>
     <row r="40" spans="1:87">
-      <c r="A40" s="13"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="2"/>
       <c r="C40">
         <v>9</v>
@@ -16275,7 +16391,7 @@
       </c>
     </row>
     <row r="41" spans="1:87">
-      <c r="A41" s="13"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2"/>
       <c r="C41">
         <v>10</v>
@@ -16384,10 +16500,10 @@
       </c>
     </row>
     <row r="42" spans="1:87">
-      <c r="A42" s="13"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:87">
-      <c r="A43" s="13"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
@@ -16498,7 +16614,7 @@
       </c>
     </row>
     <row r="44" spans="1:87">
-      <c r="A44" s="13"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="2"/>
       <c r="C44">
         <v>3</v>
@@ -16607,7 +16723,7 @@
       </c>
     </row>
     <row r="45" spans="1:87">
-      <c r="A45" s="13"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="2"/>
       <c r="C45">
         <v>4</v>
@@ -16716,7 +16832,7 @@
       </c>
     </row>
     <row r="46" spans="1:87">
-      <c r="A46" s="13"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2"/>
       <c r="C46">
         <v>5</v>
@@ -16826,12 +16942,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="BN1:CI1"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A27"/>
     <mergeCell ref="A28:A46"/>
     <mergeCell ref="AM1:AZ1"/>
     <mergeCell ref="BA1:BL1"/>
-    <mergeCell ref="BN1:CI1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D90E443-45EC-F746-BF19-0A987F545D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0840BE90-E298-CC48-94A3-0263C3FA41AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2200" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
+    <workbookView xWindow="7540" yWindow="3420" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="既存モデル" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="パラメータ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="78">
   <si>
     <t>j</t>
   </si>
@@ -373,6 +374,81 @@
   </si>
   <si>
     <t>WBIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題1</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題0</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題2</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題3</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beta_kに変更（提案モデル2）</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beta_rtの部分を既存モデルのに差し替え(提案モデル3)</t>
+    <rPh sb="8" eb="10">
+      <t>ブブンヲ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キゾn</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha_rを抜いた(提案w/o alpha_r)</t>
+    <rPh sb="8" eb="9">
+      <t>ヌイタヤテ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案モデル</t>
+    <rPh sb="0" eb="2">
+      <t>テイアンモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存モデル</t>
+    <rPh sb="0" eb="2">
+      <t>キゾンモ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -825,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B5D9D-DC95-E543-B24D-F58D47733086}">
-  <dimension ref="A1:Z89"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
-    <sheetView topLeftCell="N64" workbookViewId="0">
-      <selection activeCell="V89" sqref="V89"/>
+    <sheetView topLeftCell="S73" workbookViewId="0">
+      <selection activeCell="S87" sqref="S87:AH89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4133,7 +4209,7 @@
         <v>3296.7621230532</v>
       </c>
     </row>
-    <row r="81" spans="2:26">
+    <row r="81" spans="2:34">
       <c r="B81" s="2">
         <v>60</v>
       </c>
@@ -4195,7 +4271,7 @@
         <v>1.0184403181553101</v>
       </c>
     </row>
-    <row r="82" spans="2:26">
+    <row r="82" spans="2:34">
       <c r="B82" s="2">
         <v>60</v>
       </c>
@@ -4257,7 +4333,7 @@
         <v>1.00224694624757</v>
       </c>
     </row>
-    <row r="83" spans="2:26">
+    <row r="83" spans="2:34">
       <c r="B83" s="2">
         <v>60</v>
       </c>
@@ -4319,7 +4395,7 @@
         <v>0.22017365120216001</v>
       </c>
     </row>
-    <row r="84" spans="2:26">
+    <row r="84" spans="2:34">
       <c r="B84" s="2">
         <v>60</v>
       </c>
@@ -4381,7 +4457,7 @@
         <v>6.0091172970697304E-3</v>
       </c>
     </row>
-    <row r="85" spans="2:26">
+    <row r="85" spans="2:34">
       <c r="B85" s="2">
         <v>90</v>
       </c>
@@ -4425,7 +4501,7 @@
         <v>1.00192152717515</v>
       </c>
     </row>
-    <row r="86" spans="2:26">
+    <row r="86" spans="2:34">
       <c r="B86" s="2">
         <v>90</v>
       </c>
@@ -4469,7 +4545,7 @@
         <v>1.0028288674850301</v>
       </c>
     </row>
-    <row r="87" spans="2:26">
+    <row r="87" spans="2:34">
       <c r="B87" s="2">
         <v>90</v>
       </c>
@@ -4515,8 +4591,23 @@
       <c r="S87" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="88" spans="2:26">
+      <c r="T87" t="s">
+        <v>70</v>
+      </c>
+      <c r="X87" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="2:34">
+      <c r="S88" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="T88" t="s">
         <v>55</v>
       </c>
@@ -4526,8 +4617,35 @@
       <c r="V88" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="89" spans="2:26">
+      <c r="X88" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="2:34">
       <c r="T89">
         <v>1825.6479999999999</v>
       </c>
@@ -4536,6 +4654,33 @@
       </c>
       <c r="V89">
         <v>2016.664</v>
+      </c>
+      <c r="X89">
+        <v>1733.25</v>
+      </c>
+      <c r="Y89">
+        <v>1803.2170000000001</v>
+      </c>
+      <c r="Z89">
+        <v>1894.873</v>
+      </c>
+      <c r="AB89">
+        <v>1621.202</v>
+      </c>
+      <c r="AC89">
+        <v>1645.02</v>
+      </c>
+      <c r="AD89">
+        <v>1730.481</v>
+      </c>
+      <c r="AF89">
+        <v>1699.6479999999999</v>
+      </c>
+      <c r="AG89">
+        <v>1786.7090000000001</v>
+      </c>
+      <c r="AH89">
+        <v>1857.001</v>
       </c>
     </row>
   </sheetData>
@@ -4546,15 +4691,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59088491-4DA9-9046-B8F1-E0B2E1149923}">
-  <dimension ref="A2:AH71"/>
+  <dimension ref="A1:AT71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="2" spans="1:34">
+    <row r="1" spans="1:46">
+      <c r="AE1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
       <c r="A2" s="1">
         <v>44434</v>
       </c>
@@ -4606,11 +4756,20 @@
       <c r="AB2" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AF2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
       <c r="B3" s="2">
         <v>30</v>
       </c>
@@ -4657,6 +4816,9 @@
       <c r="U3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="AE3" t="s">
+        <v>76</v>
+      </c>
       <c r="AF3" s="3" t="s">
         <v>55</v>
       </c>
@@ -4666,8 +4828,35 @@
       <c r="AH3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AJ3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
       <c r="B4" s="2">
         <v>30</v>
       </c>
@@ -4737,8 +4926,35 @@
       <c r="AH4">
         <v>1806.655</v>
       </c>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AJ4">
+        <v>1729.116</v>
+      </c>
+      <c r="AK4">
+        <v>1728.7460000000001</v>
+      </c>
+      <c r="AL4">
+        <v>1728.6669999999999</v>
+      </c>
+      <c r="AN4">
+        <v>1719.931</v>
+      </c>
+      <c r="AO4">
+        <v>1717.4749999999999</v>
+      </c>
+      <c r="AP4">
+        <v>1717.0309999999999</v>
+      </c>
+      <c r="AR4">
+        <v>1683.5730000000001</v>
+      </c>
+      <c r="AS4">
+        <v>1680.912</v>
+      </c>
+      <c r="AT4">
+        <v>1682.002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
       <c r="B5" s="2">
         <v>50</v>
       </c>
@@ -4800,7 +5016,7 @@
         <v>1.0834169105495399</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:46">
       <c r="B6" s="2">
         <v>50</v>
       </c>
@@ -4862,7 +5078,7 @@
         <v>1.01066101044891</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:46">
       <c r="A7" s="1">
         <v>44438</v>
       </c>
@@ -4887,8 +5103,11 @@
       <c r="AC7" s="3">
         <v>0.17909053760031199</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
       <c r="B8" s="2">
         <v>30</v>
       </c>
@@ -4949,11 +5168,44 @@
       <c r="AC8" s="3">
         <v>4.4296728478314404E-3</v>
       </c>
-      <c r="AE8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AF8">
+        <v>1690.7729999999999</v>
+      </c>
+      <c r="AG8">
+        <v>1690.0909999999999</v>
+      </c>
+      <c r="AH8">
+        <v>1696.864</v>
+      </c>
+      <c r="AJ8">
+        <v>1594.376</v>
+      </c>
+      <c r="AK8">
+        <v>1600.442</v>
+      </c>
+      <c r="AL8">
+        <v>1600.2329999999999</v>
+      </c>
+      <c r="AN8">
+        <v>1585.9269999999999</v>
+      </c>
+      <c r="AO8">
+        <v>1585.2149999999999</v>
+      </c>
+      <c r="AP8">
+        <v>1586.037</v>
+      </c>
+      <c r="AR8">
+        <v>1551.0150000000001</v>
+      </c>
+      <c r="AS8">
+        <v>1553.8340000000001</v>
+      </c>
+      <c r="AT8">
+        <v>1553.665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
       <c r="B9" s="2">
         <v>30</v>
       </c>
@@ -4993,17 +5245,8 @@
       <c r="N9" s="3">
         <v>1.00823836419538</v>
       </c>
-      <c r="AF9">
-        <v>1690.7729999999999</v>
-      </c>
-      <c r="AG9">
-        <v>1690.0909999999999</v>
-      </c>
-      <c r="AH9">
-        <v>1696.864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
+    </row>
+    <row r="10" spans="1:46">
       <c r="B10" s="2">
         <v>50</v>
       </c>
@@ -5044,7 +5287,7 @@
         <v>1.00739082553818</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:46">
       <c r="B11" s="2">
         <v>50</v>
       </c>
@@ -5087,8 +5330,11 @@
       <c r="S11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="AE11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -5101,11 +5347,44 @@
       <c r="AB12" t="s">
         <v>57</v>
       </c>
-      <c r="AE12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+      <c r="AF12">
+        <v>1940.703</v>
+      </c>
+      <c r="AG12">
+        <v>2048.4279999999999</v>
+      </c>
+      <c r="AH12">
+        <v>2192.1260000000002</v>
+      </c>
+      <c r="AJ12">
+        <v>1863.836</v>
+      </c>
+      <c r="AK12">
+        <v>1953.9970000000001</v>
+      </c>
+      <c r="AL12">
+        <v>2088.1779999999999</v>
+      </c>
+      <c r="AN12">
+        <v>1771.098</v>
+      </c>
+      <c r="AO12">
+        <v>1810.2909999999999</v>
+      </c>
+      <c r="AP12">
+        <v>1930.846</v>
+      </c>
+      <c r="AR12">
+        <v>1815.626</v>
+      </c>
+      <c r="AS12">
+        <v>1918.135</v>
+      </c>
+      <c r="AT12">
+        <v>2038.2919999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
       <c r="B13" s="2">
         <v>30</v>
       </c>
@@ -5163,17 +5442,8 @@
       <c r="AC13" s="3">
         <v>3030.3845716249698</v>
       </c>
-      <c r="AF13">
-        <v>1940.703</v>
-      </c>
-      <c r="AG13">
-        <v>2048.4279999999999</v>
-      </c>
-      <c r="AH13">
-        <v>2192.1260000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+    </row>
+    <row r="14" spans="1:46">
       <c r="B14" s="2">
         <v>30</v>
       </c>
@@ -5232,7 +5502,7 @@
         <v>1.10111640820083</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:46">
       <c r="B15" s="2">
         <v>50</v>
       </c>
@@ -5290,8 +5560,11 @@
       <c r="AC15" s="3">
         <v>1.03389281850285</v>
       </c>
-    </row>
-    <row r="16" spans="1:34">
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
       <c r="B16" s="2">
         <v>50</v>
       </c>
@@ -5349,11 +5622,44 @@
       <c r="AC16" s="3">
         <v>0.171016400394297</v>
       </c>
-      <c r="AE16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34">
+      <c r="AF16">
+        <v>1799.617</v>
+      </c>
+      <c r="AG16">
+        <v>1804.586</v>
+      </c>
+      <c r="AH16">
+        <v>1803.356</v>
+      </c>
+      <c r="AJ16">
+        <v>1722.5329999999999</v>
+      </c>
+      <c r="AK16">
+        <v>1724.481</v>
+      </c>
+      <c r="AL16">
+        <v>1724.8520000000001</v>
+      </c>
+      <c r="AN16">
+        <v>1713.23</v>
+      </c>
+      <c r="AO16">
+        <v>1710.145</v>
+      </c>
+      <c r="AP16">
+        <v>1712.74</v>
+      </c>
+      <c r="AR16">
+        <v>1683.432</v>
+      </c>
+      <c r="AS16">
+        <v>1684.0119999999999</v>
+      </c>
+      <c r="AT16">
+        <v>1687.992</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46">
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
@@ -5414,17 +5720,8 @@
       <c r="AC17" s="3">
         <v>6.0774106902788498E-3</v>
       </c>
-      <c r="AF17">
-        <v>1799.617</v>
-      </c>
-      <c r="AG17">
-        <v>1804.586</v>
-      </c>
-      <c r="AH17">
-        <v>1803.356</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34">
+    </row>
+    <row r="18" spans="2:46">
       <c r="B18" s="2">
         <v>30</v>
       </c>
@@ -5467,8 +5764,23 @@
       <c r="O18" s="3">
         <v>1.0083607277464199</v>
       </c>
-    </row>
-    <row r="19" spans="2:34">
+      <c r="AE18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46">
       <c r="B19" s="2">
         <v>30</v>
       </c>
@@ -5514,8 +5826,47 @@
       <c r="S19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="2:34">
+      <c r="AE19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46">
       <c r="B20" s="2">
         <v>30</v>
       </c>
@@ -5567,8 +5918,44 @@
       <c r="AB20" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="2:34">
+      <c r="AF20">
+        <v>1825.6479999999999</v>
+      </c>
+      <c r="AG20">
+        <v>1916.0350000000001</v>
+      </c>
+      <c r="AH20">
+        <v>2016.664</v>
+      </c>
+      <c r="AJ20">
+        <v>1733.25</v>
+      </c>
+      <c r="AK20">
+        <v>1803.2170000000001</v>
+      </c>
+      <c r="AL20">
+        <v>1894.873</v>
+      </c>
+      <c r="AN20">
+        <v>1621.202</v>
+      </c>
+      <c r="AO20">
+        <v>1645.02</v>
+      </c>
+      <c r="AP20">
+        <v>1730.481</v>
+      </c>
+      <c r="AR20">
+        <v>1699.6479999999999</v>
+      </c>
+      <c r="AS20">
+        <v>1786.7090000000001</v>
+      </c>
+      <c r="AT20">
+        <v>1857.001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46">
       <c r="B21" s="2">
         <v>30</v>
       </c>
@@ -5630,7 +6017,7 @@
         <v>3132.4742792585398</v>
       </c>
     </row>
-    <row r="22" spans="2:34">
+    <row r="22" spans="2:46">
       <c r="B22" s="2">
         <v>60</v>
       </c>
@@ -5692,7 +6079,7 @@
         <v>1.0265946731503699</v>
       </c>
     </row>
-    <row r="23" spans="2:34">
+    <row r="23" spans="2:46">
       <c r="B23" s="2">
         <v>60</v>
       </c>
@@ -5754,7 +6141,7 @@
         <v>1.00208778897742</v>
       </c>
     </row>
-    <row r="24" spans="2:34">
+    <row r="24" spans="2:46">
       <c r="B24" s="2">
         <v>60</v>
       </c>
@@ -5816,7 +6203,7 @@
         <v>0.21349011721733299</v>
       </c>
     </row>
-    <row r="25" spans="2:34">
+    <row r="25" spans="2:46">
       <c r="B25" s="2">
         <v>60</v>
       </c>
@@ -5878,7 +6265,7 @@
         <v>8.1121642001923001E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:34">
+    <row r="27" spans="2:46">
       <c r="B27" s="2">
         <v>30</v>
       </c>
@@ -5925,7 +6312,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:34">
+    <row r="28" spans="2:46">
       <c r="B28" s="2">
         <v>30</v>
       </c>
@@ -5978,7 +6365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:34">
+    <row r="29" spans="2:46">
       <c r="B29" s="2">
         <v>30</v>
       </c>
@@ -6040,7 +6427,7 @@
         <v>2969.49965433017</v>
       </c>
     </row>
-    <row r="30" spans="2:34">
+    <row r="30" spans="2:46">
       <c r="B30" s="2">
         <v>30</v>
       </c>
@@ -6102,7 +6489,7 @@
         <v>1.04101572786507</v>
       </c>
     </row>
-    <row r="31" spans="2:34">
+    <row r="31" spans="2:46">
       <c r="B31" s="2">
         <v>60</v>
       </c>
@@ -6164,7 +6551,7 @@
         <v>1.0068266876682599</v>
       </c>
     </row>
-    <row r="32" spans="2:34">
+    <row r="32" spans="2:46">
       <c r="B32" s="2">
         <v>60</v>
       </c>
@@ -7274,7 +7661,7 @@
         <v>-2.2022856628611863E-18</v>
       </c>
       <c r="N57">
-        <f t="shared" ref="N57" si="1">AVERAGE(N45:N56)</f>
+        <f>AVERAGE(N45:N56)</f>
         <v>1.0134390835707292</v>
       </c>
       <c r="O57">
@@ -7780,31 +8167,31 @@
         <v>0.25762205341013483</v>
       </c>
       <c r="F71" s="14">
-        <f t="shared" ref="F71:L71" si="2">AVERAGE(F59:F70)</f>
+        <f t="shared" ref="F71:L71" si="1">AVERAGE(F59:F70)</f>
         <v>0.24080693527725061</v>
       </c>
       <c r="G71" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.23784238589066317</v>
       </c>
       <c r="H71" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34483240681848643</v>
       </c>
       <c r="I71" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.457880633781863E-3</v>
       </c>
       <c r="J71" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3383498767240666E-2</v>
       </c>
       <c r="K71" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0921875815265268E-2</v>
       </c>
       <c r="L71" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0932371905895486E-18</v>
       </c>
     </row>
@@ -16074,15 +16461,15 @@
         <v>-1.0003892864538666</v>
       </c>
       <c r="AX38" s="14">
-        <f t="shared" ref="AX38:AZ38" si="5">AVERAGE(AX4:AX37)</f>
+        <f>AVERAGE(AX4:AX37)</f>
         <v>-0.32561685988673572</v>
       </c>
       <c r="AY38" s="14">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AY4:AY37)</f>
         <v>0.38814114398229571</v>
       </c>
       <c r="AZ38" s="14">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(AZ4:AZ37)</f>
         <v>0.93786500235830661</v>
       </c>
       <c r="BI38" s="14">
@@ -16090,20 +16477,20 @@
         <v>-1.00096106033147</v>
       </c>
       <c r="BJ38" s="14">
-        <f t="shared" ref="BJ38:BL38" si="6">AVERAGE(BJ4:BJ37)</f>
+        <f>AVERAGE(BJ4:BJ37)</f>
         <v>-0.32552647296783904</v>
       </c>
       <c r="BK38" s="14">
-        <f t="shared" si="6"/>
+        <f>AVERAGE(BK4:BK37)</f>
         <v>0.38420710844455586</v>
       </c>
       <c r="BL38" s="14">
-        <f t="shared" si="6"/>
+        <f>AVERAGE(BL4:BL37)</f>
         <v>0.94228042485475327</v>
       </c>
       <c r="BM38" s="14"/>
       <c r="BN38" s="14">
-        <f t="shared" ref="BN38" si="7">AVERAGE(BN4:BN37)</f>
+        <f>AVERAGE(BN4:BN37)</f>
         <v>6.9899905792277714E-2</v>
       </c>
       <c r="BS38" s="14">
@@ -16115,35 +16502,35 @@
         <v>-4.1070294958336938E-2</v>
       </c>
       <c r="BU38" s="14">
-        <f t="shared" ref="BU38:CB38" si="8">AVERAGE(BU4:BU37)</f>
+        <f t="shared" ref="BU38:CB38" si="5">AVERAGE(BU4:BU37)</f>
         <v>-4.0917368956041311E-2</v>
       </c>
       <c r="BV38" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-4.0917335201422544E-2</v>
       </c>
       <c r="BW38" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-4.136684965892095E-2</v>
       </c>
       <c r="BX38" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-4.1679873513412298E-2</v>
       </c>
       <c r="BY38" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-4.226499752413123E-2</v>
       </c>
       <c r="BZ38" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-4.1912430140101514E-2</v>
       </c>
       <c r="CA38" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-4.2393055349681089E-2</v>
       </c>
       <c r="CB38" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-4.3109604609161509E-2</v>
       </c>
       <c r="CC38" s="14">
@@ -16156,19 +16543,19 @@
         <v>0</v>
       </c>
       <c r="CF38" s="14">
-        <f t="shared" ref="CF38:CI38" si="9">AVERAGE(CF4:CF37)</f>
+        <f>AVERAGE(CF4:CF37)</f>
         <v>-0.99898989166357832</v>
       </c>
       <c r="CG38" s="14">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(CG4:CG37)</f>
         <v>-0.328570092530797</v>
       </c>
       <c r="CH38" s="14">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(CH4:CH37)</f>
         <v>0.38984859098370495</v>
       </c>
       <c r="CI38" s="14">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(CI4:CI37)</f>
         <v>0.93771139321067032</v>
       </c>
     </row>

--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0840BE90-E298-CC48-94A3-0263C3FA41AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A4F775-6B1A-7545-BF29-57D0D8001CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="3420" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
+    <workbookView xWindow="2560" yWindow="500" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="既存モデル" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="79">
   <si>
     <t>j</t>
   </si>
@@ -405,39 +405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>beta_kに変更（提案モデル2）</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テイアn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>beta_rtの部分を既存モデルのに差し替え(提案モデル3)</t>
-    <rPh sb="8" eb="10">
-      <t>ブブンヲ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キゾn</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テイアn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alpha_rを抜いた(提案w/o alpha_r)</t>
-    <rPh sb="8" eb="9">
-      <t>ヌイタヤテ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイアn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>提案モデル</t>
     <rPh sb="0" eb="2">
       <t>テイアンモ</t>
@@ -451,6 +418,31 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>WBICの結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案モデル3</t>
+    <rPh sb="0" eb="2">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案w/o alpha_r</t>
+    <rPh sb="0" eb="2">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案モデル2</t>
+    <rPh sb="0" eb="2">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -509,6 +501,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -538,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,6 +586,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4606,7 +4609,7 @@
     </row>
     <row r="88" spans="2:34">
       <c r="S88" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T88" t="s">
         <v>55</v>
@@ -4691,19 +4694,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59088491-4DA9-9046-B8F1-E0B2E1149923}">
-  <dimension ref="A1:AT71"/>
+  <dimension ref="A2:AT71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="31" max="31" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:46">
-      <c r="AE1" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="2" spans="1:46">
       <c r="A2" s="1">
         <v>44434</v>
@@ -4756,18 +4757,6 @@
       <c r="AB2" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="3" spans="1:46">
       <c r="B3" s="2">
@@ -4816,45 +4805,6 @@
       <c r="U3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="4" spans="1:46">
       <c r="B4" s="2">
@@ -4917,42 +4867,6 @@
       <c r="AC4" s="3">
         <v>2961.46126411149</v>
       </c>
-      <c r="AF4">
-        <v>1808.674</v>
-      </c>
-      <c r="AG4">
-        <v>1807.423</v>
-      </c>
-      <c r="AH4">
-        <v>1806.655</v>
-      </c>
-      <c r="AJ4">
-        <v>1729.116</v>
-      </c>
-      <c r="AK4">
-        <v>1728.7460000000001</v>
-      </c>
-      <c r="AL4">
-        <v>1728.6669999999999</v>
-      </c>
-      <c r="AN4">
-        <v>1719.931</v>
-      </c>
-      <c r="AO4">
-        <v>1717.4749999999999</v>
-      </c>
-      <c r="AP4">
-        <v>1717.0309999999999</v>
-      </c>
-      <c r="AR4">
-        <v>1683.5730000000001</v>
-      </c>
-      <c r="AS4">
-        <v>1680.912</v>
-      </c>
-      <c r="AT4">
-        <v>1682.002</v>
-      </c>
     </row>
     <row r="5" spans="1:46">
       <c r="B5" s="2">
@@ -5103,9 +5017,6 @@
       <c r="AC7" s="3">
         <v>0.17909053760031199</v>
       </c>
-      <c r="AE7" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="8" spans="1:46">
       <c r="B8" s="2">
@@ -5168,41 +5079,8 @@
       <c r="AC8" s="3">
         <v>4.4296728478314404E-3</v>
       </c>
-      <c r="AF8">
-        <v>1690.7729999999999</v>
-      </c>
-      <c r="AG8">
-        <v>1690.0909999999999</v>
-      </c>
-      <c r="AH8">
-        <v>1696.864</v>
-      </c>
-      <c r="AJ8">
-        <v>1594.376</v>
-      </c>
-      <c r="AK8">
-        <v>1600.442</v>
-      </c>
-      <c r="AL8">
-        <v>1600.2329999999999</v>
-      </c>
-      <c r="AN8">
-        <v>1585.9269999999999</v>
-      </c>
-      <c r="AO8">
-        <v>1585.2149999999999</v>
-      </c>
-      <c r="AP8">
-        <v>1586.037</v>
-      </c>
-      <c r="AR8">
-        <v>1551.0150000000001</v>
-      </c>
-      <c r="AS8">
-        <v>1553.8340000000001</v>
-      </c>
-      <c r="AT8">
-        <v>1553.665</v>
+      <c r="AE8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -5245,6 +5123,18 @@
       <c r="N9" s="3">
         <v>1.00823836419538</v>
       </c>
+      <c r="AF9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:46">
       <c r="B10" s="2">
@@ -5286,6 +5176,42 @@
       <c r="N10" s="3">
         <v>1.00739082553818</v>
       </c>
+      <c r="AF10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:46">
       <c r="B11" s="2">
@@ -5330,9 +5256,6 @@
       <c r="S11" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="12" spans="1:46">
       <c r="A12" t="s">
@@ -5347,41 +5270,44 @@
       <c r="AB12" t="s">
         <v>57</v>
       </c>
+      <c r="AE12" t="s">
+        <v>73</v>
+      </c>
       <c r="AF12">
-        <v>1940.703</v>
+        <v>1808.674</v>
       </c>
       <c r="AG12">
-        <v>2048.4279999999999</v>
+        <v>1807.423</v>
       </c>
       <c r="AH12">
-        <v>2192.1260000000002</v>
+        <v>1806.655</v>
       </c>
       <c r="AJ12">
-        <v>1863.836</v>
+        <v>1729.116</v>
       </c>
       <c r="AK12">
-        <v>1953.9970000000001</v>
+        <v>1728.7460000000001</v>
       </c>
       <c r="AL12">
-        <v>2088.1779999999999</v>
+        <v>1728.6669999999999</v>
       </c>
       <c r="AN12">
-        <v>1771.098</v>
+        <v>1719.931</v>
       </c>
       <c r="AO12">
-        <v>1810.2909999999999</v>
+        <v>1717.4749999999999</v>
       </c>
       <c r="AP12">
-        <v>1930.846</v>
+        <v>1717.0309999999999</v>
       </c>
       <c r="AR12">
-        <v>1815.626</v>
+        <v>1683.5730000000001</v>
       </c>
       <c r="AS12">
-        <v>1918.135</v>
+        <v>1680.912</v>
       </c>
       <c r="AT12">
-        <v>2038.2919999999999</v>
+        <v>1682.002</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -5561,7 +5487,43 @@
         <v>1.03389281850285</v>
       </c>
       <c r="AE15" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>1690.7729999999999</v>
+      </c>
+      <c r="AG15" s="16">
+        <v>1690.0909999999999</v>
+      </c>
+      <c r="AH15" s="16">
+        <v>1696.864</v>
+      </c>
+      <c r="AJ15" s="16">
+        <v>1594.376</v>
+      </c>
+      <c r="AK15" s="16">
+        <v>1600.442</v>
+      </c>
+      <c r="AL15" s="16">
+        <v>1600.2329999999999</v>
+      </c>
+      <c r="AN15" s="16">
+        <v>1585.9269999999999</v>
+      </c>
+      <c r="AO15" s="16">
+        <v>1585.2149999999999</v>
+      </c>
+      <c r="AP15" s="16">
+        <v>1586.037</v>
+      </c>
+      <c r="AR15" s="16">
+        <v>1551.0150000000001</v>
+      </c>
+      <c r="AS15" s="16">
+        <v>1553.8340000000001</v>
+      </c>
+      <c r="AT15" s="16">
+        <v>1553.665</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -5622,42 +5584,6 @@
       <c r="AC16" s="3">
         <v>0.171016400394297</v>
       </c>
-      <c r="AF16">
-        <v>1799.617</v>
-      </c>
-      <c r="AG16">
-        <v>1804.586</v>
-      </c>
-      <c r="AH16">
-        <v>1803.356</v>
-      </c>
-      <c r="AJ16">
-        <v>1722.5329999999999</v>
-      </c>
-      <c r="AK16">
-        <v>1724.481</v>
-      </c>
-      <c r="AL16">
-        <v>1724.8520000000001</v>
-      </c>
-      <c r="AN16">
-        <v>1713.23</v>
-      </c>
-      <c r="AO16">
-        <v>1710.145</v>
-      </c>
-      <c r="AP16">
-        <v>1712.74</v>
-      </c>
-      <c r="AR16">
-        <v>1683.432</v>
-      </c>
-      <c r="AS16">
-        <v>1684.0119999999999</v>
-      </c>
-      <c r="AT16">
-        <v>1687.992</v>
-      </c>
     </row>
     <row r="17" spans="2:46">
       <c r="B17" s="8" t="s">
@@ -5764,20 +5690,44 @@
       <c r="O18" s="3">
         <v>1.0083607277464199</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>72</v>
+      <c r="AE18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF18">
+        <v>1940.703</v>
+      </c>
+      <c r="AG18">
+        <v>2048.4279999999999</v>
+      </c>
+      <c r="AH18">
+        <v>2192.1260000000002</v>
+      </c>
+      <c r="AJ18">
+        <v>1863.836</v>
+      </c>
+      <c r="AK18">
+        <v>1953.9970000000001</v>
+      </c>
+      <c r="AL18">
+        <v>2088.1779999999999</v>
+      </c>
+      <c r="AN18">
+        <v>1771.098</v>
+      </c>
+      <c r="AO18">
+        <v>1810.2909999999999</v>
+      </c>
+      <c r="AP18">
+        <v>1930.846</v>
+      </c>
+      <c r="AR18">
+        <v>1815.626</v>
+      </c>
+      <c r="AS18">
+        <v>1918.135</v>
+      </c>
+      <c r="AT18">
+        <v>2038.2919999999999</v>
       </c>
     </row>
     <row r="19" spans="2:46">
@@ -5826,45 +5776,6 @@
       <c r="S19" t="s">
         <v>59</v>
       </c>
-      <c r="AE19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="20" spans="2:46">
       <c r="B20" s="2">
@@ -5918,42 +5829,6 @@
       <c r="AB20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AF20">
-        <v>1825.6479999999999</v>
-      </c>
-      <c r="AG20">
-        <v>1916.0350000000001</v>
-      </c>
-      <c r="AH20">
-        <v>2016.664</v>
-      </c>
-      <c r="AJ20">
-        <v>1733.25</v>
-      </c>
-      <c r="AK20">
-        <v>1803.2170000000001</v>
-      </c>
-      <c r="AL20">
-        <v>1894.873</v>
-      </c>
-      <c r="AN20">
-        <v>1621.202</v>
-      </c>
-      <c r="AO20">
-        <v>1645.02</v>
-      </c>
-      <c r="AP20">
-        <v>1730.481</v>
-      </c>
-      <c r="AR20">
-        <v>1699.6479999999999</v>
-      </c>
-      <c r="AS20">
-        <v>1786.7090000000001</v>
-      </c>
-      <c r="AT20">
-        <v>1857.001</v>
-      </c>
     </row>
     <row r="21" spans="2:46">
       <c r="B21" s="2">
@@ -6016,6 +5891,45 @@
       <c r="AC21" s="3">
         <v>3132.4742792585398</v>
       </c>
+      <c r="AE21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF21">
+        <v>1799.617</v>
+      </c>
+      <c r="AG21">
+        <v>1804.586</v>
+      </c>
+      <c r="AH21">
+        <v>1803.356</v>
+      </c>
+      <c r="AJ21">
+        <v>1722.5329999999999</v>
+      </c>
+      <c r="AK21">
+        <v>1724.481</v>
+      </c>
+      <c r="AL21">
+        <v>1724.8520000000001</v>
+      </c>
+      <c r="AN21">
+        <v>1713.23</v>
+      </c>
+      <c r="AO21">
+        <v>1710.145</v>
+      </c>
+      <c r="AP21">
+        <v>1712.74</v>
+      </c>
+      <c r="AR21">
+        <v>1683.432</v>
+      </c>
+      <c r="AS21">
+        <v>1684.0119999999999</v>
+      </c>
+      <c r="AT21">
+        <v>1687.992</v>
+      </c>
     </row>
     <row r="22" spans="2:46">
       <c r="B22" s="2">
@@ -6201,6 +6115,45 @@
       </c>
       <c r="AC24" s="3">
         <v>0.21349011721733299</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF24">
+        <v>1825.6479999999999</v>
+      </c>
+      <c r="AG24">
+        <v>1916.0350000000001</v>
+      </c>
+      <c r="AH24">
+        <v>2016.664</v>
+      </c>
+      <c r="AJ24">
+        <v>1733.25</v>
+      </c>
+      <c r="AK24">
+        <v>1803.2170000000001</v>
+      </c>
+      <c r="AL24">
+        <v>1894.873</v>
+      </c>
+      <c r="AN24">
+        <v>1621.202</v>
+      </c>
+      <c r="AO24">
+        <v>1645.02</v>
+      </c>
+      <c r="AP24">
+        <v>1730.481</v>
+      </c>
+      <c r="AR24">
+        <v>1699.6479999999999</v>
+      </c>
+      <c r="AS24">
+        <v>1786.7090000000001</v>
+      </c>
+      <c r="AT24">
+        <v>1857.001</v>
       </c>
     </row>
     <row r="25" spans="2:46">

--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A4F775-6B1A-7545-BF29-57D0D8001CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B87B1-9F65-BB4A-8525-2C99258200A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="500" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
+    <workbookView xWindow="2540" yWindow="500" windowWidth="28300" windowHeight="17440" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="既存モデル" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="パラメータ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="82">
   <si>
     <t>j</t>
   </si>
@@ -443,6 +442,21 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>beta_rtをTimeIDにした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beta_k$RMSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pai_1rを消してやってみる</t>
+    <rPh sb="7" eb="8">
+      <t>ケセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -538,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,10 +598,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B5D9D-DC95-E543-B24D-F58D47733086}">
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH116"/>
   <sheetViews>
-    <sheetView topLeftCell="S73" workbookViewId="0">
-      <selection activeCell="S87" sqref="S87:AH89"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4093,6 +4110,45 @@
       <c r="A78" t="s">
         <v>48</v>
       </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="79" spans="1:26">
       <c r="B79" s="2">
@@ -4212,7 +4268,7 @@
         <v>3296.7621230532</v>
       </c>
     </row>
-    <row r="81" spans="2:34">
+    <row r="81" spans="1:34">
       <c r="B81" s="2">
         <v>60</v>
       </c>
@@ -4274,7 +4330,7 @@
         <v>1.0184403181553101</v>
       </c>
     </row>
-    <row r="82" spans="2:34">
+    <row r="82" spans="1:34">
       <c r="B82" s="2">
         <v>60</v>
       </c>
@@ -4336,7 +4392,7 @@
         <v>1.00224694624757</v>
       </c>
     </row>
-    <row r="83" spans="2:34">
+    <row r="83" spans="1:34">
       <c r="B83" s="2">
         <v>60</v>
       </c>
@@ -4398,7 +4454,7 @@
         <v>0.22017365120216001</v>
       </c>
     </row>
-    <row r="84" spans="2:34">
+    <row r="84" spans="1:34">
       <c r="B84" s="2">
         <v>60</v>
       </c>
@@ -4460,7 +4516,7 @@
         <v>6.0091172970697304E-3</v>
       </c>
     </row>
-    <row r="85" spans="2:34">
+    <row r="85" spans="1:34">
       <c r="B85" s="2">
         <v>90</v>
       </c>
@@ -4504,7 +4560,7 @@
         <v>1.00192152717515</v>
       </c>
     </row>
-    <row r="86" spans="2:34">
+    <row r="86" spans="1:34">
       <c r="B86" s="2">
         <v>90</v>
       </c>
@@ -4548,7 +4604,7 @@
         <v>1.0028288674850301</v>
       </c>
     </row>
-    <row r="87" spans="2:34">
+    <row r="87" spans="1:34">
       <c r="B87" s="2">
         <v>90</v>
       </c>
@@ -4607,7 +4663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="2:34">
+    <row r="88" spans="1:34">
       <c r="S88" s="3" t="s">
         <v>74</v>
       </c>
@@ -4648,7 +4704,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="2:34">
+    <row r="89" spans="1:34">
+      <c r="A89" t="s">
+        <v>79</v>
+      </c>
       <c r="T89">
         <v>1825.6479999999999</v>
       </c>
@@ -4684,6 +4743,987 @@
       </c>
       <c r="AH89">
         <v>1857.001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34">
+      <c r="B90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34">
+      <c r="B91" s="2">
+        <v>60</v>
+      </c>
+      <c r="C91" s="3">
+        <v>10</v>
+      </c>
+      <c r="D91" s="3">
+        <v>3</v>
+      </c>
+      <c r="E91" s="13">
+        <v>0.354824061127543</v>
+      </c>
+      <c r="F91" s="13">
+        <v>0.33155048658636299</v>
+      </c>
+      <c r="G91" s="17">
+        <v>0.772670388059022</v>
+      </c>
+      <c r="H91" s="13">
+        <v>0.123358378248003</v>
+      </c>
+      <c r="I91" s="13">
+        <v>-3.4776170747404099E-2</v>
+      </c>
+      <c r="J91" s="13">
+        <v>-2.5601920602098899E-2</v>
+      </c>
+      <c r="K91" s="13">
+        <v>-0.25416715758102698</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1.38777878078145E-17</v>
+      </c>
+      <c r="M91" s="3">
+        <v>1.0002418662425701</v>
+      </c>
+      <c r="N91" s="3">
+        <v>1.0071029659198301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34">
+      <c r="B92" s="2">
+        <v>60</v>
+      </c>
+      <c r="C92" s="3">
+        <v>15</v>
+      </c>
+      <c r="D92" s="3">
+        <v>3</v>
+      </c>
+      <c r="E92" s="13">
+        <v>0.327116282867083</v>
+      </c>
+      <c r="F92" s="17">
+        <v>0.82164796632034798</v>
+      </c>
+      <c r="G92" s="17">
+        <v>1.8831722022920301</v>
+      </c>
+      <c r="H92" s="13">
+        <v>0.104816543454491</v>
+      </c>
+      <c r="I92" s="13">
+        <v>1.24679047919634E-2</v>
+      </c>
+      <c r="J92" s="13">
+        <v>0.103483679238191</v>
+      </c>
+      <c r="K92" s="13">
+        <v>0.41894140539841501</v>
+      </c>
+      <c r="L92" s="4">
+        <v>2.0816681711721701E-17</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1.0010194159650001</v>
+      </c>
+      <c r="N92" s="3">
+        <v>1.00639363578872</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34">
+      <c r="B93" s="2">
+        <v>60</v>
+      </c>
+      <c r="C93" s="3">
+        <v>10</v>
+      </c>
+      <c r="D93" s="3">
+        <v>5</v>
+      </c>
+      <c r="E93" s="13">
+        <v>0.49272650059843198</v>
+      </c>
+      <c r="F93" s="17">
+        <v>0.86972323243539695</v>
+      </c>
+      <c r="G93" s="17">
+        <v>2.9940821728320799</v>
+      </c>
+      <c r="H93" s="13">
+        <v>0.132116399337951</v>
+      </c>
+      <c r="I93" s="13">
+        <v>1.0527896315524501E-2</v>
+      </c>
+      <c r="J93" s="13">
+        <v>-0.111104519757381</v>
+      </c>
+      <c r="K93" s="13">
+        <v>0.93640922154800199</v>
+      </c>
+      <c r="L93" s="4">
+        <v>-2.7755575615628901E-17</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0.99958245781120603</v>
+      </c>
+      <c r="N93" s="3">
+        <v>1.00325709891248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34">
+      <c r="B94" s="2">
+        <v>60</v>
+      </c>
+      <c r="C94" s="3">
+        <v>15</v>
+      </c>
+      <c r="D94" s="3">
+        <v>5</v>
+      </c>
+      <c r="E94" s="13">
+        <v>0.3391404375116</v>
+      </c>
+      <c r="F94" s="17">
+        <v>0.695437389025374</v>
+      </c>
+      <c r="G94" s="17">
+        <v>0.77612040944407501</v>
+      </c>
+      <c r="H94" s="13">
+        <v>5.2561183331810403E-2</v>
+      </c>
+      <c r="I94" s="13">
+        <v>9.1090985983677403E-3</v>
+      </c>
+      <c r="J94" s="13">
+        <v>1.4347878474897E-2</v>
+      </c>
+      <c r="K94" s="13">
+        <v>-9.7218506086663298E-2</v>
+      </c>
+      <c r="L94" s="4">
+        <v>3.4694469519536099E-17</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0.99990902193422404</v>
+      </c>
+      <c r="N94" s="3">
+        <v>1.00488748602819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34">
+      <c r="B95" s="2">
+        <v>60</v>
+      </c>
+      <c r="C95" s="3">
+        <v>10</v>
+      </c>
+      <c r="D95" s="3">
+        <v>10</v>
+      </c>
+      <c r="E95" s="17">
+        <v>0.72049258314369702</v>
+      </c>
+      <c r="F95" s="17">
+        <v>0.59328605786577704</v>
+      </c>
+      <c r="G95" s="17">
+        <v>1.1642638058996999</v>
+      </c>
+      <c r="H95" s="13">
+        <v>0.12579647867866001</v>
+      </c>
+      <c r="I95" s="13">
+        <v>-1.3106105519333799E-4</v>
+      </c>
+      <c r="J95" s="13">
+        <v>-7.1246186520437002E-2</v>
+      </c>
+      <c r="K95" s="13">
+        <v>0.29607405098713702</v>
+      </c>
+      <c r="L95" s="4">
+        <v>4.1633363423443401E-17</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.99991024602685996</v>
+      </c>
+      <c r="N95" s="3">
+        <v>1.0053567791256199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34">
+      <c r="B96" s="2">
+        <v>60</v>
+      </c>
+      <c r="C96" s="3">
+        <v>15</v>
+      </c>
+      <c r="D96" s="3">
+        <v>10</v>
+      </c>
+      <c r="E96" s="17">
+        <v>0.59692147825540798</v>
+      </c>
+      <c r="F96" s="17">
+        <v>0.98557060224760096</v>
+      </c>
+      <c r="G96" s="17">
+        <v>2.5188399464706599</v>
+      </c>
+      <c r="H96" s="13">
+        <v>0.14634656224665099</v>
+      </c>
+      <c r="I96" s="13">
+        <v>1.45485665690366E-2</v>
+      </c>
+      <c r="J96" s="13">
+        <v>-3.2353637480942901E-2</v>
+      </c>
+      <c r="K96" s="13">
+        <v>0.42963077944692202</v>
+      </c>
+      <c r="L96" s="4">
+        <v>1.3010426069826099E-17</v>
+      </c>
+      <c r="M96" s="3">
+        <v>1.0005514122010399</v>
+      </c>
+      <c r="N96" s="3">
+        <v>1.0088189454443901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="B97" s="2">
+        <v>90</v>
+      </c>
+      <c r="C97" s="3">
+        <v>10</v>
+      </c>
+      <c r="D97" s="3">
+        <v>3</v>
+      </c>
+      <c r="E97" s="13">
+        <v>0.41068526564317198</v>
+      </c>
+      <c r="F97" s="13">
+        <v>0.39872041766240501</v>
+      </c>
+      <c r="G97" s="13">
+        <v>0.33372759341054398</v>
+      </c>
+      <c r="H97" s="13">
+        <v>8.6895559504182304E-2</v>
+      </c>
+      <c r="I97" s="13">
+        <v>-2.0687627742897601E-2</v>
+      </c>
+      <c r="J97" s="13">
+        <v>9.8344006388351904E-2</v>
+      </c>
+      <c r="K97" s="13">
+        <v>3.8416684093057797E-2</v>
+      </c>
+      <c r="L97" s="4">
+        <v>2.0816681711721701E-17</v>
+      </c>
+      <c r="M97" s="3">
+        <v>1.00032576251054</v>
+      </c>
+      <c r="N97" s="3">
+        <v>1.00907614379581</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="B98" s="2">
+        <v>90</v>
+      </c>
+      <c r="C98" s="3">
+        <v>15</v>
+      </c>
+      <c r="D98" s="3">
+        <v>3</v>
+      </c>
+      <c r="E98" s="13">
+        <v>0.36757154014686799</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0.62640263378510996</v>
+      </c>
+      <c r="G98" s="17">
+        <v>0.50700171435243402</v>
+      </c>
+      <c r="H98" s="13">
+        <v>0.116091381610076</v>
+      </c>
+      <c r="I98" s="13">
+        <v>5.0450646799161097E-3</v>
+      </c>
+      <c r="J98" s="13">
+        <v>-7.21835300870209E-2</v>
+      </c>
+      <c r="K98" s="13">
+        <v>9.7545409909638198E-2</v>
+      </c>
+      <c r="L98" s="4">
+        <v>3.4694469519536197E-17</v>
+      </c>
+      <c r="M98" s="3">
+        <v>1.0002503859122001</v>
+      </c>
+      <c r="N98" s="3">
+        <v>1.0059510342062401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="B99" s="2">
+        <v>90</v>
+      </c>
+      <c r="C99" s="3">
+        <v>10</v>
+      </c>
+      <c r="D99" s="3">
+        <v>5</v>
+      </c>
+      <c r="E99" s="13">
+        <v>0.46927186946307498</v>
+      </c>
+      <c r="F99" s="17">
+        <v>0.62718742445042497</v>
+      </c>
+      <c r="G99" s="17">
+        <v>1.0618234183288799</v>
+      </c>
+      <c r="H99" s="13">
+        <v>8.6615211742619699E-2</v>
+      </c>
+      <c r="I99" s="13">
+        <v>-2.1957885317527799E-2</v>
+      </c>
+      <c r="J99" s="13">
+        <v>2.27958637654785E-2</v>
+      </c>
+      <c r="K99" s="13">
+        <v>-0.51421035854459995</v>
+      </c>
+      <c r="L99" s="4">
+        <v>-6.9388939039072299E-18</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0.99981687722950696</v>
+      </c>
+      <c r="N99" s="3">
+        <v>1.0051996220119299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="B100" s="2">
+        <v>90</v>
+      </c>
+      <c r="C100" s="3">
+        <v>15</v>
+      </c>
+      <c r="D100" s="3">
+        <v>5</v>
+      </c>
+      <c r="E100" s="13">
+        <v>0.43021498978901301</v>
+      </c>
+      <c r="F100" s="17">
+        <v>0.798253566389866</v>
+      </c>
+      <c r="G100" s="17">
+        <v>1.2386193554900999</v>
+      </c>
+      <c r="H100" s="13">
+        <v>0.17331155025886</v>
+      </c>
+      <c r="I100" s="13">
+        <v>2.8431891494239799E-2</v>
+      </c>
+      <c r="J100" s="13">
+        <v>0.26808000813806498</v>
+      </c>
+      <c r="K100" s="13">
+        <v>-0.270416251129795</v>
+      </c>
+      <c r="L100" s="4">
+        <v>1.7347234759768202E-18</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0.99973630597973295</v>
+      </c>
+      <c r="N100" s="3">
+        <v>1.00450878220623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="B101" s="2">
+        <v>90</v>
+      </c>
+      <c r="C101" s="3">
+        <v>10</v>
+      </c>
+      <c r="D101" s="3">
+        <v>10</v>
+      </c>
+      <c r="E101" s="17">
+        <v>0.85961392548467996</v>
+      </c>
+      <c r="F101" s="17">
+        <v>0.66377291663123095</v>
+      </c>
+      <c r="G101" s="17">
+        <v>0.952559164452916</v>
+      </c>
+      <c r="H101" s="13">
+        <v>0.16001862038239301</v>
+      </c>
+      <c r="I101" s="13">
+        <v>7.1761059577926702E-3</v>
+      </c>
+      <c r="J101" s="13">
+        <v>0.154303520754349</v>
+      </c>
+      <c r="K101" s="13">
+        <v>-4.9102466350394398E-2</v>
+      </c>
+      <c r="L101" s="4">
+        <v>6.9388939039072299E-18</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0.99988111754710296</v>
+      </c>
+      <c r="N101" s="3">
+        <v>1.0075730235492399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="B102" s="2">
+        <v>90</v>
+      </c>
+      <c r="C102" s="3">
+        <v>15</v>
+      </c>
+      <c r="D102" s="3">
+        <v>10</v>
+      </c>
+      <c r="E102" s="13">
+        <v>0.44296981771604799</v>
+      </c>
+      <c r="F102" s="17">
+        <v>0.62230014438760695</v>
+      </c>
+      <c r="G102" s="17">
+        <v>0.67052367892642595</v>
+      </c>
+      <c r="H102" s="13">
+        <v>7.4385175669084994E-2</v>
+      </c>
+      <c r="I102" s="13">
+        <v>-3.3929021079230699E-3</v>
+      </c>
+      <c r="J102" s="13">
+        <v>-0.17875524782839999</v>
+      </c>
+      <c r="K102" s="13">
+        <v>-9.2883334815938398E-2</v>
+      </c>
+      <c r="L102" s="4">
+        <v>1.0408340855860799E-17</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0.99981167549458905</v>
+      </c>
+      <c r="N102" s="3">
+        <v>1.0049434683020499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="B104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="B105" s="2">
+        <v>60</v>
+      </c>
+      <c r="C105" s="3">
+        <v>10</v>
+      </c>
+      <c r="D105" s="3">
+        <v>3</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.44561745282291798</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.17391614246269299</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.117496927431674</v>
+      </c>
+      <c r="H105" s="3">
+        <v>-2.2086168320547699E-2</v>
+      </c>
+      <c r="I105" s="3">
+        <v>5.20618656924067E-2</v>
+      </c>
+      <c r="J105" s="4">
+        <v>-8.6736173798840093E-18</v>
+      </c>
+      <c r="K105" s="3">
+        <v>1.0018739803099901</v>
+      </c>
+      <c r="L105" s="3">
+        <v>1.0115035334351901</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="B106" s="2">
+        <v>60</v>
+      </c>
+      <c r="C106" s="3">
+        <v>15</v>
+      </c>
+      <c r="D106" s="3">
+        <v>3</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.40752158043269798</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.18455249406149499</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0.15095939367516201</v>
+      </c>
+      <c r="H106" s="3">
+        <v>2.4531727425741501E-2</v>
+      </c>
+      <c r="I106" s="3">
+        <v>-5.7092600609341397E-2</v>
+      </c>
+      <c r="J106" s="4">
+        <v>2.7755575615628901E-17</v>
+      </c>
+      <c r="K106" s="3">
+        <v>1.0009121084272501</v>
+      </c>
+      <c r="L106" s="3">
+        <v>1.00758973719088</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="B107" s="2">
+        <v>60</v>
+      </c>
+      <c r="C107" s="3">
+        <v>10</v>
+      </c>
+      <c r="D107" s="3">
+        <v>5</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0.70561081710733597</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.233218686633933</v>
+      </c>
+      <c r="G107" s="3">
+        <v>9.53354092515733E-2</v>
+      </c>
+      <c r="H107" s="3">
+        <v>3.7862757913945402E-2</v>
+      </c>
+      <c r="I107" s="3">
+        <v>-4.5442013655808598E-2</v>
+      </c>
+      <c r="J107" s="4">
+        <v>-1.7347234759768099E-17</v>
+      </c>
+      <c r="K107" s="3">
+        <v>0.99973278171895497</v>
+      </c>
+      <c r="L107" s="3">
+        <v>1.00447441424407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="B108" s="2">
+        <v>60</v>
+      </c>
+      <c r="C108" s="3">
+        <v>15</v>
+      </c>
+      <c r="D108" s="3">
+        <v>5</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0.57772255882046197</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0.23245665904441701</v>
+      </c>
+      <c r="G108" s="3">
+        <v>8.0533335284634702E-2</v>
+      </c>
+      <c r="H108" s="3">
+        <v>5.3187650494204E-2</v>
+      </c>
+      <c r="I108" s="3">
+        <v>-3.1992518917397399E-2</v>
+      </c>
+      <c r="J108" s="4">
+        <v>6.1629758220391499E-33</v>
+      </c>
+      <c r="K108" s="3">
+        <v>1.0006257047229701</v>
+      </c>
+      <c r="L108" s="3">
+        <v>1.0077642932919899</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="B109" s="2">
+        <v>60</v>
+      </c>
+      <c r="C109" s="3">
+        <v>10</v>
+      </c>
+      <c r="D109" s="3">
+        <v>10</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0.80421474718471198</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.37018918775141901</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.246608848366515</v>
+      </c>
+      <c r="H109" s="3">
+        <v>-1.93112088520896E-2</v>
+      </c>
+      <c r="I109" s="3">
+        <v>-4.6060923248873202E-3</v>
+      </c>
+      <c r="J109" s="4">
+        <v>-2.7755575615628901E-17</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0.999481740590342</v>
+      </c>
+      <c r="L109" s="3">
+        <v>1.0026761064002001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="B110" s="2">
+        <v>60</v>
+      </c>
+      <c r="C110" s="3">
+        <v>15</v>
+      </c>
+      <c r="D110" s="3">
+        <v>10</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0.73699302973858305</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0.31466826106624501</v>
+      </c>
+      <c r="G110" s="3">
+        <v>8.0666607715411703E-2</v>
+      </c>
+      <c r="H110" s="3">
+        <v>2.2722198382786999E-2</v>
+      </c>
+      <c r="I110" s="3">
+        <v>4.7974296868724897E-2</v>
+      </c>
+      <c r="J110" s="4">
+        <v>6.0715321659188199E-17</v>
+      </c>
+      <c r="K110" s="3">
+        <v>1.0001981156567701</v>
+      </c>
+      <c r="L110" s="3">
+        <v>1.0058271510808501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="B111" s="2">
+        <v>90</v>
+      </c>
+      <c r="C111" s="3">
+        <v>10</v>
+      </c>
+      <c r="D111" s="3">
+        <v>3</v>
+      </c>
+      <c r="E111" s="7">
+        <v>0.520240562580088</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0.159527733106442</v>
+      </c>
+      <c r="G111" s="3">
+        <v>7.1108975023704196E-2</v>
+      </c>
+      <c r="H111" s="3">
+        <v>-1.36006482520491E-2</v>
+      </c>
+      <c r="I111" s="3">
+        <v>4.5056296947635702E-2</v>
+      </c>
+      <c r="J111" s="4">
+        <v>2.0816681711721701E-17</v>
+      </c>
+      <c r="K111" s="3">
+        <v>1.0004165674316601</v>
+      </c>
+      <c r="L111" s="3">
+        <v>1.0083307291455801</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="B112" s="2">
+        <v>90</v>
+      </c>
+      <c r="C112" s="3">
+        <v>15</v>
+      </c>
+      <c r="D112" s="3">
+        <v>3</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.37273404924661402</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0.12047157474178399</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.100786378259904</v>
+      </c>
+      <c r="H112" s="3">
+        <v>-1.0336992045870399E-2</v>
+      </c>
+      <c r="I112" s="3">
+        <v>2.5333968086504299E-2</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1.7347234759768099E-17</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1.0017527825841701</v>
+      </c>
+      <c r="L112" s="3">
+        <v>1.0114553149852501</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" s="2">
+        <v>90</v>
+      </c>
+      <c r="C113" s="3">
+        <v>10</v>
+      </c>
+      <c r="D113" s="3">
+        <v>5</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0.62804837871073005</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.17616722281333799</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.162199422365676</v>
+      </c>
+      <c r="H113" s="3">
+        <v>-5.8072504000037904E-3</v>
+      </c>
+      <c r="I113" s="3">
+        <v>-4.9940393971302899E-2</v>
+      </c>
+      <c r="J113" s="4">
+        <v>3.8163916471489799E-17</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0.99954455502504402</v>
+      </c>
+      <c r="L113" s="3">
+        <v>1.00532732918828</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114" s="2">
+        <v>90</v>
+      </c>
+      <c r="C114" s="3">
+        <v>15</v>
+      </c>
+      <c r="D114" s="3">
+        <v>5</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0.66977096614885001</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.24428710644951199</v>
+      </c>
+      <c r="G114" s="3">
+        <v>6.6345726449359793E-2</v>
+      </c>
+      <c r="H114" s="3">
+        <v>2.5663760023731799E-2</v>
+      </c>
+      <c r="I114" s="3">
+        <v>1.2782322650535E-2</v>
+      </c>
+      <c r="J114" s="4">
+        <v>-1.0408340855860799E-17</v>
+      </c>
+      <c r="K114" s="3">
+        <v>1.0004397939313701</v>
+      </c>
+      <c r="L114" s="3">
+        <v>1.0078957787895699</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115" s="2">
+        <v>90</v>
+      </c>
+      <c r="C115" s="3">
+        <v>10</v>
+      </c>
+      <c r="D115" s="3">
+        <v>10</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0.93497473075181803</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.592335431353467</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0.20842140258668701</v>
+      </c>
+      <c r="H115" s="3">
+        <v>2.30593493862104E-2</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0.374235781366901</v>
+      </c>
+      <c r="J115" s="4">
+        <v>6.9388939039072099E-18</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0.99927567871556</v>
+      </c>
+      <c r="L115" s="3">
+        <v>1.0027120677191099</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="2">
+        <v>90</v>
+      </c>
+      <c r="C116" s="3">
+        <v>15</v>
+      </c>
+      <c r="D116" s="3">
+        <v>10</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0.78122761328392898</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0.36040175090551402</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0.181976065975472</v>
+      </c>
+      <c r="H116" s="3">
+        <v>-2.55692194314474E-3</v>
+      </c>
+      <c r="I116" s="3">
+        <v>-0.12504324409914</v>
+      </c>
+      <c r="J116" s="4">
+        <v>2.1570415377137001E-32</v>
+      </c>
+      <c r="K116" s="3">
+        <v>1.0004945770515099</v>
+      </c>
+      <c r="L116" s="3">
+        <v>1.01016445990135</v>
       </c>
     </row>
   </sheetData>
@@ -4696,8 +5736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59088491-4DA9-9046-B8F1-E0B2E1149923}">
   <dimension ref="A2:AT71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K64" activeCellId="1" sqref="N65 K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5489,40 +6529,40 @@
       <c r="AE15" t="s">
         <v>78</v>
       </c>
-      <c r="AF15" s="16">
+      <c r="AF15" s="15">
         <v>1690.7729999999999</v>
       </c>
-      <c r="AG15" s="16">
+      <c r="AG15" s="15">
         <v>1690.0909999999999</v>
       </c>
-      <c r="AH15" s="16">
+      <c r="AH15" s="15">
         <v>1696.864</v>
       </c>
-      <c r="AJ15" s="16">
+      <c r="AJ15" s="15">
         <v>1594.376</v>
       </c>
-      <c r="AK15" s="16">
+      <c r="AK15" s="15">
         <v>1600.442</v>
       </c>
-      <c r="AL15" s="16">
+      <c r="AL15" s="15">
         <v>1600.2329999999999</v>
       </c>
-      <c r="AN15" s="16">
+      <c r="AN15" s="15">
         <v>1585.9269999999999</v>
       </c>
-      <c r="AO15" s="16">
+      <c r="AO15" s="15">
         <v>1585.2149999999999</v>
       </c>
-      <c r="AP15" s="16">
+      <c r="AP15" s="15">
         <v>1586.037</v>
       </c>
-      <c r="AR15" s="16">
+      <c r="AR15" s="15">
         <v>1551.0150000000001</v>
       </c>
-      <c r="AS15" s="16">
+      <c r="AS15" s="15">
         <v>1553.8340000000001</v>
       </c>
-      <c r="AT15" s="16">
+      <c r="AT15" s="15">
         <v>1553.665</v>
       </c>
     </row>
@@ -8313,64 +9353,64 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
       <c r="BM1" s="12"/>
-      <c r="BN1" s="15" t="s">
+      <c r="BN1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="15"/>
-      <c r="BW1" s="15"/>
-      <c r="BX1" s="15"/>
-      <c r="BY1" s="15"/>
-      <c r="BZ1" s="15"/>
-      <c r="CA1" s="15"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
     </row>
     <row r="2" spans="1:87">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8549,7 +9589,7 @@
       <c r="CI2" s="2"/>
     </row>
     <row r="3" spans="1:87">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -8700,7 +9740,7 @@
       </c>
     </row>
     <row r="4" spans="1:87">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
@@ -8942,7 +9982,7 @@
       </c>
     </row>
     <row r="5" spans="1:87">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="AL5">
         <f t="shared" ref="AL5:AL37" si="1">AL4+1</f>
         <v>2</v>
@@ -9081,7 +10121,7 @@
       </c>
     </row>
     <row r="6" spans="1:87">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
@@ -9328,7 +10368,7 @@
       </c>
     </row>
     <row r="7" spans="1:87">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>2</v>
@@ -9573,7 +10613,7 @@
       </c>
     </row>
     <row r="8" spans="1:87">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>3</v>
@@ -9818,7 +10858,7 @@
       </c>
     </row>
     <row r="9" spans="1:87">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="AL9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9957,7 +10997,7 @@
       </c>
     </row>
     <row r="10" spans="1:87">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
@@ -10204,7 +11244,7 @@
       </c>
     </row>
     <row r="11" spans="1:87">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="C11" s="2">
         <v>3</v>
       </c>
@@ -10448,7 +11488,7 @@
       </c>
     </row>
     <row r="12" spans="1:87">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="C12" s="2">
         <v>4</v>
       </c>
@@ -10692,7 +11732,7 @@
       </c>
     </row>
     <row r="13" spans="1:87">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="C13" s="2">
         <v>5</v>
       </c>
@@ -10936,7 +11976,7 @@
       </c>
     </row>
     <row r="14" spans="1:87">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -11182,7 +12222,7 @@
       </c>
     </row>
     <row r="15" spans="1:87">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="AL15">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -11321,7 +12361,7 @@
       </c>
     </row>
     <row r="16" spans="1:87">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
@@ -11565,7 +12605,7 @@
       </c>
     </row>
     <row r="17" spans="1:87">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="AL17">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -11704,7 +12744,7 @@
       </c>
     </row>
     <row r="18" spans="1:87">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
@@ -11951,7 +12991,7 @@
       </c>
     </row>
     <row r="19" spans="1:87">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2"/>
       <c r="C19">
         <v>2</v>
@@ -12196,7 +13236,7 @@
       </c>
     </row>
     <row r="20" spans="1:87">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2"/>
       <c r="C20">
         <v>3</v>
@@ -12441,7 +13481,7 @@
       </c>
     </row>
     <row r="21" spans="1:87">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="2"/>
       <c r="C21">
         <v>4</v>
@@ -12686,7 +13726,7 @@
       </c>
     </row>
     <row r="22" spans="1:87">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2"/>
       <c r="C22">
         <v>5</v>
@@ -12931,7 +13971,7 @@
       </c>
     </row>
     <row r="23" spans="1:87">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="AL23">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -13070,7 +14110,7 @@
       </c>
     </row>
     <row r="24" spans="1:87">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
@@ -13317,7 +14357,7 @@
       </c>
     </row>
     <row r="25" spans="1:87">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="2"/>
       <c r="C25">
         <v>3</v>
@@ -13562,7 +14602,7 @@
       </c>
     </row>
     <row r="26" spans="1:87">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="2"/>
       <c r="C26">
         <v>4</v>
@@ -13807,7 +14847,7 @@
       </c>
     </row>
     <row r="27" spans="1:87">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="2"/>
       <c r="C27">
         <v>5</v>
@@ -14052,7 +15092,7 @@
       </c>
     </row>
     <row r="28" spans="1:87">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -14298,7 +15338,7 @@
       </c>
     </row>
     <row r="29" spans="1:87">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="AL29">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -14437,7 +15477,7 @@
       </c>
     </row>
     <row r="30" spans="1:87">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
@@ -14681,7 +15721,7 @@
       </c>
     </row>
     <row r="31" spans="1:87">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="AL31">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -14820,7 +15860,7 @@
       </c>
     </row>
     <row r="32" spans="1:87">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
@@ -15067,7 +16107,7 @@
       </c>
     </row>
     <row r="33" spans="1:87">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="2"/>
       <c r="C33">
         <v>2</v>
@@ -15312,7 +16352,7 @@
       </c>
     </row>
     <row r="34" spans="1:87">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2"/>
       <c r="C34">
         <v>3</v>
@@ -15557,7 +16597,7 @@
       </c>
     </row>
     <row r="35" spans="1:87">
-      <c r="A35" s="15"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="2"/>
       <c r="C35">
         <v>4</v>
@@ -15802,7 +16842,7 @@
       </c>
     </row>
     <row r="36" spans="1:87">
-      <c r="A36" s="15"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="2"/>
       <c r="C36">
         <v>5</v>
@@ -16047,7 +17087,7 @@
       </c>
     </row>
     <row r="37" spans="1:87">
-      <c r="A37" s="15"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="2"/>
       <c r="C37">
         <v>6</v>
@@ -16292,7 +17332,7 @@
       </c>
     </row>
     <row r="38" spans="1:87">
-      <c r="A38" s="15"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="2"/>
       <c r="C38">
         <v>7</v>
@@ -16513,7 +17553,7 @@
       </c>
     </row>
     <row r="39" spans="1:87">
-      <c r="A39" s="15"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="2"/>
       <c r="C39">
         <v>8</v>
@@ -16622,7 +17662,7 @@
       </c>
     </row>
     <row r="40" spans="1:87">
-      <c r="A40" s="15"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="2"/>
       <c r="C40">
         <v>9</v>
@@ -16731,7 +17771,7 @@
       </c>
     </row>
     <row r="41" spans="1:87">
-      <c r="A41" s="15"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="2"/>
       <c r="C41">
         <v>10</v>
@@ -16840,10 +17880,10 @@
       </c>
     </row>
     <row r="42" spans="1:87">
-      <c r="A42" s="15"/>
+      <c r="A42" s="16"/>
     </row>
     <row r="43" spans="1:87">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
@@ -16954,7 +17994,7 @@
       </c>
     </row>
     <row r="44" spans="1:87">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="2"/>
       <c r="C44">
         <v>3</v>
@@ -17063,7 +18103,7 @@
       </c>
     </row>
     <row r="45" spans="1:87">
-      <c r="A45" s="15"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="2"/>
       <c r="C45">
         <v>4</v>
@@ -17172,7 +18212,7 @@
       </c>
     </row>
     <row r="46" spans="1:87">
-      <c r="A46" s="15"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="2"/>
       <c r="C46">
         <v>5</v>

--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B87B1-9F65-BB4A-8525-2C99258200A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0519E21C-F4D8-AE4B-A7F2-AF288F5D1D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="500" windowWidth="28300" windowHeight="17440" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
+    <workbookView xWindow="5740" yWindow="980" windowWidth="28300" windowHeight="17440" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="既存モデル" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="パラメータ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="87">
   <si>
     <t>j</t>
   </si>
@@ -457,13 +458,45 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>pai_1r戻してゼロサム</t>
+    <rPh sb="6" eb="7">
+      <t>モドセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pai_1rとTimeIDを消してやってみる</t>
+    <rPh sb="14" eb="15">
+      <t>ケセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pai_0rにゼロサム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TimeIDを0~1に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2と3組み合わせ</t>
+    <rPh sb="3" eb="4">
+      <t>クミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -524,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +567,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,10 +640,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B5D9D-DC95-E543-B24D-F58D47733086}">
-  <dimension ref="A1:AH116"/>
+  <dimension ref="A1:AH185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M111" sqref="M111"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4796,7 +4856,7 @@
       <c r="F91" s="13">
         <v>0.33155048658636299</v>
       </c>
-      <c r="G91" s="17">
+      <c r="G91" s="16">
         <v>0.772670388059022</v>
       </c>
       <c r="H91" s="13">
@@ -4834,10 +4894,10 @@
       <c r="E92" s="13">
         <v>0.327116282867083</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="16">
         <v>0.82164796632034798</v>
       </c>
-      <c r="G92" s="17">
+      <c r="G92" s="16">
         <v>1.8831722022920301</v>
       </c>
       <c r="H92" s="13">
@@ -4875,10 +4935,10 @@
       <c r="E93" s="13">
         <v>0.49272650059843198</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="16">
         <v>0.86972323243539695</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="16">
         <v>2.9940821728320799</v>
       </c>
       <c r="H93" s="13">
@@ -4916,10 +4976,10 @@
       <c r="E94" s="13">
         <v>0.3391404375116</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="16">
         <v>0.695437389025374</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="16">
         <v>0.77612040944407501</v>
       </c>
       <c r="H94" s="13">
@@ -4954,13 +5014,13 @@
       <c r="D95" s="3">
         <v>10</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95" s="16">
         <v>0.72049258314369702</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F95" s="16">
         <v>0.59328605786577704</v>
       </c>
-      <c r="G95" s="17">
+      <c r="G95" s="16">
         <v>1.1642638058996999</v>
       </c>
       <c r="H95" s="13">
@@ -4995,13 +5055,13 @@
       <c r="D96" s="3">
         <v>10</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E96" s="16">
         <v>0.59692147825540798</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="16">
         <v>0.98557060224760096</v>
       </c>
-      <c r="G96" s="17">
+      <c r="G96" s="16">
         <v>2.5188399464706599</v>
       </c>
       <c r="H96" s="13">
@@ -5080,10 +5140,10 @@
       <c r="E98" s="13">
         <v>0.36757154014686799</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="16">
         <v>0.62640263378510996</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="16">
         <v>0.50700171435243402</v>
       </c>
       <c r="H98" s="13">
@@ -5121,10 +5181,10 @@
       <c r="E99" s="13">
         <v>0.46927186946307498</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="16">
         <v>0.62718742445042497</v>
       </c>
-      <c r="G99" s="17">
+      <c r="G99" s="16">
         <v>1.0618234183288799</v>
       </c>
       <c r="H99" s="13">
@@ -5162,10 +5222,10 @@
       <c r="E100" s="13">
         <v>0.43021498978901301</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="16">
         <v>0.798253566389866</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="16">
         <v>1.2386193554900999</v>
       </c>
       <c r="H100" s="13">
@@ -5200,13 +5260,13 @@
       <c r="D101" s="3">
         <v>10</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E101" s="16">
         <v>0.85961392548467996</v>
       </c>
-      <c r="F101" s="17">
+      <c r="F101" s="16">
         <v>0.66377291663123095</v>
       </c>
-      <c r="G101" s="17">
+      <c r="G101" s="16">
         <v>0.952559164452916</v>
       </c>
       <c r="H101" s="13">
@@ -5244,10 +5304,10 @@
       <c r="E102" s="13">
         <v>0.44296981771604799</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="16">
         <v>0.62230014438760695</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="16">
         <v>0.67052367892642595</v>
       </c>
       <c r="H102" s="13">
@@ -5307,428 +5367,2977 @@
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="B105" s="2">
+      <c r="B105" s="17">
         <v>60</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="18">
         <v>10</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="18">
         <v>3</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="19">
         <v>0.44561745282291798</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="19">
         <v>0.17391614246269299</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="19">
         <v>0.117496927431674</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="19">
         <v>-2.2086168320547699E-2</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="19">
         <v>5.20618656924067E-2</v>
       </c>
       <c r="J105" s="4">
         <v>-8.6736173798840093E-18</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="19">
         <v>1.0018739803099901</v>
       </c>
-      <c r="L105" s="3">
+      <c r="L105" s="19">
         <v>1.0115035334351901</v>
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="B106" s="2">
+      <c r="B106" s="17">
         <v>60</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="18">
         <v>15</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="18">
         <v>3</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="19">
         <v>0.40752158043269798</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="19">
         <v>0.18455249406149499</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="19">
         <v>0.15095939367516201</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="19">
         <v>2.4531727425741501E-2</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="19">
         <v>-5.7092600609341397E-2</v>
       </c>
       <c r="J106" s="4">
         <v>2.7755575615628901E-17</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="19">
         <v>1.0009121084272501</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L106" s="19">
         <v>1.00758973719088</v>
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="B107" s="2">
+      <c r="B107" s="17">
         <v>60</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="18">
         <v>10</v>
       </c>
-      <c r="D107" s="3">
-        <v>5</v>
-      </c>
-      <c r="E107" s="7">
+      <c r="D107" s="18">
+        <v>5</v>
+      </c>
+      <c r="E107" s="20">
         <v>0.70561081710733597</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="19">
         <v>0.233218686633933</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="19">
         <v>9.53354092515733E-2</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="19">
         <v>3.7862757913945402E-2</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="19">
         <v>-4.5442013655808598E-2</v>
       </c>
       <c r="J107" s="4">
         <v>-1.7347234759768099E-17</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="19">
         <v>0.99973278171895497</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L107" s="19">
         <v>1.00447441424407</v>
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="B108" s="2">
+      <c r="B108" s="17">
         <v>60</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="18">
         <v>15</v>
       </c>
-      <c r="D108" s="3">
-        <v>5</v>
-      </c>
-      <c r="E108" s="7">
+      <c r="D108" s="18">
+        <v>5</v>
+      </c>
+      <c r="E108" s="20">
         <v>0.57772255882046197</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="19">
         <v>0.23245665904441701</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="19">
         <v>8.0533335284634702E-2</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="19">
         <v>5.3187650494204E-2</v>
       </c>
-      <c r="I108" s="3">
+      <c r="I108" s="19">
         <v>-3.1992518917397399E-2</v>
       </c>
       <c r="J108" s="4">
         <v>6.1629758220391499E-33</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="19">
         <v>1.0006257047229701</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L108" s="19">
         <v>1.0077642932919899</v>
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="B109" s="2">
+      <c r="B109" s="17">
         <v>60</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="18">
         <v>10</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="18">
         <v>10</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="20">
         <v>0.80421474718471198</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="19">
         <v>0.37018918775141901</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="19">
         <v>0.246608848366515</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="19">
         <v>-1.93112088520896E-2</v>
       </c>
-      <c r="I109" s="3">
+      <c r="I109" s="19">
         <v>-4.6060923248873202E-3</v>
       </c>
       <c r="J109" s="4">
         <v>-2.7755575615628901E-17</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="19">
         <v>0.999481740590342</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L109" s="19">
         <v>1.0026761064002001</v>
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="B110" s="2">
+      <c r="B110" s="17">
         <v>60</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="18">
         <v>15</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="18">
         <v>10</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="20">
         <v>0.73699302973858305</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="19">
         <v>0.31466826106624501</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="19">
         <v>8.0666607715411703E-2</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="19">
         <v>2.2722198382786999E-2</v>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="19">
         <v>4.7974296868724897E-2</v>
       </c>
       <c r="J110" s="4">
         <v>6.0715321659188199E-17</v>
       </c>
-      <c r="K110" s="3">
+      <c r="K110" s="19">
         <v>1.0001981156567701</v>
       </c>
-      <c r="L110" s="3">
+      <c r="L110" s="19">
         <v>1.0058271510808501</v>
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="B111" s="2">
+      <c r="B111" s="17">
         <v>90</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="18">
         <v>10</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="18">
         <v>3</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="20">
         <v>0.520240562580088</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="19">
         <v>0.159527733106442</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="19">
         <v>7.1108975023704196E-2</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="19">
         <v>-1.36006482520491E-2</v>
       </c>
-      <c r="I111" s="3">
+      <c r="I111" s="19">
         <v>4.5056296947635702E-2</v>
       </c>
       <c r="J111" s="4">
         <v>2.0816681711721701E-17</v>
       </c>
-      <c r="K111" s="3">
+      <c r="K111" s="19">
         <v>1.0004165674316601</v>
       </c>
-      <c r="L111" s="3">
+      <c r="L111" s="19">
         <v>1.0083307291455801</v>
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="B112" s="2">
+      <c r="B112" s="17">
         <v>90</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="18">
         <v>15</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="18">
         <v>3</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="19">
         <v>0.37273404924661402</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="19">
         <v>0.12047157474178399</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="19">
         <v>0.100786378259904</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="19">
         <v>-1.0336992045870399E-2</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="19">
         <v>2.5333968086504299E-2</v>
       </c>
       <c r="J112" s="4">
         <v>1.7347234759768099E-17</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K112" s="19">
         <v>1.0017527825841701</v>
       </c>
-      <c r="L112" s="3">
+      <c r="L112" s="19">
         <v>1.0114553149852501</v>
       </c>
     </row>
-    <row r="113" spans="2:12">
-      <c r="B113" s="2">
+    <row r="113" spans="1:14">
+      <c r="B113" s="17">
         <v>90</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="18">
         <v>10</v>
       </c>
-      <c r="D113" s="3">
-        <v>5</v>
-      </c>
-      <c r="E113" s="7">
+      <c r="D113" s="18">
+        <v>5</v>
+      </c>
+      <c r="E113" s="20">
         <v>0.62804837871073005</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="19">
         <v>0.17616722281333799</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113" s="19">
         <v>0.162199422365676</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="19">
         <v>-5.8072504000037904E-3</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="19">
         <v>-4.9940393971302899E-2</v>
       </c>
       <c r="J113" s="4">
         <v>3.8163916471489799E-17</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="19">
         <v>0.99954455502504402</v>
       </c>
-      <c r="L113" s="3">
+      <c r="L113" s="19">
         <v>1.00532732918828</v>
       </c>
     </row>
-    <row r="114" spans="2:12">
-      <c r="B114" s="2">
+    <row r="114" spans="1:14">
+      <c r="B114" s="17">
         <v>90</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="18">
         <v>15</v>
       </c>
-      <c r="D114" s="3">
-        <v>5</v>
-      </c>
-      <c r="E114" s="7">
+      <c r="D114" s="18">
+        <v>5</v>
+      </c>
+      <c r="E114" s="20">
         <v>0.66977096614885001</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="19">
         <v>0.24428710644951199</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114" s="19">
         <v>6.6345726449359793E-2</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="19">
         <v>2.5663760023731799E-2</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="19">
         <v>1.2782322650535E-2</v>
       </c>
       <c r="J114" s="4">
         <v>-1.0408340855860799E-17</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="19">
         <v>1.0004397939313701</v>
       </c>
-      <c r="L114" s="3">
+      <c r="L114" s="19">
         <v>1.0078957787895699</v>
       </c>
     </row>
-    <row r="115" spans="2:12">
-      <c r="B115" s="2">
+    <row r="115" spans="1:14">
+      <c r="B115" s="17">
         <v>90</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="18">
         <v>10</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="18">
         <v>10</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="20">
         <v>0.93497473075181803</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="19">
         <v>0.592335431353467</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="19">
         <v>0.20842140258668701</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="19">
         <v>2.30593493862104E-2</v>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="19">
         <v>0.374235781366901</v>
       </c>
       <c r="J115" s="4">
         <v>6.9388939039072099E-18</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K115" s="19">
         <v>0.99927567871556</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L115" s="19">
         <v>1.0027120677191099</v>
       </c>
     </row>
-    <row r="116" spans="2:12">
-      <c r="B116" s="2">
+    <row r="116" spans="1:14">
+      <c r="B116" s="17">
         <v>90</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="18">
         <v>15</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="18">
         <v>10</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="20">
         <v>0.78122761328392898</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="19">
         <v>0.36040175090551402</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116" s="19">
         <v>0.181976065975472</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="19">
         <v>-2.55692194314474E-3</v>
       </c>
-      <c r="I116" s="3">
+      <c r="I116" s="19">
         <v>-0.12504324409914</v>
       </c>
       <c r="J116" s="4">
         <v>2.1570415377137001E-32</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K116" s="19">
         <v>1.0004945770515099</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L116" s="19">
         <v>1.01016445990135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="B118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="B119" s="2">
+        <v>60</v>
+      </c>
+      <c r="C119" s="3">
+        <v>10</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3</v>
+      </c>
+      <c r="E119" s="19">
+        <v>0.25266742762153299</v>
+      </c>
+      <c r="F119" s="19">
+        <v>0.335941730330093</v>
+      </c>
+      <c r="G119" s="19">
+        <v>0.41929783656126501</v>
+      </c>
+      <c r="H119" s="19">
+        <v>9.9166549375502094E-2</v>
+      </c>
+      <c r="I119" s="19">
+        <v>2.2685985599257601E-2</v>
+      </c>
+      <c r="J119" s="19">
+        <v>3.0865475135518902E-2</v>
+      </c>
+      <c r="K119" s="4">
+        <v>5.5497598704101496E-18</v>
+      </c>
+      <c r="L119" s="4">
+        <v>-1.04083408558609E-17</v>
+      </c>
+      <c r="M119" s="19">
+        <v>1.00023778714619</v>
+      </c>
+      <c r="N119" s="19">
+        <v>1.00420890378821</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="B120" s="2">
+        <v>60</v>
+      </c>
+      <c r="C120" s="3">
+        <v>15</v>
+      </c>
+      <c r="D120" s="3">
+        <v>3</v>
+      </c>
+      <c r="E120" s="19">
+        <v>0.26845193540864698</v>
+      </c>
+      <c r="F120" s="19">
+        <v>0.29161275753276</v>
+      </c>
+      <c r="G120" s="19">
+        <v>0.362591913936053</v>
+      </c>
+      <c r="H120" s="19">
+        <v>0.14973391515826301</v>
+      </c>
+      <c r="I120" s="19">
+        <v>2.22188555009636E-2</v>
+      </c>
+      <c r="J120" s="19">
+        <v>-8.9191990073774499E-2</v>
+      </c>
+      <c r="K120" s="4">
+        <v>2.3173692059614398E-18</v>
+      </c>
+      <c r="L120" s="4">
+        <v>3.4694469519536197E-17</v>
+      </c>
+      <c r="M120" s="19">
+        <v>1.00119027267993</v>
+      </c>
+      <c r="N120" s="19">
+        <v>1.0062179251751</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="B121" s="2">
+        <v>60</v>
+      </c>
+      <c r="C121" s="3">
+        <v>10</v>
+      </c>
+      <c r="D121" s="3">
+        <v>5</v>
+      </c>
+      <c r="E121" s="19">
+        <v>0.36001621543755302</v>
+      </c>
+      <c r="F121" s="20">
+        <v>0.57050977082271004</v>
+      </c>
+      <c r="G121" s="20">
+        <v>0.75137778114010501</v>
+      </c>
+      <c r="H121" s="19">
+        <v>8.7949022825510301E-2</v>
+      </c>
+      <c r="I121" s="19">
+        <v>2.8240189402503001E-3</v>
+      </c>
+      <c r="J121" s="19">
+        <v>9.7130420744083498E-2</v>
+      </c>
+      <c r="K121" s="4">
+        <v>-2.7647155398380001E-18</v>
+      </c>
+      <c r="L121" s="4">
+        <v>-2.60208521396521E-17</v>
+      </c>
+      <c r="M121" s="19">
+        <v>1.00105725688978</v>
+      </c>
+      <c r="N121" s="19">
+        <v>1.00737612005004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="B122" s="2">
+        <v>60</v>
+      </c>
+      <c r="C122" s="3">
+        <v>15</v>
+      </c>
+      <c r="D122" s="3">
+        <v>5</v>
+      </c>
+      <c r="E122" s="19">
+        <v>0.28818524322797801</v>
+      </c>
+      <c r="F122" s="20">
+        <v>0.61135786586176999</v>
+      </c>
+      <c r="G122" s="20">
+        <v>0.70832411511353099</v>
+      </c>
+      <c r="H122" s="19">
+        <v>7.7637282841036506E-2</v>
+      </c>
+      <c r="I122" s="19">
+        <v>-5.8715556832375998E-3</v>
+      </c>
+      <c r="J122" s="19">
+        <v>-0.37830815819174002</v>
+      </c>
+      <c r="K122" s="4">
+        <v>-1.06468653338077E-17</v>
+      </c>
+      <c r="L122" s="4">
+        <v>2.7755575615628901E-17</v>
+      </c>
+      <c r="M122" s="19">
+        <v>1.0014073277000799</v>
+      </c>
+      <c r="N122" s="19">
+        <v>1.0102231380942199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="B123" s="2">
+        <v>60</v>
+      </c>
+      <c r="C123" s="3">
+        <v>10</v>
+      </c>
+      <c r="D123" s="3">
+        <v>10</v>
+      </c>
+      <c r="E123" s="20">
+        <v>0.60551311001091701</v>
+      </c>
+      <c r="F123" s="19">
+        <v>0.429153829436353</v>
+      </c>
+      <c r="G123" s="19">
+        <v>0.36142576056535802</v>
+      </c>
+      <c r="H123" s="19">
+        <v>7.9308234520291801E-2</v>
+      </c>
+      <c r="I123" s="19">
+        <v>2.4583762526436601E-2</v>
+      </c>
+      <c r="J123" s="19">
+        <v>9.2145111631960503E-3</v>
+      </c>
+      <c r="K123" s="4">
+        <v>2.08166817117219E-18</v>
+      </c>
+      <c r="L123" s="4">
+        <v>4.5102810375397003E-17</v>
+      </c>
+      <c r="M123" s="19">
+        <v>0.99977143376257305</v>
+      </c>
+      <c r="N123" s="19">
+        <v>1.00349012734708</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="B124" s="2">
+        <v>60</v>
+      </c>
+      <c r="C124" s="3">
+        <v>15</v>
+      </c>
+      <c r="D124" s="3">
+        <v>10</v>
+      </c>
+      <c r="E124" s="19">
+        <v>0.38153887167775302</v>
+      </c>
+      <c r="F124" s="19">
+        <v>0.49412285296682301</v>
+      </c>
+      <c r="G124" s="19">
+        <v>0.46898743736708498</v>
+      </c>
+      <c r="H124" s="19">
+        <v>8.5902191067852005E-2</v>
+      </c>
+      <c r="I124" s="19">
+        <v>-3.1938466381276502E-2</v>
+      </c>
+      <c r="J124" s="19">
+        <v>0.17230949582423599</v>
+      </c>
+      <c r="K124" s="4">
+        <v>9.9620109615209496E-18</v>
+      </c>
+      <c r="L124" s="4">
+        <v>-8.6736173798840601E-18</v>
+      </c>
+      <c r="M124" s="19">
+        <v>1.0017084273933601</v>
+      </c>
+      <c r="N124" s="19">
+        <v>1.0089865074858599</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="B125" s="2">
+        <v>90</v>
+      </c>
+      <c r="C125" s="3">
+        <v>10</v>
+      </c>
+      <c r="D125" s="3">
+        <v>3</v>
+      </c>
+      <c r="E125" s="19">
+        <v>0.345094856067513</v>
+      </c>
+      <c r="F125" s="20">
+        <v>0.60814636129899402</v>
+      </c>
+      <c r="G125" s="19">
+        <v>0.49995387324496099</v>
+      </c>
+      <c r="H125" s="19">
+        <v>0.104016195307543</v>
+      </c>
+      <c r="I125" s="19">
+        <v>-9.5722008537983995E-3</v>
+      </c>
+      <c r="J125" s="19">
+        <v>0.12555384281607199</v>
+      </c>
+      <c r="K125" s="4">
+        <v>-6.2504255243789398E-18</v>
+      </c>
+      <c r="L125" s="4">
+        <v>4.1633363423443401E-17</v>
+      </c>
+      <c r="M125" s="19">
+        <v>1.00007663280996</v>
+      </c>
+      <c r="N125" s="19">
+        <v>1.00517683320743</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="B126" s="2">
+        <v>90</v>
+      </c>
+      <c r="C126" s="3">
+        <v>15</v>
+      </c>
+      <c r="D126" s="3">
+        <v>3</v>
+      </c>
+      <c r="E126" s="19">
+        <v>0.28333527826995503</v>
+      </c>
+      <c r="F126" s="19">
+        <v>0.370021740503924</v>
+      </c>
+      <c r="G126" s="19">
+        <v>0.39310057357960898</v>
+      </c>
+      <c r="H126" s="19">
+        <v>0.102236883891113</v>
+      </c>
+      <c r="I126" s="19">
+        <v>-3.2348019293586099E-2</v>
+      </c>
+      <c r="J126" s="19">
+        <v>-0.13020594282220599</v>
+      </c>
+      <c r="K126" s="4">
+        <v>-9.2371766341238894E-18</v>
+      </c>
+      <c r="L126" s="4">
+        <v>-1.5612511283791301E-17</v>
+      </c>
+      <c r="M126" s="19">
+        <v>1.00027775494074</v>
+      </c>
+      <c r="N126" s="19">
+        <v>1.00504020776361</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="B127" s="2">
+        <v>90</v>
+      </c>
+      <c r="C127" s="3">
+        <v>10</v>
+      </c>
+      <c r="D127" s="3">
+        <v>5</v>
+      </c>
+      <c r="E127" s="19">
+        <v>0.40921886992811402</v>
+      </c>
+      <c r="F127" s="19">
+        <v>0.42334203568786799</v>
+      </c>
+      <c r="G127" s="19">
+        <v>0.28222993607137498</v>
+      </c>
+      <c r="H127" s="19">
+        <v>8.4468157268446295E-2</v>
+      </c>
+      <c r="I127" s="19">
+        <v>-1.70197991586617E-2</v>
+      </c>
+      <c r="J127" s="19">
+        <v>0.121425255126572</v>
+      </c>
+      <c r="K127" s="4">
+        <v>-2.77555756156291E-18</v>
+      </c>
+      <c r="L127" s="4">
+        <v>2.7755575615629E-17</v>
+      </c>
+      <c r="M127" s="19">
+        <v>1.0001127474909499</v>
+      </c>
+      <c r="N127" s="19">
+        <v>1.00622429348872</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="B128" s="2">
+        <v>90</v>
+      </c>
+      <c r="C128" s="3">
+        <v>15</v>
+      </c>
+      <c r="D128" s="3">
+        <v>5</v>
+      </c>
+      <c r="E128" s="19">
+        <v>0.41402776408973702</v>
+      </c>
+      <c r="F128" s="20">
+        <v>0.68129365447359902</v>
+      </c>
+      <c r="G128" s="20">
+        <v>0.81860419603869505</v>
+      </c>
+      <c r="H128" s="19">
+        <v>6.5324944152479303E-2</v>
+      </c>
+      <c r="I128" s="19">
+        <v>8.8762027698627399E-2</v>
+      </c>
+      <c r="J128" s="19">
+        <v>-0.219585312403767</v>
+      </c>
+      <c r="K128" s="4">
+        <v>-3.8156688457006501E-17</v>
+      </c>
+      <c r="L128" s="4">
+        <v>-4.1633363423443401E-17</v>
+      </c>
+      <c r="M128" s="19">
+        <v>1.00001427231505</v>
+      </c>
+      <c r="N128" s="19">
+        <v>1.0058931179161199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="B129" s="2">
+        <v>90</v>
+      </c>
+      <c r="C129" s="3">
+        <v>10</v>
+      </c>
+      <c r="D129" s="3">
+        <v>10</v>
+      </c>
+      <c r="E129" s="20">
+        <v>0.58690434779726797</v>
+      </c>
+      <c r="F129" s="19">
+        <v>0.48629184406516501</v>
+      </c>
+      <c r="G129" s="19">
+        <v>0.214895501063953</v>
+      </c>
+      <c r="H129" s="19">
+        <v>6.98630517145825E-2</v>
+      </c>
+      <c r="I129" s="19">
+        <v>-5.3998934489799004E-3</v>
+      </c>
+      <c r="J129" s="19">
+        <v>-0.254720507967717</v>
+      </c>
+      <c r="K129" s="4">
+        <v>2.7782680669941101E-18</v>
+      </c>
+      <c r="L129" s="4">
+        <v>-8.6736173798840401E-18</v>
+      </c>
+      <c r="M129" s="19">
+        <v>1.00011826827649</v>
+      </c>
+      <c r="N129" s="19">
+        <v>1.00692044325227</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="B130" s="2">
+        <v>90</v>
+      </c>
+      <c r="C130" s="3">
+        <v>15</v>
+      </c>
+      <c r="D130" s="3">
+        <v>10</v>
+      </c>
+      <c r="E130" s="19">
+        <v>0.383738764772454</v>
+      </c>
+      <c r="F130" s="20">
+        <v>0.83002590035042101</v>
+      </c>
+      <c r="G130" s="20">
+        <v>1.3813051553123401</v>
+      </c>
+      <c r="H130" s="19">
+        <v>8.3639358532741806E-2</v>
+      </c>
+      <c r="I130" s="19">
+        <v>-2.9844170791475499E-2</v>
+      </c>
+      <c r="J130" s="19">
+        <v>0.152700791965792</v>
+      </c>
+      <c r="K130" s="4">
+        <v>4.6114732403049997E-18</v>
+      </c>
+      <c r="L130" s="4">
+        <v>1.38777878078145E-17</v>
+      </c>
+      <c r="M130" s="19">
+        <v>1.00131650169731</v>
+      </c>
+      <c r="N130" s="19">
+        <v>1.01152966645797</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="B132" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M132" s="6"/>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="B133" s="2">
+        <v>60</v>
+      </c>
+      <c r="C133" s="3">
+        <v>10</v>
+      </c>
+      <c r="D133" s="3">
+        <v>3</v>
+      </c>
+      <c r="E133" s="19">
+        <v>0.24724819409052501</v>
+      </c>
+      <c r="F133" s="19">
+        <v>0.15442017840255901</v>
+      </c>
+      <c r="G133" s="19">
+        <v>5.1735342010940703E-2</v>
+      </c>
+      <c r="H133" s="19">
+        <v>4.1831152974864498E-3</v>
+      </c>
+      <c r="I133" s="19">
+        <v>-1.8458116658983999E-2</v>
+      </c>
+      <c r="J133" s="4">
+        <v>-7.8062556418956396E-18</v>
+      </c>
+      <c r="K133" s="3">
+        <v>1.0017449909105201</v>
+      </c>
+      <c r="L133" s="3">
+        <v>1.0083705964474801</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="B134" s="2">
+        <v>60</v>
+      </c>
+      <c r="C134" s="3">
+        <v>15</v>
+      </c>
+      <c r="D134" s="3">
+        <v>3</v>
+      </c>
+      <c r="E134" s="19">
+        <v>0.194691155084285</v>
+      </c>
+      <c r="F134" s="19">
+        <v>0.14373777150076</v>
+      </c>
+      <c r="G134" s="19">
+        <v>4.7578212214774401E-2</v>
+      </c>
+      <c r="H134" s="19">
+        <v>3.8876621963870199E-2</v>
+      </c>
+      <c r="I134" s="19">
+        <v>3.6560066937433397E-2</v>
+      </c>
+      <c r="J134" s="4">
+        <v>-1.7347234759768E-17</v>
+      </c>
+      <c r="K134" s="3">
+        <v>1.00986207501479</v>
+      </c>
+      <c r="L134" s="3">
+        <v>1.0262597483564</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="B135" s="2">
+        <v>60</v>
+      </c>
+      <c r="C135" s="3">
+        <v>10</v>
+      </c>
+      <c r="D135" s="3">
+        <v>5</v>
+      </c>
+      <c r="E135" s="19">
+        <v>0.297107192000719</v>
+      </c>
+      <c r="F135" s="19">
+        <v>0.15649470258620399</v>
+      </c>
+      <c r="G135" s="19">
+        <v>6.0164529990855101E-2</v>
+      </c>
+      <c r="H135" s="19">
+        <v>8.3775148691164203E-2</v>
+      </c>
+      <c r="I135" s="19">
+        <v>9.3769758459535196E-2</v>
+      </c>
+      <c r="J135" s="4">
+        <v>6.9388939039071999E-18</v>
+      </c>
+      <c r="K135" s="3">
+        <v>1.00231844354435</v>
+      </c>
+      <c r="L135" s="3">
+        <v>1.0112363599684799</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="B136" s="2">
+        <v>60</v>
+      </c>
+      <c r="C136" s="3">
+        <v>15</v>
+      </c>
+      <c r="D136" s="3">
+        <v>5</v>
+      </c>
+      <c r="E136" s="19">
+        <v>0.211640641262795</v>
+      </c>
+      <c r="F136" s="19">
+        <v>0.12045549831878601</v>
+      </c>
+      <c r="G136" s="19">
+        <v>4.9952756997511401E-2</v>
+      </c>
+      <c r="H136" s="19">
+        <v>-9.9654417889982992E-3</v>
+      </c>
+      <c r="I136" s="19">
+        <v>-1.6438278093167301E-2</v>
+      </c>
+      <c r="J136" s="4">
+        <v>4.1633363423443401E-17</v>
+      </c>
+      <c r="K136" s="3">
+        <v>1.0088096527372901</v>
+      </c>
+      <c r="L136" s="3">
+        <v>1.0252456697798</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="B137" s="2">
+        <v>60</v>
+      </c>
+      <c r="C137" s="3">
+        <v>10</v>
+      </c>
+      <c r="D137" s="3">
+        <v>10</v>
+      </c>
+      <c r="E137" s="19">
+        <v>0.29569953301392798</v>
+      </c>
+      <c r="F137" s="19">
+        <v>0.15633080237071001</v>
+      </c>
+      <c r="G137" s="19">
+        <v>6.4650765163513493E-2</v>
+      </c>
+      <c r="H137" s="19">
+        <v>4.8727334914514302E-2</v>
+      </c>
+      <c r="I137" s="19">
+        <v>4.9738174636466299E-2</v>
+      </c>
+      <c r="J137" s="4">
+        <v>5.03069808033274E-17</v>
+      </c>
+      <c r="K137" s="3">
+        <v>1.00218876632214</v>
+      </c>
+      <c r="L137" s="3">
+        <v>1.0092691609311899</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="B138" s="2">
+        <v>60</v>
+      </c>
+      <c r="C138" s="3">
+        <v>15</v>
+      </c>
+      <c r="D138" s="3">
+        <v>10</v>
+      </c>
+      <c r="E138" s="19">
+        <v>0.233131385281582</v>
+      </c>
+      <c r="F138" s="19">
+        <v>0.101109333200745</v>
+      </c>
+      <c r="G138" s="19">
+        <v>5.2562095678632202E-2</v>
+      </c>
+      <c r="H138" s="19">
+        <v>6.9361695800173803E-3</v>
+      </c>
+      <c r="I138" s="19">
+        <v>1.20595452882765E-3</v>
+      </c>
+      <c r="J138" s="3">
+        <v>0</v>
+      </c>
+      <c r="K138" s="3">
+        <v>1.0045642612677801</v>
+      </c>
+      <c r="L138" s="3">
+        <v>1.0140990706931501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="B139" s="2">
+        <v>90</v>
+      </c>
+      <c r="C139" s="3">
+        <v>10</v>
+      </c>
+      <c r="D139" s="3">
+        <v>3</v>
+      </c>
+      <c r="E139" s="19">
+        <v>0.26048056240747203</v>
+      </c>
+      <c r="F139" s="19">
+        <v>0.10247250038076799</v>
+      </c>
+      <c r="G139" s="19">
+        <v>3.7732859894449501E-2</v>
+      </c>
+      <c r="H139" s="19">
+        <v>-2.98818609004552E-2</v>
+      </c>
+      <c r="I139" s="19">
+        <v>2.84678260779213E-2</v>
+      </c>
+      <c r="J139" s="4">
+        <v>1.7347234759768E-18</v>
+      </c>
+      <c r="K139" s="3">
+        <v>1.00202478813938</v>
+      </c>
+      <c r="L139" s="3">
+        <v>1.0116166667811599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="B140" s="2">
+        <v>90</v>
+      </c>
+      <c r="C140" s="3">
+        <v>15</v>
+      </c>
+      <c r="D140" s="3">
+        <v>3</v>
+      </c>
+      <c r="E140" s="19">
+        <v>0.21566304897521499</v>
+      </c>
+      <c r="F140" s="19">
+        <v>9.3918556840338299E-2</v>
+      </c>
+      <c r="G140" s="19">
+        <v>6.8087750843267403E-2</v>
+      </c>
+      <c r="H140" s="19">
+        <v>1.5493375410912001E-2</v>
+      </c>
+      <c r="I140" s="19">
+        <v>1.5071646271888801E-2</v>
+      </c>
+      <c r="J140" s="4">
+        <v>1.7347234759768099E-17</v>
+      </c>
+      <c r="K140" s="3">
+        <v>1.00337734529573</v>
+      </c>
+      <c r="L140" s="3">
+        <v>1.0139902681961099</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="B141" s="2">
+        <v>90</v>
+      </c>
+      <c r="C141" s="3">
+        <v>10</v>
+      </c>
+      <c r="D141" s="3">
+        <v>5</v>
+      </c>
+      <c r="E141" s="19">
+        <v>0.248043286271181</v>
+      </c>
+      <c r="F141" s="19">
+        <v>0.104574930258634</v>
+      </c>
+      <c r="G141" s="19">
+        <v>0.104414498243071</v>
+      </c>
+      <c r="H141" s="19">
+        <v>-3.0537964425053001E-2</v>
+      </c>
+      <c r="I141" s="19">
+        <v>-3.0588294431522601E-2</v>
+      </c>
+      <c r="J141" s="4">
+        <v>-1.38777878078145E-17</v>
+      </c>
+      <c r="K141" s="3">
+        <v>1.0025431927880599</v>
+      </c>
+      <c r="L141" s="3">
+        <v>1.01418601429758</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="B142" s="2">
+        <v>90</v>
+      </c>
+      <c r="C142" s="3">
+        <v>15</v>
+      </c>
+      <c r="D142" s="3">
+        <v>5</v>
+      </c>
+      <c r="E142" s="19">
+        <v>0.25684095419849201</v>
+      </c>
+      <c r="F142" s="19">
+        <v>9.7341796529028093E-2</v>
+      </c>
+      <c r="G142" s="19">
+        <v>5.6526681868283003E-2</v>
+      </c>
+      <c r="H142" s="19">
+        <v>-1.2233532131144901E-2</v>
+      </c>
+      <c r="I142" s="19">
+        <v>4.9938236850205096E-4</v>
+      </c>
+      <c r="J142" s="4">
+        <v>-1.38777878078145E-17</v>
+      </c>
+      <c r="K142" s="3">
+        <v>1.0027754075462001</v>
+      </c>
+      <c r="L142" s="3">
+        <v>1.0148594159666899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="B143" s="2">
+        <v>90</v>
+      </c>
+      <c r="C143" s="3">
+        <v>10</v>
+      </c>
+      <c r="D143" s="3">
+        <v>10</v>
+      </c>
+      <c r="E143" s="19">
+        <v>0.270819309616949</v>
+      </c>
+      <c r="F143" s="19">
+        <v>0.113719826743723</v>
+      </c>
+      <c r="G143" s="19">
+        <v>7.7675566554864003E-2</v>
+      </c>
+      <c r="H143" s="19">
+        <v>1.39394527633151E-2</v>
+      </c>
+      <c r="I143" s="19">
+        <v>-1.1604457922124601E-3</v>
+      </c>
+      <c r="J143" s="4">
+        <v>-1.38777878078145E-17</v>
+      </c>
+      <c r="K143" s="3">
+        <v>1.0017749382954499</v>
+      </c>
+      <c r="L143" s="3">
+        <v>1.0117062581588201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="B144" s="2">
+        <v>90</v>
+      </c>
+      <c r="C144" s="3">
+        <v>15</v>
+      </c>
+      <c r="D144" s="3">
+        <v>10</v>
+      </c>
+      <c r="E144" s="19">
+        <v>0.22149285280923001</v>
+      </c>
+      <c r="F144" s="19">
+        <v>0.140204460096194</v>
+      </c>
+      <c r="G144" s="19">
+        <v>6.7403611642311803E-2</v>
+      </c>
+      <c r="H144" s="19">
+        <v>2.4120661717655E-2</v>
+      </c>
+      <c r="I144" s="19">
+        <v>3.4818660136720303E-2</v>
+      </c>
+      <c r="J144" s="4">
+        <v>-7.3725747729014502E-18</v>
+      </c>
+      <c r="K144" s="3">
+        <v>1.0038053741266599</v>
+      </c>
+      <c r="L144" s="3">
+        <v>1.01589339834305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="B146" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="B147" s="2">
+        <v>60</v>
+      </c>
+      <c r="C147" s="3">
+        <v>10</v>
+      </c>
+      <c r="D147" s="3">
+        <v>3</v>
+      </c>
+      <c r="E147" s="19">
+        <v>0.35204390460936602</v>
+      </c>
+      <c r="F147" s="19">
+        <v>0.33731863789356198</v>
+      </c>
+      <c r="G147" s="19">
+        <v>0.22470242595049</v>
+      </c>
+      <c r="H147" s="19">
+        <v>0.148365058737018</v>
+      </c>
+      <c r="I147" s="19">
+        <v>5.6614135581401501E-3</v>
+      </c>
+      <c r="J147" s="4">
+        <v>-1.3931997916438801E-18</v>
+      </c>
+      <c r="K147" s="19">
+        <v>5.5685259964423098E-2</v>
+      </c>
+      <c r="L147" s="3">
+        <v>0</v>
+      </c>
+      <c r="M147" s="3">
+        <v>1.00026122237509</v>
+      </c>
+      <c r="N147" s="3">
+        <v>1.0057338300926599</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="B148" s="2">
+        <v>60</v>
+      </c>
+      <c r="C148" s="3">
+        <v>15</v>
+      </c>
+      <c r="D148" s="3">
+        <v>3</v>
+      </c>
+      <c r="E148" s="19">
+        <v>0.25914100299811099</v>
+      </c>
+      <c r="F148" s="20">
+        <v>0.54364853660341095</v>
+      </c>
+      <c r="G148" s="19">
+        <v>0.33889456207820901</v>
+      </c>
+      <c r="H148" s="19">
+        <v>7.3464810394095401E-2</v>
+      </c>
+      <c r="I148" s="19">
+        <v>2.9458219845661299E-2</v>
+      </c>
+      <c r="J148" s="4">
+        <v>-2.26607289067574E-17</v>
+      </c>
+      <c r="K148" s="19">
+        <v>2.6112483164685101E-2</v>
+      </c>
+      <c r="L148" s="4">
+        <v>-1.2143064331837701E-17</v>
+      </c>
+      <c r="M148" s="3">
+        <v>1.0002767468117699</v>
+      </c>
+      <c r="N148" s="3">
+        <v>1.00465278291842</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="B149" s="2">
+        <v>60</v>
+      </c>
+      <c r="C149" s="3">
+        <v>10</v>
+      </c>
+      <c r="D149" s="3">
+        <v>5</v>
+      </c>
+      <c r="E149" s="19">
+        <v>0.448345054953324</v>
+      </c>
+      <c r="F149" s="20">
+        <v>0.79648761149407998</v>
+      </c>
+      <c r="G149" s="19">
+        <v>0.35411842039238101</v>
+      </c>
+      <c r="H149" s="19">
+        <v>0.142118420066768</v>
+      </c>
+      <c r="I149" s="19">
+        <v>-4.2918106286902E-2</v>
+      </c>
+      <c r="J149" s="4">
+        <v>2.2204460492503101E-17</v>
+      </c>
+      <c r="K149" s="19">
+        <v>-5.2473108573877998E-2</v>
+      </c>
+      <c r="L149" s="4">
+        <v>-6.9388939039071999E-18</v>
+      </c>
+      <c r="M149" s="3">
+        <v>0.99966047468212604</v>
+      </c>
+      <c r="N149" s="3">
+        <v>1.0027589648391899</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="B150" s="2">
+        <v>60</v>
+      </c>
+      <c r="C150" s="3">
+        <v>15</v>
+      </c>
+      <c r="D150" s="3">
+        <v>5</v>
+      </c>
+      <c r="E150" s="19">
+        <v>0.27643554013423499</v>
+      </c>
+      <c r="F150" s="19">
+        <v>0.36281096340656399</v>
+      </c>
+      <c r="G150" s="19">
+        <v>0.18775982346088399</v>
+      </c>
+      <c r="H150" s="19">
+        <v>5.2086034727705101E-2</v>
+      </c>
+      <c r="I150" s="19">
+        <v>9.5669762187607105E-3</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
+      <c r="K150" s="19">
+        <v>-2.5872394549435302E-3</v>
+      </c>
+      <c r="L150" s="4">
+        <v>5.03069808033274E-17</v>
+      </c>
+      <c r="M150" s="3">
+        <v>1.0010716107509801</v>
+      </c>
+      <c r="N150" s="3">
+        <v>1.0082271838386101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="B151" s="2">
+        <v>60</v>
+      </c>
+      <c r="C151" s="3">
+        <v>10</v>
+      </c>
+      <c r="D151" s="3">
+        <v>10</v>
+      </c>
+      <c r="E151" s="20">
+        <v>0.50365976321318096</v>
+      </c>
+      <c r="F151" s="20">
+        <v>0.79482843316314999</v>
+      </c>
+      <c r="G151" s="19">
+        <v>0.33422848244673897</v>
+      </c>
+      <c r="H151" s="19">
+        <v>8.5541684889865494E-2</v>
+      </c>
+      <c r="I151" s="19">
+        <v>-4.6205347488297299E-2</v>
+      </c>
+      <c r="J151" s="4">
+        <v>-1.24954300378954E-17</v>
+      </c>
+      <c r="K151" s="19">
+        <v>-3.2779131689072101E-2</v>
+      </c>
+      <c r="L151" s="4">
+        <v>-4.3368086899420202E-17</v>
+      </c>
+      <c r="M151" s="3">
+        <v>1.0001805880614201</v>
+      </c>
+      <c r="N151" s="3">
+        <v>1.0047402666559899</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="B152" s="2">
+        <v>60</v>
+      </c>
+      <c r="C152" s="3">
+        <v>15</v>
+      </c>
+      <c r="D152" s="3">
+        <v>10</v>
+      </c>
+      <c r="E152" s="19">
+        <v>0.46350769728050401</v>
+      </c>
+      <c r="F152" s="20">
+        <v>0.862959864280053</v>
+      </c>
+      <c r="G152" s="19">
+        <v>0.35833805260604601</v>
+      </c>
+      <c r="H152" s="19">
+        <v>6.9180376793638795E-2</v>
+      </c>
+      <c r="I152" s="19">
+        <v>-7.1780451642002599E-2</v>
+      </c>
+      <c r="J152" s="4">
+        <v>-1.8532629135018899E-17</v>
+      </c>
+      <c r="K152" s="19">
+        <v>1.01157088875379E-2</v>
+      </c>
+      <c r="L152" s="4">
+        <v>1.21430643318376E-17</v>
+      </c>
+      <c r="M152" s="3">
+        <v>0.99942622462603303</v>
+      </c>
+      <c r="N152" s="3">
+        <v>1.0034362350266399</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="B153" s="2">
+        <v>90</v>
+      </c>
+      <c r="C153" s="3">
+        <v>10</v>
+      </c>
+      <c r="D153" s="3">
+        <v>3</v>
+      </c>
+      <c r="E153" s="19">
+        <v>0.354535338338413</v>
+      </c>
+      <c r="F153" s="19">
+        <v>0.36887169737785602</v>
+      </c>
+      <c r="G153" s="19">
+        <v>0.232320862103361</v>
+      </c>
+      <c r="H153" s="19">
+        <v>8.8184816752605602E-2</v>
+      </c>
+      <c r="I153" s="19">
+        <v>-1.0258146957213101E-3</v>
+      </c>
+      <c r="J153" s="4">
+        <v>7.63549379972916E-18</v>
+      </c>
+      <c r="K153" s="19">
+        <v>2.58217750224915E-2</v>
+      </c>
+      <c r="L153" s="4">
+        <v>1.90819582357449E-17</v>
+      </c>
+      <c r="M153" s="3">
+        <v>0.99999461465445405</v>
+      </c>
+      <c r="N153" s="3">
+        <v>1.0044997576810699</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="B154" s="2">
+        <v>90</v>
+      </c>
+      <c r="C154" s="3">
+        <v>15</v>
+      </c>
+      <c r="D154" s="3">
+        <v>3</v>
+      </c>
+      <c r="E154" s="19">
+        <v>0.27987111105375601</v>
+      </c>
+      <c r="F154" s="19">
+        <v>0.34814474491809499</v>
+      </c>
+      <c r="G154" s="19">
+        <v>0.169873535235883</v>
+      </c>
+      <c r="H154" s="19">
+        <v>8.6759993641991898E-2</v>
+      </c>
+      <c r="I154" s="19">
+        <v>1.40382918660329E-2</v>
+      </c>
+      <c r="J154" s="4">
+        <v>2.7708141770582698E-18</v>
+      </c>
+      <c r="K154" s="19">
+        <v>-1.6757576380493699E-2</v>
+      </c>
+      <c r="L154" s="4">
+        <v>2.0816681711721701E-17</v>
+      </c>
+      <c r="M154" s="3">
+        <v>1.0006868242849101</v>
+      </c>
+      <c r="N154" s="3">
+        <v>1.0070311696324601</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="B155" s="2">
+        <v>90</v>
+      </c>
+      <c r="C155" s="3">
+        <v>10</v>
+      </c>
+      <c r="D155" s="3">
+        <v>5</v>
+      </c>
+      <c r="E155" s="19">
+        <v>0.31874623950509101</v>
+      </c>
+      <c r="F155" s="19">
+        <v>0.366195599461833</v>
+      </c>
+      <c r="G155" s="19">
+        <v>0.141325760442648</v>
+      </c>
+      <c r="H155" s="19">
+        <v>0.103506977018184</v>
+      </c>
+      <c r="I155" s="19">
+        <v>-3.0673529784869799E-2</v>
+      </c>
+      <c r="J155" s="4">
+        <v>9.0212397014372093E-18</v>
+      </c>
+      <c r="K155" s="19">
+        <v>1.88414649409205E-2</v>
+      </c>
+      <c r="L155" s="4">
+        <v>8.6736173798840493E-18</v>
+      </c>
+      <c r="M155" s="3">
+        <v>0.99985742519154996</v>
+      </c>
+      <c r="N155" s="3">
+        <v>1.00413298415104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="B156" s="2">
+        <v>90</v>
+      </c>
+      <c r="C156" s="3">
+        <v>15</v>
+      </c>
+      <c r="D156" s="3">
+        <v>5</v>
+      </c>
+      <c r="E156" s="19">
+        <v>0.365718187588706</v>
+      </c>
+      <c r="F156" s="20">
+        <v>0.70914749184419001</v>
+      </c>
+      <c r="G156" s="19">
+        <v>0.273765641520404</v>
+      </c>
+      <c r="H156" s="19">
+        <v>9.0503489957199507E-2</v>
+      </c>
+      <c r="I156" s="19">
+        <v>5.5196377218108598E-2</v>
+      </c>
+      <c r="J156" s="4">
+        <v>-6.9461219183904801E-18</v>
+      </c>
+      <c r="K156" s="19">
+        <v>1.6252621852583499E-2</v>
+      </c>
+      <c r="L156" s="4">
+        <v>1.7347234759768E-17</v>
+      </c>
+      <c r="M156" s="3">
+        <v>0.99956823437136599</v>
+      </c>
+      <c r="N156" s="3">
+        <v>1.0036852987390601</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="B157" s="2">
+        <v>90</v>
+      </c>
+      <c r="C157" s="3">
+        <v>10</v>
+      </c>
+      <c r="D157" s="3">
+        <v>10</v>
+      </c>
+      <c r="E157" s="20">
+        <v>0.56390756770108996</v>
+      </c>
+      <c r="F157" s="20">
+        <v>0.732471196109022</v>
+      </c>
+      <c r="G157" s="19">
+        <v>0.23778090707413799</v>
+      </c>
+      <c r="H157" s="19">
+        <v>0.124397880786802</v>
+      </c>
+      <c r="I157" s="19">
+        <v>-2.53499687941913E-2</v>
+      </c>
+      <c r="J157" s="4">
+        <v>-1.6263032587282499E-19</v>
+      </c>
+      <c r="K157" s="19">
+        <v>9.3753270343842801E-2</v>
+      </c>
+      <c r="L157" s="4">
+        <v>-4.1633363423443401E-17</v>
+      </c>
+      <c r="M157" s="3">
+        <v>1.0002290038088499</v>
+      </c>
+      <c r="N157" s="3">
+        <v>1.0058441455606999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="B158" s="2">
+        <v>90</v>
+      </c>
+      <c r="C158" s="3">
+        <v>15</v>
+      </c>
+      <c r="D158" s="3">
+        <v>10</v>
+      </c>
+      <c r="E158" s="19">
+        <v>0.363000163166949</v>
+      </c>
+      <c r="F158" s="19">
+        <v>0.49746435434015801</v>
+      </c>
+      <c r="G158" s="19">
+        <v>0.28430023056220199</v>
+      </c>
+      <c r="H158" s="19">
+        <v>7.0014656297234204E-2</v>
+      </c>
+      <c r="I158" s="19">
+        <v>2.4641685834322701E-2</v>
+      </c>
+      <c r="J158" s="4">
+        <v>-2.0813971206290498E-17</v>
+      </c>
+      <c r="K158" s="19">
+        <v>-2.91516637297418E-2</v>
+      </c>
+      <c r="L158" s="4">
+        <v>5.5511151231257901E-17</v>
+      </c>
+      <c r="M158" s="3">
+        <v>1.0007854686554201</v>
+      </c>
+      <c r="N158" s="3">
+        <v>1.0134233740163501</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="B160" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="B161" s="2">
+        <v>60</v>
+      </c>
+      <c r="C161" s="3">
+        <v>10</v>
+      </c>
+      <c r="D161" s="3">
+        <v>3</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.254</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I161" s="3">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="J161" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K161" s="3">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="L161" s="3">
+        <v>0</v>
+      </c>
+      <c r="M161" s="3">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="N161" s="3">
+        <v>1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="B162" s="2">
+        <v>60</v>
+      </c>
+      <c r="C162" s="3">
+        <v>15</v>
+      </c>
+      <c r="D162" s="3">
+        <v>3</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="F162" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G162" s="7">
+        <v>0.628</v>
+      </c>
+      <c r="H162" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I162" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J162" s="3">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="K162" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L162" s="3">
+        <v>0</v>
+      </c>
+      <c r="M162" s="3">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="N162" s="3">
+        <v>1.0289999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="B163" s="2">
+        <v>60</v>
+      </c>
+      <c r="C163" s="3">
+        <v>10</v>
+      </c>
+      <c r="D163" s="3">
+        <v>5</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.251</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="G163" s="7">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H163" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I163" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J163" s="3">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="K163" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L163" s="3">
+        <v>0</v>
+      </c>
+      <c r="M163" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N163" s="3">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="B164" s="2">
+        <v>60</v>
+      </c>
+      <c r="C164" s="3">
+        <v>15</v>
+      </c>
+      <c r="D164" s="3">
+        <v>5</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G164" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="H164" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I164" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J164" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K164" s="3">
+        <v>-0.114</v>
+      </c>
+      <c r="L164" s="3">
+        <v>0</v>
+      </c>
+      <c r="M164" s="3">
+        <v>1.008</v>
+      </c>
+      <c r="N164" s="3">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="B165" s="2">
+        <v>60</v>
+      </c>
+      <c r="C165" s="3">
+        <v>10</v>
+      </c>
+      <c r="D165" s="3">
+        <v>10</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G165" s="7">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0.112</v>
+      </c>
+      <c r="I165" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J165" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K165" s="3">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="L165" s="3">
+        <v>0</v>
+      </c>
+      <c r="M165" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N165" s="3">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="B166" s="2">
+        <v>60</v>
+      </c>
+      <c r="C166" s="3">
+        <v>15</v>
+      </c>
+      <c r="D166" s="3">
+        <v>10</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G166" s="7">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="H166" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I166" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="J166" s="3">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="K166" s="3">
+        <v>-0.29299999999999998</v>
+      </c>
+      <c r="L166" s="3">
+        <v>0</v>
+      </c>
+      <c r="M166" s="3">
+        <v>1.004</v>
+      </c>
+      <c r="N166" s="3">
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="B167" s="2">
+        <v>90</v>
+      </c>
+      <c r="C167" s="3">
+        <v>10</v>
+      </c>
+      <c r="D167" s="3">
+        <v>3</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="F167" s="7">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="G167" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H167" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I167" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J167" s="3">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="K167" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="L167" s="3">
+        <v>0</v>
+      </c>
+      <c r="M167" s="3">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="N167" s="3">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="B168" s="2">
+        <v>90</v>
+      </c>
+      <c r="C168" s="3">
+        <v>15</v>
+      </c>
+      <c r="D168" s="3">
+        <v>3</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="G168" s="7">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I168" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J168" s="3">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="K168" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L168" s="3">
+        <v>0</v>
+      </c>
+      <c r="M168" s="3">
+        <v>1.004</v>
+      </c>
+      <c r="N168" s="3">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="B169" s="2">
+        <v>90</v>
+      </c>
+      <c r="C169" s="3">
+        <v>10</v>
+      </c>
+      <c r="D169" s="3">
+        <v>5</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F169" s="7">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="G169" s="7">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0.114</v>
+      </c>
+      <c r="I169" s="3">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="J169" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K169" s="3">
+        <v>-0.183</v>
+      </c>
+      <c r="L169" s="3">
+        <v>0</v>
+      </c>
+      <c r="M169" s="3">
+        <v>1.002</v>
+      </c>
+      <c r="N169" s="3">
+        <v>1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="B170" s="2">
+        <v>90</v>
+      </c>
+      <c r="C170" s="3">
+        <v>15</v>
+      </c>
+      <c r="D170" s="3">
+        <v>5</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="H170" s="3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I170" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J170" s="3">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="K170" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L170" s="3">
+        <v>0</v>
+      </c>
+      <c r="M170" s="3">
+        <v>1.004</v>
+      </c>
+      <c r="N170" s="3">
+        <v>1.0189999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="B171" s="2">
+        <v>90</v>
+      </c>
+      <c r="C171" s="3">
+        <v>10</v>
+      </c>
+      <c r="D171" s="3">
+        <v>10</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G171" s="7">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H171" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I171" s="3">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="J171" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K171" s="3">
+        <v>-0.216</v>
+      </c>
+      <c r="L171" s="3">
+        <v>0</v>
+      </c>
+      <c r="M171" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N171" s="3">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="B172" s="2">
+        <v>90</v>
+      </c>
+      <c r="C172" s="3">
+        <v>15</v>
+      </c>
+      <c r="D172" s="3">
+        <v>10</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="G172" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I172" s="3">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="J172" s="3">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="K172" s="3">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="L172" s="3">
+        <v>0</v>
+      </c>
+      <c r="M172" s="3">
+        <v>1.004</v>
+      </c>
+      <c r="N172" s="3">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="B174" s="2">
+        <v>60</v>
+      </c>
+      <c r="C174" s="3">
+        <v>10</v>
+      </c>
+      <c r="D174" s="3">
+        <v>3</v>
+      </c>
+      <c r="E174" s="22">
+        <v>0.29827573682049602</v>
+      </c>
+      <c r="F174" s="22">
+        <v>0.30962110879372101</v>
+      </c>
+      <c r="G174" s="22">
+        <v>0.48298988764572398</v>
+      </c>
+      <c r="H174" s="22">
+        <v>8.36055656609722E-2</v>
+      </c>
+      <c r="I174" s="22">
+        <v>-0.13586132874815299</v>
+      </c>
+      <c r="J174" s="22">
+        <v>-1.3872366796952E-17</v>
+      </c>
+      <c r="K174" s="22">
+        <v>-0.150992930616796</v>
+      </c>
+      <c r="L174" s="4">
+        <v>-4.8572257327350599E-17</v>
+      </c>
+      <c r="M174" s="3">
+        <v>1.00190088366121</v>
+      </c>
+      <c r="N174" s="3">
+        <v>1.0101054336886099</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="B175" s="2">
+        <v>60</v>
+      </c>
+      <c r="C175" s="3">
+        <v>15</v>
+      </c>
+      <c r="D175" s="3">
+        <v>3</v>
+      </c>
+      <c r="E175" s="22">
+        <v>0.22781750909471599</v>
+      </c>
+      <c r="F175" s="22">
+        <v>0.46711793251665501</v>
+      </c>
+      <c r="G175" s="23">
+        <v>0.52001329308267097</v>
+      </c>
+      <c r="H175" s="22">
+        <v>7.7128236205543696E-2</v>
+      </c>
+      <c r="I175" s="22">
+        <v>-3.3695045507686101E-2</v>
+      </c>
+      <c r="J175" s="22">
+        <v>-4.6259292692715E-19</v>
+      </c>
+      <c r="K175" s="22">
+        <v>3.6031711219567601E-2</v>
+      </c>
+      <c r="L175" s="4">
+        <v>3.1225022567582602E-17</v>
+      </c>
+      <c r="M175" s="3">
+        <v>1.0014930644959299</v>
+      </c>
+      <c r="N175" s="3">
+        <v>1.0087093195151</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="B176" s="2">
+        <v>60</v>
+      </c>
+      <c r="C176" s="3">
+        <v>10</v>
+      </c>
+      <c r="D176" s="3">
+        <v>5</v>
+      </c>
+      <c r="E176" s="22">
+        <v>0.34368687515103202</v>
+      </c>
+      <c r="F176" s="22">
+        <v>0.40811817731289601</v>
+      </c>
+      <c r="G176" s="23">
+        <v>0.53536838736480497</v>
+      </c>
+      <c r="H176" s="22">
+        <v>8.4630063849273393E-2</v>
+      </c>
+      <c r="I176" s="22">
+        <v>0.10657905740894701</v>
+      </c>
+      <c r="J176" s="22">
+        <v>-6.9361833984760302E-18</v>
+      </c>
+      <c r="K176" s="22">
+        <v>4.7669301572461499E-2</v>
+      </c>
+      <c r="L176" s="4">
+        <v>1.38777878078144E-17</v>
+      </c>
+      <c r="M176" s="3">
+        <v>1.0014397963160699</v>
+      </c>
+      <c r="N176" s="3">
+        <v>1.0117771891778</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14">
+      <c r="B177" s="2">
+        <v>60</v>
+      </c>
+      <c r="C177" s="3">
+        <v>15</v>
+      </c>
+      <c r="D177" s="3">
+        <v>5</v>
+      </c>
+      <c r="E177" s="22">
+        <v>0.26786522247116701</v>
+      </c>
+      <c r="F177" s="23">
+        <v>0.724824530969161</v>
+      </c>
+      <c r="G177" s="23">
+        <v>0.70036781195498898</v>
+      </c>
+      <c r="H177" s="22">
+        <v>5.5013387046699801E-2</v>
+      </c>
+      <c r="I177" s="22">
+        <v>-1.8704915162702201E-2</v>
+      </c>
+      <c r="J177" s="22">
+        <v>6.0100940428113002E-18</v>
+      </c>
+      <c r="K177" s="22">
+        <v>0.11452430653661599</v>
+      </c>
+      <c r="L177" s="4">
+        <v>-1.47451495458029E-17</v>
+      </c>
+      <c r="M177" s="3">
+        <v>1.0002122180778901</v>
+      </c>
+      <c r="N177" s="3">
+        <v>1.0047073645653299</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14">
+      <c r="B178" s="2">
+        <v>60</v>
+      </c>
+      <c r="C178" s="3">
+        <v>10</v>
+      </c>
+      <c r="D178" s="3">
+        <v>10</v>
+      </c>
+      <c r="E178" s="22">
+        <v>0.34187280613335702</v>
+      </c>
+      <c r="F178" s="22">
+        <v>0.43276368501902901</v>
+      </c>
+      <c r="G178" s="23">
+        <v>0.54889591169914098</v>
+      </c>
+      <c r="H178" s="22">
+        <v>5.60299354053648E-2</v>
+      </c>
+      <c r="I178" s="22">
+        <v>-0.115755447004355</v>
+      </c>
+      <c r="J178" s="22">
+        <v>-2.0762471603097E-18</v>
+      </c>
+      <c r="K178" s="22">
+        <v>-0.174460235531256</v>
+      </c>
+      <c r="L178" s="4">
+        <v>6.9388939039072499E-18</v>
+      </c>
+      <c r="M178" s="3">
+        <v>1.0002444445971399</v>
+      </c>
+      <c r="N178" s="3">
+        <v>1.0085889015696901</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14">
+      <c r="B179" s="2">
+        <v>60</v>
+      </c>
+      <c r="C179" s="3">
+        <v>15</v>
+      </c>
+      <c r="D179" s="3">
+        <v>10</v>
+      </c>
+      <c r="E179" s="22">
+        <v>0.23385525269261401</v>
+      </c>
+      <c r="F179" s="22">
+        <v>0.46994504949563698</v>
+      </c>
+      <c r="G179" s="23">
+        <v>0.59295850771187897</v>
+      </c>
+      <c r="H179" s="22">
+        <v>7.0672238537975204E-2</v>
+      </c>
+      <c r="I179" s="22">
+        <v>6.7377887368186007E-2</v>
+      </c>
+      <c r="J179" s="22">
+        <v>9.2292709932828499E-19</v>
+      </c>
+      <c r="K179" s="22">
+        <v>0.123646510731697</v>
+      </c>
+      <c r="L179" s="4">
+        <v>-2.2551405187698501E-17</v>
+      </c>
+      <c r="M179" s="3">
+        <v>0.99958943640758902</v>
+      </c>
+      <c r="N179" s="3">
+        <v>1.0047327473976899</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14">
+      <c r="B180" s="2">
+        <v>90</v>
+      </c>
+      <c r="C180" s="3">
+        <v>10</v>
+      </c>
+      <c r="D180" s="3">
+        <v>3</v>
+      </c>
+      <c r="E180" s="22">
+        <v>0.32859358034599101</v>
+      </c>
+      <c r="F180" s="23">
+        <v>0.51772201298137199</v>
+      </c>
+      <c r="G180" s="23">
+        <v>0.52566847415761797</v>
+      </c>
+      <c r="H180" s="22">
+        <v>0.10195523844737001</v>
+      </c>
+      <c r="I180" s="22">
+        <v>7.2910984235629401E-3</v>
+      </c>
+      <c r="J180" s="22">
+        <v>-2.7809785724253199E-18</v>
+      </c>
+      <c r="K180" s="22">
+        <v>-1.9328028855839501E-2</v>
+      </c>
+      <c r="L180" s="4">
+        <v>-4.5102810375397003E-17</v>
+      </c>
+      <c r="M180" s="3">
+        <v>1.00050868139743</v>
+      </c>
+      <c r="N180" s="3">
+        <v>1.0070947646694599</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14">
+      <c r="B181" s="2">
+        <v>90</v>
+      </c>
+      <c r="C181" s="3">
+        <v>15</v>
+      </c>
+      <c r="D181" s="3">
+        <v>3</v>
+      </c>
+      <c r="E181" s="22">
+        <v>0.25788012714340802</v>
+      </c>
+      <c r="F181" s="22">
+        <v>0.59007249169098897</v>
+      </c>
+      <c r="G181" s="23">
+        <v>0.58569382790813096</v>
+      </c>
+      <c r="H181" s="22">
+        <v>5.6226764645480501E-2</v>
+      </c>
+      <c r="I181" s="22">
+        <v>-3.2308807247919499E-2</v>
+      </c>
+      <c r="J181" s="22">
+        <v>-4.1594964596501201E-18</v>
+      </c>
+      <c r="K181" s="22">
+        <v>0.100258920242211</v>
+      </c>
+      <c r="L181" s="4">
+        <v>-1.90819582357449E-17</v>
+      </c>
+      <c r="M181" s="3">
+        <v>1.00311796447296</v>
+      </c>
+      <c r="N181" s="3">
+        <v>1.01863528145101</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14">
+      <c r="B182" s="2">
+        <v>90</v>
+      </c>
+      <c r="C182" s="3">
+        <v>10</v>
+      </c>
+      <c r="D182" s="3">
+        <v>5</v>
+      </c>
+      <c r="E182" s="22">
+        <v>0.32341777632662499</v>
+      </c>
+      <c r="F182" s="22">
+        <v>0.44336231490947903</v>
+      </c>
+      <c r="G182" s="23">
+        <v>0.61167824771813695</v>
+      </c>
+      <c r="H182" s="22">
+        <v>5.9376455488500901E-2</v>
+      </c>
+      <c r="I182" s="22">
+        <v>0.114877786908266</v>
+      </c>
+      <c r="J182" s="22">
+        <v>1.0842021724855E-20</v>
+      </c>
+      <c r="K182" s="22">
+        <v>0.19677439197362401</v>
+      </c>
+      <c r="L182" s="4">
+        <v>8.6736173798840401E-18</v>
+      </c>
+      <c r="M182" s="3">
+        <v>1.00002785009915</v>
+      </c>
+      <c r="N182" s="3">
+        <v>1.0074734514000201</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14">
+      <c r="B183" s="2">
+        <v>90</v>
+      </c>
+      <c r="C183" s="3">
+        <v>15</v>
+      </c>
+      <c r="D183" s="3">
+        <v>5</v>
+      </c>
+      <c r="E183" s="22">
+        <v>0.36065448877393602</v>
+      </c>
+      <c r="F183" s="23">
+        <v>1.11919875067314</v>
+      </c>
+      <c r="G183" s="23">
+        <v>0.785242037288157</v>
+      </c>
+      <c r="H183" s="22">
+        <v>8.1267217315764306E-2</v>
+      </c>
+      <c r="I183" s="22">
+        <v>-8.97831226286325E-2</v>
+      </c>
+      <c r="J183" s="22">
+        <v>-1.5742615544489498E-17</v>
+      </c>
+      <c r="K183" s="22">
+        <v>-0.15221820944563</v>
+      </c>
+      <c r="L183" s="4">
+        <v>-3.9031278209478098E-17</v>
+      </c>
+      <c r="M183" s="3">
+        <v>1.0017436304560201</v>
+      </c>
+      <c r="N183" s="3">
+        <v>1.0170844613199901</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14">
+      <c r="B184" s="2">
+        <v>90</v>
+      </c>
+      <c r="C184" s="3">
+        <v>10</v>
+      </c>
+      <c r="D184" s="3">
+        <v>10</v>
+      </c>
+      <c r="E184" s="22">
+        <v>0.34156878595253798</v>
+      </c>
+      <c r="F184" s="22">
+        <v>0.38803516130445898</v>
+      </c>
+      <c r="G184" s="23">
+        <v>0.52503876025616303</v>
+      </c>
+      <c r="H184" s="22">
+        <v>0.121418439075026</v>
+      </c>
+      <c r="I184" s="22">
+        <v>2.49338298167548E-2</v>
+      </c>
+      <c r="J184" s="22">
+        <v>2.2201072360714099E-17</v>
+      </c>
+      <c r="K184" s="22">
+        <v>0.13634441839685099</v>
+      </c>
+      <c r="L184" s="4">
+        <v>1.12757025938492E-17</v>
+      </c>
+      <c r="M184" s="3">
+        <v>1.00001879306834</v>
+      </c>
+      <c r="N184" s="3">
+        <v>1.0068956431829601</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14">
+      <c r="B185" s="2">
+        <v>90</v>
+      </c>
+      <c r="C185" s="3">
+        <v>15</v>
+      </c>
+      <c r="D185" s="3">
+        <v>10</v>
+      </c>
+      <c r="E185" s="22">
+        <v>0.24875735906898699</v>
+      </c>
+      <c r="F185" s="23">
+        <v>0.54529002175968899</v>
+      </c>
+      <c r="G185" s="23">
+        <v>0.60157671654426004</v>
+      </c>
+      <c r="H185" s="22">
+        <v>8.0060748094240602E-2</v>
+      </c>
+      <c r="I185" s="22">
+        <v>4.8809506262724303E-2</v>
+      </c>
+      <c r="J185" s="22">
+        <v>1.8557927185710199E-18</v>
+      </c>
+      <c r="K185" s="22">
+        <v>-6.2060800622833E-2</v>
+      </c>
+      <c r="L185" s="4">
+        <v>1.5612511283791301E-17</v>
+      </c>
+      <c r="M185" s="3">
+        <v>1.0000719224341701</v>
+      </c>
+      <c r="N185" s="3">
+        <v>1.0082863224374501</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5736,8 +8345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59088491-4DA9-9046-B8F1-E0B2E1149923}">
   <dimension ref="A2:AT71"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="K64" activeCellId="1" sqref="N65 K64"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9353,64 +11962,64 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AM1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16" t="s">
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="16"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
       <c r="BM1" s="12"/>
-      <c r="BN1" s="16" t="s">
+      <c r="BN1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BO1" s="16"/>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16"/>
-      <c r="BR1" s="16"/>
-      <c r="BS1" s="16"/>
-      <c r="BT1" s="16"/>
-      <c r="BU1" s="16"/>
-      <c r="BV1" s="16"/>
-      <c r="BW1" s="16"/>
-      <c r="BX1" s="16"/>
-      <c r="BY1" s="16"/>
-      <c r="BZ1" s="16"/>
-      <c r="CA1" s="16"/>
-      <c r="CB1" s="16"/>
-      <c r="CC1" s="16"/>
-      <c r="CD1" s="16"/>
-      <c r="CE1" s="16"/>
-      <c r="CF1" s="16"/>
-      <c r="CG1" s="16"/>
-      <c r="CH1" s="16"/>
-      <c r="CI1" s="16"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
     </row>
     <row r="2" spans="1:87">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -9589,7 +12198,7 @@
       <c r="CI2" s="2"/>
     </row>
     <row r="3" spans="1:87">
-      <c r="A3" s="16"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -9740,7 +12349,7 @@
       </c>
     </row>
     <row r="4" spans="1:87">
-      <c r="A4" s="16"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
@@ -9982,7 +12591,7 @@
       </c>
     </row>
     <row r="5" spans="1:87">
-      <c r="A5" s="16"/>
+      <c r="A5" s="21"/>
       <c r="AL5">
         <f t="shared" ref="AL5:AL37" si="1">AL4+1</f>
         <v>2</v>
@@ -10121,7 +12730,7 @@
       </c>
     </row>
     <row r="6" spans="1:87">
-      <c r="A6" s="16"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
@@ -10368,7 +12977,7 @@
       </c>
     </row>
     <row r="7" spans="1:87">
-      <c r="A7" s="16"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>2</v>
@@ -10613,7 +13222,7 @@
       </c>
     </row>
     <row r="8" spans="1:87">
-      <c r="A8" s="16"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>3</v>
@@ -10858,7 +13467,7 @@
       </c>
     </row>
     <row r="9" spans="1:87">
-      <c r="A9" s="16"/>
+      <c r="A9" s="21"/>
       <c r="AL9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -10997,7 +13606,7 @@
       </c>
     </row>
     <row r="10" spans="1:87">
-      <c r="A10" s="16"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
@@ -11244,7 +13853,7 @@
       </c>
     </row>
     <row r="11" spans="1:87">
-      <c r="A11" s="16"/>
+      <c r="A11" s="21"/>
       <c r="C11" s="2">
         <v>3</v>
       </c>
@@ -11488,7 +14097,7 @@
       </c>
     </row>
     <row r="12" spans="1:87">
-      <c r="A12" s="16"/>
+      <c r="A12" s="21"/>
       <c r="C12" s="2">
         <v>4</v>
       </c>
@@ -11732,7 +14341,7 @@
       </c>
     </row>
     <row r="13" spans="1:87">
-      <c r="A13" s="16"/>
+      <c r="A13" s="21"/>
       <c r="C13" s="2">
         <v>5</v>
       </c>
@@ -11976,7 +14585,7 @@
       </c>
     </row>
     <row r="14" spans="1:87">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -12222,7 +14831,7 @@
       </c>
     </row>
     <row r="15" spans="1:87">
-      <c r="A15" s="16"/>
+      <c r="A15" s="21"/>
       <c r="AL15">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -12361,7 +14970,7 @@
       </c>
     </row>
     <row r="16" spans="1:87">
-      <c r="A16" s="16"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
@@ -12605,7 +15214,7 @@
       </c>
     </row>
     <row r="17" spans="1:87">
-      <c r="A17" s="16"/>
+      <c r="A17" s="21"/>
       <c r="AL17">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -12744,7 +15353,7 @@
       </c>
     </row>
     <row r="18" spans="1:87">
-      <c r="A18" s="16"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
@@ -12991,7 +15600,7 @@
       </c>
     </row>
     <row r="19" spans="1:87">
-      <c r="A19" s="16"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2"/>
       <c r="C19">
         <v>2</v>
@@ -13236,7 +15845,7 @@
       </c>
     </row>
     <row r="20" spans="1:87">
-      <c r="A20" s="16"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2"/>
       <c r="C20">
         <v>3</v>
@@ -13481,7 +16090,7 @@
       </c>
     </row>
     <row r="21" spans="1:87">
-      <c r="A21" s="16"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="2"/>
       <c r="C21">
         <v>4</v>
@@ -13726,7 +16335,7 @@
       </c>
     </row>
     <row r="22" spans="1:87">
-      <c r="A22" s="16"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="2"/>
       <c r="C22">
         <v>5</v>
@@ -13971,7 +16580,7 @@
       </c>
     </row>
     <row r="23" spans="1:87">
-      <c r="A23" s="16"/>
+      <c r="A23" s="21"/>
       <c r="AL23">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -14110,7 +16719,7 @@
       </c>
     </row>
     <row r="24" spans="1:87">
-      <c r="A24" s="16"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
@@ -14357,7 +16966,7 @@
       </c>
     </row>
     <row r="25" spans="1:87">
-      <c r="A25" s="16"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2"/>
       <c r="C25">
         <v>3</v>
@@ -14602,7 +17211,7 @@
       </c>
     </row>
     <row r="26" spans="1:87">
-      <c r="A26" s="16"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="2"/>
       <c r="C26">
         <v>4</v>
@@ -14847,7 +17456,7 @@
       </c>
     </row>
     <row r="27" spans="1:87">
-      <c r="A27" s="16"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2"/>
       <c r="C27">
         <v>5</v>
@@ -15092,7 +17701,7 @@
       </c>
     </row>
     <row r="28" spans="1:87">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -15338,7 +17947,7 @@
       </c>
     </row>
     <row r="29" spans="1:87">
-      <c r="A29" s="16"/>
+      <c r="A29" s="21"/>
       <c r="AL29">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -15477,7 +18086,7 @@
       </c>
     </row>
     <row r="30" spans="1:87">
-      <c r="A30" s="16"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
@@ -15721,7 +18330,7 @@
       </c>
     </row>
     <row r="31" spans="1:87">
-      <c r="A31" s="16"/>
+      <c r="A31" s="21"/>
       <c r="AL31">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -15860,7 +18469,7 @@
       </c>
     </row>
     <row r="32" spans="1:87">
-      <c r="A32" s="16"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
@@ -16107,7 +18716,7 @@
       </c>
     </row>
     <row r="33" spans="1:87">
-      <c r="A33" s="16"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2"/>
       <c r="C33">
         <v>2</v>
@@ -16352,7 +18961,7 @@
       </c>
     </row>
     <row r="34" spans="1:87">
-      <c r="A34" s="16"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2"/>
       <c r="C34">
         <v>3</v>
@@ -16597,7 +19206,7 @@
       </c>
     </row>
     <row r="35" spans="1:87">
-      <c r="A35" s="16"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="2"/>
       <c r="C35">
         <v>4</v>
@@ -16842,7 +19451,7 @@
       </c>
     </row>
     <row r="36" spans="1:87">
-      <c r="A36" s="16"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="2"/>
       <c r="C36">
         <v>5</v>
@@ -17087,7 +19696,7 @@
       </c>
     </row>
     <row r="37" spans="1:87">
-      <c r="A37" s="16"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="2"/>
       <c r="C37">
         <v>6</v>
@@ -17332,7 +19941,7 @@
       </c>
     </row>
     <row r="38" spans="1:87">
-      <c r="A38" s="16"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="2"/>
       <c r="C38">
         <v>7</v>
@@ -17553,7 +20162,7 @@
       </c>
     </row>
     <row r="39" spans="1:87">
-      <c r="A39" s="16"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2"/>
       <c r="C39">
         <v>8</v>
@@ -17662,7 +20271,7 @@
       </c>
     </row>
     <row r="40" spans="1:87">
-      <c r="A40" s="16"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="2"/>
       <c r="C40">
         <v>9</v>
@@ -17771,7 +20380,7 @@
       </c>
     </row>
     <row r="41" spans="1:87">
-      <c r="A41" s="16"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2"/>
       <c r="C41">
         <v>10</v>
@@ -17880,10 +20489,10 @@
       </c>
     </row>
     <row r="42" spans="1:87">
-      <c r="A42" s="16"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" spans="1:87">
-      <c r="A43" s="16"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
@@ -17994,7 +20603,7 @@
       </c>
     </row>
     <row r="44" spans="1:87">
-      <c r="A44" s="16"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="2"/>
       <c r="C44">
         <v>3</v>
@@ -18103,7 +20712,7 @@
       </c>
     </row>
     <row r="45" spans="1:87">
-      <c r="A45" s="16"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="2"/>
       <c r="C45">
         <v>4</v>
@@ -18212,7 +20821,7 @@
       </c>
     </row>
     <row r="46" spans="1:87">
-      <c r="A46" s="16"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2"/>
       <c r="C46">
         <v>5</v>

--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0519E21C-F4D8-AE4B-A7F2-AF288F5D1D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5604F1BB-0B2C-654A-A051-84D0478D4C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="980" windowWidth="28300" windowHeight="17440" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
+    <workbookView xWindow="1860" yWindow="660" windowWidth="28300" windowHeight="17440" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="既存モデル" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="パラメータ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="101">
   <si>
     <t>j</t>
   </si>
@@ -487,6 +486,83 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>実データ実験の結果</t>
+    <rPh sb="0" eb="1">
+      <t>ジテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T=3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T=5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T=10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I=2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I=3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I=4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案モデル</t>
+    <rPh sb="0" eb="2">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいデータでやった結果</t>
+    <rPh sb="0" eb="1">
+      <t>アタラセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表の時のモデルよりいい値が出ている？</t>
+    <rPh sb="0" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前より差がはっきりしている...？</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイアスなしの人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存モデルプロット</t>
+    <rPh sb="0" eb="2">
+      <t>キゾンモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -496,7 +572,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -557,7 +633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +652,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -591,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,16 +737,25 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,6 +773,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>920172</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>95827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>617682</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>70427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2920B7B1-369D-5849-8F39-5BC0FE879ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14255172" y="51911827"/>
+          <a:ext cx="3507510" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>40409</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>91209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>690418</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>65809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC0C9D3-E3CD-324F-B89F-314D59AD7D86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18137909" y="51907209"/>
+          <a:ext cx="3507509" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -981,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B5D9D-DC95-E543-B24D-F58D47733086}">
-  <dimension ref="A1:AH185"/>
+  <dimension ref="A1:AH219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="M187" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V202" sqref="V202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4962,6 +5146,9 @@
       <c r="N93" s="3">
         <v>1.00325709891248</v>
       </c>
+      <c r="S93" s="2"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
     </row>
     <row r="94" spans="1:34">
       <c r="B94" s="2">
@@ -5003,6 +5190,9 @@
       <c r="N94" s="3">
         <v>1.00488748602819</v>
       </c>
+      <c r="S94" s="2"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
     </row>
     <row r="95" spans="1:34">
       <c r="B95" s="2">
@@ -5044,6 +5234,9 @@
       <c r="N95" s="3">
         <v>1.0053567791256199</v>
       </c>
+      <c r="S95" s="2"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
     </row>
     <row r="96" spans="1:34">
       <c r="B96" s="2">
@@ -5085,8 +5278,11 @@
       <c r="N96" s="3">
         <v>1.0088189454443901</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="S96" s="2"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+    </row>
+    <row r="97" spans="1:21">
       <c r="B97" s="2">
         <v>90</v>
       </c>
@@ -5126,8 +5322,11 @@
       <c r="N97" s="3">
         <v>1.00907614379581</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="S97" s="2"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+    </row>
+    <row r="98" spans="1:21">
       <c r="B98" s="2">
         <v>90</v>
       </c>
@@ -5168,7 +5367,7 @@
         <v>1.0059510342062401</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:21">
       <c r="B99" s="2">
         <v>90</v>
       </c>
@@ -5209,7 +5408,7 @@
         <v>1.0051996220119299</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:21">
       <c r="B100" s="2">
         <v>90</v>
       </c>
@@ -5250,7 +5449,7 @@
         <v>1.00450878220623</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:21">
       <c r="B101" s="2">
         <v>90</v>
       </c>
@@ -5291,7 +5490,7 @@
         <v>1.0075730235492399</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:21">
       <c r="B102" s="2">
         <v>90</v>
       </c>
@@ -5332,12 +5531,12 @@
         <v>1.0049434683020499</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:21">
       <c r="B104" s="5" t="s">
         <v>16</v>
       </c>
@@ -5366,7 +5565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:21">
       <c r="B105" s="17">
         <v>60</v>
       </c>
@@ -5401,7 +5600,7 @@
         <v>1.0115035334351901</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:21">
       <c r="B106" s="17">
         <v>60</v>
       </c>
@@ -5436,7 +5635,7 @@
         <v>1.00758973719088</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:21">
       <c r="B107" s="17">
         <v>60</v>
       </c>
@@ -5471,7 +5670,7 @@
         <v>1.00447441424407</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:21">
       <c r="B108" s="17">
         <v>60</v>
       </c>
@@ -5506,7 +5705,7 @@
         <v>1.0077642932919899</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:21">
       <c r="B109" s="17">
         <v>60</v>
       </c>
@@ -5541,7 +5740,7 @@
         <v>1.0026761064002001</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:21">
       <c r="B110" s="17">
         <v>60</v>
       </c>
@@ -5576,7 +5775,7 @@
         <v>1.0058271510808501</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:21">
       <c r="B111" s="17">
         <v>90</v>
       </c>
@@ -5611,7 +5810,7 @@
         <v>1.0083307291455801</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:21">
       <c r="B112" s="17">
         <v>90</v>
       </c>
@@ -6774,7 +6973,7 @@
       </c>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="24" t="s">
+      <c r="A145" s="23" t="s">
         <v>84</v>
       </c>
     </row>
@@ -7852,25 +8051,25 @@
       <c r="D174" s="3">
         <v>3</v>
       </c>
-      <c r="E174" s="22">
+      <c r="E174" s="21">
         <v>0.29827573682049602</v>
       </c>
-      <c r="F174" s="22">
+      <c r="F174" s="21">
         <v>0.30962110879372101</v>
       </c>
-      <c r="G174" s="22">
+      <c r="G174" s="21">
         <v>0.48298988764572398</v>
       </c>
-      <c r="H174" s="22">
+      <c r="H174" s="21">
         <v>8.36055656609722E-2</v>
       </c>
-      <c r="I174" s="22">
+      <c r="I174" s="21">
         <v>-0.13586132874815299</v>
       </c>
-      <c r="J174" s="22">
+      <c r="J174" s="21">
         <v>-1.3872366796952E-17</v>
       </c>
-      <c r="K174" s="22">
+      <c r="K174" s="21">
         <v>-0.150992930616796</v>
       </c>
       <c r="L174" s="4">
@@ -7893,25 +8092,25 @@
       <c r="D175" s="3">
         <v>3</v>
       </c>
-      <c r="E175" s="22">
+      <c r="E175" s="21">
         <v>0.22781750909471599</v>
       </c>
-      <c r="F175" s="22">
+      <c r="F175" s="21">
         <v>0.46711793251665501</v>
       </c>
-      <c r="G175" s="23">
+      <c r="G175" s="22">
         <v>0.52001329308267097</v>
       </c>
-      <c r="H175" s="22">
+      <c r="H175" s="21">
         <v>7.7128236205543696E-2</v>
       </c>
-      <c r="I175" s="22">
+      <c r="I175" s="21">
         <v>-3.3695045507686101E-2</v>
       </c>
-      <c r="J175" s="22">
+      <c r="J175" s="21">
         <v>-4.6259292692715E-19</v>
       </c>
-      <c r="K175" s="22">
+      <c r="K175" s="21">
         <v>3.6031711219567601E-2</v>
       </c>
       <c r="L175" s="4">
@@ -7934,25 +8133,25 @@
       <c r="D176" s="3">
         <v>5</v>
       </c>
-      <c r="E176" s="22">
+      <c r="E176" s="21">
         <v>0.34368687515103202</v>
       </c>
-      <c r="F176" s="22">
+      <c r="F176" s="21">
         <v>0.40811817731289601</v>
       </c>
-      <c r="G176" s="23">
+      <c r="G176" s="22">
         <v>0.53536838736480497</v>
       </c>
-      <c r="H176" s="22">
+      <c r="H176" s="21">
         <v>8.4630063849273393E-2</v>
       </c>
-      <c r="I176" s="22">
+      <c r="I176" s="21">
         <v>0.10657905740894701</v>
       </c>
-      <c r="J176" s="22">
+      <c r="J176" s="21">
         <v>-6.9361833984760302E-18</v>
       </c>
-      <c r="K176" s="22">
+      <c r="K176" s="21">
         <v>4.7669301572461499E-2</v>
       </c>
       <c r="L176" s="4">
@@ -7965,7 +8164,7 @@
         <v>1.0117771891778</v>
       </c>
     </row>
-    <row r="177" spans="2:14">
+    <row r="177" spans="1:22">
       <c r="B177" s="2">
         <v>60</v>
       </c>
@@ -7975,25 +8174,25 @@
       <c r="D177" s="3">
         <v>5</v>
       </c>
-      <c r="E177" s="22">
+      <c r="E177" s="21">
         <v>0.26786522247116701</v>
       </c>
-      <c r="F177" s="23">
+      <c r="F177" s="22">
         <v>0.724824530969161</v>
       </c>
-      <c r="G177" s="23">
+      <c r="G177" s="22">
         <v>0.70036781195498898</v>
       </c>
-      <c r="H177" s="22">
+      <c r="H177" s="21">
         <v>5.5013387046699801E-2</v>
       </c>
-      <c r="I177" s="22">
+      <c r="I177" s="21">
         <v>-1.8704915162702201E-2</v>
       </c>
-      <c r="J177" s="22">
+      <c r="J177" s="21">
         <v>6.0100940428113002E-18</v>
       </c>
-      <c r="K177" s="22">
+      <c r="K177" s="21">
         <v>0.11452430653661599</v>
       </c>
       <c r="L177" s="4">
@@ -8006,7 +8205,7 @@
         <v>1.0047073645653299</v>
       </c>
     </row>
-    <row r="178" spans="2:14">
+    <row r="178" spans="1:22">
       <c r="B178" s="2">
         <v>60</v>
       </c>
@@ -8016,25 +8215,25 @@
       <c r="D178" s="3">
         <v>10</v>
       </c>
-      <c r="E178" s="22">
+      <c r="E178" s="21">
         <v>0.34187280613335702</v>
       </c>
-      <c r="F178" s="22">
+      <c r="F178" s="21">
         <v>0.43276368501902901</v>
       </c>
-      <c r="G178" s="23">
+      <c r="G178" s="22">
         <v>0.54889591169914098</v>
       </c>
-      <c r="H178" s="22">
+      <c r="H178" s="21">
         <v>5.60299354053648E-2</v>
       </c>
-      <c r="I178" s="22">
+      <c r="I178" s="21">
         <v>-0.115755447004355</v>
       </c>
-      <c r="J178" s="22">
+      <c r="J178" s="21">
         <v>-2.0762471603097E-18</v>
       </c>
-      <c r="K178" s="22">
+      <c r="K178" s="21">
         <v>-0.174460235531256</v>
       </c>
       <c r="L178" s="4">
@@ -8047,7 +8246,7 @@
         <v>1.0085889015696901</v>
       </c>
     </row>
-    <row r="179" spans="2:14">
+    <row r="179" spans="1:22">
       <c r="B179" s="2">
         <v>60</v>
       </c>
@@ -8057,25 +8256,25 @@
       <c r="D179" s="3">
         <v>10</v>
       </c>
-      <c r="E179" s="22">
+      <c r="E179" s="21">
         <v>0.23385525269261401</v>
       </c>
-      <c r="F179" s="22">
+      <c r="F179" s="21">
         <v>0.46994504949563698</v>
       </c>
-      <c r="G179" s="23">
+      <c r="G179" s="22">
         <v>0.59295850771187897</v>
       </c>
-      <c r="H179" s="22">
+      <c r="H179" s="21">
         <v>7.0672238537975204E-2</v>
       </c>
-      <c r="I179" s="22">
+      <c r="I179" s="21">
         <v>6.7377887368186007E-2</v>
       </c>
-      <c r="J179" s="22">
+      <c r="J179" s="21">
         <v>9.2292709932828499E-19</v>
       </c>
-      <c r="K179" s="22">
+      <c r="K179" s="21">
         <v>0.123646510731697</v>
       </c>
       <c r="L179" s="4">
@@ -8088,7 +8287,7 @@
         <v>1.0047327473976899</v>
       </c>
     </row>
-    <row r="180" spans="2:14">
+    <row r="180" spans="1:22">
       <c r="B180" s="2">
         <v>90</v>
       </c>
@@ -8098,25 +8297,25 @@
       <c r="D180" s="3">
         <v>3</v>
       </c>
-      <c r="E180" s="22">
+      <c r="E180" s="21">
         <v>0.32859358034599101</v>
       </c>
-      <c r="F180" s="23">
+      <c r="F180" s="22">
         <v>0.51772201298137199</v>
       </c>
-      <c r="G180" s="23">
+      <c r="G180" s="22">
         <v>0.52566847415761797</v>
       </c>
-      <c r="H180" s="22">
+      <c r="H180" s="21">
         <v>0.10195523844737001</v>
       </c>
-      <c r="I180" s="22">
+      <c r="I180" s="21">
         <v>7.2910984235629401E-3</v>
       </c>
-      <c r="J180" s="22">
+      <c r="J180" s="21">
         <v>-2.7809785724253199E-18</v>
       </c>
-      <c r="K180" s="22">
+      <c r="K180" s="21">
         <v>-1.9328028855839501E-2</v>
       </c>
       <c r="L180" s="4">
@@ -8129,7 +8328,7 @@
         <v>1.0070947646694599</v>
       </c>
     </row>
-    <row r="181" spans="2:14">
+    <row r="181" spans="1:22">
       <c r="B181" s="2">
         <v>90</v>
       </c>
@@ -8139,25 +8338,25 @@
       <c r="D181" s="3">
         <v>3</v>
       </c>
-      <c r="E181" s="22">
+      <c r="E181" s="21">
         <v>0.25788012714340802</v>
       </c>
-      <c r="F181" s="22">
+      <c r="F181" s="21">
         <v>0.59007249169098897</v>
       </c>
-      <c r="G181" s="23">
+      <c r="G181" s="22">
         <v>0.58569382790813096</v>
       </c>
-      <c r="H181" s="22">
+      <c r="H181" s="21">
         <v>5.6226764645480501E-2</v>
       </c>
-      <c r="I181" s="22">
+      <c r="I181" s="21">
         <v>-3.2308807247919499E-2</v>
       </c>
-      <c r="J181" s="22">
+      <c r="J181" s="21">
         <v>-4.1594964596501201E-18</v>
       </c>
-      <c r="K181" s="22">
+      <c r="K181" s="21">
         <v>0.100258920242211</v>
       </c>
       <c r="L181" s="4">
@@ -8170,7 +8369,7 @@
         <v>1.01863528145101</v>
       </c>
     </row>
-    <row r="182" spans="2:14">
+    <row r="182" spans="1:22">
       <c r="B182" s="2">
         <v>90</v>
       </c>
@@ -8180,25 +8379,25 @@
       <c r="D182" s="3">
         <v>5</v>
       </c>
-      <c r="E182" s="22">
+      <c r="E182" s="21">
         <v>0.32341777632662499</v>
       </c>
-      <c r="F182" s="22">
+      <c r="F182" s="21">
         <v>0.44336231490947903</v>
       </c>
-      <c r="G182" s="23">
+      <c r="G182" s="22">
         <v>0.61167824771813695</v>
       </c>
-      <c r="H182" s="22">
+      <c r="H182" s="21">
         <v>5.9376455488500901E-2</v>
       </c>
-      <c r="I182" s="22">
+      <c r="I182" s="21">
         <v>0.114877786908266</v>
       </c>
-      <c r="J182" s="22">
+      <c r="J182" s="21">
         <v>1.0842021724855E-20</v>
       </c>
-      <c r="K182" s="22">
+      <c r="K182" s="21">
         <v>0.19677439197362401</v>
       </c>
       <c r="L182" s="4">
@@ -8211,7 +8410,7 @@
         <v>1.0074734514000201</v>
       </c>
     </row>
-    <row r="183" spans="2:14">
+    <row r="183" spans="1:22">
       <c r="B183" s="2">
         <v>90</v>
       </c>
@@ -8221,25 +8420,25 @@
       <c r="D183" s="3">
         <v>5</v>
       </c>
-      <c r="E183" s="22">
+      <c r="E183" s="21">
         <v>0.36065448877393602</v>
       </c>
-      <c r="F183" s="23">
+      <c r="F183" s="22">
         <v>1.11919875067314</v>
       </c>
-      <c r="G183" s="23">
+      <c r="G183" s="22">
         <v>0.785242037288157</v>
       </c>
-      <c r="H183" s="22">
+      <c r="H183" s="21">
         <v>8.1267217315764306E-2</v>
       </c>
-      <c r="I183" s="22">
+      <c r="I183" s="21">
         <v>-8.97831226286325E-2</v>
       </c>
-      <c r="J183" s="22">
+      <c r="J183" s="21">
         <v>-1.5742615544489498E-17</v>
       </c>
-      <c r="K183" s="22">
+      <c r="K183" s="21">
         <v>-0.15221820944563</v>
       </c>
       <c r="L183" s="4">
@@ -8252,7 +8451,7 @@
         <v>1.0170844613199901</v>
       </c>
     </row>
-    <row r="184" spans="2:14">
+    <row r="184" spans="1:22">
       <c r="B184" s="2">
         <v>90</v>
       </c>
@@ -8262,25 +8461,25 @@
       <c r="D184" s="3">
         <v>10</v>
       </c>
-      <c r="E184" s="22">
+      <c r="E184" s="21">
         <v>0.34156878595253798</v>
       </c>
-      <c r="F184" s="22">
+      <c r="F184" s="21">
         <v>0.38803516130445898</v>
       </c>
-      <c r="G184" s="23">
+      <c r="G184" s="22">
         <v>0.52503876025616303</v>
       </c>
-      <c r="H184" s="22">
+      <c r="H184" s="21">
         <v>0.121418439075026</v>
       </c>
-      <c r="I184" s="22">
+      <c r="I184" s="21">
         <v>2.49338298167548E-2</v>
       </c>
-      <c r="J184" s="22">
+      <c r="J184" s="21">
         <v>2.2201072360714099E-17</v>
       </c>
-      <c r="K184" s="22">
+      <c r="K184" s="21">
         <v>0.13634441839685099</v>
       </c>
       <c r="L184" s="4">
@@ -8293,7 +8492,7 @@
         <v>1.0068956431829601</v>
       </c>
     </row>
-    <row r="185" spans="2:14">
+    <row r="185" spans="1:22">
       <c r="B185" s="2">
         <v>90</v>
       </c>
@@ -8303,25 +8502,25 @@
       <c r="D185" s="3">
         <v>10</v>
       </c>
-      <c r="E185" s="22">
+      <c r="E185" s="21">
         <v>0.24875735906898699</v>
       </c>
-      <c r="F185" s="23">
+      <c r="F185" s="22">
         <v>0.54529002175968899</v>
       </c>
-      <c r="G185" s="23">
+      <c r="G185" s="22">
         <v>0.60157671654426004</v>
       </c>
-      <c r="H185" s="22">
+      <c r="H185" s="21">
         <v>8.0060748094240602E-2</v>
       </c>
-      <c r="I185" s="22">
+      <c r="I185" s="21">
         <v>4.8809506262724303E-2</v>
       </c>
-      <c r="J185" s="22">
+      <c r="J185" s="21">
         <v>1.8557927185710199E-18</v>
       </c>
-      <c r="K185" s="22">
+      <c r="K185" s="21">
         <v>-6.2060800622833E-2</v>
       </c>
       <c r="L185" s="4">
@@ -8332,12 +8531,819 @@
       </c>
       <c r="N185" s="3">
         <v>1.0082863224374501</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22">
+      <c r="A187" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="25"/>
+      <c r="J187" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="T187" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="U187" s="25"/>
+    </row>
+    <row r="188" spans="1:22">
+      <c r="A188" t="s">
+        <v>88</v>
+      </c>
+      <c r="T188" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22">
+      <c r="A189" t="s">
+        <v>89</v>
+      </c>
+      <c r="D189" t="s">
+        <v>90</v>
+      </c>
+      <c r="G189" t="s">
+        <v>91</v>
+      </c>
+      <c r="K189" t="s">
+        <v>55</v>
+      </c>
+      <c r="N189" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>57</v>
+      </c>
+      <c r="U189" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V189" s="3">
+        <v>3645.2468145708399</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22">
+      <c r="A190" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" s="3">
+        <v>3077.4692966236998</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E190" s="3">
+        <v>3078.80608783552</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H190" s="3">
+        <v>3084.0108664908398</v>
+      </c>
+      <c r="J190" s="10"/>
+      <c r="K190" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L190" s="3">
+        <v>2956.4666821218502</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O190" s="3">
+        <v>2962.15977822482</v>
+      </c>
+      <c r="Q190" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R190" s="3">
+        <v>2961.46126411149</v>
+      </c>
+      <c r="U190" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V190" s="3">
+        <v>1.0181372579851999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22">
+      <c r="A191" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1.00543153255345</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E191" s="3">
+        <v>1.0038929376493799</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H191" s="3">
+        <v>1.00223388003182</v>
+      </c>
+      <c r="J191" s="2"/>
+      <c r="K191" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L191" s="3">
+        <v>1.0696743026686799</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O191" s="3">
+        <v>1.05068935396101</v>
+      </c>
+      <c r="Q191" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R191" s="3">
+        <v>1.0834169105495399</v>
+      </c>
+      <c r="U191" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V191" s="3">
+        <v>1.0018484530618601</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22">
+      <c r="A192" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" s="3">
+        <v>1.0000834442467399</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0.99948649910024001</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H192" s="3">
+        <v>0.99893679795631396</v>
+      </c>
+      <c r="J192" s="2"/>
+      <c r="K192" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L192" s="3">
+        <v>1.00979133140521</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O192" s="3">
+        <v>1.0164691757836899</v>
+      </c>
+      <c r="Q192" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R192" s="3">
+        <v>1.01066101044891</v>
+      </c>
+      <c r="U192" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V192" s="3">
+        <v>0.243846904313086</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22">
+      <c r="A193" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B193" s="3">
+        <v>0.133008898654253</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0.12974367080229501</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H193" s="3">
+        <v>0.126596086674165</v>
+      </c>
+      <c r="J193" s="2"/>
+      <c r="K193" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L193" s="3">
+        <v>0.16295797824758901</v>
+      </c>
+      <c r="N193" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O193" s="3">
+        <v>0.171621366861339</v>
+      </c>
+      <c r="Q193" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R193" s="3">
+        <v>0.17909053760031199</v>
+      </c>
+      <c r="U193" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V193" s="3">
+        <v>1.1345143738953799E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22">
+      <c r="A194" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1.7664956159429999E-2</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E194" s="3">
+        <v>1.55334451427809E-2</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H194" s="3">
+        <v>1.52383745255701E-2</v>
+      </c>
+      <c r="J194" s="2"/>
+      <c r="K194" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L194" s="3">
+        <v>1.07981543942769E-2</v>
+      </c>
+      <c r="N194" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O194" s="3">
+        <v>5.62333710107547E-3</v>
+      </c>
+      <c r="Q194" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R194" s="3">
+        <v>4.4296728478314404E-3</v>
+      </c>
+      <c r="T194" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22">
+      <c r="A195" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B195">
+        <v>1844.777</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E195">
+        <v>2012.7429999999999</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H195">
+        <v>2623.473</v>
+      </c>
+      <c r="J195" s="2"/>
+      <c r="K195" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L195">
+        <v>1808.674</v>
+      </c>
+      <c r="N195" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O195">
+        <v>1807.423</v>
+      </c>
+      <c r="Q195" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R195">
+        <v>1806.655</v>
+      </c>
+      <c r="U195" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V195" s="3">
+        <v>3436.6132260122999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22">
+      <c r="A196" t="s">
+        <v>92</v>
+      </c>
+      <c r="U196" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V196" s="3">
+        <v>1.0243306399515699</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22">
+      <c r="A197" t="s">
+        <v>89</v>
+      </c>
+      <c r="D197" t="s">
+        <v>90</v>
+      </c>
+      <c r="G197" t="s">
+        <v>91</v>
+      </c>
+      <c r="U197" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V197" s="3">
+        <v>1.0030115049849599</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22">
+      <c r="A198" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B198" s="3">
+        <v>2925.2201294405099</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E198" s="3">
+        <v>2919.6610248509801</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H198" s="3">
+        <v>2907.9725044640099</v>
+      </c>
+      <c r="J198" s="26"/>
+      <c r="K198" s="26"/>
+      <c r="L198" s="26"/>
+      <c r="U198" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V198" s="3">
+        <v>0.283854452522248</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22">
+      <c r="A199" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1.0029284017583</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E199" s="3">
+        <v>1.0037210118854301</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H199" s="3">
+        <v>1.0012263173942</v>
+      </c>
+      <c r="J199" s="26"/>
+      <c r="K199" s="26"/>
+      <c r="L199" s="26"/>
+      <c r="U199" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V199" s="3">
+        <v>1.2360208735067201E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22">
+      <c r="A200" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B200" s="3">
+        <v>0.99929804156243796</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0.99963741619179403</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H200" s="3">
+        <v>0.99896413202852297</v>
+      </c>
+      <c r="J200" s="26"/>
+      <c r="K200" s="27"/>
+      <c r="L200" s="27"/>
+    </row>
+    <row r="201" spans="1:22">
+      <c r="A201" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0.137570507027477</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0.14130339449745799</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0.135510244802557</v>
+      </c>
+      <c r="J201" s="26"/>
+      <c r="K201" s="27"/>
+      <c r="L201" s="27"/>
+      <c r="T201" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22">
+      <c r="A202" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B202" s="3">
+        <v>1.3576615736324999E-2</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1.29267803851269E-2</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H202" s="3">
+        <v>1.4669973546428801E-2</v>
+      </c>
+      <c r="J202" s="26"/>
+      <c r="K202" s="27"/>
+      <c r="L202" s="27"/>
+    </row>
+    <row r="203" spans="1:22">
+      <c r="A203" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B203">
+        <v>1790.9929999999999</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E203">
+        <v>1948.039</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H203">
+        <v>2687.1390000000001</v>
+      </c>
+      <c r="J203" s="26"/>
+      <c r="K203" s="27"/>
+      <c r="L203" s="27"/>
+      <c r="T203" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22">
+      <c r="A204" t="s">
+        <v>93</v>
+      </c>
+      <c r="J204" s="26"/>
+      <c r="K204" s="27"/>
+      <c r="L204" s="27"/>
+      <c r="T204" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22">
+      <c r="A205" t="s">
+        <v>89</v>
+      </c>
+      <c r="D205" t="s">
+        <v>90</v>
+      </c>
+      <c r="G205" t="s">
+        <v>91</v>
+      </c>
+      <c r="J205" s="26"/>
+      <c r="K205" s="26"/>
+      <c r="L205" s="26"/>
+    </row>
+    <row r="206" spans="1:22">
+      <c r="A206" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B206" s="3">
+        <v>2786.1229355946298</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E206" s="3">
+        <v>2764.9297251819598</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H206" s="3">
+        <v>2824.2976744699299</v>
+      </c>
+      <c r="J206" s="26"/>
+      <c r="K206" s="27"/>
+      <c r="L206" s="27"/>
+    </row>
+    <row r="207" spans="1:22">
+      <c r="A207" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B207" s="3">
+        <v>1.0014511090317499</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E207" s="3">
+        <v>1.0017764490124299</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H207" s="3">
+        <v>1.00197863008052</v>
+      </c>
+      <c r="J207" s="26"/>
+      <c r="K207" s="27"/>
+      <c r="L207" s="27"/>
+    </row>
+    <row r="208" spans="1:22">
+      <c r="A208" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B208" s="3">
+        <v>0.99911142843247402</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0.99917877663423504</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H208" s="3">
+        <v>0.99916500832884103</v>
+      </c>
+      <c r="J208" s="26"/>
+      <c r="K208" s="27"/>
+      <c r="L208" s="27"/>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B209" s="3">
+        <v>0.13735948138837001</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0.14012134737453</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H209" s="3">
+        <v>0.13608533262347899</v>
+      </c>
+      <c r="J209" s="26"/>
+      <c r="K209" s="27"/>
+      <c r="L209" s="27"/>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B210" s="3">
+        <v>6.0471580968656001E-3</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E210" s="3">
+        <v>3.7727357240566698E-3</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H210" s="3">
+        <v>5.3616908733125201E-3</v>
+      </c>
+      <c r="J210" s="26"/>
+      <c r="K210" s="27"/>
+      <c r="L210" s="27"/>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B211">
+        <v>2025.451</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E211">
+        <v>2615.7600000000002</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H211">
+        <v>4548.3909999999996</v>
+      </c>
+      <c r="J211" s="26"/>
+      <c r="K211" s="26"/>
+      <c r="L211" s="26"/>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" t="s">
+        <v>94</v>
+      </c>
+      <c r="J212" s="26"/>
+      <c r="K212" s="26"/>
+      <c r="L212" s="26"/>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" t="s">
+        <v>89</v>
+      </c>
+      <c r="D213" t="s">
+        <v>90</v>
+      </c>
+      <c r="G213" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B214" s="3">
+        <v>2859.7601430257801</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E214" s="3">
+        <v>2853.7584755225498</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H214" s="3">
+        <v>2809.6364400655398</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B215" s="3">
+        <v>1.00605395078434</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1.0069665448204199</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1.0018872721231999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216" s="3">
+        <v>0.99994918846391301</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1.0003610885526399</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0.99896390539686897</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B217" s="3">
+        <v>0.14201273314357599</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0.14387835909635799</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H217" s="3">
+        <v>0.14106574085141699</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1.37653087497022E-2</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1.12201651846179E-2</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H218" s="3">
+        <v>1.1062204595948E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B219">
+        <v>1798.11</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E219">
+        <v>2065.62</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H219">
+        <v>3093.6190000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8345,8 +9351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59088491-4DA9-9046-B8F1-E0B2E1149923}">
   <dimension ref="A2:AT71"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11962,64 +12968,64 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21" t="s">
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
       <c r="BM1" s="12"/>
-      <c r="BN1" s="21" t="s">
+      <c r="BN1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="21"/>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21"/>
-      <c r="CA1" s="21"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
+      <c r="BO1" s="24"/>
+      <c r="BP1" s="24"/>
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24"/>
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="24"/>
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24"/>
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
     </row>
     <row r="2" spans="1:87">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -12198,7 +13204,7 @@
       <c r="CI2" s="2"/>
     </row>
     <row r="3" spans="1:87">
-      <c r="A3" s="21"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -12349,7 +13355,7 @@
       </c>
     </row>
     <row r="4" spans="1:87">
-      <c r="A4" s="21"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
@@ -12591,7 +13597,7 @@
       </c>
     </row>
     <row r="5" spans="1:87">
-      <c r="A5" s="21"/>
+      <c r="A5" s="24"/>
       <c r="AL5">
         <f t="shared" ref="AL5:AL37" si="1">AL4+1</f>
         <v>2</v>
@@ -12730,7 +13736,7 @@
       </c>
     </row>
     <row r="6" spans="1:87">
-      <c r="A6" s="21"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
@@ -12977,7 +13983,7 @@
       </c>
     </row>
     <row r="7" spans="1:87">
-      <c r="A7" s="21"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>2</v>
@@ -13222,7 +14228,7 @@
       </c>
     </row>
     <row r="8" spans="1:87">
-      <c r="A8" s="21"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>3</v>
@@ -13467,7 +14473,7 @@
       </c>
     </row>
     <row r="9" spans="1:87">
-      <c r="A9" s="21"/>
+      <c r="A9" s="24"/>
       <c r="AL9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -13606,7 +14612,7 @@
       </c>
     </row>
     <row r="10" spans="1:87">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
@@ -13853,7 +14859,7 @@
       </c>
     </row>
     <row r="11" spans="1:87">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="C11" s="2">
         <v>3</v>
       </c>
@@ -14097,7 +15103,7 @@
       </c>
     </row>
     <row r="12" spans="1:87">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="C12" s="2">
         <v>4</v>
       </c>
@@ -14341,7 +15347,7 @@
       </c>
     </row>
     <row r="13" spans="1:87">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="C13" s="2">
         <v>5</v>
       </c>
@@ -14585,7 +15591,7 @@
       </c>
     </row>
     <row r="14" spans="1:87">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -14831,7 +15837,7 @@
       </c>
     </row>
     <row r="15" spans="1:87">
-      <c r="A15" s="21"/>
+      <c r="A15" s="24"/>
       <c r="AL15">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -14970,7 +15976,7 @@
       </c>
     </row>
     <row r="16" spans="1:87">
-      <c r="A16" s="21"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
@@ -15214,7 +16220,7 @@
       </c>
     </row>
     <row r="17" spans="1:87">
-      <c r="A17" s="21"/>
+      <c r="A17" s="24"/>
       <c r="AL17">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -15353,7 +16359,7 @@
       </c>
     </row>
     <row r="18" spans="1:87">
-      <c r="A18" s="21"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
@@ -15600,7 +16606,7 @@
       </c>
     </row>
     <row r="19" spans="1:87">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="2"/>
       <c r="C19">
         <v>2</v>
@@ -15845,7 +16851,7 @@
       </c>
     </row>
     <row r="20" spans="1:87">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="2"/>
       <c r="C20">
         <v>3</v>
@@ -16090,7 +17096,7 @@
       </c>
     </row>
     <row r="21" spans="1:87">
-      <c r="A21" s="21"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="2"/>
       <c r="C21">
         <v>4</v>
@@ -16335,7 +17341,7 @@
       </c>
     </row>
     <row r="22" spans="1:87">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="2"/>
       <c r="C22">
         <v>5</v>
@@ -16580,7 +17586,7 @@
       </c>
     </row>
     <row r="23" spans="1:87">
-      <c r="A23" s="21"/>
+      <c r="A23" s="24"/>
       <c r="AL23">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -16719,7 +17725,7 @@
       </c>
     </row>
     <row r="24" spans="1:87">
-      <c r="A24" s="21"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
@@ -16966,7 +17972,7 @@
       </c>
     </row>
     <row r="25" spans="1:87">
-      <c r="A25" s="21"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="2"/>
       <c r="C25">
         <v>3</v>
@@ -17211,7 +18217,7 @@
       </c>
     </row>
     <row r="26" spans="1:87">
-      <c r="A26" s="21"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="2"/>
       <c r="C26">
         <v>4</v>
@@ -17456,7 +18462,7 @@
       </c>
     </row>
     <row r="27" spans="1:87">
-      <c r="A27" s="21"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="2"/>
       <c r="C27">
         <v>5</v>
@@ -17701,7 +18707,7 @@
       </c>
     </row>
     <row r="28" spans="1:87">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -17947,7 +18953,7 @@
       </c>
     </row>
     <row r="29" spans="1:87">
-      <c r="A29" s="21"/>
+      <c r="A29" s="24"/>
       <c r="AL29">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -18086,7 +19092,7 @@
       </c>
     </row>
     <row r="30" spans="1:87">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
@@ -18330,7 +19336,7 @@
       </c>
     </row>
     <row r="31" spans="1:87">
-      <c r="A31" s="21"/>
+      <c r="A31" s="24"/>
       <c r="AL31">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -18469,7 +19475,7 @@
       </c>
     </row>
     <row r="32" spans="1:87">
-      <c r="A32" s="21"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
@@ -18716,7 +19722,7 @@
       </c>
     </row>
     <row r="33" spans="1:87">
-      <c r="A33" s="21"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="2"/>
       <c r="C33">
         <v>2</v>
@@ -18961,7 +19967,7 @@
       </c>
     </row>
     <row r="34" spans="1:87">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="2"/>
       <c r="C34">
         <v>3</v>
@@ -19206,7 +20212,7 @@
       </c>
     </row>
     <row r="35" spans="1:87">
-      <c r="A35" s="21"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="2"/>
       <c r="C35">
         <v>4</v>
@@ -19451,7 +20457,7 @@
       </c>
     </row>
     <row r="36" spans="1:87">
-      <c r="A36" s="21"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="2"/>
       <c r="C36">
         <v>5</v>
@@ -19696,7 +20702,7 @@
       </c>
     </row>
     <row r="37" spans="1:87">
-      <c r="A37" s="21"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="2"/>
       <c r="C37">
         <v>6</v>
@@ -19941,7 +20947,7 @@
       </c>
     </row>
     <row r="38" spans="1:87">
-      <c r="A38" s="21"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="2"/>
       <c r="C38">
         <v>7</v>
@@ -20162,7 +21168,7 @@
       </c>
     </row>
     <row r="39" spans="1:87">
-      <c r="A39" s="21"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="2"/>
       <c r="C39">
         <v>8</v>
@@ -20271,7 +21277,7 @@
       </c>
     </row>
     <row r="40" spans="1:87">
-      <c r="A40" s="21"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="2"/>
       <c r="C40">
         <v>9</v>
@@ -20380,7 +21386,7 @@
       </c>
     </row>
     <row r="41" spans="1:87">
-      <c r="A41" s="21"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="2"/>
       <c r="C41">
         <v>10</v>
@@ -20489,10 +21495,10 @@
       </c>
     </row>
     <row r="42" spans="1:87">
-      <c r="A42" s="21"/>
+      <c r="A42" s="24"/>
     </row>
     <row r="43" spans="1:87">
-      <c r="A43" s="21"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
@@ -20603,7 +21609,7 @@
       </c>
     </row>
     <row r="44" spans="1:87">
-      <c r="A44" s="21"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="2"/>
       <c r="C44">
         <v>3</v>
@@ -20712,7 +21718,7 @@
       </c>
     </row>
     <row r="45" spans="1:87">
-      <c r="A45" s="21"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="2"/>
       <c r="C45">
         <v>4</v>
@@ -20821,7 +21827,7 @@
       </c>
     </row>
     <row r="46" spans="1:87">
-      <c r="A46" s="21"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="2"/>
       <c r="C46">
         <v>5</v>

--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5604F1BB-0B2C-654A-A051-84D0478D4C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7814E9EE-C9B2-CD45-9FFF-4C6B009EBB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="660" windowWidth="28300" windowHeight="17440" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28300" windowHeight="17440" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="既存モデル" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="116">
   <si>
     <t>j</t>
   </si>
@@ -553,13 +553,112 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バイアスなしの人</t>
+    <t>バイアスなしの被験者</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既存モデルプロット</t>
+    <t>バイアスありの被験者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存モデルバイアスあり</t>
     <rPh sb="0" eb="2">
       <t>キゾンモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水色</t>
+    <rPh sb="0" eb="2">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だんだん厳しく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だんだん優しく</t>
+    <rPh sb="0" eb="1">
+      <t>ダンダンヤサシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日によって変える</t>
+    <rPh sb="0" eb="1">
+      <t>ヒニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分布に偏り(2,3,4)</t>
+    <rPh sb="0" eb="2">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分布に偏り(1,3,5)</t>
+    <rPh sb="0" eb="1">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準を与えない</t>
+    <rPh sb="0" eb="2">
+      <t>キジュンウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存モデルバイアスなし</t>
+    <rPh sb="0" eb="2">
+      <t>キゾンモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>灰</t>
+    <rPh sb="0" eb="1">
+      <t>ハイイロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -574,7 +673,7 @@
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -632,6 +731,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -673,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +863,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -779,23 +887,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>920172</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>941798</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>95827</xdr:rowOff>
+      <xdr:rowOff>199774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>617682</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>648128</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>70427</xdr:rowOff>
+      <xdr:rowOff>137273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2920B7B1-369D-5849-8F39-5BC0FE879ACB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FE86A8-1B3B-274D-A18A-540608B4DE14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -811,8 +919,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14255172" y="51911827"/>
-          <a:ext cx="3507510" cy="3276600"/>
+          <a:off x="21975281" y="52626516"/>
+          <a:ext cx="3530600" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,23 +931,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>40409</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99888</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>91209</xdr:rowOff>
+      <xdr:rowOff>99887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>690418</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>762286</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>65809</xdr:rowOff>
+      <xdr:rowOff>37386</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC0C9D3-E3CD-324F-B89F-314D59AD7D86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F768FC4-21E3-C24D-99D4-B062BA28BD9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -855,8 +963,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18137909" y="51907209"/>
-          <a:ext cx="3507509" cy="3276600"/>
+          <a:off x="14440899" y="52526629"/>
+          <a:ext cx="3530600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42809</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>85617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>705207</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>23116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BAD8625-225F-4544-A9DC-0835058DE3AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18208090" y="52512359"/>
+          <a:ext cx="3530600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>898988</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>185505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>605319</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>123004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405F5E26-3475-E245-B824-9FD631EB6F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25756741" y="52612247"/>
+          <a:ext cx="3530600" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B5D9D-DC95-E543-B24D-F58D47733086}">
   <dimension ref="A1:AH219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M187" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="V202" sqref="V202"/>
+    <sheetView tabSelected="1" topLeftCell="M193" zoomScale="89" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y221" sqref="Y221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8721,7 +8917,7 @@
         <v>0.243846904313086</v>
       </c>
     </row>
-    <row r="193" spans="1:22">
+    <row r="193" spans="1:33">
       <c r="A193" s="3" t="s">
         <v>53</v>
       </c>
@@ -8766,7 +8962,7 @@
         <v>1.1345143738953799E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:22">
+    <row r="194" spans="1:33">
       <c r="A194" s="3" t="s">
         <v>54</v>
       </c>
@@ -8808,7 +9004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="195" spans="1:22">
+    <row r="195" spans="1:33">
       <c r="A195" s="3" t="s">
         <v>68</v>
       </c>
@@ -8853,7 +9049,7 @@
         <v>3436.6132260122999</v>
       </c>
     </row>
-    <row r="196" spans="1:22">
+    <row r="196" spans="1:33">
       <c r="A196" t="s">
         <v>92</v>
       </c>
@@ -8864,7 +9060,7 @@
         <v>1.0243306399515699</v>
       </c>
     </row>
-    <row r="197" spans="1:22">
+    <row r="197" spans="1:33">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -8881,7 +9077,7 @@
         <v>1.0030115049849599</v>
       </c>
     </row>
-    <row r="198" spans="1:22">
+    <row r="198" spans="1:33">
       <c r="A198" s="3" t="s">
         <v>50</v>
       </c>
@@ -8910,7 +9106,7 @@
         <v>0.283854452522248</v>
       </c>
     </row>
-    <row r="199" spans="1:22">
+    <row r="199" spans="1:33" ht="23">
       <c r="A199" s="3" t="s">
         <v>51</v>
       </c>
@@ -8938,8 +9134,9 @@
       <c r="V199" s="3">
         <v>1.2360208735067201E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:22">
+      <c r="AD199" s="28"/>
+    </row>
+    <row r="200" spans="1:33">
       <c r="A200" s="3" t="s">
         <v>52</v>
       </c>
@@ -8962,7 +9159,7 @@
       <c r="K200" s="27"/>
       <c r="L200" s="27"/>
     </row>
-    <row r="201" spans="1:22">
+    <row r="201" spans="1:33">
       <c r="A201" s="3" t="s">
         <v>53</v>
       </c>
@@ -8988,7 +9185,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="202" spans="1:22">
+    <row r="202" spans="1:33">
       <c r="A202" s="3" t="s">
         <v>54</v>
       </c>
@@ -9011,7 +9208,7 @@
       <c r="K202" s="27"/>
       <c r="L202" s="27"/>
     </row>
-    <row r="203" spans="1:22">
+    <row r="203" spans="1:33">
       <c r="A203" s="3" t="s">
         <v>68</v>
       </c>
@@ -9033,22 +9230,16 @@
       <c r="J203" s="26"/>
       <c r="K203" s="27"/>
       <c r="L203" s="27"/>
-      <c r="T203" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="204" spans="1:22">
+    </row>
+    <row r="204" spans="1:33">
       <c r="A204" t="s">
         <v>93</v>
       </c>
       <c r="J204" s="26"/>
       <c r="K204" s="27"/>
       <c r="L204" s="27"/>
-      <c r="T204" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="205" spans="1:22">
+    </row>
+    <row r="205" spans="1:33">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -9062,7 +9253,7 @@
       <c r="K205" s="26"/>
       <c r="L205" s="26"/>
     </row>
-    <row r="206" spans="1:22">
+    <row r="206" spans="1:33">
       <c r="A206" s="3" t="s">
         <v>50</v>
       </c>
@@ -9084,8 +9275,14 @@
       <c r="J206" s="26"/>
       <c r="K206" s="27"/>
       <c r="L206" s="27"/>
-    </row>
-    <row r="207" spans="1:22">
+      <c r="AF206" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="207" spans="1:33">
       <c r="A207" s="3" t="s">
         <v>51</v>
       </c>
@@ -9107,8 +9304,14 @@
       <c r="J207" s="26"/>
       <c r="K207" s="27"/>
       <c r="L207" s="27"/>
-    </row>
-    <row r="208" spans="1:22">
+      <c r="AF207" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:33">
       <c r="A208" s="3" t="s">
         <v>52</v>
       </c>
@@ -9130,8 +9333,14 @@
       <c r="J208" s="26"/>
       <c r="K208" s="27"/>
       <c r="L208" s="27"/>
-    </row>
-    <row r="209" spans="1:12">
+      <c r="AF208" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33">
       <c r="A209" s="3" t="s">
         <v>53</v>
       </c>
@@ -9153,8 +9362,14 @@
       <c r="J209" s="26"/>
       <c r="K209" s="27"/>
       <c r="L209" s="27"/>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="AF209" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33">
       <c r="A210" s="3" t="s">
         <v>54</v>
       </c>
@@ -9176,8 +9391,14 @@
       <c r="J210" s="26"/>
       <c r="K210" s="27"/>
       <c r="L210" s="27"/>
-    </row>
-    <row r="211" spans="1:12">
+      <c r="AF210" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33">
       <c r="A211" s="3" t="s">
         <v>68</v>
       </c>
@@ -9199,16 +9420,25 @@
       <c r="J211" s="26"/>
       <c r="K211" s="26"/>
       <c r="L211" s="26"/>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="AF211" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="212" spans="1:33">
       <c r="A212" t="s">
         <v>94</v>
       </c>
       <c r="J212" s="26"/>
       <c r="K212" s="26"/>
       <c r="L212" s="26"/>
-    </row>
-    <row r="213" spans="1:12">
+      <c r="AF212" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="213" spans="1:33">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -9219,7 +9449,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:33">
       <c r="A214" s="3" t="s">
         <v>50</v>
       </c>
@@ -9239,7 +9469,7 @@
         <v>2809.6364400655398</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:33">
       <c r="A215" s="3" t="s">
         <v>51</v>
       </c>
@@ -9259,7 +9489,7 @@
         <v>1.0018872721231999</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:33">
       <c r="A216" s="3" t="s">
         <v>52</v>
       </c>
@@ -9279,7 +9509,7 @@
         <v>0.99896390539686897</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:33">
       <c r="A217" s="3" t="s">
         <v>53</v>
       </c>
@@ -9299,7 +9529,7 @@
         <v>0.14106574085141699</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:33">
       <c r="A218" s="3" t="s">
         <v>54</v>
       </c>
@@ -9319,7 +9549,7 @@
         <v>1.1062204595948E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:33">
       <c r="A219" s="3" t="s">
         <v>68</v>
       </c>
@@ -9337,6 +9567,18 @@
       </c>
       <c r="H219">
         <v>3093.6190000000001</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>99</v>
+      </c>
+      <c r="U219" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7814E9EE-C9B2-CD45-9FFF-4C6B009EBB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53AE4C4-3968-0A41-8683-E64F447A2EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28300" windowHeight="17440" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35820" windowHeight="20300" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="既存モデル" sheetId="1" r:id="rId1"/>
-    <sheet name="提案モデル" sheetId="2" r:id="rId2"/>
-    <sheet name="パラメータ" sheetId="3" r:id="rId3"/>
+    <sheet name="結果卒論用" sheetId="4" r:id="rId1"/>
+    <sheet name="既存モデル" sheetId="1" r:id="rId2"/>
+    <sheet name="提案モデル" sheetId="2" r:id="rId3"/>
+    <sheet name="パラメータ" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="139">
   <si>
     <t>j</t>
   </si>
@@ -656,9 +657,140 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>灰</t>
+    <t>指示なし</t>
+    <rPh sb="0" eb="2">
+      <t>シジナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指示なし</t>
+    <rPh sb="0" eb="2">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パラメータまとめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・特徴的な人→わかりやすくしとく</t>
+    <rPh sb="1" eb="4">
+      <t>トクチョウテキナヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>j=120でもやる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t/Tしないやつもやる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2と4の手法(スライドの)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーション実験</t>
+    <rPh sb="8" eb="10">
+      <t>ジッケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存モデル</t>
+    <rPh sb="0" eb="2">
+      <t>キゾn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実データ実験</t>
     <rPh sb="0" eb="1">
-      <t>ハイイロ</t>
+      <t>ジテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ推定値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T=0~1じゃない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T=0~1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だんだん優しく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日によって厳しさを変える</t>
+    <rPh sb="0" eb="1">
+      <t>ヒニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点に偏り(2,3,4)</t>
+    <rPh sb="0" eb="2">
+      <t>トクテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点に偏り(1,3,5)</t>
+    <rPh sb="0" eb="2">
+      <t>トクテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準を与えない</t>
+    <rPh sb="0" eb="2">
+      <t>キジュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TimeID/Tなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだ回し終わってないです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間の時の結果</t>
+    <rPh sb="0" eb="2">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WBIC中間の時みたいに求める</t>
+    <rPh sb="4" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モトメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指示なしの人のもやる</t>
+    <rPh sb="0" eb="2">
+      <t>シジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -673,7 +805,7 @@
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -737,8 +869,58 @@
       <name val="Hiragino Kaku Gothic ProN"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC92294"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +945,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -778,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,9 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -866,12 +1051,59 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC92294"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -887,16 +1119,65 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D35412-EF0F-0B49-B4F3-6E70714A8A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40474900" y="6819900"/>
+          <a:ext cx="3530600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>941798</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>199774</xdr:rowOff>
+      <xdr:rowOff>113835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>648128</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>137273</xdr:rowOff>
+      <xdr:rowOff>51334</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -919,8 +1200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21975281" y="52626516"/>
-          <a:ext cx="3530600" cy="3276600"/>
+          <a:off x="21949317" y="52747218"/>
+          <a:ext cx="3525879" cy="3289154"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,15 +1301,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>898988</xdr:colOff>
+      <xdr:colOff>889439</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>185505</xdr:rowOff>
+      <xdr:rowOff>90016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>605319</xdr:colOff>
+      <xdr:colOff>595770</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>123004</xdr:rowOff>
+      <xdr:rowOff>27515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1051,8 +1332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25756741" y="52612247"/>
-          <a:ext cx="3530600" cy="3276600"/>
+          <a:off x="25716507" y="52723399"/>
+          <a:ext cx="3525880" cy="3289154"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,11 +1641,3586 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF2B668-9505-0A46-A05A-3573DA92E6F2}">
+  <dimension ref="A1:FA64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="34" max="34" width="14.5703125" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" customWidth="1"/>
+    <col min="36" max="36" width="21.28515625" customWidth="1"/>
+    <col min="37" max="37" width="15.85546875" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" customWidth="1"/>
+    <col min="39" max="39" width="15.42578125" customWidth="1"/>
+    <col min="222" max="222" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:157">
+      <c r="A1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:157">
+      <c r="A2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="P2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:157">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="29"/>
+      <c r="Q3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="3">
+        <v>5361.5808993870796</v>
+      </c>
+      <c r="V3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:157">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="Q4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1.002179747215</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>6</v>
+      </c>
+      <c r="AD4">
+        <v>7</v>
+      </c>
+      <c r="AE4">
+        <v>8</v>
+      </c>
+      <c r="AF4">
+        <v>9</v>
+      </c>
+      <c r="AG4">
+        <v>10</v>
+      </c>
+      <c r="AH4">
+        <v>11</v>
+      </c>
+      <c r="AI4">
+        <v>12</v>
+      </c>
+      <c r="AJ4">
+        <v>13</v>
+      </c>
+      <c r="AK4">
+        <v>14</v>
+      </c>
+      <c r="AL4">
+        <v>15</v>
+      </c>
+      <c r="AM4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:157">
+      <c r="A5" s="3">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.31736431227270501</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.41272084216655402</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.50281736790838805</v>
+      </c>
+      <c r="G5" s="19">
+        <v>8.3609397538721195E-2</v>
+      </c>
+      <c r="H5" s="19">
+        <v>-5.7750205454517999E-2</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2.0851664172443299E-18</v>
+      </c>
+      <c r="J5" s="19">
+        <v>-7.2997571311605405E-2</v>
+      </c>
+      <c r="K5" s="19">
+        <v>-1.30537941567255E-17</v>
+      </c>
+      <c r="L5" s="19">
+        <v>1.0007471747721</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1.0077266499906099</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="Q5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.99919370507599303</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3">
+        <v>0.23976685890713301</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.93747065443045097</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.67914696356174897</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.89320571753025901</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0.23712436343846299</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>-0.45186907007163801</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>-0.64438039617835596</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>-0.11507573047303001</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>-0.50231360120406898</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0.19047185086375201</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0.46479677423382298</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>-0.124727648078567</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>-0.84293417675798399</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>0.57181770526569597</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>5.9986712052074301E-2</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>-1.56184272919909</v>
+      </c>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="3"/>
+      <c r="CM5" s="3"/>
+      <c r="CN5" s="3"/>
+      <c r="CO5" s="3"/>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="3"/>
+      <c r="CR5" s="3"/>
+      <c r="CS5" s="3"/>
+      <c r="CT5" s="3"/>
+      <c r="CU5" s="3"/>
+      <c r="CV5" s="3"/>
+      <c r="CW5" s="3"/>
+      <c r="CX5" s="3"/>
+      <c r="CY5" s="3"/>
+      <c r="CZ5" s="3"/>
+      <c r="DA5" s="3"/>
+      <c r="DB5" s="3"/>
+      <c r="DC5" s="3"/>
+      <c r="DD5" s="3"/>
+      <c r="DE5" s="3"/>
+      <c r="DF5" s="3"/>
+      <c r="DG5" s="3"/>
+      <c r="DH5" s="3"/>
+      <c r="DI5" s="3"/>
+      <c r="DJ5" s="3"/>
+      <c r="DK5" s="3"/>
+      <c r="DL5" s="3"/>
+      <c r="DM5" s="3"/>
+      <c r="DN5" s="3"/>
+      <c r="DO5" s="3"/>
+      <c r="DP5" s="3"/>
+      <c r="DQ5" s="3"/>
+      <c r="DR5" s="3"/>
+      <c r="DS5" s="3"/>
+      <c r="DT5" s="3"/>
+      <c r="DU5" s="3"/>
+      <c r="DV5" s="3"/>
+      <c r="DW5" s="3"/>
+      <c r="DX5" s="3"/>
+      <c r="DY5" s="3"/>
+      <c r="DZ5" s="3"/>
+      <c r="EA5" s="3"/>
+      <c r="EB5" s="3"/>
+      <c r="EC5" s="3"/>
+      <c r="ED5" s="3"/>
+      <c r="EE5" s="3"/>
+      <c r="EF5" s="3"/>
+      <c r="EG5" s="3"/>
+      <c r="EH5" s="3"/>
+      <c r="EI5" s="3"/>
+      <c r="EJ5" s="3"/>
+      <c r="EK5" s="3"/>
+      <c r="EL5" s="3"/>
+      <c r="EM5" s="3"/>
+      <c r="EN5" s="3"/>
+      <c r="EO5" s="3"/>
+      <c r="EP5" s="3"/>
+      <c r="EQ5" s="3"/>
+      <c r="ER5" s="3"/>
+      <c r="ES5" s="3"/>
+      <c r="ET5" s="3"/>
+      <c r="EU5" s="3"/>
+      <c r="EV5" s="3"/>
+      <c r="EW5" s="3"/>
+      <c r="EX5" s="3"/>
+      <c r="EY5" s="3"/>
+      <c r="EZ5" s="3"/>
+      <c r="FA5" s="3"/>
+    </row>
+    <row r="6" spans="1:157">
+      <c r="A6" s="3">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.282842705085593</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.58241671386084204</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.57339130731735599</v>
+      </c>
+      <c r="G6" s="19">
+        <v>6.8592708867188504E-2</v>
+      </c>
+      <c r="H6" s="19">
+        <v>-6.2918626018631005E-2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>-1.9014195599964501E-18</v>
+      </c>
+      <c r="J6" s="19">
+        <v>-2.7872548848259501E-2</v>
+      </c>
+      <c r="K6" s="19">
+        <v>-1.0690233420707099E-17</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1.0013505962292799</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1.0100081873545901</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="Q6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.18557589176261899</v>
+      </c>
+      <c r="X6">
+        <v>17</v>
+      </c>
+      <c r="Y6">
+        <v>18</v>
+      </c>
+      <c r="Z6">
+        <v>19</v>
+      </c>
+      <c r="AA6">
+        <v>20</v>
+      </c>
+      <c r="AB6">
+        <v>21</v>
+      </c>
+      <c r="AC6">
+        <v>22</v>
+      </c>
+      <c r="AD6">
+        <v>23</v>
+      </c>
+      <c r="AE6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:157">
+      <c r="A7" s="3">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.34269327679147299</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.57162406085419504</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.67401994178382496</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.100061900495182</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.11741322287190201</v>
+      </c>
+      <c r="I7" s="19">
+        <v>6.58961139777744E-18</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.22018640521557001</v>
+      </c>
+      <c r="K7" s="19">
+        <v>-1.7347234759768E-18</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0.99995155512905298</v>
+      </c>
+      <c r="M7" s="19">
+        <v>1.00560839830552</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="Q7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="3">
+        <v>9.8434952870433308E-3</v>
+      </c>
+      <c r="X7" s="3">
+        <v>-3.1740280849277797E-2</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>-0.12583867519854799</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0.46651720018481901</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0.234080925636587</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0.28531507560341901</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>-0.70218089170854503</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0.29746999671318203</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0.195818115128538</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0.16689107921069801</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0.199638954214789</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0.53869904899189303</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0.55263539304866804</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>0.820186296065056</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>0.94482272752009999</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>0.54050970562192402</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0.29809269429486401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:157">
+      <c r="A8" s="3">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.25385354106593899</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.49823145932923302</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.57289481777307505</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7.9606005375603306E-2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>-3.3692026053634402E-2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>-3.6092977384316103E-18</v>
+      </c>
+      <c r="J8" s="19">
+        <v>-3.7611220900198299E-2</v>
+      </c>
+      <c r="K8" s="19">
+        <v>-2.3592239273284601E-17</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1.0006855631576099</v>
+      </c>
+      <c r="M8" s="19">
+        <v>1.0086976995874299</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="Q8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:157">
+      <c r="A9" s="3">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.346655439123983</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.47030674860335098</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.63518923654605897</v>
+      </c>
+      <c r="G9" s="19">
+        <v>9.9334186328600999E-2</v>
+      </c>
+      <c r="H9" s="19">
+        <v>6.0027654744541997E-2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>-3.1936530243276098E-18</v>
+      </c>
+      <c r="J9" s="19">
+        <v>4.5961783470196201E-2</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1.7347234759768099E-17</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.99964098373586097</v>
+      </c>
+      <c r="M9" s="19">
+        <v>1.0040345501249801</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="P9" t="s">
+        <v>134</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.23882923735799999</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>-0.24525178292594299</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>-0.61766548577491298</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>-0.60437468878273404</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>-0.439188860329078</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>-0.173149282737352</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.31787853636512198</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0.33684687285667803</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>6.3147960499926506E-2</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0.61878325137249102</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>-0.11899239826420099</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0.299916901157741</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>-0.30705981148460298</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>-0.172899770801656</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0.78470058588593095</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>-0.87864422581641799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:157">
+      <c r="A10" s="3">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.27869069469996399</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.47412719771202499</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.71774985525353896</v>
+      </c>
+      <c r="G10" s="19">
+        <v>8.3646086135586897E-2</v>
+      </c>
+      <c r="H10" s="19">
+        <v>4.0255981249395299E-2</v>
+      </c>
+      <c r="I10" s="19">
+        <v>-3.05419751989167E-18</v>
+      </c>
+      <c r="J10" s="19">
+        <v>5.91825272293407E-3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1.65666091955785E-17</v>
+      </c>
+      <c r="L10" s="19">
+        <v>1.00001583511661</v>
+      </c>
+      <c r="M10" s="19">
+        <v>1.0054005800793999</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="Q10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="3">
+        <v>5365.5584111174803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:157">
+      <c r="A11" s="3">
+        <v>90</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.31535263478393899</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.50261897537335098</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.56673396973934898</v>
+      </c>
+      <c r="G11" s="19">
+        <v>6.4200143781155294E-2</v>
+      </c>
+      <c r="H11" s="19">
+        <v>-7.2114715272253604E-2</v>
+      </c>
+      <c r="I11" s="19">
+        <v>8.74259974310842E-18</v>
+      </c>
+      <c r="J11" s="19">
+        <v>-3.4189882116176198E-2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>-5.8113236445223001E-18</v>
+      </c>
+      <c r="L11" s="19">
+        <v>1.00029974915176</v>
+      </c>
+      <c r="M11" s="19">
+        <v>1.00771333616546</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="Q11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1.00318759300594</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0.41214356501104599</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>-0.18525370303490099</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>-0.14718220585686201</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0.61181616437236597</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>1.01244576567463E-2</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>-1.2568831684547199</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0.42163044970829999</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>7.7920401330418998E-2</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>-0.24514527469125399</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0.165307198741349</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>-1.04420408061242</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0.156969713420722</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>-6.9038509106680898E-2</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>0.10187435359659799</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>-0.18535705181382001</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>-5.0757282919009002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:157">
+      <c r="A12" s="3">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.26232640006865099</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.42291617871051501</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.51409582748430604</v>
+      </c>
+      <c r="G12" s="19">
+        <v>7.6882816191025993E-2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>-4.63162536034303E-2</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3.5117873055436799E-18</v>
+      </c>
+      <c r="J12" s="19">
+        <v>-6.8305755745301094E-2</v>
+      </c>
+      <c r="K12" s="19">
+        <v>-6.93889390390727E-18</v>
+      </c>
+      <c r="L12" s="19">
+        <v>1.00105550694257</v>
+      </c>
+      <c r="M12" s="19">
+        <v>1.0090851475643501</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="Q12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.99958036289004304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:157">
+      <c r="A13" s="3">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.31322072217112101</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.46772595205721901</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.55020650603861898</v>
+      </c>
+      <c r="G13" s="19">
+        <v>7.1281997696996599E-2</v>
+      </c>
+      <c r="H13" s="19">
+        <v>-2.6153373153382599E-2</v>
+      </c>
+      <c r="I13" s="19">
+        <v>-6.9697259031872908E-18</v>
+      </c>
+      <c r="J13" s="19">
+        <v>-0.111475445625385</v>
+      </c>
+      <c r="K13" s="19">
+        <v>-8.6736173798840701E-19</v>
+      </c>
+      <c r="L13" s="19">
+        <v>1.0002657947710301</v>
+      </c>
+      <c r="M13" s="19">
+        <v>1.0077413724906801</v>
+      </c>
+      <c r="N13" s="29"/>
+      <c r="Q13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.18630626756694901</v>
+      </c>
+      <c r="X13" s="3">
+        <v>-3.9491073811865798E-2</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>6.2643749682223401E-2</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.22979055889278399</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0.20406856334777199</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>-0.35533843256555497</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>-0.22161660615135301</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>-0.90421756148642596</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0.80339805524535601</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>-8.1516589021586094E-2</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>-0.392566397684118</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>-0.47130908294192497</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>-0.104116397454583</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>8.1688509753032407E-2</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>0.13550770415836499</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>0.58153786480564695</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0.81386527577104795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:157">
+      <c r="A14" s="3">
+        <v>90</v>
+      </c>
+      <c r="B14" s="3">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.30929972183236398</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.78292977642624195</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.69439561604213396</v>
+      </c>
+      <c r="G14" s="19">
+        <v>8.2838574085091696E-2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>1.00364478076488E-3</v>
+      </c>
+      <c r="I14" s="19">
+        <v>2.3058269703335398E-18</v>
+      </c>
+      <c r="J14" s="19">
+        <v>-7.7424393403651995E-2</v>
+      </c>
+      <c r="K14" s="19">
+        <v>1.94289029309403E-17</v>
+      </c>
+      <c r="L14" s="19">
+        <v>1.0001385198498001</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1.0075783095159401</v>
+      </c>
+      <c r="N14" s="29"/>
+      <c r="Q14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="3">
+        <v>8.4333223218118394E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:157">
+      <c r="A15" s="3">
+        <v>90</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.32262824555403302</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.514967891428188</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.61205475345289195</v>
+      </c>
+      <c r="G15" s="19">
+        <v>9.4970520721408005E-2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>-2.4030722613959998E-2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>-1.3892970873394001E-18</v>
+      </c>
+      <c r="J15" s="19">
+        <v>-3.3295599323274701E-2</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1.07552855510562E-17</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0.99990917383069799</v>
+      </c>
+      <c r="M15" s="19">
+        <v>1.0070109254959601</v>
+      </c>
+      <c r="N15" s="29"/>
+      <c r="Q15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0.36313219794991303</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.16494075605912301</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.570855999675704</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0.81901848044552505</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0.139407952663958</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>-0.45106824185905497</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>-0.54125103497701998</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>-7.1298820100066204E-2</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>-0.95977463180171296</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0.50643118169672696</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0.71460071530191605</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>3.1906871099532101E-2</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>-0.33060428622815002</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>0.129986675205256</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>-0.129024507747696</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0.160942457621885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:157">
+      <c r="A16" s="3">
+        <v>90</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.280557193198822</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.53157870136637297</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.59398714476334602</v>
+      </c>
+      <c r="G16" s="19">
+        <v>7.61346148936628E-2</v>
+      </c>
+      <c r="H16" s="19">
+        <v>4.4221715892948099E-2</v>
+      </c>
+      <c r="I16" s="19">
+        <v>6.7073941525363102E-18</v>
+      </c>
+      <c r="J16" s="19">
+        <v>-7.7393463785450006E-2</v>
+      </c>
+      <c r="K16" s="19">
+        <v>3.7296554733501598E-18</v>
+      </c>
+      <c r="L16" s="19">
+        <v>1.0002218104018901</v>
+      </c>
+      <c r="M16" s="19">
+        <v>1.0080535918648701</v>
+      </c>
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="3">
+        <v>120</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.31293849158876802</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.53466093567667194</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.58766168287542397</v>
+      </c>
+      <c r="G17" s="19">
+        <v>6.5998144190404298E-2</v>
+      </c>
+      <c r="H17" s="19">
+        <v>9.5721462571776605E-2</v>
+      </c>
+      <c r="I17" s="19">
+        <v>-1.52811519948254E-18</v>
+      </c>
+      <c r="J17" s="19">
+        <v>7.1799339231581799E-2</v>
+      </c>
+      <c r="K17" s="19">
+        <v>-6.0715321659188202E-18</v>
+      </c>
+      <c r="L17" s="19">
+        <v>1.00019510368961</v>
+      </c>
+      <c r="M17" s="19">
+        <v>1.0083234944399</v>
+      </c>
+      <c r="N17" s="29"/>
+      <c r="P17" t="s">
+        <v>95</v>
+      </c>
+      <c r="X17" s="3">
+        <v>-0.39930727074402</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>-0.25955307091370799</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>-0.35085803088712902</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0.83507449839757397</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>-7.3912165927994905E-2</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0.176104015966695</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>-0.220067561725175</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>-1.1357800307384799E-2</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>-0.17284547011874499</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>-0.89202486837649897</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0.63667224356187602</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0.40798681733852898</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>0.90010601598221895</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>0.28479441195850502</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>0.82205139175563102</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>0.73865791993032504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="3">
+        <v>120</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.26962274490546601</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.48407361378653002</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.46031251471789397</v>
+      </c>
+      <c r="G18" s="19">
+        <v>5.58759194352818E-2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>-2.99470441369806E-2</v>
+      </c>
+      <c r="I18" s="19">
+        <v>-1.6180362171630601E-18</v>
+      </c>
+      <c r="J18" s="19">
+        <v>-0.10550333948867099</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1.22298005056365E-17</v>
+      </c>
+      <c r="L18" s="19">
+        <v>1.0018077479143199</v>
+      </c>
+      <c r="M18" s="19">
+        <v>1.0153562697430201</v>
+      </c>
+      <c r="N18" s="29"/>
+      <c r="Q18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="3">
+        <v>5027.9510259888202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="3">
+        <v>120</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0.32537568825635799</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.44652383594566297</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.53305007605335397</v>
+      </c>
+      <c r="G19" s="19">
+        <v>6.5392593015028797E-2</v>
+      </c>
+      <c r="H19" s="19">
+        <v>5.2944805805778899E-2</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1.10778356973706E-18</v>
+      </c>
+      <c r="J19" s="19">
+        <v>8.2100902556140304E-2</v>
+      </c>
+      <c r="K19" s="19">
+        <v>2.5977484052752701E-17</v>
+      </c>
+      <c r="L19" s="19">
+        <v>1.0002026916228599</v>
+      </c>
+      <c r="M19" s="19">
+        <v>1.0098695349086899</v>
+      </c>
+      <c r="N19" s="29"/>
+      <c r="Q19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1.02590569140754</v>
+      </c>
+      <c r="X19" s="3">
+        <v>-0.53513442505826803</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1.0844746432379</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0.46029820069119598</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>-1.2714011640335201</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0.29500863785590598</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>-0.37052344649894497</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>-0.89141406939590195</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0.47667593595399199</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>0.14209318813952401</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>-3.6330178115795801E-2</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>-1.07603667403723</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>-0.43562142882063198</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>-0.14228632379410699</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>-0.18316506657523901</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>-0.552247353610548</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>0.23959107892125001</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>8.9743801136487097E-2</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>-0.30993865490371902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="3">
+        <v>120</v>
+      </c>
+      <c r="B20" s="3">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.26926093678540602</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.456632924605617</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.57554015614666199</v>
+      </c>
+      <c r="G20" s="19">
+        <v>6.7135855476701603E-2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>-1.32337598331696E-2</v>
+      </c>
+      <c r="I20" s="19">
+        <v>4.63270553284956E-19</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1.35559914493949E-2</v>
+      </c>
+      <c r="K20" s="19">
+        <v>9.0205620750794003E-18</v>
+      </c>
+      <c r="L20" s="19">
+        <v>1.0015171153810101</v>
+      </c>
+      <c r="M20" s="19">
+        <v>1.01515638003644</v>
+      </c>
+      <c r="N20" s="29"/>
+      <c r="Q20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1.0076595875987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="3">
+        <v>120</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.32370206181317401</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.44809867631100497</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.61388625613410897</v>
+      </c>
+      <c r="G21" s="19">
+        <v>8.1236302743691605E-2</v>
+      </c>
+      <c r="H21" s="19">
+        <v>-1.6701244186039001E-2</v>
+      </c>
+      <c r="I21" s="19">
+        <v>6.9352347215751001E-18</v>
+      </c>
+      <c r="J21" s="19">
+        <v>-7.9668158084937296E-2</v>
+      </c>
+      <c r="K21" s="19">
+        <v>3.5561831257524504E-18</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0.99972985940468795</v>
+      </c>
+      <c r="M21" s="19">
+        <v>1.0067801752683601</v>
+      </c>
+      <c r="N21" s="29"/>
+      <c r="Q21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.20720681025329701</v>
+      </c>
+      <c r="X21" s="3">
+        <v>8.9743801136487097E-2</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-0.30993865490371902</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0.57193314158837305</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.18007701030773701</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0.20565401777318201</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>-0.74967354585665102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="3">
+        <v>120</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.27764981805047401</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.50871876460494003</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.63868642601622605</v>
+      </c>
+      <c r="G22" s="19">
+        <v>6.8737560665830796E-2</v>
+      </c>
+      <c r="H22" s="19">
+        <v>-2.1744873587466601E-2</v>
+      </c>
+      <c r="I22" s="19">
+        <v>-8.3302866919303004E-19</v>
+      </c>
+      <c r="J22" s="19">
+        <v>-5.25162212360143E-2</v>
+      </c>
+      <c r="K22" s="19">
+        <v>-2.54136989230602E-17</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0.99998082888365902</v>
+      </c>
+      <c r="M22" s="19">
+        <v>1.00754652670929</v>
+      </c>
+      <c r="N22" s="29"/>
+      <c r="Q22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1.12280061570503E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="Q23" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="29"/>
+      <c r="V24" s="2"/>
+      <c r="W24" t="s">
+        <v>15</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>5</v>
+      </c>
+      <c r="AC24">
+        <v>6</v>
+      </c>
+      <c r="AD24">
+        <v>7</v>
+      </c>
+      <c r="AE24">
+        <v>8</v>
+      </c>
+      <c r="AF24">
+        <v>9</v>
+      </c>
+      <c r="AG24">
+        <v>10</v>
+      </c>
+      <c r="AH24">
+        <v>11</v>
+      </c>
+      <c r="AI24">
+        <v>12</v>
+      </c>
+      <c r="AJ24">
+        <v>13</v>
+      </c>
+      <c r="AK24">
+        <v>14</v>
+      </c>
+      <c r="AL24">
+        <v>15</v>
+      </c>
+      <c r="AM24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="2">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.28079799244321602</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.58137311717906903</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0.65130613065614895</v>
+      </c>
+      <c r="G25" s="19">
+        <v>8.8624338664887295E-2</v>
+      </c>
+      <c r="H25" s="19">
+        <v>-4.9282714790983397E-3</v>
+      </c>
+      <c r="I25" s="19">
+        <v>-3.1895533848629101E-18</v>
+      </c>
+      <c r="J25" s="19">
+        <v>-2.2979499085714301E-2</v>
+      </c>
+      <c r="K25" s="19">
+        <v>7.8062556418956304E-18</v>
+      </c>
+      <c r="L25" s="19">
+        <v>1.0023510714919599</v>
+      </c>
+      <c r="M25" s="19">
+        <v>1.01046894074951</v>
+      </c>
+      <c r="N25" s="29"/>
+      <c r="P25" t="s">
+        <v>137</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W25" s="2"/>
+      <c r="X25" s="19">
+        <v>0.71187347465492701</v>
+      </c>
+      <c r="Y25" s="19">
+        <v>1.0693202825131101</v>
+      </c>
+      <c r="Z25" s="19">
+        <v>1.56456134999693</v>
+      </c>
+      <c r="AA25" s="19">
+        <v>0.968535090133823</v>
+      </c>
+      <c r="AB25" s="19">
+        <v>1.1398783342565999</v>
+      </c>
+      <c r="AC25" s="19">
+        <v>0.92962941416420097</v>
+      </c>
+      <c r="AD25" s="19">
+        <v>0.81654302851472504</v>
+      </c>
+      <c r="AE25" s="19">
+        <v>1.3159026238884299</v>
+      </c>
+      <c r="AF25" s="19">
+        <v>0.76828076218042796</v>
+      </c>
+      <c r="AG25" s="19">
+        <v>0.99982151335349301</v>
+      </c>
+      <c r="AH25" s="19">
+        <v>1.15776534903107</v>
+      </c>
+      <c r="AI25" s="19">
+        <v>1.23008233331965</v>
+      </c>
+      <c r="AJ25" s="19">
+        <v>1.02101966450786</v>
+      </c>
+      <c r="AK25" s="19">
+        <v>0.68083604901520001</v>
+      </c>
+      <c r="AL25" s="19">
+        <v>1.15612640234993</v>
+      </c>
+      <c r="AM25" s="19">
+        <v>0.86602635868098699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="2">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.225972140739052</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0.46322137119197998</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0.64905378611547204</v>
+      </c>
+      <c r="G26" s="19">
+        <v>6.9719401782332796E-2</v>
+      </c>
+      <c r="H26" s="19">
+        <v>7.3169033380917504E-3</v>
+      </c>
+      <c r="I26" s="19">
+        <v>7.0600309091372303E-18</v>
+      </c>
+      <c r="J26" s="19">
+        <v>5.7827598121102899E-2</v>
+      </c>
+      <c r="K26" s="19">
+        <v>-1.5612511283791201E-18</v>
+      </c>
+      <c r="L26" s="19">
+        <v>1.00196404991031</v>
+      </c>
+      <c r="M26" s="19">
+        <v>1.0095675648453399</v>
+      </c>
+      <c r="P26" t="s">
+        <v>138</v>
+      </c>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="2">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.33448606070307302</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1.07139265679732</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0.91664734721305496</v>
+      </c>
+      <c r="G27" s="19">
+        <v>7.3531608307410498E-2</v>
+      </c>
+      <c r="H27" s="19">
+        <v>-9.6056097787686895E-3</v>
+      </c>
+      <c r="I27" s="19">
+        <v>-2.6411164921746799E-18</v>
+      </c>
+      <c r="J27" s="19">
+        <v>6.9321106084177997E-3</v>
+      </c>
+      <c r="K27" s="19">
+        <v>-9.1940344226770696E-18</v>
+      </c>
+      <c r="L27" s="19">
+        <v>1.0018132311260699</v>
+      </c>
+      <c r="M27" s="19">
+        <v>1.0090211604713899</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1</v>
+      </c>
+      <c r="X27" s="19">
+        <v>-0.48146592172718</v>
+      </c>
+      <c r="Y27" s="19">
+        <v>-3.3894617067079399E-2</v>
+      </c>
+      <c r="Z27" s="19">
+        <v>-0.86973733920308405</v>
+      </c>
+      <c r="AA27" s="19">
+        <v>-0.58215137561629604</v>
+      </c>
+      <c r="AB27" s="19">
+        <v>-0.136731402670007</v>
+      </c>
+      <c r="AC27" s="19">
+        <v>0.47494073185102598</v>
+      </c>
+      <c r="AD27" s="19">
+        <v>-0.28915573518086701</v>
+      </c>
+      <c r="AE27" s="19">
+        <v>3.46177054559084E-2</v>
+      </c>
+      <c r="AF27" s="19">
+        <v>-0.82248827174498795</v>
+      </c>
+      <c r="AG27" s="19">
+        <v>-0.30665135728943099</v>
+      </c>
+      <c r="AH27" s="36">
+        <v>-1.04747371968679</v>
+      </c>
+      <c r="AI27" s="37">
+        <v>0.68166340355840804</v>
+      </c>
+      <c r="AJ27" s="38">
+        <v>-0.270122867326056</v>
+      </c>
+      <c r="AK27" s="39">
+        <v>-8.9262652667477793E-2</v>
+      </c>
+      <c r="AL27" s="40">
+        <v>-0.21644157791659199</v>
+      </c>
+      <c r="AM27" s="41">
+        <v>-0.106617013766833</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="A28" s="2">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.24012820806250501</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0.36187883067914201</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0.641691392181026</v>
+      </c>
+      <c r="G28" s="19">
+        <v>7.8791317176950898E-2</v>
+      </c>
+      <c r="H28" s="19">
+        <v>-2.9856171711371702E-4</v>
+      </c>
+      <c r="I28" s="19">
+        <v>-2.9586804378729599E-18</v>
+      </c>
+      <c r="J28" s="19">
+        <v>6.4378763511548906E-2</v>
+      </c>
+      <c r="K28" s="19">
+        <v>4.8572257327350603E-18</v>
+      </c>
+      <c r="L28" s="19">
+        <v>1.0036356340044901</v>
+      </c>
+      <c r="M28" s="19">
+        <v>1.0146627892050799</v>
+      </c>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2">
+        <v>2</v>
+      </c>
+      <c r="X28" s="19">
+        <v>-0.46409804021283002</v>
+      </c>
+      <c r="Y28" s="19">
+        <v>0.27879973534338898</v>
+      </c>
+      <c r="Z28" s="19">
+        <v>-0.92082505619296195</v>
+      </c>
+      <c r="AA28" s="19">
+        <v>-0.90195048948394796</v>
+      </c>
+      <c r="AB28" s="19">
+        <v>-0.22645140931722299</v>
+      </c>
+      <c r="AC28" s="19">
+        <v>0.13844303923339901</v>
+      </c>
+      <c r="AD28" s="19">
+        <v>-0.432537234288563</v>
+      </c>
+      <c r="AE28" s="19">
+        <v>0.34797949183733301</v>
+      </c>
+      <c r="AF28" s="19">
+        <v>-0.83872701581266096</v>
+      </c>
+      <c r="AG28" s="19">
+        <v>-0.50518151693315205</v>
+      </c>
+      <c r="AH28" s="36">
+        <v>-0.85470487491427405</v>
+      </c>
+      <c r="AI28" s="37">
+        <v>0.27509934507253497</v>
+      </c>
+      <c r="AJ28" s="38">
+        <v>5.1483469153192699E-3</v>
+      </c>
+      <c r="AK28" s="39">
+        <v>-0.15397149768961599</v>
+      </c>
+      <c r="AL28" s="40">
+        <v>-0.23197265550365601</v>
+      </c>
+      <c r="AM28" s="41">
+        <v>5.1231287725315301E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="A29" s="2">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.284487376521113</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.41340674355712298</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0.88954379542435402</v>
+      </c>
+      <c r="G29" s="19">
+        <v>8.5770216295986093E-2</v>
+      </c>
+      <c r="H29" s="19">
+        <v>7.2504906817158696E-3</v>
+      </c>
+      <c r="I29" s="19">
+        <v>-5.2766764482153897E-18</v>
+      </c>
+      <c r="J29" s="19">
+        <v>-3.9931940412692497E-2</v>
+      </c>
+      <c r="K29" s="19">
+        <v>-2.77555756156289E-18</v>
+      </c>
+      <c r="L29" s="19">
+        <v>1.00179918143363</v>
+      </c>
+      <c r="M29" s="19">
+        <v>1.0089348732994201</v>
+      </c>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2">
+        <v>3</v>
+      </c>
+      <c r="X29" s="19">
+        <v>-0.45460754062900899</v>
+      </c>
+      <c r="Y29" s="19">
+        <v>0.24816407064153301</v>
+      </c>
+      <c r="Z29" s="19">
+        <v>-1.0156092518520099</v>
+      </c>
+      <c r="AA29" s="19">
+        <v>-0.56011040074124196</v>
+      </c>
+      <c r="AB29" s="19">
+        <v>-0.23109197274735599</v>
+      </c>
+      <c r="AC29" s="19">
+        <v>-5.2844899020035203E-2</v>
+      </c>
+      <c r="AD29" s="19">
+        <v>-0.47229047302757399</v>
+      </c>
+      <c r="AE29" s="19">
+        <v>0.366982358928783</v>
+      </c>
+      <c r="AF29" s="19">
+        <v>-0.72510210562275601</v>
+      </c>
+      <c r="AG29" s="19">
+        <v>-0.63546393355407205</v>
+      </c>
+      <c r="AH29" s="36">
+        <v>-3.3243850686896899E-2</v>
+      </c>
+      <c r="AI29" s="37">
+        <v>0.15930734824467599</v>
+      </c>
+      <c r="AJ29" s="38">
+        <v>-0.45472820442243</v>
+      </c>
+      <c r="AK29" s="39">
+        <v>-0.179706118940234</v>
+      </c>
+      <c r="AL29" s="40">
+        <v>-0.22476625856858001</v>
+      </c>
+      <c r="AM29" s="41">
+        <v>-7.7236245933909306E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
+      <c r="A30" s="2">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.244586034003931</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.59066426141057904</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0.95244148135463502</v>
+      </c>
+      <c r="G30" s="19">
+        <v>7.1997382398300405E-2</v>
+      </c>
+      <c r="H30" s="19">
+        <v>-8.7649382670095704E-4</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-1.68850484086556E-17</v>
+      </c>
+      <c r="J30" s="19">
+        <v>2.5429404812871401E-2</v>
+      </c>
+      <c r="K30" s="19">
+        <v>1.8041124150158801E-17</v>
+      </c>
+      <c r="L30" s="19">
+        <v>1.0020442381608601</v>
+      </c>
+      <c r="M30" s="19">
+        <v>1.00971868716071</v>
+      </c>
+      <c r="W30" s="2">
+        <v>4</v>
+      </c>
+      <c r="X30" s="19">
+        <v>-0.71879750693912903</v>
+      </c>
+      <c r="Y30" s="19">
+        <v>0.213595544989371</v>
+      </c>
+      <c r="Z30" s="19">
+        <v>-0.90207579802170701</v>
+      </c>
+      <c r="AA30" s="19">
+        <v>-0.34876806773015501</v>
+      </c>
+      <c r="AB30" s="19">
+        <v>-0.32766230501267302</v>
+      </c>
+      <c r="AC30" s="19">
+        <v>4.0114721148092503E-2</v>
+      </c>
+      <c r="AD30" s="19">
+        <v>-0.40245630372563301</v>
+      </c>
+      <c r="AE30" s="19">
+        <v>0.316694572331298</v>
+      </c>
+      <c r="AF30" s="19">
+        <v>-0.826085670996345</v>
+      </c>
+      <c r="AG30" s="19">
+        <v>-0.493582257404029</v>
+      </c>
+      <c r="AH30" s="36">
+        <v>0.21840025153182899</v>
+      </c>
+      <c r="AI30" s="37">
+        <v>-2.1167213440965001E-2</v>
+      </c>
+      <c r="AJ30" s="38">
+        <v>7.7863116774793503E-2</v>
+      </c>
+      <c r="AK30" s="39">
+        <v>-0.15082738989334499</v>
+      </c>
+      <c r="AL30" s="40">
+        <v>-0.41767706828741402</v>
+      </c>
+      <c r="AM30" s="41">
+        <v>-3.4510079958779902E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="A31" s="2">
+        <v>90</v>
+      </c>
+      <c r="B31" s="3">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.28458816589046099</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.25173404436720498</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0.63878122562628004</v>
+      </c>
+      <c r="G31" s="19">
+        <v>8.0321635861489799E-2</v>
+      </c>
+      <c r="H31" s="19">
+        <v>-9.2654461182485708E-3</v>
+      </c>
+      <c r="I31" s="19">
+        <v>1.7252367069674401E-19</v>
+      </c>
+      <c r="J31" s="19">
+        <v>0.194314979401704</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1.0408340855860799E-17</v>
+      </c>
+      <c r="L31" s="19">
+        <v>1.00212606119982</v>
+      </c>
+      <c r="M31" s="19">
+        <v>1.01183011156989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="A32" s="2">
+        <v>90</v>
+      </c>
+      <c r="B32" s="3">
+        <v>15</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.237034361727952</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0.43076337641352902</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0.74409343773032199</v>
+      </c>
+      <c r="G32" s="19">
+        <v>5.9764478850223499E-2</v>
+      </c>
+      <c r="H32" s="19">
+        <v>1.9125876891182201E-2</v>
+      </c>
+      <c r="I32" s="19">
+        <v>4.0732060369397502E-18</v>
+      </c>
+      <c r="J32" s="19">
+        <v>-2.4903842435834399E-2</v>
+      </c>
+      <c r="K32" s="19">
+        <v>-3.1918911957973297E-17</v>
+      </c>
+      <c r="L32" s="19">
+        <v>1.0019684309836701</v>
+      </c>
+      <c r="M32" s="19">
+        <v>1.0096548405100101</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
+      <c r="A33" s="2">
+        <v>90</v>
+      </c>
+      <c r="B33" s="3">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.29483800445462699</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0.48729018663921803</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0.86091952686383</v>
+      </c>
+      <c r="G33" s="19">
+        <v>6.5711389810718293E-2</v>
+      </c>
+      <c r="H33" s="19">
+        <v>1.31696216203539E-2</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-4.5077060573800402E-18</v>
+      </c>
+      <c r="J33" s="19">
+        <v>-0.107838642263208</v>
+      </c>
+      <c r="K33" s="19">
+        <v>1.27935856353289E-17</v>
+      </c>
+      <c r="L33" s="19">
+        <v>1.00154027099008</v>
+      </c>
+      <c r="M33" s="19">
+        <v>1.0113562911198499</v>
+      </c>
+      <c r="W33" s="2">
+        <v>2</v>
+      </c>
+      <c r="X33" s="19">
+        <v>-2.1259221246215598</v>
+      </c>
+      <c r="Y33" s="19">
+        <v>-0.86227063998443298</v>
+      </c>
+      <c r="Z33" s="19">
+        <v>-0.92236221144214303</v>
+      </c>
+      <c r="AA33" s="19">
+        <v>-1.6206184698460799</v>
+      </c>
+      <c r="AB33" s="19">
+        <v>-2.2970653590966101</v>
+      </c>
+      <c r="AC33" s="19">
+        <v>-1.6332749568581399</v>
+      </c>
+      <c r="AD33" s="19">
+        <v>-1.18263706029059</v>
+      </c>
+      <c r="AE33" s="19">
+        <v>-1.4109329572023901</v>
+      </c>
+      <c r="AF33" s="19">
+        <v>-1.00306938384755</v>
+      </c>
+      <c r="AG33" s="19">
+        <v>-1.51637994985769</v>
+      </c>
+      <c r="AH33" s="19">
+        <v>-1.6571342502361699</v>
+      </c>
+      <c r="AI33" s="19">
+        <v>-0.95592464854996395</v>
+      </c>
+      <c r="AJ33" s="19">
+        <v>-1.07863493735049</v>
+      </c>
+      <c r="AK33" s="19">
+        <v>-1.6853223030192901</v>
+      </c>
+      <c r="AL33" s="19">
+        <v>0.187022324222062</v>
+      </c>
+      <c r="AM33" s="19">
+        <v>-0.896442143454382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="A34" s="2">
+        <v>90</v>
+      </c>
+      <c r="B34" s="3">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.240817048447</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.47391415776387102</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0.88288085810989403</v>
+      </c>
+      <c r="G34" s="19">
+        <v>5.0436829494738503E-2</v>
+      </c>
+      <c r="H34" s="19">
+        <v>3.31553952746955E-3</v>
+      </c>
+      <c r="I34" s="19">
+        <v>3.3753924134904801E-18</v>
+      </c>
+      <c r="J34" s="19">
+        <v>-3.29579623534485E-2</v>
+      </c>
+      <c r="K34" s="19">
+        <v>-6.4184768611142097E-18</v>
+      </c>
+      <c r="L34" s="19">
+        <v>1.0028923536252701</v>
+      </c>
+      <c r="M34" s="19">
+        <v>1.01229119819312</v>
+      </c>
+      <c r="W34" s="2">
+        <v>3</v>
+      </c>
+      <c r="X34" s="19">
+        <v>-0.22990657667457501</v>
+      </c>
+      <c r="Y34" s="19">
+        <v>-0.50597646845640398</v>
+      </c>
+      <c r="Z34" s="19">
+        <v>-1.25871538512154</v>
+      </c>
+      <c r="AA34" s="19">
+        <v>-1.27269092955914</v>
+      </c>
+      <c r="AB34" s="19">
+        <v>-0.27970713685765702</v>
+      </c>
+      <c r="AC34" s="19">
+        <v>-0.64439647261350796</v>
+      </c>
+      <c r="AD34" s="19">
+        <v>-8.6654656867717603E-2</v>
+      </c>
+      <c r="AE34" s="19">
+        <v>-0.64733379547604297</v>
+      </c>
+      <c r="AF34" s="19">
+        <v>-0.44952101767338498</v>
+      </c>
+      <c r="AG34" s="19">
+        <v>-0.12733617001662501</v>
+      </c>
+      <c r="AH34" s="19">
+        <v>-0.658135901913659</v>
+      </c>
+      <c r="AI34" s="19">
+        <v>-9.6555327645774E-2</v>
+      </c>
+      <c r="AJ34" s="19">
+        <v>-0.70284957208203103</v>
+      </c>
+      <c r="AK34" s="19">
+        <v>-0.70754799147306202</v>
+      </c>
+      <c r="AL34" s="19">
+        <v>-1.1988028116262499</v>
+      </c>
+      <c r="AM34" s="19">
+        <v>-0.45725691305221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="A35" s="2">
+        <v>90</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.29668176145846298</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0.31949230036392101</v>
+      </c>
+      <c r="F35" s="20">
+        <v>0.90054351230975804</v>
+      </c>
+      <c r="G35" s="19">
+        <v>4.8811724192124997E-2</v>
+      </c>
+      <c r="H35" s="19">
+        <v>1.21943603648691E-2</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-1.7979460151598599E-18</v>
+      </c>
+      <c r="J35" s="19">
+        <v>-0.261333772400549</v>
+      </c>
+      <c r="K35" s="19">
+        <v>1.09287578986539E-17</v>
+      </c>
+      <c r="L35" s="19">
+        <v>1.00175516380023</v>
+      </c>
+      <c r="M35" s="19">
+        <v>1.01162782305909</v>
+      </c>
+      <c r="W35" s="2">
+        <v>4</v>
+      </c>
+      <c r="X35" s="19">
+        <v>0.62950461757961296</v>
+      </c>
+      <c r="Y35" s="19">
+        <v>0.54011888821568199</v>
+      </c>
+      <c r="Z35" s="19">
+        <v>0.38648413372511897</v>
+      </c>
+      <c r="AA35" s="19">
+        <v>0.77189828765649104</v>
+      </c>
+      <c r="AB35" s="19">
+        <v>0.79845473771481401</v>
+      </c>
+      <c r="AC35" s="19">
+        <v>0.48196435826826001</v>
+      </c>
+      <c r="AD35" s="19">
+        <v>0.70629053777835205</v>
+      </c>
+      <c r="AE35" s="19">
+        <v>0.74836011073993502</v>
+      </c>
+      <c r="AF35" s="19">
+        <v>0.47148403601431199</v>
+      </c>
+      <c r="AG35" s="19">
+        <v>0.38443000671869798</v>
+      </c>
+      <c r="AH35" s="19">
+        <v>0.91631341181425696</v>
+      </c>
+      <c r="AI35" s="19">
+        <v>0.20754601558251801</v>
+      </c>
+      <c r="AJ35" s="19">
+        <v>0.73332773077116797</v>
+      </c>
+      <c r="AK35" s="19">
+        <v>0.42416997741331602</v>
+      </c>
+      <c r="AL35" s="19">
+        <v>1.37213606168056</v>
+      </c>
+      <c r="AM35" s="19">
+        <v>6.2737265644588702E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36" s="2">
+        <v>90</v>
+      </c>
+      <c r="B36" s="3">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.23479252980346399</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0.34543631150953202</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0.77421729376541204</v>
+      </c>
+      <c r="G36" s="19">
+        <v>6.1933459737729499E-2</v>
+      </c>
+      <c r="H36" s="19">
+        <v>-1.7097698503601599E-2</v>
+      </c>
+      <c r="I36" s="19">
+        <v>2.4054380449306601E-18</v>
+      </c>
+      <c r="J36" s="19">
+        <v>2.1661170286716099E-2</v>
+      </c>
+      <c r="K36" s="19">
+        <v>2.2551405187698401E-18</v>
+      </c>
+      <c r="L36" s="19">
+        <v>1.00236473985916</v>
+      </c>
+      <c r="M36" s="19">
+        <v>1.01230426727613</v>
+      </c>
+      <c r="W36" s="2">
+        <v>5</v>
+      </c>
+      <c r="X36" s="19">
+        <v>1.7263240837165199</v>
+      </c>
+      <c r="Y36" s="19">
+        <v>0.82812822022515498</v>
+      </c>
+      <c r="Z36" s="19">
+        <v>1.79459346283856</v>
+      </c>
+      <c r="AA36" s="19">
+        <v>2.12141111174873</v>
+      </c>
+      <c r="AB36" s="19">
+        <v>1.77831775823945</v>
+      </c>
+      <c r="AC36" s="19">
+        <v>1.79570707120339</v>
+      </c>
+      <c r="AD36" s="19">
+        <v>0.56300117937995398</v>
+      </c>
+      <c r="AE36" s="19">
+        <v>1.3099066419384999</v>
+      </c>
+      <c r="AF36" s="19">
+        <v>0.981106365506624</v>
+      </c>
+      <c r="AG36" s="19">
+        <v>1.2592861131556099</v>
+      </c>
+      <c r="AH36" s="19">
+        <v>1.39895674033557</v>
+      </c>
+      <c r="AI36" s="19">
+        <v>0.84493396061322001</v>
+      </c>
+      <c r="AJ36" s="19">
+        <v>1.0481567786613599</v>
+      </c>
+      <c r="AK36" s="19">
+        <v>1.96870031707903</v>
+      </c>
+      <c r="AL36" s="19">
+        <v>-0.36035557427637499</v>
+      </c>
+      <c r="AM36" s="19">
+        <v>1.2909617908619999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="A37" s="2">
+        <v>120</v>
+      </c>
+      <c r="B37" s="3">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0.278510276480394</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0.26261228664411701</v>
+      </c>
+      <c r="F37" s="20">
+        <v>0.69006871394535096</v>
+      </c>
+      <c r="G37" s="19">
+        <v>5.0963009403136902E-2</v>
+      </c>
+      <c r="H37" s="19">
+        <v>-1.02797732884536E-2</v>
+      </c>
+      <c r="I37" s="19">
+        <v>4.8597244799294197E-19</v>
+      </c>
+      <c r="J37" s="19">
+        <v>-1.3978887681620299E-4</v>
+      </c>
+      <c r="K37" s="19">
+        <v>4.16333634234435E-18</v>
+      </c>
+      <c r="L37" s="19">
+        <v>1.0005829773589601</v>
+      </c>
+      <c r="M37" s="19">
+        <v>1.0067508019523499</v>
+      </c>
+      <c r="AL37" s="34"/>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" s="2">
+        <v>120</v>
+      </c>
+      <c r="B38" s="3">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0.23641711562874099</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0.55796215063136401</v>
+      </c>
+      <c r="F38" s="20">
+        <v>0.65950333515346604</v>
+      </c>
+      <c r="G38" s="19">
+        <v>4.9676209189990099E-2</v>
+      </c>
+      <c r="H38" s="19">
+        <v>-9.4680365266507204E-3</v>
+      </c>
+      <c r="I38" s="19">
+        <v>4.5289835250150696E-18</v>
+      </c>
+      <c r="J38" s="19">
+        <v>7.2553870881835597E-2</v>
+      </c>
+      <c r="K38" s="19">
+        <v>-1.64798730217798E-18</v>
+      </c>
+      <c r="L38" s="19">
+        <v>1.0016395073061699</v>
+      </c>
+      <c r="M38" s="19">
+        <v>1.0095054132702399</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" s="2">
+        <v>120</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0.29186772406930001</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0.425690557641064</v>
+      </c>
+      <c r="F39" s="20">
+        <v>0.801987365647853</v>
+      </c>
+      <c r="G39" s="19">
+        <v>6.2503310479304894E-2</v>
+      </c>
+      <c r="H39" s="19">
+        <v>6.5522520905533495E-4</v>
+      </c>
+      <c r="I39" s="19">
+        <v>4.0942184538483803E-18</v>
+      </c>
+      <c r="J39" s="19">
+        <v>1.29388741854397E-2</v>
+      </c>
+      <c r="K39" s="19">
+        <v>1.11022302462516E-17</v>
+      </c>
+      <c r="L39" s="19">
+        <v>1.00069569618889</v>
+      </c>
+      <c r="M39" s="19">
+        <v>1.0083708282972299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="A40" s="2">
+        <v>120</v>
+      </c>
+      <c r="B40" s="3">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0.23350792989025601</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0.60572788908842601</v>
+      </c>
+      <c r="F40" s="20">
+        <v>0.84012893670669997</v>
+      </c>
+      <c r="G40" s="19">
+        <v>5.5010289684205502E-2</v>
+      </c>
+      <c r="H40" s="19">
+        <v>6.8316204649336004E-3</v>
+      </c>
+      <c r="I40" s="19">
+        <v>8.46897421982739E-19</v>
+      </c>
+      <c r="J40" s="19">
+        <v>-0.11245449654435501</v>
+      </c>
+      <c r="K40" s="19">
+        <v>-1.15359111152458E-17</v>
+      </c>
+      <c r="L40" s="19">
+        <v>1.0016705683727301</v>
+      </c>
+      <c r="M40" s="19">
+        <v>1.0098040509917401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="A41" s="2">
+        <v>120</v>
+      </c>
+      <c r="B41" s="3">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3">
+        <v>10</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0.27817889351791403</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0.31475360910977201</v>
+      </c>
+      <c r="F41" s="20">
+        <v>0.93213898015577401</v>
+      </c>
+      <c r="G41" s="19">
+        <v>5.36695799098732E-2</v>
+      </c>
+      <c r="H41" s="19">
+        <v>-1.24122135303539E-2</v>
+      </c>
+      <c r="I41" s="19">
+        <v>-5.8912412030957401E-19</v>
+      </c>
+      <c r="J41" s="19">
+        <v>-7.96760119152429E-2</v>
+      </c>
+      <c r="K41" s="19">
+        <v>-3.9898639947466498E-18</v>
+      </c>
+      <c r="L41" s="19">
+        <v>1.0010609822703</v>
+      </c>
+      <c r="M41" s="19">
+        <v>1.0087556257689501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39">
+      <c r="A42" s="2">
+        <v>120</v>
+      </c>
+      <c r="B42" s="3">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.23725512660727399</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.433811937545244</v>
+      </c>
+      <c r="F42" s="20">
+        <v>0.88594581153159102</v>
+      </c>
+      <c r="G42" s="19">
+        <v>4.4637923970146001E-2</v>
+      </c>
+      <c r="H42" s="19">
+        <v>-8.0528264638870094E-3</v>
+      </c>
+      <c r="I42" s="19">
+        <v>-5.5738833687479802E-18</v>
+      </c>
+      <c r="J42" s="19">
+        <v>-6.5331977340728903E-2</v>
+      </c>
+      <c r="K42" s="19">
+        <v>-8.6736173798850206E-20</v>
+      </c>
+      <c r="L42" s="19">
+        <v>1.0037407055538401</v>
+      </c>
+      <c r="M42" s="19">
+        <v>1.0160293437572401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39">
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="A46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
+      <c r="A47" s="2">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
+      <c r="D47" s="13">
+        <v>0.23800672984063001</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0.26658956733554401</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0.202534968164791</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.40172446397113198</v>
+      </c>
+      <c r="H47" s="13">
+        <v>2.2249971691260501E-2</v>
+      </c>
+      <c r="I47" s="13">
+        <v>1.9212921896682E-2</v>
+      </c>
+      <c r="J47" s="13">
+        <v>6.4945288466180806E-2</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1.3010426069826099E-18</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1.0062824725095301</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1.02600358271202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="A48" s="2">
+        <v>50</v>
+      </c>
+      <c r="B48" s="3">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5</v>
+      </c>
+      <c r="D48" s="13">
+        <v>0.30098717066667602</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0.23591821946795599</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0.30532985092319198</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.38313889710980398</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-1.47933096233407E-2</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-9.3203704860725996E-4</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-2.8470722081945801E-2</v>
+      </c>
+      <c r="K48" s="4">
+        <v>-8.8181776695487596E-18</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1.00727006398041</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1.0244587864001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3">
+        <v>10</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0.316954228058065</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0.36308390921476102</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0.361905831795092</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.405076858456208</v>
+      </c>
+      <c r="H49" s="13">
+        <v>7.8210308773227002E-3</v>
+      </c>
+      <c r="I49" s="13">
+        <v>3.5713384171738201E-2</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-1.5092220406270101E-2</v>
+      </c>
+      <c r="K49" s="4">
+        <v>5.9992520210864697E-18</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1.00426726170264</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1.0238710998037199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0.25208619001500399</v>
+      </c>
+      <c r="E50" s="13">
+        <v>0.29693966591026799</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0.248799595254839</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.37126525430884899</v>
+      </c>
+      <c r="H50" s="13">
+        <v>3.2227363033082601E-2</v>
+      </c>
+      <c r="I50" s="13">
+        <v>1.1151831734871E-2</v>
+      </c>
+      <c r="J50" s="13">
+        <v>6.2030437405142302E-2</v>
+      </c>
+      <c r="K50" s="4">
+        <v>4.4813689796067504E-18</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1.0125190297229301</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1.0861362365387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0.245048514592725</v>
+      </c>
+      <c r="E51" s="13">
+        <v>0.231443016677399</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0.189467308444665</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.34325067148764299</v>
+      </c>
+      <c r="H51" s="13">
+        <v>2.7734498326832599E-2</v>
+      </c>
+      <c r="I51" s="13">
+        <v>8.3967468224183696E-3</v>
+      </c>
+      <c r="J51" s="13">
+        <v>5.1395491470773201E-3</v>
+      </c>
+      <c r="K51" s="4">
+        <v>-6.9388939039072199E-18</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1.01059524573398</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1.0335468005759501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3">
+        <v>10</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0.24107637671138199</v>
+      </c>
+      <c r="E52" s="13">
+        <v>0.26079945941773802</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0.33017422465428797</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.39372227366012202</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1.74103751971416E-2</v>
+      </c>
+      <c r="I52" s="13">
+        <v>1.9662861483485301E-2</v>
+      </c>
+      <c r="J52" s="13">
+        <v>2.6157470459204302E-2</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1.0842021724855E-18</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1.0077865388977501</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1.02928568190952</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2">
+        <v>100</v>
+      </c>
+      <c r="B53" s="3">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0.25925392519921497</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.188977138832471</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0.12533150975832499</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.280303404821173</v>
+      </c>
+      <c r="H53" s="13">
+        <v>-1.9149448380611899E-2</v>
+      </c>
+      <c r="I53" s="13">
+        <v>1.04692381229484E-4</v>
+      </c>
+      <c r="J53" s="13">
+        <v>-8.5201551873198902E-3</v>
+      </c>
+      <c r="K53" s="4">
+        <v>8.6736173798839295E-19</v>
+      </c>
+      <c r="L53" s="3">
+        <v>1.0335707957301901</v>
+      </c>
+      <c r="M53" s="3">
+        <v>1.23026286272984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2">
+        <v>100</v>
+      </c>
+      <c r="B54" s="3">
+        <v>10</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0.27257523961109698</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0.19245959791022901</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0.13325375708943901</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.26820918926683801</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1.00631636524599E-2</v>
+      </c>
+      <c r="I54" s="13">
+        <v>-3.4370073235118499E-3</v>
+      </c>
+      <c r="J54" s="13">
+        <v>3.7664612752103701E-3</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1.0950441942103599E-17</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1.01860785784156</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1.1581341379269801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2">
+        <v>100</v>
+      </c>
+      <c r="B55" s="3">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3">
+        <v>10</v>
+      </c>
+      <c r="D55" s="13">
+        <v>0.26464046943210001</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0.17815895870541401</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0.185486776255474</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.29821944290921398</v>
+      </c>
+      <c r="H55" s="13">
+        <v>-2.35891144827199E-2</v>
+      </c>
+      <c r="I55" s="13">
+        <v>2.1907368710976101E-2</v>
+      </c>
+      <c r="J55" s="13">
+        <v>-2.9559108102827199E-2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>-1.3010426069825999E-18</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1.0059714849650001</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1.0222091445266099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2">
+        <v>100</v>
+      </c>
+      <c r="B56" s="3">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0.23196637434600501</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0.22192446731632201</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0.19534481293780101</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.30360859202741097</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1.92547959750664E-3</v>
+      </c>
+      <c r="I56" s="13">
+        <v>1.6128221571730699E-2</v>
+      </c>
+      <c r="J56" s="13">
+        <v>-1.29134701634532E-3</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1.9515639104738799E-18</v>
+      </c>
+      <c r="L56" s="3">
+        <v>1.00452064151073</v>
+      </c>
+      <c r="M56" s="3">
+        <v>1.02577233979979</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2">
+        <v>100</v>
+      </c>
+      <c r="B57" s="3">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3">
+        <v>5</v>
+      </c>
+      <c r="D57" s="13">
+        <v>0.23102704020703599</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0.20162169987282999</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0.17506193742655399</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.30685892280523103</v>
+      </c>
+      <c r="H57" s="13">
+        <v>2.7002792090656001E-2</v>
+      </c>
+      <c r="I57" s="13">
+        <v>8.9805322787849494E-3</v>
+      </c>
+      <c r="J57" s="13">
+        <v>5.7046334543498001E-2</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1.7347234759768102E-18</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1.00747908615534</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1.02963986756677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2">
+        <v>100</v>
+      </c>
+      <c r="B58" s="3">
+        <v>15</v>
+      </c>
+      <c r="C58" s="3">
+        <v>10</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0.237842382241683</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0.25176752266607499</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0.401418057983498</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0.38261091099821198</v>
+      </c>
+      <c r="H58" s="13">
+        <v>1.2591765625792299E-2</v>
+      </c>
+      <c r="I58" s="13">
+        <v>2.3712468527091E-2</v>
+      </c>
+      <c r="J58" s="13">
+        <v>-5.0894787184215399E-3</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1.8070036208091499E-18</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1.0036966632663</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1.0164156326891101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="3">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B5D9D-DC95-E543-B24D-F58D47733086}">
   <dimension ref="A1:AH219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M193" zoomScale="89" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y221" sqref="Y221"/>
+    <sheetView topLeftCell="R181" zoomScale="133" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Z189" sqref="Z189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7740,7 +11596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:16">
       <c r="B161" s="2">
         <v>60</v>
       </c>
@@ -7781,7 +11637,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:16">
       <c r="B162" s="2">
         <v>60</v>
       </c>
@@ -7822,7 +11678,7 @@
         <v>1.0289999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:16">
       <c r="B163" s="2">
         <v>60</v>
       </c>
@@ -7863,7 +11719,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:16">
       <c r="B164" s="2">
         <v>60</v>
       </c>
@@ -7904,7 +11760,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:16">
       <c r="B165" s="2">
         <v>60</v>
       </c>
@@ -7945,7 +11801,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:16">
       <c r="B166" s="2">
         <v>60</v>
       </c>
@@ -7986,7 +11842,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:16">
       <c r="B167" s="2">
         <v>90</v>
       </c>
@@ -8027,7 +11883,7 @@
         <v>1.014</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:16">
       <c r="B168" s="2">
         <v>90</v>
       </c>
@@ -8068,7 +11924,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:16">
       <c r="B169" s="2">
         <v>90</v>
       </c>
@@ -8109,7 +11965,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:16">
       <c r="B170" s="2">
         <v>90</v>
       </c>
@@ -8150,7 +12006,7 @@
         <v>1.0189999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:16">
       <c r="B171" s="2">
         <v>90</v>
       </c>
@@ -8191,7 +12047,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:16">
       <c r="B172" s="2">
         <v>90</v>
       </c>
@@ -8232,12 +12088,12 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:16">
       <c r="A173" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:16">
       <c r="B174" s="2">
         <v>60</v>
       </c>
@@ -8278,7 +12134,7 @@
         <v>1.0101054336886099</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:16">
       <c r="B175" s="2">
         <v>60</v>
       </c>
@@ -8318,8 +12174,11 @@
       <c r="N175" s="3">
         <v>1.0087093195151</v>
       </c>
-    </row>
-    <row r="176" spans="1:14">
+      <c r="P175" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
       <c r="B176" s="2">
         <v>60</v>
       </c>
@@ -8359,8 +12218,11 @@
       <c r="N176" s="3">
         <v>1.0117771891778</v>
       </c>
-    </row>
-    <row r="177" spans="1:22">
+      <c r="P176" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25">
       <c r="B177" s="2">
         <v>60</v>
       </c>
@@ -8400,8 +12262,11 @@
       <c r="N177" s="3">
         <v>1.0047073645653299</v>
       </c>
-    </row>
-    <row r="178" spans="1:22">
+      <c r="P177" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25">
       <c r="B178" s="2">
         <v>60</v>
       </c>
@@ -8441,8 +12306,11 @@
       <c r="N178" s="3">
         <v>1.0085889015696901</v>
       </c>
-    </row>
-    <row r="179" spans="1:22">
+      <c r="P178" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25">
       <c r="B179" s="2">
         <v>60</v>
       </c>
@@ -8483,7 +12351,7 @@
         <v>1.0047327473976899</v>
       </c>
     </row>
-    <row r="180" spans="1:22">
+    <row r="180" spans="1:25">
       <c r="B180" s="2">
         <v>90</v>
       </c>
@@ -8524,7 +12392,7 @@
         <v>1.0070947646694599</v>
       </c>
     </row>
-    <row r="181" spans="1:22">
+    <row r="181" spans="1:25">
       <c r="B181" s="2">
         <v>90</v>
       </c>
@@ -8565,7 +12433,7 @@
         <v>1.01863528145101</v>
       </c>
     </row>
-    <row r="182" spans="1:22">
+    <row r="182" spans="1:25">
       <c r="B182" s="2">
         <v>90</v>
       </c>
@@ -8606,7 +12474,7 @@
         <v>1.0074734514000201</v>
       </c>
     </row>
-    <row r="183" spans="1:22">
+    <row r="183" spans="1:25">
       <c r="B183" s="2">
         <v>90</v>
       </c>
@@ -8647,7 +12515,7 @@
         <v>1.0170844613199901</v>
       </c>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:25">
       <c r="B184" s="2">
         <v>90</v>
       </c>
@@ -8688,7 +12556,7 @@
         <v>1.0068956431829601</v>
       </c>
     </row>
-    <row r="185" spans="1:22">
+    <row r="185" spans="1:25">
       <c r="B185" s="2">
         <v>90</v>
       </c>
@@ -8729,34 +12597,37 @@
         <v>1.0082863224374501</v>
       </c>
     </row>
-    <row r="187" spans="1:22">
-      <c r="A187" s="25" t="s">
+    <row r="187" spans="1:25">
+      <c r="A187" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B187" s="25"/>
-      <c r="C187" s="25" t="s">
+      <c r="B187" s="24"/>
+      <c r="C187" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="25"/>
-      <c r="J187" s="25" t="s">
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="J187" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="T187" s="25" t="s">
+      <c r="T187" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="U187" s="25"/>
-    </row>
-    <row r="188" spans="1:22">
+      <c r="U187" s="24"/>
+    </row>
+    <row r="188" spans="1:25">
       <c r="A188" t="s">
         <v>88</v>
       </c>
       <c r="T188" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="189" spans="1:22">
+      <c r="X188" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -8781,8 +12652,11 @@
       <c r="V189" s="3">
         <v>3645.2468145708399</v>
       </c>
-    </row>
-    <row r="190" spans="1:22">
+      <c r="Y189" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25">
       <c r="A190" s="3" t="s">
         <v>50</v>
       </c>
@@ -8826,8 +12700,11 @@
       <c r="V190" s="3">
         <v>1.0181372579851999</v>
       </c>
-    </row>
-    <row r="191" spans="1:22">
+      <c r="Y190" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25">
       <c r="A191" s="3" t="s">
         <v>51</v>
       </c>
@@ -8871,8 +12748,11 @@
       <c r="V191" s="3">
         <v>1.0018484530618601</v>
       </c>
-    </row>
-    <row r="192" spans="1:22">
+      <c r="Y191" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25">
       <c r="A192" s="3" t="s">
         <v>52</v>
       </c>
@@ -8916,8 +12796,11 @@
       <c r="V192" s="3">
         <v>0.243846904313086</v>
       </c>
-    </row>
-    <row r="193" spans="1:33">
+      <c r="Y192" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30">
       <c r="A193" s="3" t="s">
         <v>53</v>
       </c>
@@ -8961,8 +12844,11 @@
       <c r="V193" s="3">
         <v>1.1345143738953799E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:33">
+      <c r="Y193" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30">
       <c r="A194" s="3" t="s">
         <v>54</v>
       </c>
@@ -9003,8 +12889,11 @@
       <c r="T194" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="195" spans="1:33">
+      <c r="X194" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30">
       <c r="A195" s="3" t="s">
         <v>68</v>
       </c>
@@ -9048,8 +12937,11 @@
       <c r="V195" s="3">
         <v>3436.6132260122999</v>
       </c>
-    </row>
-    <row r="196" spans="1:33">
+      <c r="Y195" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30">
       <c r="A196" t="s">
         <v>92</v>
       </c>
@@ -9059,8 +12951,11 @@
       <c r="V196" s="3">
         <v>1.0243306399515699</v>
       </c>
-    </row>
-    <row r="197" spans="1:33">
+      <c r="Y196" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -9076,8 +12971,11 @@
       <c r="V197" s="3">
         <v>1.0030115049849599</v>
       </c>
-    </row>
-    <row r="198" spans="1:33">
+      <c r="Y197" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30">
       <c r="A198" s="3" t="s">
         <v>50</v>
       </c>
@@ -9096,17 +12994,26 @@
       <c r="H198" s="3">
         <v>2907.9725044640099</v>
       </c>
-      <c r="J198" s="26"/>
-      <c r="K198" s="26"/>
-      <c r="L198" s="26"/>
+      <c r="J198" s="25"/>
+      <c r="K198" s="25"/>
+      <c r="L198" s="25"/>
       <c r="U198" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V198" s="3">
         <v>0.283854452522248</v>
       </c>
-    </row>
-    <row r="199" spans="1:33" ht="23">
+      <c r="Y198" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" ht="23">
       <c r="A199" s="3" t="s">
         <v>51</v>
       </c>
@@ -9125,18 +13032,27 @@
       <c r="H199" s="3">
         <v>1.0012263173942</v>
       </c>
-      <c r="J199" s="26"/>
-      <c r="K199" s="26"/>
-      <c r="L199" s="26"/>
+      <c r="J199" s="25"/>
+      <c r="K199" s="25"/>
+      <c r="L199" s="25"/>
       <c r="U199" s="3" t="s">
         <v>54</v>
       </c>
       <c r="V199" s="3">
         <v>1.2360208735067201E-2</v>
       </c>
-      <c r="AD199" s="28"/>
-    </row>
-    <row r="200" spans="1:33">
+      <c r="Y199" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD199" s="27"/>
+    </row>
+    <row r="200" spans="1:30">
       <c r="A200" s="3" t="s">
         <v>52</v>
       </c>
@@ -9155,11 +13071,17 @@
       <c r="H200" s="3">
         <v>0.99896413202852297</v>
       </c>
-      <c r="J200" s="26"/>
-      <c r="K200" s="27"/>
-      <c r="L200" s="27"/>
-    </row>
-    <row r="201" spans="1:33">
+      <c r="J200" s="25"/>
+      <c r="K200" s="26"/>
+      <c r="L200" s="26"/>
+      <c r="AB200" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30">
       <c r="A201" s="3" t="s">
         <v>53</v>
       </c>
@@ -9178,14 +13100,23 @@
       <c r="H201" s="3">
         <v>0.135510244802557</v>
       </c>
-      <c r="J201" s="26"/>
-      <c r="K201" s="27"/>
-      <c r="L201" s="27"/>
+      <c r="J201" s="25"/>
+      <c r="K201" s="26"/>
+      <c r="L201" s="26"/>
       <c r="T201" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="202" spans="1:33">
+      <c r="X201" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30">
       <c r="A202" s="3" t="s">
         <v>54</v>
       </c>
@@ -9204,11 +13135,20 @@
       <c r="H202" s="3">
         <v>1.4669973546428801E-2</v>
       </c>
-      <c r="J202" s="26"/>
-      <c r="K202" s="27"/>
-      <c r="L202" s="27"/>
-    </row>
-    <row r="203" spans="1:33">
+      <c r="J202" s="25"/>
+      <c r="K202" s="26"/>
+      <c r="L202" s="26"/>
+      <c r="X202" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30">
       <c r="A203" s="3" t="s">
         <v>68</v>
       </c>
@@ -9227,19 +13167,25 @@
       <c r="H203">
         <v>2687.1390000000001</v>
       </c>
-      <c r="J203" s="26"/>
-      <c r="K203" s="27"/>
-      <c r="L203" s="27"/>
-    </row>
-    <row r="204" spans="1:33">
+      <c r="J203" s="25"/>
+      <c r="K203" s="26"/>
+      <c r="L203" s="26"/>
+      <c r="AB203" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30">
       <c r="A204" t="s">
         <v>93</v>
       </c>
-      <c r="J204" s="26"/>
-      <c r="K204" s="27"/>
-      <c r="L204" s="27"/>
-    </row>
-    <row r="205" spans="1:33">
+      <c r="J204" s="25"/>
+      <c r="K204" s="26"/>
+      <c r="L204" s="26"/>
+    </row>
+    <row r="205" spans="1:30">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -9249,11 +13195,11 @@
       <c r="G205" t="s">
         <v>91</v>
       </c>
-      <c r="J205" s="26"/>
-      <c r="K205" s="26"/>
-      <c r="L205" s="26"/>
-    </row>
-    <row r="206" spans="1:33">
+      <c r="J205" s="25"/>
+      <c r="K205" s="25"/>
+      <c r="L205" s="25"/>
+    </row>
+    <row r="206" spans="1:30">
       <c r="A206" s="3" t="s">
         <v>50</v>
       </c>
@@ -9272,17 +13218,11 @@
       <c r="H206" s="3">
         <v>2824.2976744699299</v>
       </c>
-      <c r="J206" s="26"/>
-      <c r="K206" s="27"/>
-      <c r="L206" s="27"/>
-      <c r="AF206" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG206" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="207" spans="1:33">
+      <c r="J206" s="25"/>
+      <c r="K206" s="26"/>
+      <c r="L206" s="26"/>
+    </row>
+    <row r="207" spans="1:30">
       <c r="A207" s="3" t="s">
         <v>51</v>
       </c>
@@ -9301,17 +13241,11 @@
       <c r="H207" s="3">
         <v>1.00197863008052</v>
       </c>
-      <c r="J207" s="26"/>
-      <c r="K207" s="27"/>
-      <c r="L207" s="27"/>
-      <c r="AF207" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG207" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="208" spans="1:33">
+      <c r="J207" s="25"/>
+      <c r="K207" s="26"/>
+      <c r="L207" s="26"/>
+    </row>
+    <row r="208" spans="1:30">
       <c r="A208" s="3" t="s">
         <v>52</v>
       </c>
@@ -9330,17 +13264,11 @@
       <c r="H208" s="3">
         <v>0.99916500832884103</v>
       </c>
-      <c r="J208" s="26"/>
-      <c r="K208" s="27"/>
-      <c r="L208" s="27"/>
-      <c r="AF208" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG208" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="209" spans="1:33">
+      <c r="J208" s="25"/>
+      <c r="K208" s="26"/>
+      <c r="L208" s="26"/>
+    </row>
+    <row r="209" spans="1:29">
       <c r="A209" s="3" t="s">
         <v>53</v>
       </c>
@@ -9359,17 +13287,11 @@
       <c r="H209" s="3">
         <v>0.13608533262347899</v>
       </c>
-      <c r="J209" s="26"/>
-      <c r="K209" s="27"/>
-      <c r="L209" s="27"/>
-      <c r="AF209" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG209" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="210" spans="1:33">
+      <c r="J209" s="25"/>
+      <c r="K209" s="26"/>
+      <c r="L209" s="26"/>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="3" t="s">
         <v>54</v>
       </c>
@@ -9388,17 +13310,11 @@
       <c r="H210" s="3">
         <v>5.3616908733125201E-3</v>
       </c>
-      <c r="J210" s="26"/>
-      <c r="K210" s="27"/>
-      <c r="L210" s="27"/>
-      <c r="AF210" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG210" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="211" spans="1:33">
+      <c r="J210" s="25"/>
+      <c r="K210" s="26"/>
+      <c r="L210" s="26"/>
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="3" t="s">
         <v>68</v>
       </c>
@@ -9417,28 +13333,19 @@
       <c r="H211">
         <v>4548.3909999999996</v>
       </c>
-      <c r="J211" s="26"/>
-      <c r="K211" s="26"/>
-      <c r="L211" s="26"/>
-      <c r="AF211" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG211" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="212" spans="1:33">
+      <c r="J211" s="25"/>
+      <c r="K211" s="25"/>
+      <c r="L211" s="25"/>
+    </row>
+    <row r="212" spans="1:29">
       <c r="A212" t="s">
         <v>94</v>
       </c>
-      <c r="J212" s="26"/>
-      <c r="K212" s="26"/>
-      <c r="L212" s="26"/>
-      <c r="AF212" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="213" spans="1:33">
+      <c r="J212" s="25"/>
+      <c r="K212" s="25"/>
+      <c r="L212" s="25"/>
+    </row>
+    <row r="213" spans="1:29">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -9449,7 +13356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="214" spans="1:33">
+    <row r="214" spans="1:29">
       <c r="A214" s="3" t="s">
         <v>50</v>
       </c>
@@ -9469,7 +13376,7 @@
         <v>2809.6364400655398</v>
       </c>
     </row>
-    <row r="215" spans="1:33">
+    <row r="215" spans="1:29">
       <c r="A215" s="3" t="s">
         <v>51</v>
       </c>
@@ -9489,7 +13396,7 @@
         <v>1.0018872721231999</v>
       </c>
     </row>
-    <row r="216" spans="1:33">
+    <row r="216" spans="1:29">
       <c r="A216" s="3" t="s">
         <v>52</v>
       </c>
@@ -9509,7 +13416,7 @@
         <v>0.99896390539686897</v>
       </c>
     </row>
-    <row r="217" spans="1:33">
+    <row r="217" spans="1:29">
       <c r="A217" s="3" t="s">
         <v>53</v>
       </c>
@@ -9529,7 +13436,7 @@
         <v>0.14106574085141699</v>
       </c>
     </row>
-    <row r="218" spans="1:33">
+    <row r="218" spans="1:29">
       <c r="A218" s="3" t="s">
         <v>54</v>
       </c>
@@ -9549,7 +13456,7 @@
         <v>1.1062204595948E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:33">
+    <row r="219" spans="1:29">
       <c r="A219" s="3" t="s">
         <v>68</v>
       </c>
@@ -9589,12 +13496,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59088491-4DA9-9046-B8F1-E0B2E1149923}">
   <dimension ref="A2:AT71"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="N70" sqref="B59:N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13055,12 +16962,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB6A102-3C85-064C-A60D-238C264176B7}">
   <dimension ref="A1:CI46"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="AZ37" sqref="AN37:AZ37"/>
+    <sheetView topLeftCell="BN1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13210,64 +17117,64 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AM1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24" t="s">
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="28"/>
       <c r="BM1" s="12"/>
-      <c r="BN1" s="24" t="s">
+      <c r="BN1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24"/>
-      <c r="CI1" s="24"/>
+      <c r="BO1" s="28"/>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="28"/>
+      <c r="CC1" s="28"/>
+      <c r="CD1" s="28"/>
+      <c r="CE1" s="28"/>
+      <c r="CF1" s="28"/>
+      <c r="CG1" s="28"/>
+      <c r="CH1" s="28"/>
+      <c r="CI1" s="28"/>
     </row>
     <row r="2" spans="1:87">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -13446,7 +17353,7 @@
       <c r="CI2" s="2"/>
     </row>
     <row r="3" spans="1:87">
-      <c r="A3" s="24"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -13597,7 +17504,7 @@
       </c>
     </row>
     <row r="4" spans="1:87">
-      <c r="A4" s="24"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
@@ -13839,7 +17746,7 @@
       </c>
     </row>
     <row r="5" spans="1:87">
-      <c r="A5" s="24"/>
+      <c r="A5" s="28"/>
       <c r="AL5">
         <f t="shared" ref="AL5:AL37" si="1">AL4+1</f>
         <v>2</v>
@@ -13978,7 +17885,7 @@
       </c>
     </row>
     <row r="6" spans="1:87">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
@@ -14225,7 +18132,7 @@
       </c>
     </row>
     <row r="7" spans="1:87">
-      <c r="A7" s="24"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>2</v>
@@ -14470,7 +18377,7 @@
       </c>
     </row>
     <row r="8" spans="1:87">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>3</v>
@@ -14715,7 +18622,7 @@
       </c>
     </row>
     <row r="9" spans="1:87">
-      <c r="A9" s="24"/>
+      <c r="A9" s="28"/>
       <c r="AL9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -14854,7 +18761,7 @@
       </c>
     </row>
     <row r="10" spans="1:87">
-      <c r="A10" s="24"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
@@ -15101,7 +19008,7 @@
       </c>
     </row>
     <row r="11" spans="1:87">
-      <c r="A11" s="24"/>
+      <c r="A11" s="28"/>
       <c r="C11" s="2">
         <v>3</v>
       </c>
@@ -15345,7 +19252,7 @@
       </c>
     </row>
     <row r="12" spans="1:87">
-      <c r="A12" s="24"/>
+      <c r="A12" s="28"/>
       <c r="C12" s="2">
         <v>4</v>
       </c>
@@ -15589,7 +19496,7 @@
       </c>
     </row>
     <row r="13" spans="1:87">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="C13" s="2">
         <v>5</v>
       </c>
@@ -15833,7 +19740,7 @@
       </c>
     </row>
     <row r="14" spans="1:87">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -16079,7 +19986,7 @@
       </c>
     </row>
     <row r="15" spans="1:87">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="AL15">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -16218,7 +20125,7 @@
       </c>
     </row>
     <row r="16" spans="1:87">
-      <c r="A16" s="24"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
@@ -16462,7 +20369,7 @@
       </c>
     </row>
     <row r="17" spans="1:87">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="AL17">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -16601,7 +20508,7 @@
       </c>
     </row>
     <row r="18" spans="1:87">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
@@ -16848,7 +20755,7 @@
       </c>
     </row>
     <row r="19" spans="1:87">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="2"/>
       <c r="C19">
         <v>2</v>
@@ -17093,7 +21000,7 @@
       </c>
     </row>
     <row r="20" spans="1:87">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="2"/>
       <c r="C20">
         <v>3</v>
@@ -17338,7 +21245,7 @@
       </c>
     </row>
     <row r="21" spans="1:87">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="2"/>
       <c r="C21">
         <v>4</v>
@@ -17583,7 +21490,7 @@
       </c>
     </row>
     <row r="22" spans="1:87">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="2"/>
       <c r="C22">
         <v>5</v>
@@ -17828,7 +21735,7 @@
       </c>
     </row>
     <row r="23" spans="1:87">
-      <c r="A23" s="24"/>
+      <c r="A23" s="28"/>
       <c r="AL23">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -17967,7 +21874,7 @@
       </c>
     </row>
     <row r="24" spans="1:87">
-      <c r="A24" s="24"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
@@ -18214,7 +22121,7 @@
       </c>
     </row>
     <row r="25" spans="1:87">
-      <c r="A25" s="24"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="2"/>
       <c r="C25">
         <v>3</v>
@@ -18459,7 +22366,7 @@
       </c>
     </row>
     <row r="26" spans="1:87">
-      <c r="A26" s="24"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="2"/>
       <c r="C26">
         <v>4</v>
@@ -18704,7 +22611,7 @@
       </c>
     </row>
     <row r="27" spans="1:87">
-      <c r="A27" s="24"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="2"/>
       <c r="C27">
         <v>5</v>
@@ -18949,7 +22856,7 @@
       </c>
     </row>
     <row r="28" spans="1:87">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -19195,7 +23102,7 @@
       </c>
     </row>
     <row r="29" spans="1:87">
-      <c r="A29" s="24"/>
+      <c r="A29" s="28"/>
       <c r="AL29">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -19334,7 +23241,7 @@
       </c>
     </row>
     <row r="30" spans="1:87">
-      <c r="A30" s="24"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
@@ -19578,7 +23485,7 @@
       </c>
     </row>
     <row r="31" spans="1:87">
-      <c r="A31" s="24"/>
+      <c r="A31" s="28"/>
       <c r="AL31">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -19717,7 +23624,7 @@
       </c>
     </row>
     <row r="32" spans="1:87">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
@@ -19964,7 +23871,7 @@
       </c>
     </row>
     <row r="33" spans="1:87">
-      <c r="A33" s="24"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="2"/>
       <c r="C33">
         <v>2</v>
@@ -20209,7 +24116,7 @@
       </c>
     </row>
     <row r="34" spans="1:87">
-      <c r="A34" s="24"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="2"/>
       <c r="C34">
         <v>3</v>
@@ -20454,7 +24361,7 @@
       </c>
     </row>
     <row r="35" spans="1:87">
-      <c r="A35" s="24"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="2"/>
       <c r="C35">
         <v>4</v>
@@ -20699,7 +24606,7 @@
       </c>
     </row>
     <row r="36" spans="1:87">
-      <c r="A36" s="24"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="2"/>
       <c r="C36">
         <v>5</v>
@@ -20944,7 +24851,7 @@
       </c>
     </row>
     <row r="37" spans="1:87">
-      <c r="A37" s="24"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="2"/>
       <c r="C37">
         <v>6</v>
@@ -21189,7 +25096,7 @@
       </c>
     </row>
     <row r="38" spans="1:87">
-      <c r="A38" s="24"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="2"/>
       <c r="C38">
         <v>7</v>
@@ -21410,7 +25317,7 @@
       </c>
     </row>
     <row r="39" spans="1:87">
-      <c r="A39" s="24"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="2"/>
       <c r="C39">
         <v>8</v>
@@ -21519,7 +25426,7 @@
       </c>
     </row>
     <row r="40" spans="1:87">
-      <c r="A40" s="24"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="2"/>
       <c r="C40">
         <v>9</v>
@@ -21628,7 +25535,7 @@
       </c>
     </row>
     <row r="41" spans="1:87">
-      <c r="A41" s="24"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="2"/>
       <c r="C41">
         <v>10</v>
@@ -21737,10 +25644,10 @@
       </c>
     </row>
     <row r="42" spans="1:87">
-      <c r="A42" s="24"/>
+      <c r="A42" s="28"/>
     </row>
     <row r="43" spans="1:87">
-      <c r="A43" s="24"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
@@ -21851,7 +25758,7 @@
       </c>
     </row>
     <row r="44" spans="1:87">
-      <c r="A44" s="24"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="2"/>
       <c r="C44">
         <v>3</v>
@@ -21960,7 +25867,7 @@
       </c>
     </row>
     <row r="45" spans="1:87">
-      <c r="A45" s="24"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="2"/>
       <c r="C45">
         <v>4</v>
@@ -22069,7 +25976,7 @@
       </c>
     </row>
     <row r="46" spans="1:87">
-      <c r="A46" s="24"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="2"/>
       <c r="C46">
         <v>5</v>

--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53AE4C4-3968-0A41-8683-E64F447A2EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6883386A-5D63-A74D-9679-BAD258334E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35820" windowHeight="20300" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35580" windowHeight="20300" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="結果卒論用" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="145">
   <si>
     <t>j</t>
   </si>
@@ -767,30 +767,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>まだ回し終わってないです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中間の時の結果</t>
+    <t>全員</t>
     <rPh sb="0" eb="2">
-      <t>チュウ</t>
+      <t>ゼンイn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WBIC中間の時みたいに求める</t>
-    <rPh sb="4" eb="6">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モトメ</t>
+    <t>提案モデル4</t>
+    <rPh sb="0" eb="2">
+      <t>テイアn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指示なしの人のもやる</t>
+    <t>d_rk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r=14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r=15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案モデルシミュレーション実験の結果</t>
+    <rPh sb="0" eb="2">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指示なしの人だけ</t>
     <rPh sb="0" eb="2">
       <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一回</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こっちも論文に載せる</t>
+    <rPh sb="4" eb="6">
+      <t>ロンブn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -805,7 +832,7 @@
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -919,8 +946,32 @@
       <name val="Hiragino Kaku Gothic ProN"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,6 +1002,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -966,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,22 +1144,40 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,15 +1206,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1152,6 +1239,226 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="40474900" y="6819900"/>
+          <a:ext cx="3530600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1202267</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>245534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABE8868-A2A4-D64E-BB2E-2EB2AEDBF1B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34391600" y="10176934"/>
+          <a:ext cx="3530600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>186267</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>905933</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F9C440-D6A4-EC42-9F92-84DAB2B3BAD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37947600" y="10193866"/>
+          <a:ext cx="3530600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EECF5A-3CD6-1D4F-91A0-B84DBE62EA2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17729200"/>
+          <a:ext cx="3530600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>863599</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601132</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66521ED6-FA71-0943-91A7-C88BE94BE6D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3708399" y="17729200"/>
+          <a:ext cx="3530600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>448734</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC756A76-7D1D-0F4C-BCC9-97DD1615CB84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7349067" y="17678401"/>
           <a:ext cx="3530600" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1642,24 +1949,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF2B668-9505-0A46-A05A-3573DA92E6F2}">
-  <dimension ref="A1:FA64"/>
+  <dimension ref="A1:FC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="W2" zoomScale="75" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="34" max="34" width="14.5703125" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" customWidth="1"/>
-    <col min="36" max="36" width="21.28515625" customWidth="1"/>
-    <col min="37" max="37" width="15.85546875" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" customWidth="1"/>
-    <col min="39" max="39" width="15.42578125" customWidth="1"/>
-    <col min="222" max="222" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" customWidth="1"/>
+    <col min="38" max="38" width="21.28515625" customWidth="1"/>
+    <col min="39" max="39" width="15.85546875" customWidth="1"/>
+    <col min="40" max="40" width="15.7109375" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" customWidth="1"/>
+    <col min="224" max="224" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:157">
+    <row r="1" spans="1:159">
       <c r="A1" s="30" t="s">
         <v>123</v>
       </c>
@@ -1684,3529 +1991,4309 @@
       <c r="R1" s="33"/>
       <c r="S1" s="33"/>
       <c r="T1" s="33"/>
-      <c r="U1" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="47" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:157">
-      <c r="A2" s="29" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+    </row>
+    <row r="2" spans="1:159">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="U2" s="38"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+    </row>
+    <row r="3" spans="1:159">
+      <c r="A3" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="P2" t="s">
+      <c r="B3" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="P3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:157">
-      <c r="A3" t="s">
+    <row r="4" spans="1:159">
+      <c r="A4" t="s">
         <v>128</v>
-      </c>
-      <c r="N3" s="29"/>
-      <c r="Q3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="3">
-        <v>5361.5808993870796</v>
-      </c>
-      <c r="V3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:157">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="N4" s="29"/>
       <c r="Q4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R4" s="3">
-        <v>1.002179747215</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
-      <c r="Z4">
+        <v>5361.5808993870796</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="3">
+        <v>3279.4436183809698</v>
+      </c>
+      <c r="X4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:159">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AA4">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AB4">
+      <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AC4">
-        <v>6</v>
-      </c>
-      <c r="AD4">
-        <v>7</v>
-      </c>
-      <c r="AE4">
+      <c r="G5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AF4">
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AG4">
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AH4">
-        <v>11</v>
-      </c>
-      <c r="AI4">
+      <c r="K5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AJ4">
-        <v>13</v>
-      </c>
-      <c r="AK4">
-        <v>14</v>
-      </c>
-      <c r="AL4">
-        <v>15</v>
-      </c>
-      <c r="AM4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:157">
-      <c r="A5" s="3">
-        <v>60</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0.31736431227270501</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0.41272084216655402</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.50281736790838805</v>
-      </c>
-      <c r="G5" s="19">
-        <v>8.3609397538721195E-2</v>
-      </c>
-      <c r="H5" s="19">
-        <v>-5.7750205454517999E-2</v>
-      </c>
-      <c r="I5" s="19">
-        <v>2.0851664172443299E-18</v>
-      </c>
-      <c r="J5" s="19">
-        <v>-7.2997571311605405E-2</v>
-      </c>
-      <c r="K5" s="19">
-        <v>-1.30537941567255E-17</v>
-      </c>
-      <c r="L5" s="19">
-        <v>1.0007471747721</v>
-      </c>
-      <c r="M5" s="19">
-        <v>1.0077266499906099</v>
+      <c r="L5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="N5" s="29"/>
       <c r="Q5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R5" s="3">
-        <v>0.99919370507599303</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="3">
-        <v>0.23976685890713301</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0.93747065443045097</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0.67914696356174897</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0.89320571753025901</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>0.23712436343846299</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>-0.45186907007163801</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>-0.64438039617835596</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>-0.11507573047303001</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>-0.50231360120406898</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>0.19047185086375201</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>0.46479677423382298</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>-0.124727648078567</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>-0.84293417675798399</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>0.57181770526569597</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>5.9986712052074301E-2</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>-1.56184272919909</v>
-      </c>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
-      <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3"/>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
-      <c r="BT5" s="3"/>
-      <c r="BU5" s="3"/>
-      <c r="BV5" s="3"/>
-      <c r="BW5" s="3"/>
-      <c r="BX5" s="3"/>
-      <c r="BY5" s="3"/>
-      <c r="BZ5" s="3"/>
-      <c r="CA5" s="3"/>
-      <c r="CB5" s="3"/>
-      <c r="CC5" s="3"/>
-      <c r="CD5" s="3"/>
-      <c r="CE5" s="3"/>
-      <c r="CF5" s="3"/>
-      <c r="CG5" s="3"/>
-      <c r="CH5" s="3"/>
-      <c r="CI5" s="3"/>
-      <c r="CJ5" s="3"/>
-      <c r="CK5" s="3"/>
-      <c r="CL5" s="3"/>
-      <c r="CM5" s="3"/>
-      <c r="CN5" s="3"/>
-      <c r="CO5" s="3"/>
-      <c r="CP5" s="3"/>
-      <c r="CQ5" s="3"/>
-      <c r="CR5" s="3"/>
-      <c r="CS5" s="3"/>
-      <c r="CT5" s="3"/>
-      <c r="CU5" s="3"/>
-      <c r="CV5" s="3"/>
-      <c r="CW5" s="3"/>
-      <c r="CX5" s="3"/>
-      <c r="CY5" s="3"/>
-      <c r="CZ5" s="3"/>
-      <c r="DA5" s="3"/>
-      <c r="DB5" s="3"/>
-      <c r="DC5" s="3"/>
-      <c r="DD5" s="3"/>
-      <c r="DE5" s="3"/>
-      <c r="DF5" s="3"/>
-      <c r="DG5" s="3"/>
-      <c r="DH5" s="3"/>
-      <c r="DI5" s="3"/>
-      <c r="DJ5" s="3"/>
-      <c r="DK5" s="3"/>
-      <c r="DL5" s="3"/>
-      <c r="DM5" s="3"/>
-      <c r="DN5" s="3"/>
-      <c r="DO5" s="3"/>
-      <c r="DP5" s="3"/>
-      <c r="DQ5" s="3"/>
-      <c r="DR5" s="3"/>
-      <c r="DS5" s="3"/>
-      <c r="DT5" s="3"/>
-      <c r="DU5" s="3"/>
-      <c r="DV5" s="3"/>
-      <c r="DW5" s="3"/>
-      <c r="DX5" s="3"/>
-      <c r="DY5" s="3"/>
-      <c r="DZ5" s="3"/>
-      <c r="EA5" s="3"/>
-      <c r="EB5" s="3"/>
-      <c r="EC5" s="3"/>
-      <c r="ED5" s="3"/>
-      <c r="EE5" s="3"/>
-      <c r="EF5" s="3"/>
-      <c r="EG5" s="3"/>
-      <c r="EH5" s="3"/>
-      <c r="EI5" s="3"/>
-      <c r="EJ5" s="3"/>
-      <c r="EK5" s="3"/>
-      <c r="EL5" s="3"/>
-      <c r="EM5" s="3"/>
-      <c r="EN5" s="3"/>
-      <c r="EO5" s="3"/>
-      <c r="EP5" s="3"/>
-      <c r="EQ5" s="3"/>
-      <c r="ER5" s="3"/>
-      <c r="ES5" s="3"/>
-      <c r="ET5" s="3"/>
-      <c r="EU5" s="3"/>
-      <c r="EV5" s="3"/>
-      <c r="EW5" s="3"/>
-      <c r="EX5" s="3"/>
-      <c r="EY5" s="3"/>
-      <c r="EZ5" s="3"/>
-      <c r="FA5" s="3"/>
-    </row>
-    <row r="6" spans="1:157">
+        <v>1.002179747215</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1.00232780899533</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>6</v>
+      </c>
+      <c r="AF5">
+        <v>7</v>
+      </c>
+      <c r="AG5">
+        <v>8</v>
+      </c>
+      <c r="AH5">
+        <v>9</v>
+      </c>
+      <c r="AI5">
+        <v>10</v>
+      </c>
+      <c r="AJ5">
+        <v>11</v>
+      </c>
+      <c r="AK5">
+        <v>12</v>
+      </c>
+      <c r="AL5">
+        <v>13</v>
+      </c>
+      <c r="AM5">
+        <v>14</v>
+      </c>
+      <c r="AN5">
+        <v>15</v>
+      </c>
+      <c r="AO5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:159">
       <c r="A6" s="3">
         <v>60</v>
       </c>
       <c r="B6" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="19">
-        <v>0.282842705085593</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0.58241671386084204</v>
-      </c>
-      <c r="F6" s="20">
-        <v>0.57339130731735599</v>
+        <v>0.31736431227270501</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.41272084216655402</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.50281736790838805</v>
       </c>
       <c r="G6" s="19">
-        <v>6.8592708867188504E-2</v>
+        <v>8.3609397538721195E-2</v>
       </c>
       <c r="H6" s="19">
-        <v>-6.2918626018631005E-2</v>
+        <v>-5.7750205454517999E-2</v>
       </c>
       <c r="I6" s="19">
-        <v>-1.9014195599964501E-18</v>
+        <v>2.0851664172443299E-18</v>
       </c>
       <c r="J6" s="19">
-        <v>-2.7872548848259501E-2</v>
+        <v>-7.2997571311605405E-2</v>
       </c>
       <c r="K6" s="19">
-        <v>-1.0690233420707099E-17</v>
+        <v>-1.30537941567255E-17</v>
       </c>
       <c r="L6" s="19">
-        <v>1.0013505962292799</v>
+        <v>1.0007471747721</v>
       </c>
       <c r="M6" s="19">
-        <v>1.0100081873545901</v>
+        <v>1.0077266499906099</v>
       </c>
       <c r="N6" s="29"/>
       <c r="Q6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R6" s="3">
-        <v>0.18557589176261899</v>
-      </c>
-      <c r="X6">
-        <v>17</v>
-      </c>
-      <c r="Y6">
-        <v>18</v>
-      </c>
-      <c r="Z6">
-        <v>19</v>
-      </c>
-      <c r="AA6">
-        <v>20</v>
-      </c>
-      <c r="AB6">
-        <v>21</v>
-      </c>
-      <c r="AC6">
-        <v>22</v>
-      </c>
-      <c r="AD6">
-        <v>23</v>
-      </c>
-      <c r="AE6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:157">
+        <v>0.99919370507599303</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.99944144575034</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3">
+        <v>0.23976685890713301</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0.93747065443045097</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0.67914696356174897</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0.89320571753025901</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0.23712436343846299</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>-0.45186907007163801</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>-0.64438039617835596</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>-0.11507573047303001</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>-0.50231360120406898</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0.19047185086375201</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0.46479677423382298</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>-0.124727648078567</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>-0.84293417675798399</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0.57181770526569597</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>5.9986712052074301E-2</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>-1.56184272919909</v>
+      </c>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="3"/>
+      <c r="CM6" s="3"/>
+      <c r="CN6" s="3"/>
+      <c r="CO6" s="3"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="3"/>
+      <c r="CR6" s="3"/>
+      <c r="CS6" s="3"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="3"/>
+      <c r="CV6" s="3"/>
+      <c r="CW6" s="3"/>
+      <c r="CX6" s="3"/>
+      <c r="CY6" s="3"/>
+      <c r="CZ6" s="3"/>
+      <c r="DA6" s="3"/>
+      <c r="DB6" s="3"/>
+      <c r="DC6" s="3"/>
+      <c r="DD6" s="3"/>
+      <c r="DE6" s="3"/>
+      <c r="DF6" s="3"/>
+      <c r="DG6" s="3"/>
+      <c r="DH6" s="3"/>
+      <c r="DI6" s="3"/>
+      <c r="DJ6" s="3"/>
+      <c r="DK6" s="3"/>
+      <c r="DL6" s="3"/>
+      <c r="DM6" s="3"/>
+      <c r="DN6" s="3"/>
+      <c r="DO6" s="3"/>
+      <c r="DP6" s="3"/>
+      <c r="DQ6" s="3"/>
+      <c r="DR6" s="3"/>
+      <c r="DS6" s="3"/>
+      <c r="DT6" s="3"/>
+      <c r="DU6" s="3"/>
+      <c r="DV6" s="3"/>
+      <c r="DW6" s="3"/>
+      <c r="DX6" s="3"/>
+      <c r="DY6" s="3"/>
+      <c r="DZ6" s="3"/>
+      <c r="EA6" s="3"/>
+      <c r="EB6" s="3"/>
+      <c r="EC6" s="3"/>
+      <c r="ED6" s="3"/>
+      <c r="EE6" s="3"/>
+      <c r="EF6" s="3"/>
+      <c r="EG6" s="3"/>
+      <c r="EH6" s="3"/>
+      <c r="EI6" s="3"/>
+      <c r="EJ6" s="3"/>
+      <c r="EK6" s="3"/>
+      <c r="EL6" s="3"/>
+      <c r="EM6" s="3"/>
+      <c r="EN6" s="3"/>
+      <c r="EO6" s="3"/>
+      <c r="EP6" s="3"/>
+      <c r="EQ6" s="3"/>
+      <c r="ER6" s="3"/>
+      <c r="ES6" s="3"/>
+      <c r="ET6" s="3"/>
+      <c r="EU6" s="3"/>
+      <c r="EV6" s="3"/>
+      <c r="EW6" s="3"/>
+      <c r="EX6" s="3"/>
+      <c r="EY6" s="3"/>
+      <c r="EZ6" s="3"/>
+      <c r="FA6" s="3"/>
+      <c r="FB6" s="3"/>
+      <c r="FC6" s="3"/>
+    </row>
+    <row r="7" spans="1:159">
       <c r="A7" s="3">
         <v>60</v>
       </c>
       <c r="B7" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="19">
-        <v>0.34269327679147299</v>
+        <v>0.282842705085593</v>
       </c>
       <c r="E7" s="20">
-        <v>0.57162406085419504</v>
+        <v>0.58241671386084204</v>
       </c>
       <c r="F7" s="20">
-        <v>0.67401994178382496</v>
+        <v>0.57339130731735599</v>
       </c>
       <c r="G7" s="19">
-        <v>0.100061900495182</v>
+        <v>6.8592708867188504E-2</v>
       </c>
       <c r="H7" s="19">
-        <v>0.11741322287190201</v>
+        <v>-6.2918626018631005E-2</v>
       </c>
       <c r="I7" s="19">
-        <v>6.58961139777744E-18</v>
+        <v>-1.9014195599964501E-18</v>
       </c>
       <c r="J7" s="19">
-        <v>0.22018640521557001</v>
+        <v>-2.7872548848259501E-2</v>
       </c>
       <c r="K7" s="19">
-        <v>-1.7347234759768E-18</v>
+        <v>-1.0690233420707099E-17</v>
       </c>
       <c r="L7" s="19">
-        <v>0.99995155512905298</v>
+        <v>1.0013505962292799</v>
       </c>
       <c r="M7" s="19">
-        <v>1.00560839830552</v>
+        <v>1.0100081873545901</v>
       </c>
       <c r="N7" s="29"/>
       <c r="Q7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R7" s="3">
-        <v>9.8434952870433308E-3</v>
-      </c>
-      <c r="X7" s="3">
-        <v>-3.1740280849277797E-2</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>-0.12583867519854799</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0.46651720018481901</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0.234080925636587</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>0.28531507560341901</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>-0.70218089170854503</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>0.29746999671318203</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>0.195818115128538</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>0.16689107921069801</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>0.199638954214789</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>0.53869904899189303</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>0.55263539304866804</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>0.820186296065056</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>0.94482272752009999</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>0.54050970562192402</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>0.29809269429486401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:157">
+        <v>0.18557589176261899</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.25009039947885803</v>
+      </c>
+      <c r="Z7">
+        <v>17</v>
+      </c>
+      <c r="AA7">
+        <v>18</v>
+      </c>
+      <c r="AB7">
+        <v>19</v>
+      </c>
+      <c r="AC7">
+        <v>20</v>
+      </c>
+      <c r="AD7">
+        <v>21</v>
+      </c>
+      <c r="AE7">
+        <v>22</v>
+      </c>
+      <c r="AF7">
+        <v>23</v>
+      </c>
+      <c r="AG7">
+        <v>24</v>
+      </c>
+      <c r="AH7">
+        <v>25</v>
+      </c>
+      <c r="AI7">
+        <v>26</v>
+      </c>
+      <c r="AJ7">
+        <v>27</v>
+      </c>
+      <c r="AK7">
+        <v>28</v>
+      </c>
+      <c r="AL7">
+        <v>29</v>
+      </c>
+      <c r="AM7">
+        <v>30</v>
+      </c>
+      <c r="AN7">
+        <v>31</v>
+      </c>
+      <c r="AO7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:159">
       <c r="A8" s="3">
         <v>60</v>
       </c>
       <c r="B8" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
       </c>
       <c r="D8" s="19">
-        <v>0.25385354106593899</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0.49823145932923302</v>
+        <v>0.34269327679147299</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.57162406085419504</v>
       </c>
       <c r="F8" s="20">
-        <v>0.57289481777307505</v>
+        <v>0.67401994178382496</v>
       </c>
       <c r="G8" s="19">
-        <v>7.9606005375603306E-2</v>
+        <v>0.100061900495182</v>
       </c>
       <c r="H8" s="19">
-        <v>-3.3692026053634402E-2</v>
+        <v>0.11741322287190201</v>
       </c>
       <c r="I8" s="19">
-        <v>-3.6092977384316103E-18</v>
+        <v>6.58961139777744E-18</v>
       </c>
       <c r="J8" s="19">
-        <v>-3.7611220900198299E-2</v>
+        <v>0.22018640521557001</v>
       </c>
       <c r="K8" s="19">
-        <v>-2.3592239273284601E-17</v>
+        <v>-1.7347234759768E-18</v>
       </c>
       <c r="L8" s="19">
-        <v>1.0006855631576099</v>
+        <v>0.99995155512905298</v>
       </c>
       <c r="M8" s="19">
-        <v>1.0086976995874299</v>
+        <v>1.00560839830552</v>
       </c>
       <c r="N8" s="29"/>
       <c r="Q8" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:157">
+        <v>54</v>
+      </c>
+      <c r="R8" s="3">
+        <v>9.8434952870433308E-3</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1.4726089725229799E-2</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>-3.1740280849277797E-2</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>-0.12583867519854799</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0.46651720018481901</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0.234080925636587</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0.28531507560341901</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>-0.70218089170854503</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0.29746999671318203</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0.195818115128538</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0.16689107921069801</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.199638954214789</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0.53869904899189303</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>0.55263539304866804</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0.820186296065056</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0.94482272752009999</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0.54050970562192402</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0.29809269429486401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:159">
       <c r="A9" s="3">
         <v>60</v>
       </c>
       <c r="B9" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="19">
-        <v>0.346655439123983</v>
+        <v>0.25385354106593899</v>
       </c>
       <c r="E9" s="19">
-        <v>0.47030674860335098</v>
+        <v>0.49823145932923302</v>
       </c>
       <c r="F9" s="20">
-        <v>0.63518923654605897</v>
+        <v>0.57289481777307505</v>
       </c>
       <c r="G9" s="19">
-        <v>9.9334186328600999E-2</v>
+        <v>7.9606005375603306E-2</v>
       </c>
       <c r="H9" s="19">
-        <v>6.0027654744541997E-2</v>
+        <v>-3.3692026053634402E-2</v>
       </c>
       <c r="I9" s="19">
-        <v>-3.1936530243276098E-18</v>
+        <v>-3.6092977384316103E-18</v>
       </c>
       <c r="J9" s="19">
-        <v>4.5961783470196201E-2</v>
+        <v>-3.7611220900198299E-2</v>
       </c>
       <c r="K9" s="19">
-        <v>1.7347234759768099E-17</v>
+        <v>-2.3592239273284601E-17</v>
       </c>
       <c r="L9" s="19">
-        <v>0.99964098373586097</v>
+        <v>1.0006855631576099</v>
       </c>
       <c r="M9" s="19">
-        <v>1.0040345501249801</v>
+        <v>1.0086976995874299</v>
       </c>
       <c r="N9" s="29"/>
-      <c r="P9" t="s">
-        <v>134</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0.23882923735799999</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>-0.24525178292594299</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>-0.61766548577491298</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>-0.60437468878273404</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>-0.439188860329078</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>-0.173149282737352</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0.31787853636512198</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>0.33684687285667803</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>6.3147960499926506E-2</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>0.61878325137249102</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>-0.11899239826420099</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0.299916901157741</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>-0.30705981148460298</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>-0.172899770801656</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>0.78470058588593095</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>-0.87864422581641799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:157">
+      <c r="Q9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9">
+        <v>3071.7060000000001</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1927.2149999999999</v>
+      </c>
+      <c r="Z9">
+        <v>33</v>
+      </c>
+      <c r="AA9">
+        <v>34</v>
+      </c>
+      <c r="AB9">
+        <v>35</v>
+      </c>
+      <c r="AC9">
+        <v>36</v>
+      </c>
+      <c r="AD9">
+        <v>37</v>
+      </c>
+      <c r="AE9">
+        <v>38</v>
+      </c>
+      <c r="AF9">
+        <v>39</v>
+      </c>
+      <c r="AG9">
+        <v>40</v>
+      </c>
+      <c r="AH9">
+        <v>41</v>
+      </c>
+      <c r="AI9">
+        <v>42</v>
+      </c>
+      <c r="AJ9">
+        <v>43</v>
+      </c>
+      <c r="AK9">
+        <v>44</v>
+      </c>
+      <c r="AL9">
+        <v>45</v>
+      </c>
+      <c r="AM9">
+        <v>46</v>
+      </c>
+      <c r="AN9">
+        <v>47</v>
+      </c>
+      <c r="AO9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:159">
       <c r="A10" s="3">
         <v>60</v>
       </c>
       <c r="B10" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
       </c>
       <c r="D10" s="19">
+        <v>0.346655439123983</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.47030674860335098</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.63518923654605897</v>
+      </c>
+      <c r="G10" s="19">
+        <v>9.9334186328600999E-2</v>
+      </c>
+      <c r="H10" s="19">
+        <v>6.0027654744541997E-2</v>
+      </c>
+      <c r="I10" s="19">
+        <v>-3.1936530243276098E-18</v>
+      </c>
+      <c r="J10" s="19">
+        <v>4.5961783470196201E-2</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1.7347234759768099E-17</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0.99964098373586097</v>
+      </c>
+      <c r="M10" s="19">
+        <v>1.0040345501249801</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="P10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0.23882923735799999</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>-0.24525178292594299</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>-0.61766548577491298</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>-0.60437468878273404</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>-0.439188860329078</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>-0.173149282737352</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0.31787853636512198</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0.33684687285667803</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>6.3147960499926506E-2</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0.61878325137249102</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>-0.11899239826420099</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>0.299916901157741</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>-0.30705981148460298</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>-0.172899770801656</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>0.78470058588593095</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>-0.87864422581641799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:159">
+      <c r="A11" s="3">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="19">
         <v>0.27869069469996399</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E11" s="19">
         <v>0.47412719771202499</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F11" s="20">
         <v>0.71774985525353896</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G11" s="19">
         <v>8.3646086135586897E-2</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H11" s="19">
         <v>4.0255981249395299E-2</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I11" s="19">
         <v>-3.05419751989167E-18</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J11" s="19">
         <v>5.91825272293407E-3</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K11" s="19">
         <v>1.65666091955785E-17</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L11" s="19">
         <v>1.00001583511661</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M11" s="19">
         <v>1.0054005800793999</v>
-      </c>
-      <c r="N10" s="29"/>
-      <c r="Q10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="3">
-        <v>5365.5584111174803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:157">
-      <c r="A11" s="3">
-        <v>90</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.31535263478393899</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0.50261897537335098</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0.56673396973934898</v>
-      </c>
-      <c r="G11" s="19">
-        <v>6.4200143781155294E-2</v>
-      </c>
-      <c r="H11" s="19">
-        <v>-7.2114715272253604E-2</v>
-      </c>
-      <c r="I11" s="19">
-        <v>8.74259974310842E-18</v>
-      </c>
-      <c r="J11" s="19">
-        <v>-3.4189882116176198E-2</v>
-      </c>
-      <c r="K11" s="19">
-        <v>-5.8113236445223001E-18</v>
-      </c>
-      <c r="L11" s="19">
-        <v>1.00029974915176</v>
-      </c>
-      <c r="M11" s="19">
-        <v>1.00771333616546</v>
       </c>
       <c r="N11" s="29"/>
       <c r="Q11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="3">
+        <v>5327.9079765643401</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="3">
+        <v>3265.04487643722</v>
+      </c>
+      <c r="Z11">
+        <v>49</v>
+      </c>
+      <c r="AA11">
+        <v>50</v>
+      </c>
+      <c r="AB11">
         <v>51</v>
       </c>
-      <c r="R11" s="3">
-        <v>1.00318759300594</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0.41214356501104599</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>-0.18525370303490099</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>-0.14718220585686201</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>0.61181616437236597</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>1.01244576567463E-2</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>-1.2568831684547199</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0.42163044970829999</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>7.7920401330418998E-2</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>-0.24514527469125399</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>0.165307198741349</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>-1.04420408061242</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>0.156969713420722</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>-6.9038509106680898E-2</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>0.10187435359659799</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>-0.18535705181382001</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>-5.0757282919009002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:157">
+      <c r="AC11">
+        <v>52</v>
+      </c>
+      <c r="AD11">
+        <v>53</v>
+      </c>
+      <c r="AE11">
+        <v>54</v>
+      </c>
+      <c r="AF11">
+        <v>55</v>
+      </c>
+      <c r="AG11">
+        <v>56</v>
+      </c>
+      <c r="AH11">
+        <v>57</v>
+      </c>
+      <c r="AI11">
+        <v>58</v>
+      </c>
+      <c r="AJ11">
+        <v>59</v>
+      </c>
+      <c r="AK11">
+        <v>60</v>
+      </c>
+      <c r="AL11">
+        <v>61</v>
+      </c>
+      <c r="AM11">
+        <v>62</v>
+      </c>
+      <c r="AN11">
+        <v>63</v>
+      </c>
+      <c r="AO11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:159">
       <c r="A12" s="3">
         <v>90</v>
       </c>
       <c r="B12" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="19">
-        <v>0.26232640006865099</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0.42291617871051501</v>
+        <v>0.31535263478393899</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.50261897537335098</v>
       </c>
       <c r="F12" s="20">
-        <v>0.51409582748430604</v>
+        <v>0.56673396973934898</v>
       </c>
       <c r="G12" s="19">
-        <v>7.6882816191025993E-2</v>
+        <v>6.4200143781155294E-2</v>
       </c>
       <c r="H12" s="19">
-        <v>-4.63162536034303E-2</v>
+        <v>-7.2114715272253604E-2</v>
       </c>
       <c r="I12" s="19">
-        <v>3.5117873055436799E-18</v>
+        <v>8.74259974310842E-18</v>
       </c>
       <c r="J12" s="19">
-        <v>-6.8305755745301094E-2</v>
+        <v>-3.4189882116176198E-2</v>
       </c>
       <c r="K12" s="19">
-        <v>-6.93889390390727E-18</v>
+        <v>-5.8113236445223001E-18</v>
       </c>
       <c r="L12" s="19">
-        <v>1.00105550694257</v>
+        <v>1.00029974915176</v>
       </c>
       <c r="M12" s="19">
-        <v>1.0090851475643501</v>
+        <v>1.00771333616546</v>
       </c>
       <c r="N12" s="29"/>
       <c r="Q12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R12" s="3">
-        <v>0.99958036289004304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:157">
+        <v>1.0036283048992301</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1.0059136523927299</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0.41214356501104599</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>-0.18525370303490099</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>-0.14718220585686201</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0.61181616437236597</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1.01244576567463E-2</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>-1.2568831684547199</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0.42163044970829999</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>7.7920401330418998E-2</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>-0.24514527469125399</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0.165307198741349</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>-1.04420408061242</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>0.156969713420722</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>-6.9038509106680898E-2</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0.10187435359659799</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>-0.18535705181382001</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>-5.0757282919009002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:159">
       <c r="A13" s="3">
         <v>90</v>
       </c>
       <c r="B13" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="19">
-        <v>0.31322072217112101</v>
+        <v>0.26232640006865099</v>
       </c>
       <c r="E13" s="19">
-        <v>0.46772595205721901</v>
+        <v>0.42291617871051501</v>
       </c>
       <c r="F13" s="20">
-        <v>0.55020650603861898</v>
+        <v>0.51409582748430604</v>
       </c>
       <c r="G13" s="19">
-        <v>7.1281997696996599E-2</v>
+        <v>7.6882816191025993E-2</v>
       </c>
       <c r="H13" s="19">
-        <v>-2.6153373153382599E-2</v>
+        <v>-4.63162536034303E-2</v>
       </c>
       <c r="I13" s="19">
-        <v>-6.9697259031872908E-18</v>
+        <v>3.5117873055436799E-18</v>
       </c>
       <c r="J13" s="19">
-        <v>-0.111475445625385</v>
+        <v>-6.8305755745301094E-2</v>
       </c>
       <c r="K13" s="19">
-        <v>-8.6736173798840701E-19</v>
+        <v>-6.93889390390727E-18</v>
       </c>
       <c r="L13" s="19">
-        <v>1.0002657947710301</v>
+        <v>1.00105550694257</v>
       </c>
       <c r="M13" s="19">
-        <v>1.0077413724906801</v>
+        <v>1.0090851475643501</v>
       </c>
       <c r="N13" s="29"/>
       <c r="Q13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R13" s="3">
-        <v>0.18630626756694901</v>
-      </c>
-      <c r="X13" s="3">
-        <v>-3.9491073811865798E-2</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>6.2643749682223401E-2</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0.22979055889278399</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0.20406856334777199</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>-0.35533843256555497</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>-0.22161660615135301</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>-0.90421756148642596</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>0.80339805524535601</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>-8.1516589021586094E-2</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>-0.392566397684118</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>-0.47130908294192497</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>-0.104116397454583</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>8.1688509753032407E-2</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>0.13550770415836499</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>0.58153786480564695</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>0.81386527577104795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:157">
+        <v>0.999232100824054</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.99972461934845203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:159">
       <c r="A14" s="3">
         <v>90</v>
       </c>
       <c r="B14" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
       <c r="D14" s="19">
-        <v>0.30929972183236398</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0.78292977642624195</v>
+        <v>0.31322072217112101</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.46772595205721901</v>
       </c>
       <c r="F14" s="20">
-        <v>0.69439561604213396</v>
+        <v>0.55020650603861898</v>
       </c>
       <c r="G14" s="19">
-        <v>8.2838574085091696E-2</v>
+        <v>7.1281997696996599E-2</v>
       </c>
       <c r="H14" s="19">
-        <v>1.00364478076488E-3</v>
+        <v>-2.6153373153382599E-2</v>
       </c>
       <c r="I14" s="19">
-        <v>2.3058269703335398E-18</v>
+        <v>-6.9697259031872908E-18</v>
       </c>
       <c r="J14" s="19">
-        <v>-7.7424393403651995E-2</v>
+        <v>-0.111475445625385</v>
       </c>
       <c r="K14" s="19">
-        <v>1.94289029309403E-17</v>
+        <v>-8.6736173798840701E-19</v>
       </c>
       <c r="L14" s="19">
-        <v>1.0001385198498001</v>
+        <v>1.0002657947710301</v>
       </c>
       <c r="M14" s="19">
-        <v>1.0075783095159401</v>
+        <v>1.0077413724906801</v>
       </c>
       <c r="N14" s="29"/>
       <c r="Q14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R14" s="3">
-        <v>8.4333223218118394E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:157">
+        <v>0.19099455643593599</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.25277721880635701</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>-3.9491073811865798E-2</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>6.2643749682223401E-2</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0.22979055889278399</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0.20406856334777199</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>-0.35533843256555497</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>-0.22161660615135301</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>-0.90421756148642596</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0.80339805524535601</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>-8.1516589021586094E-2</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>-0.392566397684118</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>-0.47130908294192497</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>-0.104116397454583</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>8.1688509753032407E-2</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0.13550770415836499</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0.58153786480564695</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>0.81386527577104795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:159">
       <c r="A15" s="3">
         <v>90</v>
       </c>
       <c r="B15" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" s="19">
-        <v>0.32262824555403302</v>
+        <v>0.30929972183236398</v>
       </c>
       <c r="E15" s="20">
-        <v>0.514967891428188</v>
+        <v>0.78292977642624195</v>
       </c>
       <c r="F15" s="20">
-        <v>0.61205475345289195</v>
+        <v>0.69439561604213396</v>
       </c>
       <c r="G15" s="19">
-        <v>9.4970520721408005E-2</v>
+        <v>8.2838574085091696E-2</v>
       </c>
       <c r="H15" s="19">
-        <v>-2.4030722613959998E-2</v>
+        <v>1.00364478076488E-3</v>
       </c>
       <c r="I15" s="19">
-        <v>-1.3892970873394001E-18</v>
+        <v>2.3058269703335398E-18</v>
       </c>
       <c r="J15" s="19">
-        <v>-3.3295599323274701E-2</v>
+        <v>-7.7424393403651995E-2</v>
       </c>
       <c r="K15" s="19">
-        <v>1.07552855510562E-17</v>
+        <v>1.94289029309403E-17</v>
       </c>
       <c r="L15" s="19">
-        <v>0.99990917383069799</v>
+        <v>1.0001385198498001</v>
       </c>
       <c r="M15" s="19">
-        <v>1.0070109254959601</v>
+        <v>1.0075783095159401</v>
       </c>
       <c r="N15" s="29"/>
       <c r="Q15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0.36313219794991303</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0.16494075605912301</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0.570855999675704</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0.81901848044552505</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0.139407952663958</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>-0.45106824185905497</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>-0.54125103497701998</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>-7.1298820100066204E-2</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>-0.95977463180171296</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>0.50643118169672696</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>0.71460071530191605</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>3.1906871099532101E-2</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>-0.33060428622815002</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>0.129986675205256</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>-0.129024507747696</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>0.160942457621885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:157">
+        <v>54</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1.0055383326768299E-2</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1.45693132333303E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:159">
       <c r="A16" s="3">
         <v>90</v>
       </c>
       <c r="B16" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
       </c>
       <c r="D16" s="19">
+        <v>0.32262824555403302</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.514967891428188</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.61205475345289195</v>
+      </c>
+      <c r="G16" s="19">
+        <v>9.4970520721408005E-2</v>
+      </c>
+      <c r="H16" s="19">
+        <v>-2.4030722613959998E-2</v>
+      </c>
+      <c r="I16" s="19">
+        <v>-1.3892970873394001E-18</v>
+      </c>
+      <c r="J16" s="19">
+        <v>-3.3295599323274701E-2</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1.07552855510562E-17</v>
+      </c>
+      <c r="L16" s="19">
+        <v>0.99990917383069799</v>
+      </c>
+      <c r="M16" s="19">
+        <v>1.0070109254959601</v>
+      </c>
+      <c r="N16" s="29"/>
+      <c r="Q16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16">
+        <v>3048.8739999999998</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1916.6410000000001</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.36313219794991303</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0.16494075605912301</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0.570855999675704</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0.81901848044552505</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0.139407952663958</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>-0.45106824185905497</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>-0.54125103497701998</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>-7.1298820100066204E-2</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>-0.95977463180171296</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0.50643118169672696</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0.71460071530191605</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>3.1906871099532101E-2</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>-0.33060428622815002</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0.129986675205256</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>-0.129024507747696</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0.160942457621885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="3">
+        <v>90</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="19">
         <v>0.280557193198822</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E17" s="20">
         <v>0.53157870136637297</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F17" s="20">
         <v>0.59398714476334602</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G17" s="19">
         <v>7.61346148936628E-2</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H17" s="19">
         <v>4.4221715892948099E-2</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I17" s="19">
         <v>6.7073941525363102E-18</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J17" s="19">
         <v>-7.7393463785450006E-2</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K17" s="19">
         <v>3.7296554733501598E-18</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L17" s="19">
         <v>1.0002218104018901</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M17" s="19">
         <v>1.0080535918648701</v>
       </c>
-      <c r="N16" s="29"/>
-    </row>
-    <row r="17" spans="1:41">
-      <c r="A17" s="3">
-        <v>120</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0.31293849158876802</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0.53466093567667194</v>
-      </c>
-      <c r="F17" s="20">
-        <v>0.58766168287542397</v>
-      </c>
-      <c r="G17" s="19">
-        <v>6.5998144190404298E-2</v>
-      </c>
-      <c r="H17" s="19">
-        <v>9.5721462571776605E-2</v>
-      </c>
-      <c r="I17" s="19">
-        <v>-1.52811519948254E-18</v>
-      </c>
-      <c r="J17" s="19">
-        <v>7.1799339231581799E-2</v>
-      </c>
-      <c r="K17" s="19">
-        <v>-6.0715321659188202E-18</v>
-      </c>
-      <c r="L17" s="19">
-        <v>1.00019510368961</v>
-      </c>
-      <c r="M17" s="19">
-        <v>1.0083234944399</v>
-      </c>
       <c r="N17" s="29"/>
-      <c r="P17" t="s">
-        <v>95</v>
-      </c>
-      <c r="X17" s="3">
-        <v>-0.39930727074402</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>-0.25955307091370799</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>-0.35085803088712902</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0.83507449839757397</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>-7.3912165927994905E-2</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>0.176104015966695</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>-0.220067561725175</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>-1.1357800307384799E-2</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>-0.17284547011874499</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>-0.89202486837649897</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>0.63667224356187602</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>0.40798681733852898</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>0.90010601598221895</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>0.28479441195850502</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>0.82205139175563102</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>0.73865791993032504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41">
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="3">
         <v>120</v>
       </c>
       <c r="B18" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="19">
-        <v>0.26962274490546601</v>
-      </c>
-      <c r="E18" s="19">
-        <v>0.48407361378653002</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0.46031251471789397</v>
+        <v>0.31293849158876802</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.53466093567667194</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.58766168287542397</v>
       </c>
       <c r="G18" s="19">
-        <v>5.58759194352818E-2</v>
+        <v>6.5998144190404298E-2</v>
       </c>
       <c r="H18" s="19">
-        <v>-2.99470441369806E-2</v>
+        <v>9.5721462571776605E-2</v>
       </c>
       <c r="I18" s="19">
-        <v>-1.6180362171630601E-18</v>
+        <v>-1.52811519948254E-18</v>
       </c>
       <c r="J18" s="19">
-        <v>-0.10550333948867099</v>
+        <v>7.1799339231581799E-2</v>
       </c>
       <c r="K18" s="19">
-        <v>1.22298005056365E-17</v>
+        <v>-6.0715321659188202E-18</v>
       </c>
       <c r="L18" s="19">
-        <v>1.0018077479143199</v>
+        <v>1.00019510368961</v>
       </c>
       <c r="M18" s="19">
-        <v>1.0153562697430201</v>
+        <v>1.0083234944399</v>
       </c>
       <c r="N18" s="29"/>
-      <c r="Q18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" s="3">
-        <v>5027.9510259888202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41">
+      <c r="P18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-0.39930727074402</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-0.25955307091370799</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-0.35085803088712902</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0.83507449839757397</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-7.3912165927994905E-2</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0.176104015966695</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>-0.220067561725175</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>-1.1357800307384799E-2</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>-0.17284547011874499</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>-0.89202486837649897</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>0.63667224356187602</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>0.40798681733852898</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>0.90010601598221895</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>0.28479441195850502</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>0.82205139175563102</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>0.73865791993032504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
       <c r="A19" s="3">
         <v>120</v>
       </c>
       <c r="B19" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="19">
-        <v>0.32537568825635799</v>
+        <v>0.26962274490546601</v>
       </c>
       <c r="E19" s="19">
-        <v>0.44652383594566297</v>
-      </c>
-      <c r="F19" s="20">
-        <v>0.53305007605335397</v>
+        <v>0.48407361378653002</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.46031251471789397</v>
       </c>
       <c r="G19" s="19">
-        <v>6.5392593015028797E-2</v>
+        <v>5.58759194352818E-2</v>
       </c>
       <c r="H19" s="19">
-        <v>5.2944805805778899E-2</v>
+        <v>-2.99470441369806E-2</v>
       </c>
       <c r="I19" s="19">
-        <v>1.10778356973706E-18</v>
+        <v>-1.6180362171630601E-18</v>
       </c>
       <c r="J19" s="19">
-        <v>8.2100902556140304E-2</v>
+        <v>-0.10550333948867099</v>
       </c>
       <c r="K19" s="19">
-        <v>2.5977484052752701E-17</v>
+        <v>1.22298005056365E-17</v>
       </c>
       <c r="L19" s="19">
-        <v>1.0002026916228599</v>
+        <v>1.0018077479143199</v>
       </c>
       <c r="M19" s="19">
-        <v>1.0098695349086899</v>
+        <v>1.0153562697430201</v>
       </c>
       <c r="N19" s="29"/>
       <c r="Q19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1.02590569140754</v>
-      </c>
-      <c r="X19" s="3">
-        <v>-0.53513442505826803</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>1.0844746432379</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>0.46029820069119598</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>-1.2714011640335201</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>0.29500863785590598</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>-0.37052344649894497</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>-0.89141406939590195</v>
-      </c>
-      <c r="AE19" s="3">
-        <v>0.47667593595399199</v>
-      </c>
-      <c r="AF19" s="3">
-        <v>0.14209318813952401</v>
-      </c>
-      <c r="AG19" s="3">
-        <v>-3.6330178115795801E-2</v>
-      </c>
-      <c r="AH19" s="3">
-        <v>-1.07603667403723</v>
-      </c>
-      <c r="AI19" s="3">
-        <v>-0.43562142882063198</v>
-      </c>
-      <c r="AJ19" s="3">
-        <v>-0.14228632379410699</v>
-      </c>
-      <c r="AK19" s="3">
-        <v>-0.18316506657523901</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>-0.552247353610548</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>0.23959107892125001</v>
-      </c>
-      <c r="AN19" s="3">
-        <v>8.9743801136487097E-2</v>
-      </c>
-      <c r="AO19" s="3">
-        <v>-0.30993865490371902</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41">
+        <v>50</v>
+      </c>
+      <c r="R19" s="7">
+        <v>5027.9510259888202</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="7">
+        <v>3134.7193628984401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="3">
         <v>120</v>
       </c>
       <c r="B20" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
       <c r="D20" s="19">
-        <v>0.26926093678540602</v>
+        <v>0.32537568825635799</v>
       </c>
       <c r="E20" s="19">
-        <v>0.456632924605617</v>
+        <v>0.44652383594566297</v>
       </c>
       <c r="F20" s="20">
-        <v>0.57554015614666199</v>
+        <v>0.53305007605335397</v>
       </c>
       <c r="G20" s="19">
-        <v>6.7135855476701603E-2</v>
+        <v>6.5392593015028797E-2</v>
       </c>
       <c r="H20" s="19">
-        <v>-1.32337598331696E-2</v>
+        <v>5.2944805805778899E-2</v>
       </c>
       <c r="I20" s="19">
-        <v>4.63270553284956E-19</v>
+        <v>1.10778356973706E-18</v>
       </c>
       <c r="J20" s="19">
-        <v>1.35559914493949E-2</v>
+        <v>8.2100902556140304E-2</v>
       </c>
       <c r="K20" s="19">
-        <v>9.0205620750794003E-18</v>
+        <v>2.5977484052752701E-17</v>
       </c>
       <c r="L20" s="19">
-        <v>1.0015171153810101</v>
+        <v>1.0002026916228599</v>
       </c>
       <c r="M20" s="19">
-        <v>1.01515638003644</v>
+        <v>1.0098695349086899</v>
       </c>
       <c r="N20" s="29"/>
       <c r="Q20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R20" s="3">
-        <v>1.0076595875987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41">
+        <v>1.02590569140754</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1.0183638944897899</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-0.53513442505826803</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1.0844746432379</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0.46029820069119598</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>-1.2714011640335201</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0.29500863785590598</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>-0.37052344649894497</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>-0.89141406939590195</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0.47667593595399199</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0.14209318813952401</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>-3.6330178115795801E-2</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>-1.07603667403723</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>-0.43562142882063198</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>-0.14228632379410699</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>-0.18316506657523901</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>-0.552247353610548</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>0.23959107892125001</v>
+      </c>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+    </row>
+    <row r="21" spans="1:43">
       <c r="A21" s="3">
         <v>120</v>
       </c>
       <c r="B21" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D21" s="19">
-        <v>0.32370206181317401</v>
+        <v>0.26926093678540602</v>
       </c>
       <c r="E21" s="19">
-        <v>0.44809867631100497</v>
+        <v>0.456632924605617</v>
       </c>
       <c r="F21" s="20">
-        <v>0.61388625613410897</v>
+        <v>0.57554015614666199</v>
       </c>
       <c r="G21" s="19">
-        <v>8.1236302743691605E-2</v>
+        <v>6.7135855476701603E-2</v>
       </c>
       <c r="H21" s="19">
-        <v>-1.6701244186039001E-2</v>
+        <v>-1.32337598331696E-2</v>
       </c>
       <c r="I21" s="19">
-        <v>6.9352347215751001E-18</v>
+        <v>4.63270553284956E-19</v>
       </c>
       <c r="J21" s="19">
-        <v>-7.9668158084937296E-2</v>
+        <v>1.35559914493949E-2</v>
       </c>
       <c r="K21" s="19">
-        <v>3.5561831257524504E-18</v>
+        <v>9.0205620750794003E-18</v>
       </c>
       <c r="L21" s="19">
-        <v>0.99972985940468795</v>
+        <v>1.0015171153810101</v>
       </c>
       <c r="M21" s="19">
-        <v>1.0067801752683601</v>
+        <v>1.01515638003644</v>
       </c>
       <c r="N21" s="29"/>
       <c r="Q21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R21" s="3">
-        <v>0.20720681025329701</v>
-      </c>
-      <c r="X21" s="3">
-        <v>8.9743801136487097E-2</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-0.30993865490371902</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>0.57193314158837305</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>0.18007701030773701</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>0.20565401777318201</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-0.74967354585665102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41">
+        <v>1.0076595875987</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1.0040694843250799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" s="3">
         <v>120</v>
       </c>
       <c r="B22" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="19">
-        <v>0.27764981805047401</v>
-      </c>
-      <c r="E22" s="20">
-        <v>0.50871876460494003</v>
+        <v>0.32370206181317401</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0.44809867631100497</v>
       </c>
       <c r="F22" s="20">
-        <v>0.63868642601622605</v>
+        <v>0.61388625613410897</v>
       </c>
       <c r="G22" s="19">
-        <v>6.8737560665830796E-2</v>
+        <v>8.1236302743691605E-2</v>
       </c>
       <c r="H22" s="19">
-        <v>-2.1744873587466601E-2</v>
+        <v>-1.6701244186039001E-2</v>
       </c>
       <c r="I22" s="19">
-        <v>-8.3302866919303004E-19</v>
+        <v>6.9352347215751001E-18</v>
       </c>
       <c r="J22" s="19">
-        <v>-5.25162212360143E-2</v>
+        <v>-7.9668158084937296E-2</v>
       </c>
       <c r="K22" s="19">
-        <v>-2.54136989230602E-17</v>
+        <v>3.5561831257524504E-18</v>
       </c>
       <c r="L22" s="19">
-        <v>0.99998082888365902</v>
+        <v>0.99972985940468795</v>
       </c>
       <c r="M22" s="19">
-        <v>1.00754652670929</v>
+        <v>1.0067801752683601</v>
       </c>
       <c r="N22" s="29"/>
       <c r="Q22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.20720681025329701</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.273527756233858</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>8.9743801136487097E-2</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>-0.30993865490371902</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0.57193314158837305</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0.18007701030773701</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0.20565401777318201</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>-0.74967354585665102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" s="3">
+        <v>120</v>
+      </c>
+      <c r="B23" s="3">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.27764981805047401</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.50871876460494003</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.63868642601622605</v>
+      </c>
+      <c r="G23" s="19">
+        <v>6.8737560665830796E-2</v>
+      </c>
+      <c r="H23" s="19">
+        <v>-2.1744873587466601E-2</v>
+      </c>
+      <c r="I23" s="19">
+        <v>-8.3302866919303004E-19</v>
+      </c>
+      <c r="J23" s="19">
+        <v>-5.25162212360143E-2</v>
+      </c>
+      <c r="K23" s="19">
+        <v>-2.54136989230602E-17</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0.99998082888365902</v>
+      </c>
+      <c r="M23" s="19">
+        <v>1.00754652670929</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="Q23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R23" s="3">
         <v>1.12280061570503E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:41">
-      <c r="A23" t="s">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1.5252328202346E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" t="s">
         <v>127</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="Q23" s="3" t="s">
+      <c r="N24" s="26"/>
+      <c r="Q24" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:41">
-      <c r="A24" s="6" t="s">
+      <c r="R24">
+        <v>3033.7530000000002</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1900.211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="N24" s="29"/>
-      <c r="V24" s="2"/>
-      <c r="W24" t="s">
-        <v>15</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>2</v>
-      </c>
-      <c r="Z24">
-        <v>3</v>
-      </c>
-      <c r="AA24">
-        <v>4</v>
-      </c>
-      <c r="AB24">
-        <v>5</v>
-      </c>
-      <c r="AC24">
-        <v>6</v>
-      </c>
-      <c r="AD24">
-        <v>7</v>
-      </c>
-      <c r="AE24">
-        <v>8</v>
-      </c>
-      <c r="AF24">
-        <v>9</v>
-      </c>
-      <c r="AG24">
-        <v>10</v>
-      </c>
-      <c r="AH24">
-        <v>11</v>
-      </c>
-      <c r="AI24">
-        <v>12</v>
-      </c>
-      <c r="AJ24">
-        <v>13</v>
-      </c>
-      <c r="AK24">
-        <v>14</v>
-      </c>
-      <c r="AL24">
-        <v>15</v>
-      </c>
-      <c r="AM24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41">
-      <c r="A25" s="2">
-        <v>60</v>
-      </c>
-      <c r="B25" s="3">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0.28079799244321602</v>
-      </c>
-      <c r="E25" s="20">
-        <v>0.58137311717906903</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0.65130613065614895</v>
-      </c>
-      <c r="G25" s="19">
-        <v>8.8624338664887295E-2</v>
-      </c>
-      <c r="H25" s="19">
-        <v>-4.9282714790983397E-3</v>
-      </c>
-      <c r="I25" s="19">
-        <v>-3.1895533848629101E-18</v>
-      </c>
-      <c r="J25" s="19">
-        <v>-2.2979499085714301E-2</v>
-      </c>
-      <c r="K25" s="19">
-        <v>7.8062556418956304E-18</v>
-      </c>
-      <c r="L25" s="19">
-        <v>1.0023510714919599</v>
-      </c>
-      <c r="M25" s="19">
-        <v>1.01046894074951</v>
       </c>
       <c r="N25" s="29"/>
       <c r="P25" t="s">
-        <v>137</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="19">
-        <v>0.71187347465492701</v>
-      </c>
-      <c r="Y25" s="19">
-        <v>1.0693202825131101</v>
-      </c>
-      <c r="Z25" s="19">
-        <v>1.56456134999693</v>
-      </c>
-      <c r="AA25" s="19">
-        <v>0.968535090133823</v>
-      </c>
-      <c r="AB25" s="19">
-        <v>1.1398783342565999</v>
-      </c>
-      <c r="AC25" s="19">
-        <v>0.92962941416420097</v>
-      </c>
-      <c r="AD25" s="19">
-        <v>0.81654302851472504</v>
-      </c>
-      <c r="AE25" s="19">
-        <v>1.3159026238884299</v>
-      </c>
-      <c r="AF25" s="19">
-        <v>0.76828076218042796</v>
-      </c>
-      <c r="AG25" s="19">
-        <v>0.99982151335349301</v>
-      </c>
-      <c r="AH25" s="19">
-        <v>1.15776534903107</v>
-      </c>
-      <c r="AI25" s="19">
-        <v>1.23008233331965</v>
-      </c>
-      <c r="AJ25" s="19">
-        <v>1.02101966450786</v>
-      </c>
-      <c r="AK25" s="19">
-        <v>0.68083604901520001</v>
-      </c>
-      <c r="AL25" s="19">
-        <v>1.15612640234993</v>
-      </c>
-      <c r="AM25" s="19">
-        <v>0.86602635868098699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41">
+        <v>78</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25">
+        <v>6</v>
+      </c>
+      <c r="AF25">
+        <v>7</v>
+      </c>
+      <c r="AG25">
+        <v>8</v>
+      </c>
+      <c r="AH25">
+        <v>9</v>
+      </c>
+      <c r="AI25">
+        <v>10</v>
+      </c>
+      <c r="AJ25">
+        <v>11</v>
+      </c>
+      <c r="AK25">
+        <v>12</v>
+      </c>
+      <c r="AL25">
+        <v>13</v>
+      </c>
+      <c r="AM25">
+        <v>14</v>
+      </c>
+      <c r="AN25">
+        <v>15</v>
+      </c>
+      <c r="AO25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="2">
         <v>60</v>
       </c>
       <c r="B26" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="19">
-        <v>0.225972140739052</v>
-      </c>
-      <c r="E26" s="19">
-        <v>0.46322137119197998</v>
+        <v>0.28079799244321602</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0.58137311717906903</v>
       </c>
       <c r="F26" s="20">
-        <v>0.64905378611547204</v>
+        <v>0.65130613065614895</v>
       </c>
       <c r="G26" s="19">
-        <v>6.9719401782332796E-2</v>
+        <v>8.8624338664887295E-2</v>
       </c>
       <c r="H26" s="19">
-        <v>7.3169033380917504E-3</v>
+        <v>-4.9282714790983397E-3</v>
       </c>
       <c r="I26" s="19">
-        <v>7.0600309091372303E-18</v>
+        <v>-3.1895533848629101E-18</v>
       </c>
       <c r="J26" s="19">
-        <v>5.7827598121102899E-2</v>
+        <v>-2.2979499085714301E-2</v>
       </c>
       <c r="K26" s="19">
-        <v>-1.5612511283791201E-18</v>
+        <v>7.8062556418956304E-18</v>
       </c>
       <c r="L26" s="19">
-        <v>1.00196404991031</v>
+        <v>1.0023510714919599</v>
       </c>
       <c r="M26" s="19">
-        <v>1.0095675648453399</v>
-      </c>
+        <v>1.01046894074951</v>
+      </c>
+      <c r="N26" s="29"/>
       <c r="P26" t="s">
-        <v>138</v>
-      </c>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-    </row>
-    <row r="27" spans="1:41">
+        <v>58</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="19">
+        <v>0.71187347465492701</v>
+      </c>
+      <c r="AA26" s="19">
+        <v>1.0693202825131101</v>
+      </c>
+      <c r="AB26" s="19">
+        <v>1.56456134999693</v>
+      </c>
+      <c r="AC26" s="19">
+        <v>0.968535090133823</v>
+      </c>
+      <c r="AD26" s="19">
+        <v>1.1398783342565999</v>
+      </c>
+      <c r="AE26" s="19">
+        <v>0.92962941416420097</v>
+      </c>
+      <c r="AF26" s="19">
+        <v>0.81654302851472504</v>
+      </c>
+      <c r="AG26" s="19">
+        <v>1.3159026238884299</v>
+      </c>
+      <c r="AH26" s="19">
+        <v>0.76828076218042796</v>
+      </c>
+      <c r="AI26" s="19">
+        <v>0.99982151335349301</v>
+      </c>
+      <c r="AJ26" s="19">
+        <v>1.15776534903107</v>
+      </c>
+      <c r="AK26" s="19">
+        <v>1.23008233331965</v>
+      </c>
+      <c r="AL26" s="19">
+        <v>1.02101966450786</v>
+      </c>
+      <c r="AM26" s="19">
+        <v>0.68083604901520001</v>
+      </c>
+      <c r="AN26" s="19">
+        <v>1.15612640234993</v>
+      </c>
+      <c r="AO26" s="19">
+        <v>0.86602635868098699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="2">
         <v>60</v>
       </c>
       <c r="B27" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="19">
-        <v>0.33448606070307302</v>
-      </c>
-      <c r="E27" s="20">
-        <v>1.07139265679732</v>
+        <v>0.225972140739052</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.46322137119197998</v>
       </c>
       <c r="F27" s="20">
-        <v>0.91664734721305496</v>
+        <v>0.64905378611547204</v>
       </c>
       <c r="G27" s="19">
-        <v>7.3531608307410498E-2</v>
+        <v>6.9719401782332796E-2</v>
       </c>
       <c r="H27" s="19">
-        <v>-9.6056097787686895E-3</v>
+        <v>7.3169033380917504E-3</v>
       </c>
       <c r="I27" s="19">
-        <v>-2.6411164921746799E-18</v>
+        <v>7.0600309091372303E-18</v>
       </c>
       <c r="J27" s="19">
-        <v>6.9321106084177997E-3</v>
+        <v>5.7827598121102899E-2</v>
       </c>
       <c r="K27" s="19">
-        <v>-9.1940344226770696E-18</v>
+        <v>-1.5612511283791201E-18</v>
       </c>
       <c r="L27" s="19">
-        <v>1.0018132311260699</v>
+        <v>1.00196404991031</v>
       </c>
       <c r="M27" s="19">
-        <v>1.0090211604713899</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W27" s="2">
-        <v>1</v>
-      </c>
-      <c r="X27" s="19">
-        <v>-0.48146592172718</v>
-      </c>
-      <c r="Y27" s="19">
-        <v>-3.3894617067079399E-2</v>
-      </c>
-      <c r="Z27" s="19">
-        <v>-0.86973733920308405</v>
-      </c>
-      <c r="AA27" s="19">
-        <v>-0.58215137561629604</v>
-      </c>
-      <c r="AB27" s="19">
-        <v>-0.136731402670007</v>
-      </c>
-      <c r="AC27" s="19">
-        <v>0.47494073185102598</v>
-      </c>
-      <c r="AD27" s="19">
-        <v>-0.28915573518086701</v>
-      </c>
-      <c r="AE27" s="19">
-        <v>3.46177054559084E-2</v>
-      </c>
-      <c r="AF27" s="19">
-        <v>-0.82248827174498795</v>
-      </c>
-      <c r="AG27" s="19">
-        <v>-0.30665135728943099</v>
-      </c>
-      <c r="AH27" s="36">
-        <v>-1.04747371968679</v>
-      </c>
-      <c r="AI27" s="37">
-        <v>0.68166340355840804</v>
-      </c>
-      <c r="AJ27" s="38">
-        <v>-0.270122867326056</v>
-      </c>
-      <c r="AK27" s="39">
-        <v>-8.9262652667477793E-2</v>
-      </c>
-      <c r="AL27" s="40">
-        <v>-0.21644157791659199</v>
-      </c>
-      <c r="AM27" s="41">
-        <v>-0.106617013766833</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41">
+        <v>1.0095675648453399</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27" s="3">
+        <v>5225.0498435906602</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="3">
+        <v>3186.2791051388299</v>
+      </c>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="35"/>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="35"/>
+      <c r="AN27" s="35"/>
+      <c r="AO27" s="35"/>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="2">
         <v>60</v>
       </c>
       <c r="B28" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
       </c>
       <c r="D28" s="19">
-        <v>0.24012820806250501</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0.36187883067914201</v>
+        <v>0.33448606070307302</v>
+      </c>
+      <c r="E28" s="20">
+        <v>1.07139265679732</v>
       </c>
       <c r="F28" s="20">
-        <v>0.641691392181026</v>
+        <v>0.91664734721305496</v>
       </c>
       <c r="G28" s="19">
-        <v>7.8791317176950898E-2</v>
+        <v>7.3531608307410498E-2</v>
       </c>
       <c r="H28" s="19">
-        <v>-2.9856171711371702E-4</v>
+        <v>-9.6056097787686895E-3</v>
       </c>
       <c r="I28" s="19">
-        <v>-2.9586804378729599E-18</v>
+        <v>-2.6411164921746799E-18</v>
       </c>
       <c r="J28" s="19">
-        <v>6.4378763511548906E-2</v>
+        <v>6.9321106084177997E-3</v>
       </c>
       <c r="K28" s="19">
-        <v>4.8572257327350603E-18</v>
+        <v>-9.1940344226770696E-18</v>
       </c>
       <c r="L28" s="19">
-        <v>1.0036356340044901</v>
+        <v>1.0018132311260699</v>
       </c>
       <c r="M28" s="19">
-        <v>1.0146627892050799</v>
-      </c>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2">
-        <v>2</v>
-      </c>
-      <c r="X28" s="19">
-        <v>-0.46409804021283002</v>
-      </c>
-      <c r="Y28" s="19">
-        <v>0.27879973534338898</v>
-      </c>
-      <c r="Z28" s="19">
-        <v>-0.92082505619296195</v>
-      </c>
-      <c r="AA28" s="19">
-        <v>-0.90195048948394796</v>
-      </c>
-      <c r="AB28" s="19">
-        <v>-0.22645140931722299</v>
-      </c>
-      <c r="AC28" s="19">
-        <v>0.13844303923339901</v>
-      </c>
-      <c r="AD28" s="19">
-        <v>-0.432537234288563</v>
-      </c>
-      <c r="AE28" s="19">
-        <v>0.34797949183733301</v>
-      </c>
-      <c r="AF28" s="19">
-        <v>-0.83872701581266096</v>
-      </c>
-      <c r="AG28" s="19">
-        <v>-0.50518151693315205</v>
-      </c>
-      <c r="AH28" s="36">
-        <v>-0.85470487491427405</v>
-      </c>
-      <c r="AI28" s="37">
-        <v>0.27509934507253497</v>
-      </c>
-      <c r="AJ28" s="38">
-        <v>5.1483469153192699E-3</v>
-      </c>
-      <c r="AK28" s="39">
-        <v>-0.15397149768961599</v>
-      </c>
-      <c r="AL28" s="40">
-        <v>-0.23197265550365601</v>
-      </c>
-      <c r="AM28" s="41">
-        <v>5.1231287725315301E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41">
+        <v>1.0090211604713899</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1.0523828269467099</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1.1755461823514</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>-0.48146592172718</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>-3.3894617067079399E-2</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>-0.86973733920308405</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>-0.58215137561629604</v>
+      </c>
+      <c r="AD28" s="13">
+        <v>-0.136731402670007</v>
+      </c>
+      <c r="AE28" s="13">
+        <v>0.47494073185102598</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>-0.28915573518086701</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>3.46177054559084E-2</v>
+      </c>
+      <c r="AH28" s="13">
+        <v>-0.82248827174498795</v>
+      </c>
+      <c r="AI28" s="13">
+        <v>-0.30665135728943099</v>
+      </c>
+      <c r="AJ28" s="39">
+        <v>-1.04747371968679</v>
+      </c>
+      <c r="AK28" s="40">
+        <v>0.68166340355840804</v>
+      </c>
+      <c r="AL28" s="41">
+        <v>-0.270122867326056</v>
+      </c>
+      <c r="AM28" s="42">
+        <v>-8.9262652667477793E-2</v>
+      </c>
+      <c r="AN28" s="43">
+        <v>-0.21644157791659199</v>
+      </c>
+      <c r="AO28" s="44">
+        <v>-0.106617013766833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" s="2">
         <v>60</v>
       </c>
       <c r="B29" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29" s="19">
-        <v>0.284487376521113</v>
+        <v>0.24012820806250501</v>
       </c>
       <c r="E29" s="19">
-        <v>0.41340674355712298</v>
+        <v>0.36187883067914201</v>
       </c>
       <c r="F29" s="20">
-        <v>0.88954379542435402</v>
+        <v>0.641691392181026</v>
       </c>
       <c r="G29" s="19">
-        <v>8.5770216295986093E-2</v>
+        <v>7.8791317176950898E-2</v>
       </c>
       <c r="H29" s="19">
-        <v>7.2504906817158696E-3</v>
+        <v>-2.9856171711371702E-4</v>
       </c>
       <c r="I29" s="19">
-        <v>-5.2766764482153897E-18</v>
+        <v>-2.9586804378729599E-18</v>
       </c>
       <c r="J29" s="19">
-        <v>-3.9931940412692497E-2</v>
+        <v>6.4378763511548906E-2</v>
       </c>
       <c r="K29" s="19">
-        <v>-2.77555756156289E-18</v>
+        <v>4.8572257327350603E-18</v>
       </c>
       <c r="L29" s="19">
-        <v>1.00179918143363</v>
+        <v>1.0036356340044901</v>
       </c>
       <c r="M29" s="19">
-        <v>1.0089348732994201</v>
-      </c>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2">
-        <v>3</v>
-      </c>
-      <c r="X29" s="19">
-        <v>-0.45460754062900899</v>
-      </c>
-      <c r="Y29" s="19">
-        <v>0.24816407064153301</v>
-      </c>
-      <c r="Z29" s="19">
-        <v>-1.0156092518520099</v>
-      </c>
-      <c r="AA29" s="19">
-        <v>-0.56011040074124196</v>
-      </c>
-      <c r="AB29" s="19">
-        <v>-0.23109197274735599</v>
-      </c>
-      <c r="AC29" s="19">
-        <v>-5.2844899020035203E-2</v>
-      </c>
-      <c r="AD29" s="19">
-        <v>-0.47229047302757399</v>
-      </c>
-      <c r="AE29" s="19">
-        <v>0.366982358928783</v>
-      </c>
-      <c r="AF29" s="19">
-        <v>-0.72510210562275601</v>
-      </c>
-      <c r="AG29" s="19">
-        <v>-0.63546393355407205</v>
-      </c>
-      <c r="AH29" s="36">
-        <v>-3.3243850686896899E-2</v>
-      </c>
-      <c r="AI29" s="37">
-        <v>0.15930734824467599</v>
-      </c>
-      <c r="AJ29" s="38">
-        <v>-0.45472820442243</v>
-      </c>
-      <c r="AK29" s="39">
-        <v>-0.179706118940234</v>
-      </c>
-      <c r="AL29" s="40">
-        <v>-0.22476625856858001</v>
-      </c>
-      <c r="AM29" s="41">
-        <v>-7.7236245933909306E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41">
+        <v>1.0146627892050799</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1.0174102945818699</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1.03555255614762</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>-0.46409804021283002</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>0.27879973534338898</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>-0.92082505619296195</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>-0.90195048948394796</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>-0.22645140931722299</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>0.13844303923339901</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>-0.432537234288563</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>0.34797949183733301</v>
+      </c>
+      <c r="AH29" s="13">
+        <v>-0.83872701581266096</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>-0.50518151693315205</v>
+      </c>
+      <c r="AJ29" s="39">
+        <v>-0.85470487491427405</v>
+      </c>
+      <c r="AK29" s="40">
+        <v>0.27509934507253497</v>
+      </c>
+      <c r="AL29" s="41">
+        <v>5.1483469153192699E-3</v>
+      </c>
+      <c r="AM29" s="42">
+        <v>-0.15397149768961599</v>
+      </c>
+      <c r="AN29" s="43">
+        <v>-0.23197265550365601</v>
+      </c>
+      <c r="AO29" s="44">
+        <v>5.1231287725315301E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="2">
         <v>60</v>
       </c>
       <c r="B30" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C30" s="3">
         <v>10</v>
       </c>
       <c r="D30" s="19">
+        <v>0.284487376521113</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.41340674355712298</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0.88954379542435402</v>
+      </c>
+      <c r="G30" s="19">
+        <v>8.5770216295986093E-2</v>
+      </c>
+      <c r="H30" s="19">
+        <v>7.2504906817158696E-3</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-5.2766764482153897E-18</v>
+      </c>
+      <c r="J30" s="19">
+        <v>-3.9931940412692497E-2</v>
+      </c>
+      <c r="K30" s="19">
+        <v>-2.77555756156289E-18</v>
+      </c>
+      <c r="L30" s="19">
+        <v>1.00179918143363</v>
+      </c>
+      <c r="M30" s="19">
+        <v>1.0089348732994201</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.197776627762179</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.27988121542815803</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>-0.45460754062900899</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>0.24816407064153301</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>-1.0156092518520099</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>-0.56011040074124196</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>-0.23109197274735599</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>-5.2844899020035203E-2</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>-0.47229047302757399</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>0.366982358928783</v>
+      </c>
+      <c r="AH30" s="13">
+        <v>-0.72510210562275601</v>
+      </c>
+      <c r="AI30" s="13">
+        <v>-0.63546393355407205</v>
+      </c>
+      <c r="AJ30" s="39">
+        <v>-3.3243850686896899E-2</v>
+      </c>
+      <c r="AK30" s="40">
+        <v>0.15930734824467599</v>
+      </c>
+      <c r="AL30" s="41">
+        <v>-0.45472820442243</v>
+      </c>
+      <c r="AM30" s="42">
+        <v>-0.179706118940234</v>
+      </c>
+      <c r="AN30" s="43">
+        <v>-0.22476625856858001</v>
+      </c>
+      <c r="AO30" s="44">
+        <v>-7.7236245933909306E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
+      <c r="A31" s="2">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="19">
         <v>0.244586034003931</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E31" s="20">
         <v>0.59066426141057904</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F31" s="20">
         <v>0.95244148135463502</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G31" s="19">
         <v>7.1997382398300405E-2</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H31" s="19">
         <v>-8.7649382670095704E-4</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I31" s="19">
         <v>-1.68850484086556E-17</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J31" s="19">
         <v>2.5429404812871401E-2</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K31" s="19">
         <v>1.8041124150158801E-17</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L31" s="19">
         <v>1.0020442381608601</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M31" s="19">
         <v>1.00971868716071</v>
       </c>
-      <c r="W30" s="2">
+      <c r="Q31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" s="3">
+        <v>9.5192436157520797E-3</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U31" s="3">
+        <v>2.72786878727963E-2</v>
+      </c>
+      <c r="Y31" s="2">
         <v>4</v>
       </c>
-      <c r="X30" s="19">
+      <c r="Z31" s="13">
         <v>-0.71879750693912903</v>
       </c>
-      <c r="Y30" s="19">
+      <c r="AA31" s="13">
         <v>0.213595544989371</v>
       </c>
-      <c r="Z30" s="19">
+      <c r="AB31" s="13">
         <v>-0.90207579802170701</v>
       </c>
-      <c r="AA30" s="19">
+      <c r="AC31" s="13">
         <v>-0.34876806773015501</v>
       </c>
-      <c r="AB30" s="19">
+      <c r="AD31" s="13">
         <v>-0.32766230501267302</v>
       </c>
-      <c r="AC30" s="19">
+      <c r="AE31" s="13">
         <v>4.0114721148092503E-2</v>
       </c>
-      <c r="AD30" s="19">
+      <c r="AF31" s="13">
         <v>-0.40245630372563301</v>
       </c>
-      <c r="AE30" s="19">
+      <c r="AG31" s="13">
         <v>0.316694572331298</v>
       </c>
-      <c r="AF30" s="19">
+      <c r="AH31" s="13">
         <v>-0.826085670996345</v>
       </c>
-      <c r="AG30" s="19">
+      <c r="AI31" s="13">
         <v>-0.493582257404029</v>
       </c>
-      <c r="AH30" s="36">
+      <c r="AJ31" s="39">
         <v>0.21840025153182899</v>
       </c>
-      <c r="AI30" s="37">
+      <c r="AK31" s="40">
         <v>-2.1167213440965001E-2</v>
       </c>
-      <c r="AJ30" s="38">
+      <c r="AL31" s="41">
         <v>7.7863116774793503E-2</v>
       </c>
-      <c r="AK30" s="39">
+      <c r="AM31" s="42">
         <v>-0.15082738989334499</v>
       </c>
-      <c r="AL30" s="40">
+      <c r="AN31" s="43">
         <v>-0.41767706828741402</v>
       </c>
-      <c r="AM30" s="41">
+      <c r="AO31" s="44">
         <v>-3.4510079958779902E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
-      <c r="A31" s="2">
-        <v>90</v>
-      </c>
-      <c r="B31" s="3">
-        <v>10</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0.28458816589046099</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0.25173404436720498</v>
-      </c>
-      <c r="F31" s="20">
-        <v>0.63878122562628004</v>
-      </c>
-      <c r="G31" s="19">
-        <v>8.0321635861489799E-2</v>
-      </c>
-      <c r="H31" s="19">
-        <v>-9.2654461182485708E-3</v>
-      </c>
-      <c r="I31" s="19">
-        <v>1.7252367069674401E-19</v>
-      </c>
-      <c r="J31" s="19">
-        <v>0.194314979401704</v>
-      </c>
-      <c r="K31" s="19">
-        <v>1.0408340855860799E-17</v>
-      </c>
-      <c r="L31" s="19">
-        <v>1.00212606119982</v>
-      </c>
-      <c r="M31" s="19">
-        <v>1.01183011156989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:43">
       <c r="A32" s="2">
         <v>90</v>
       </c>
       <c r="B32" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
       </c>
       <c r="D32" s="19">
-        <v>0.237034361727952</v>
+        <v>0.28458816589046099</v>
       </c>
       <c r="E32" s="19">
-        <v>0.43076337641352902</v>
+        <v>0.25173404436720498</v>
       </c>
       <c r="F32" s="20">
-        <v>0.74409343773032199</v>
+        <v>0.63878122562628004</v>
       </c>
       <c r="G32" s="19">
-        <v>5.9764478850223499E-2</v>
+        <v>8.0321635861489799E-2</v>
       </c>
       <c r="H32" s="19">
-        <v>1.9125876891182201E-2</v>
+        <v>-9.2654461182485708E-3</v>
       </c>
       <c r="I32" s="19">
-        <v>4.0732060369397502E-18</v>
+        <v>1.7252367069674401E-19</v>
       </c>
       <c r="J32" s="19">
-        <v>-2.4903842435834399E-2</v>
+        <v>0.194314979401704</v>
       </c>
       <c r="K32" s="19">
-        <v>-3.1918911957973297E-17</v>
+        <v>1.0408340855860799E-17</v>
       </c>
       <c r="L32" s="19">
-        <v>1.0019684309836701</v>
+        <v>1.00212606119982</v>
       </c>
       <c r="M32" s="19">
-        <v>1.0096548405100101</v>
-      </c>
-      <c r="V32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W32" s="2">
-        <v>1</v>
-      </c>
-      <c r="X32" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39">
+        <v>1.01183011156989</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R32">
+        <v>3038.6</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" s="15">
+        <v>1863.71</v>
+      </c>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33" s="2">
         <v>90</v>
       </c>
       <c r="B33" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="19">
-        <v>0.29483800445462699</v>
+        <v>0.237034361727952</v>
       </c>
       <c r="E33" s="19">
-        <v>0.48729018663921803</v>
+        <v>0.43076337641352902</v>
       </c>
       <c r="F33" s="20">
-        <v>0.86091952686383</v>
+        <v>0.74409343773032199</v>
       </c>
       <c r="G33" s="19">
-        <v>6.5711389810718293E-2</v>
+        <v>5.9764478850223499E-2</v>
       </c>
       <c r="H33" s="19">
-        <v>1.31696216203539E-2</v>
+        <v>1.9125876891182201E-2</v>
       </c>
       <c r="I33" s="19">
-        <v>-4.5077060573800402E-18</v>
+        <v>4.0732060369397502E-18</v>
       </c>
       <c r="J33" s="19">
-        <v>-0.107838642263208</v>
+        <v>-2.4903842435834399E-2</v>
       </c>
       <c r="K33" s="19">
-        <v>1.27935856353289E-17</v>
+        <v>-3.1918911957973297E-17</v>
       </c>
       <c r="L33" s="19">
-        <v>1.00154027099008</v>
+        <v>1.0019684309836701</v>
       </c>
       <c r="M33" s="19">
-        <v>1.0113562911198499</v>
-      </c>
-      <c r="W33" s="2">
-        <v>2</v>
-      </c>
-      <c r="X33" s="19">
-        <v>-2.1259221246215598</v>
-      </c>
-      <c r="Y33" s="19">
-        <v>-0.86227063998443298</v>
-      </c>
-      <c r="Z33" s="19">
-        <v>-0.92236221144214303</v>
-      </c>
-      <c r="AA33" s="19">
-        <v>-1.6206184698460799</v>
-      </c>
-      <c r="AB33" s="19">
-        <v>-2.2970653590966101</v>
-      </c>
-      <c r="AC33" s="19">
-        <v>-1.6332749568581399</v>
-      </c>
-      <c r="AD33" s="19">
-        <v>-1.18263706029059</v>
-      </c>
-      <c r="AE33" s="19">
-        <v>-1.4109329572023901</v>
-      </c>
-      <c r="AF33" s="19">
-        <v>-1.00306938384755</v>
-      </c>
-      <c r="AG33" s="19">
-        <v>-1.51637994985769</v>
-      </c>
-      <c r="AH33" s="19">
-        <v>-1.6571342502361699</v>
-      </c>
-      <c r="AI33" s="19">
-        <v>-0.95592464854996395</v>
-      </c>
-      <c r="AJ33" s="19">
-        <v>-1.07863493735049</v>
-      </c>
-      <c r="AK33" s="19">
-        <v>-1.6853223030192901</v>
-      </c>
-      <c r="AL33" s="19">
-        <v>0.187022324222062</v>
-      </c>
-      <c r="AM33" s="19">
-        <v>-0.896442143454382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
+        <v>1.0096548405100101</v>
+      </c>
+      <c r="P33" t="s">
+        <v>76</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34" s="2">
         <v>90</v>
       </c>
       <c r="B34" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C34" s="3">
         <v>5</v>
       </c>
       <c r="D34" s="19">
-        <v>0.240817048447</v>
+        <v>0.29483800445462699</v>
       </c>
       <c r="E34" s="19">
-        <v>0.47391415776387102</v>
+        <v>0.48729018663921803</v>
       </c>
       <c r="F34" s="20">
-        <v>0.88288085810989403</v>
+        <v>0.86091952686383</v>
       </c>
       <c r="G34" s="19">
-        <v>5.0436829494738503E-2</v>
+        <v>6.5711389810718293E-2</v>
       </c>
       <c r="H34" s="19">
-        <v>3.31553952746955E-3</v>
+        <v>1.31696216203539E-2</v>
       </c>
       <c r="I34" s="19">
-        <v>3.3753924134904801E-18</v>
+        <v>-4.5077060573800402E-18</v>
       </c>
       <c r="J34" s="19">
-        <v>-3.29579623534485E-2</v>
+        <v>-0.107838642263208</v>
       </c>
       <c r="K34" s="19">
-        <v>-6.4184768611142097E-18</v>
+        <v>1.27935856353289E-17</v>
       </c>
       <c r="L34" s="19">
-        <v>1.0028923536252701</v>
+        <v>1.00154027099008</v>
       </c>
       <c r="M34" s="19">
-        <v>1.01229119819312</v>
-      </c>
-      <c r="W34" s="2">
-        <v>3</v>
-      </c>
-      <c r="X34" s="19">
-        <v>-0.22990657667457501</v>
-      </c>
-      <c r="Y34" s="19">
-        <v>-0.50597646845640398</v>
-      </c>
-      <c r="Z34" s="19">
-        <v>-1.25871538512154</v>
-      </c>
-      <c r="AA34" s="19">
-        <v>-1.27269092955914</v>
-      </c>
-      <c r="AB34" s="19">
-        <v>-0.27970713685765702</v>
-      </c>
-      <c r="AC34" s="19">
-        <v>-0.64439647261350796</v>
-      </c>
-      <c r="AD34" s="19">
-        <v>-8.6654656867717603E-2</v>
-      </c>
-      <c r="AE34" s="19">
-        <v>-0.64733379547604297</v>
-      </c>
-      <c r="AF34" s="19">
-        <v>-0.44952101767338498</v>
-      </c>
-      <c r="AG34" s="19">
-        <v>-0.12733617001662501</v>
-      </c>
-      <c r="AH34" s="19">
-        <v>-0.658135901913659</v>
-      </c>
-      <c r="AI34" s="19">
-        <v>-9.6555327645774E-2</v>
-      </c>
-      <c r="AJ34" s="19">
-        <v>-0.70284957208203103</v>
-      </c>
-      <c r="AK34" s="19">
-        <v>-0.70754799147306202</v>
-      </c>
-      <c r="AL34" s="19">
-        <v>-1.1988028116262499</v>
-      </c>
-      <c r="AM34" s="19">
-        <v>-0.45725691305221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
+        <v>1.0113562911198499</v>
+      </c>
+      <c r="P34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>-2.1259221246215598</v>
+      </c>
+      <c r="AA34" s="13">
+        <v>-0.86227063998443298</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>-0.92236221144214303</v>
+      </c>
+      <c r="AC34" s="13">
+        <v>-1.6206184698460799</v>
+      </c>
+      <c r="AD34" s="13">
+        <v>-2.2970653590966101</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>-1.6332749568581399</v>
+      </c>
+      <c r="AF34" s="13">
+        <v>-1.18263706029059</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>-1.4109329572023901</v>
+      </c>
+      <c r="AH34" s="13">
+        <v>-1.00306938384755</v>
+      </c>
+      <c r="AI34" s="13">
+        <v>-1.51637994985769</v>
+      </c>
+      <c r="AJ34" s="13">
+        <v>-1.6571342502361699</v>
+      </c>
+      <c r="AK34" s="13">
+        <v>-0.95592464854996395</v>
+      </c>
+      <c r="AL34" s="13">
+        <v>-1.07863493735049</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>-1.6853223030192901</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>0.187022324222062</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>-0.896442143454382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" s="2">
         <v>90</v>
       </c>
       <c r="B35" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D35" s="19">
-        <v>0.29668176145846298</v>
+        <v>0.240817048447</v>
       </c>
       <c r="E35" s="19">
-        <v>0.31949230036392101</v>
+        <v>0.47391415776387102</v>
       </c>
       <c r="F35" s="20">
-        <v>0.90054351230975804</v>
+        <v>0.88288085810989403</v>
       </c>
       <c r="G35" s="19">
-        <v>4.8811724192124997E-2</v>
+        <v>5.0436829494738503E-2</v>
       </c>
       <c r="H35" s="19">
-        <v>1.21943603648691E-2</v>
+        <v>3.31553952746955E-3</v>
       </c>
       <c r="I35" s="19">
-        <v>-1.7979460151598599E-18</v>
+        <v>3.3753924134904801E-18</v>
       </c>
       <c r="J35" s="19">
-        <v>-0.261333772400549</v>
+        <v>-3.29579623534485E-2</v>
       </c>
       <c r="K35" s="19">
-        <v>1.09287578986539E-17</v>
+        <v>-6.4184768611142097E-18</v>
       </c>
       <c r="L35" s="19">
-        <v>1.00175516380023</v>
+        <v>1.0028923536252701</v>
       </c>
       <c r="M35" s="19">
-        <v>1.01162782305909</v>
-      </c>
-      <c r="W35" s="2">
-        <v>4</v>
-      </c>
-      <c r="X35" s="19">
-        <v>0.62950461757961296</v>
-      </c>
-      <c r="Y35" s="19">
-        <v>0.54011888821568199</v>
-      </c>
-      <c r="Z35" s="19">
-        <v>0.38648413372511897</v>
-      </c>
-      <c r="AA35" s="19">
-        <v>0.77189828765649104</v>
-      </c>
-      <c r="AB35" s="19">
-        <v>0.79845473771481401</v>
-      </c>
-      <c r="AC35" s="19">
-        <v>0.48196435826826001</v>
-      </c>
-      <c r="AD35" s="19">
-        <v>0.70629053777835205</v>
-      </c>
-      <c r="AE35" s="19">
-        <v>0.74836011073993502</v>
-      </c>
-      <c r="AF35" s="19">
-        <v>0.47148403601431199</v>
-      </c>
-      <c r="AG35" s="19">
-        <v>0.38443000671869798</v>
-      </c>
-      <c r="AH35" s="19">
-        <v>0.91631341181425696</v>
-      </c>
-      <c r="AI35" s="19">
-        <v>0.20754601558251801</v>
-      </c>
-      <c r="AJ35" s="19">
-        <v>0.73332773077116797</v>
-      </c>
-      <c r="AK35" s="19">
-        <v>0.42416997741331602</v>
-      </c>
-      <c r="AL35" s="19">
-        <v>1.37213606168056</v>
-      </c>
-      <c r="AM35" s="19">
-        <v>6.2737265644588702E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
+        <v>1.01229119819312</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R35" s="3">
+        <v>5104.4631396023296</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U35" s="3">
+        <v>3154.3312668721701</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>-0.22990657667457501</v>
+      </c>
+      <c r="AA35" s="13">
+        <v>-0.50597646845640398</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>-1.25871538512154</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>-1.27269092955914</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>-0.27970713685765702</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>-0.64439647261350796</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>-8.6654656867717603E-2</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>-0.64733379547604297</v>
+      </c>
+      <c r="AH35" s="13">
+        <v>-0.44952101767338498</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>-0.12733617001662501</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>-0.658135901913659</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>-9.6555327645774E-2</v>
+      </c>
+      <c r="AL35" s="13">
+        <v>-0.70284957208203103</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>-0.70754799147306202</v>
+      </c>
+      <c r="AN35" s="13">
+        <v>-1.1988028116262499</v>
+      </c>
+      <c r="AO35" s="13">
+        <v>-0.45725691305221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" s="2">
         <v>90</v>
       </c>
       <c r="B36" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" s="3">
         <v>10</v>
       </c>
       <c r="D36" s="19">
+        <v>0.29668176145846298</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0.31949230036392101</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0.90054351230975804</v>
+      </c>
+      <c r="G36" s="19">
+        <v>4.8811724192124997E-2</v>
+      </c>
+      <c r="H36" s="19">
+        <v>1.21943603648691E-2</v>
+      </c>
+      <c r="I36" s="19">
+        <v>-1.7979460151598599E-18</v>
+      </c>
+      <c r="J36" s="19">
+        <v>-0.261333772400549</v>
+      </c>
+      <c r="K36" s="19">
+        <v>1.09287578986539E-17</v>
+      </c>
+      <c r="L36" s="19">
+        <v>1.00175516380023</v>
+      </c>
+      <c r="M36" s="19">
+        <v>1.01162782305909</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="3">
+        <v>1.0077306562207999</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U36" s="3">
+        <v>1.0030952762557901</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>0.62950461757961296</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>0.54011888821568199</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>0.38648413372511897</v>
+      </c>
+      <c r="AC36" s="13">
+        <v>0.77189828765649104</v>
+      </c>
+      <c r="AD36" s="13">
+        <v>0.79845473771481401</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>0.48196435826826001</v>
+      </c>
+      <c r="AF36" s="13">
+        <v>0.70629053777835205</v>
+      </c>
+      <c r="AG36" s="13">
+        <v>0.74836011073993502</v>
+      </c>
+      <c r="AH36" s="13">
+        <v>0.47148403601431199</v>
+      </c>
+      <c r="AI36" s="13">
+        <v>0.38443000671869798</v>
+      </c>
+      <c r="AJ36" s="13">
+        <v>0.91631341181425696</v>
+      </c>
+      <c r="AK36" s="13">
+        <v>0.20754601558251801</v>
+      </c>
+      <c r="AL36" s="13">
+        <v>0.73332773077116797</v>
+      </c>
+      <c r="AM36" s="13">
+        <v>0.42416997741331602</v>
+      </c>
+      <c r="AN36" s="13">
+        <v>1.37213606168056</v>
+      </c>
+      <c r="AO36" s="13">
+        <v>6.2737265644588702E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" s="2">
+        <v>90</v>
+      </c>
+      <c r="B37" s="3">
+        <v>15</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="19">
         <v>0.23479252980346399</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E37" s="19">
         <v>0.34543631150953202</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F37" s="20">
         <v>0.77421729376541204</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G37" s="19">
         <v>6.1933459737729499E-2</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H37" s="19">
         <v>-1.7097698503601599E-2</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I37" s="19">
         <v>2.4054380449306601E-18</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J37" s="19">
         <v>2.1661170286716099E-2</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K37" s="19">
         <v>2.2551405187698401E-18</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L37" s="19">
         <v>1.00236473985916</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M37" s="19">
         <v>1.01230426727613</v>
       </c>
-      <c r="W36" s="2">
+      <c r="Q37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0.99999035990084295</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0.999414034203012</v>
+      </c>
+      <c r="Y37" s="2">
         <v>5</v>
       </c>
-      <c r="X36" s="19">
+      <c r="Z37" s="13">
         <v>1.7263240837165199</v>
       </c>
-      <c r="Y36" s="19">
+      <c r="AA37" s="13">
         <v>0.82812822022515498</v>
       </c>
-      <c r="Z36" s="19">
+      <c r="AB37" s="13">
         <v>1.79459346283856</v>
       </c>
-      <c r="AA36" s="19">
+      <c r="AC37" s="13">
         <v>2.12141111174873</v>
       </c>
-      <c r="AB36" s="19">
+      <c r="AD37" s="13">
         <v>1.77831775823945</v>
       </c>
-      <c r="AC36" s="19">
+      <c r="AE37" s="13">
         <v>1.79570707120339</v>
       </c>
-      <c r="AD36" s="19">
+      <c r="AF37" s="13">
         <v>0.56300117937995398</v>
       </c>
-      <c r="AE36" s="19">
+      <c r="AG37" s="13">
         <v>1.3099066419384999</v>
       </c>
-      <c r="AF36" s="19">
+      <c r="AH37" s="13">
         <v>0.981106365506624</v>
       </c>
-      <c r="AG36" s="19">
+      <c r="AI37" s="13">
         <v>1.2592861131556099</v>
       </c>
-      <c r="AH36" s="19">
+      <c r="AJ37" s="13">
         <v>1.39895674033557</v>
       </c>
-      <c r="AI36" s="19">
+      <c r="AK37" s="13">
         <v>0.84493396061322001</v>
       </c>
-      <c r="AJ36" s="19">
+      <c r="AL37" s="13">
         <v>1.0481567786613599</v>
       </c>
-      <c r="AK36" s="19">
+      <c r="AM37" s="13">
         <v>1.96870031707903</v>
       </c>
-      <c r="AL36" s="19">
+      <c r="AN37" s="13">
         <v>-0.36035557427637499</v>
       </c>
-      <c r="AM36" s="19">
+      <c r="AO37" s="13">
         <v>1.2909617908619999</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
-      <c r="A37" s="2">
-        <v>120</v>
-      </c>
-      <c r="B37" s="3">
-        <v>10</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3</v>
-      </c>
-      <c r="D37" s="19">
-        <v>0.278510276480394</v>
-      </c>
-      <c r="E37" s="19">
-        <v>0.26261228664411701</v>
-      </c>
-      <c r="F37" s="20">
-        <v>0.69006871394535096</v>
-      </c>
-      <c r="G37" s="19">
-        <v>5.0963009403136902E-2</v>
-      </c>
-      <c r="H37" s="19">
-        <v>-1.02797732884536E-2</v>
-      </c>
-      <c r="I37" s="19">
-        <v>4.8597244799294197E-19</v>
-      </c>
-      <c r="J37" s="19">
-        <v>-1.3978887681620299E-4</v>
-      </c>
-      <c r="K37" s="19">
-        <v>4.16333634234435E-18</v>
-      </c>
-      <c r="L37" s="19">
-        <v>1.0005829773589601</v>
-      </c>
-      <c r="M37" s="19">
-        <v>1.0067508019523499</v>
-      </c>
-      <c r="AL37" s="34"/>
-    </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" s="2">
         <v>120</v>
       </c>
       <c r="B38" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="19">
-        <v>0.23641711562874099</v>
-      </c>
-      <c r="E38" s="20">
-        <v>0.55796215063136401</v>
+        <v>0.278510276480394</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0.26261228664411701</v>
       </c>
       <c r="F38" s="20">
-        <v>0.65950333515346604</v>
+        <v>0.69006871394535096</v>
       </c>
       <c r="G38" s="19">
-        <v>4.9676209189990099E-2</v>
+        <v>5.0963009403136902E-2</v>
       </c>
       <c r="H38" s="19">
-        <v>-9.4680365266507204E-3</v>
+        <v>-1.02797732884536E-2</v>
       </c>
       <c r="I38" s="19">
-        <v>4.5289835250150696E-18</v>
+        <v>4.8597244799294197E-19</v>
       </c>
       <c r="J38" s="19">
-        <v>7.2553870881835597E-2</v>
+        <v>-1.3978887681620299E-4</v>
       </c>
       <c r="K38" s="19">
-        <v>-1.64798730217798E-18</v>
+        <v>4.16333634234435E-18</v>
       </c>
       <c r="L38" s="19">
-        <v>1.0016395073061699</v>
+        <v>1.0005829773589601</v>
       </c>
       <c r="M38" s="19">
-        <v>1.0095054132702399</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
+        <v>1.0067508019523499</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0.18446899339627701</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0.270536887205651</v>
+      </c>
+      <c r="AN38" s="34"/>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="2">
         <v>120</v>
       </c>
       <c r="B39" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="19">
-        <v>0.29186772406930001</v>
-      </c>
-      <c r="E39" s="19">
-        <v>0.425690557641064</v>
+        <v>0.23641711562874099</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0.55796215063136401</v>
       </c>
       <c r="F39" s="20">
-        <v>0.801987365647853</v>
+        <v>0.65950333515346604</v>
       </c>
       <c r="G39" s="19">
-        <v>6.2503310479304894E-2</v>
+        <v>4.9676209189990099E-2</v>
       </c>
       <c r="H39" s="19">
-        <v>6.5522520905533495E-4</v>
+        <v>-9.4680365266507204E-3</v>
       </c>
       <c r="I39" s="19">
-        <v>4.0942184538483803E-18</v>
+        <v>4.5289835250150696E-18</v>
       </c>
       <c r="J39" s="19">
-        <v>1.29388741854397E-2</v>
+        <v>7.2553870881835597E-2</v>
       </c>
       <c r="K39" s="19">
-        <v>1.11022302462516E-17</v>
+        <v>-1.64798730217798E-18</v>
       </c>
       <c r="L39" s="19">
-        <v>1.00069569618889</v>
+        <v>1.0016395073061699</v>
       </c>
       <c r="M39" s="19">
-        <v>1.0083708282972299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39">
+        <v>1.0095054132702399</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R39" s="3">
+        <v>1.21594064227475E-2</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U39" s="3">
+        <v>1.6866806191788E-2</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="2">
         <v>120</v>
       </c>
       <c r="B40" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
       </c>
       <c r="D40" s="19">
-        <v>0.23350792989025601</v>
-      </c>
-      <c r="E40" s="20">
-        <v>0.60572788908842601</v>
+        <v>0.29186772406930001</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0.425690557641064</v>
       </c>
       <c r="F40" s="20">
-        <v>0.84012893670669997</v>
+        <v>0.801987365647853</v>
       </c>
       <c r="G40" s="19">
-        <v>5.5010289684205502E-2</v>
+        <v>6.2503310479304894E-2</v>
       </c>
       <c r="H40" s="19">
-        <v>6.8316204649336004E-3</v>
+        <v>6.5522520905533495E-4</v>
       </c>
       <c r="I40" s="19">
-        <v>8.46897421982739E-19</v>
+        <v>4.0942184538483803E-18</v>
       </c>
       <c r="J40" s="19">
-        <v>-0.11245449654435501</v>
+        <v>1.29388741854397E-2</v>
       </c>
       <c r="K40" s="19">
-        <v>-1.15359111152458E-17</v>
+        <v>1.11022302462516E-17</v>
       </c>
       <c r="L40" s="19">
-        <v>1.0016705683727301</v>
+        <v>1.00069569618889</v>
       </c>
       <c r="M40" s="19">
-        <v>1.0098040509917401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39">
+        <v>1.0083708282972299</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R40">
+        <v>3056.3490000000002</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U40">
+        <v>1924.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41" s="2">
         <v>120</v>
       </c>
       <c r="B41" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C41" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D41" s="19">
-        <v>0.27817889351791403</v>
-      </c>
-      <c r="E41" s="19">
-        <v>0.31475360910977201</v>
+        <v>0.23350792989025601</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.60572788908842601</v>
       </c>
       <c r="F41" s="20">
-        <v>0.93213898015577401</v>
+        <v>0.84012893670669997</v>
       </c>
       <c r="G41" s="19">
-        <v>5.36695799098732E-2</v>
+        <v>5.5010289684205502E-2</v>
       </c>
       <c r="H41" s="19">
-        <v>-1.24122135303539E-2</v>
+        <v>6.8316204649336004E-3</v>
       </c>
       <c r="I41" s="19">
-        <v>-5.8912412030957401E-19</v>
+        <v>8.46897421982739E-19</v>
       </c>
       <c r="J41" s="19">
-        <v>-7.96760119152429E-2</v>
+        <v>-0.11245449654435501</v>
       </c>
       <c r="K41" s="19">
-        <v>-3.9898639947466498E-18</v>
+        <v>-1.15359111152458E-17</v>
       </c>
       <c r="L41" s="19">
-        <v>1.0010609822703</v>
+        <v>1.0016705683727301</v>
       </c>
       <c r="M41" s="19">
-        <v>1.0087556257689501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39">
+        <v>1.0098040509917401</v>
+      </c>
+      <c r="P41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42" s="2">
         <v>120</v>
       </c>
       <c r="B42" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C42" s="3">
         <v>10</v>
       </c>
       <c r="D42" s="19">
+        <v>0.27817889351791403</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.31475360910977201</v>
+      </c>
+      <c r="F42" s="20">
+        <v>0.93213898015577401</v>
+      </c>
+      <c r="G42" s="19">
+        <v>5.36695799098732E-2</v>
+      </c>
+      <c r="H42" s="19">
+        <v>-1.24122135303539E-2</v>
+      </c>
+      <c r="I42" s="19">
+        <v>-5.8912412030957401E-19</v>
+      </c>
+      <c r="J42" s="19">
+        <v>-7.96760119152429E-2</v>
+      </c>
+      <c r="K42" s="19">
+        <v>-3.9898639947466498E-18</v>
+      </c>
+      <c r="L42" s="19">
+        <v>1.0010609822703</v>
+      </c>
+      <c r="M42" s="19">
+        <v>1.0087556257689501</v>
+      </c>
+      <c r="P42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41">
+      <c r="A43" s="2">
+        <v>120</v>
+      </c>
+      <c r="B43" s="3">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10</v>
+      </c>
+      <c r="D43" s="19">
         <v>0.23725512660727399</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E43" s="19">
         <v>0.433811937545244</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F43" s="20">
         <v>0.88594581153159102</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G43" s="19">
         <v>4.4637923970146001E-2</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H43" s="19">
         <v>-8.0528264638870094E-3</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I43" s="19">
         <v>-5.5738833687479802E-18</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J43" s="19">
         <v>-6.5331977340728903E-2</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K43" s="19">
         <v>-8.6736173798850206E-20</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L43" s="19">
         <v>1.0037407055538401</v>
       </c>
-      <c r="M42" s="19">
+      <c r="M43" s="19">
         <v>1.0160293437572401</v>
       </c>
-    </row>
-    <row r="43" spans="1:39">
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-    </row>
-    <row r="45" spans="1:39">
-      <c r="A45" t="s">
+      <c r="Q43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R43" s="3">
+        <v>5032.3620483268996</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U43" s="3">
+        <v>3137.1370598329499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41">
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="Q44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R44" s="3">
+        <v>1.02622739189868</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U44" s="3">
+        <v>1.0682917370110401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="Q45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1.0075910858275501</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U45" s="3">
+        <v>1.0072726912708201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41">
+      <c r="A46" t="s">
         <v>95</v>
       </c>
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39">
-      <c r="A46" s="8" t="s">
+      <c r="Q46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0.20684850634715701</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0.261022556352631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41">
+      <c r="A47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M47" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:39">
-      <c r="A47" s="2">
-        <v>50</v>
-      </c>
-      <c r="B47" s="3">
-        <v>10</v>
-      </c>
-      <c r="C47" s="3">
-        <v>3</v>
-      </c>
-      <c r="D47" s="13">
-        <v>0.23800672984063001</v>
-      </c>
-      <c r="E47" s="13">
-        <v>0.26658956733554401</v>
-      </c>
-      <c r="F47" s="13">
-        <v>0.202534968164791</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0.40172446397113198</v>
-      </c>
-      <c r="H47" s="13">
-        <v>2.2249971691260501E-2</v>
-      </c>
-      <c r="I47" s="13">
-        <v>1.9212921896682E-2</v>
-      </c>
-      <c r="J47" s="13">
-        <v>6.4945288466180806E-2</v>
-      </c>
-      <c r="K47" s="4">
-        <v>1.3010426069826099E-18</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1.0062824725095301</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1.02600358271202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39">
-      <c r="A48" s="2">
-        <v>50</v>
+      <c r="Q47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R47" s="3">
+        <v>1.1595825166654399E-2</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U47" s="3">
+        <v>1.6187143527022801E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41">
+      <c r="A48" s="3">
+        <v>60</v>
       </c>
       <c r="B48" s="3">
         <v>10</v>
       </c>
       <c r="C48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="13">
+        <v>0.28126509603599797</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0.234926111992384</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0.192921370569588</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.34434251922497999</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-1.11421521531033E-2</v>
+      </c>
+      <c r="I48" s="13">
+        <v>7.2805923502324201E-3</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-6.3790228619541398E-3</v>
+      </c>
+      <c r="K48" s="13">
+        <v>-1.6479873021779699E-18</v>
+      </c>
+      <c r="L48" s="13">
+        <v>1.0284417497565499</v>
+      </c>
+      <c r="M48" s="13">
+        <v>1.1559632403964</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R48" s="15">
+        <v>3028.6489999999999</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U48">
+        <v>1910.6990000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3">
         <v>5</v>
       </c>
-      <c r="D48" s="13">
-        <v>0.30098717066667602</v>
-      </c>
-      <c r="E48" s="13">
-        <v>0.23591821946795599</v>
-      </c>
-      <c r="F48" s="13">
-        <v>0.30532985092319198</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0.38313889710980398</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-1.47933096233407E-2</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-9.3203704860725996E-4</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-2.8470722081945801E-2</v>
-      </c>
-      <c r="K48" s="4">
-        <v>-8.8181776695487596E-18</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1.00727006398041</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1.0244587864001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="2">
-        <v>50</v>
-      </c>
-      <c r="B49" s="3">
+      <c r="D49" s="13">
+        <v>0.29046743574902101</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0.26378011001209101</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0.24824572526666799</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.36710962587376</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-7.4923454081512E-4</v>
+      </c>
+      <c r="I49" s="13">
+        <v>2.3098282751024799E-2</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-2.5196477977485299E-2</v>
+      </c>
+      <c r="K49" s="13">
+        <v>6.5485811218124697E-18</v>
+      </c>
+      <c r="L49" s="13">
+        <v>1.00696348682845</v>
+      </c>
+      <c r="M49" s="13">
+        <v>1.0294033202255699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3">
         <v>10</v>
       </c>
-      <c r="C49" s="3">
-        <v>10</v>
-      </c>
-      <c r="D49" s="13">
-        <v>0.316954228058065</v>
-      </c>
-      <c r="E49" s="13">
-        <v>0.36308390921476102</v>
-      </c>
-      <c r="F49" s="13">
-        <v>0.361905831795092</v>
-      </c>
-      <c r="G49" s="13">
-        <v>0.405076858456208</v>
-      </c>
-      <c r="H49" s="13">
-        <v>7.8210308773227002E-3</v>
-      </c>
-      <c r="I49" s="13">
-        <v>3.5713384171738201E-2</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-1.5092220406270101E-2</v>
-      </c>
-      <c r="K49" s="4">
-        <v>5.9992520210864697E-18</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1.00426726170264</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1.0238710998037199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="2">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3">
-        <v>15</v>
-      </c>
-      <c r="C50" s="3">
-        <v>3</v>
-      </c>
       <c r="D50" s="13">
-        <v>0.25208619001500399</v>
+        <v>0.28746789284411201</v>
       </c>
       <c r="E50" s="13">
-        <v>0.29693966591026799</v>
+        <v>0.23153837549320899</v>
       </c>
       <c r="F50" s="13">
-        <v>0.248799595254839</v>
+        <v>0.23042256891478399</v>
       </c>
       <c r="G50" s="13">
-        <v>0.37126525430884899</v>
+        <v>0.36805857127752101</v>
       </c>
       <c r="H50" s="13">
-        <v>3.2227363033082601E-2</v>
+        <v>-2.4645321112957801E-3</v>
       </c>
       <c r="I50" s="13">
-        <v>1.1151831734871E-2</v>
+        <v>8.8601666117072899E-3</v>
       </c>
       <c r="J50" s="13">
-        <v>6.2030437405142302E-2</v>
-      </c>
-      <c r="K50" s="4">
-        <v>4.4813689796067504E-18</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1.0125190297229301</v>
-      </c>
-      <c r="M50" s="3">
-        <v>1.0861362365387</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
+        <v>2.7762285433846103E-4</v>
+      </c>
+      <c r="K50" s="13">
+        <v>-5.3722217646656803E-18</v>
+      </c>
+      <c r="L50" s="13">
+        <v>1.0092939611089999</v>
+      </c>
+      <c r="M50" s="13">
+        <v>1.03771080190905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40">
+      <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>15</v>
       </c>
       <c r="C51" s="3">
+        <v>3</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0.22887478465942901</v>
+      </c>
+      <c r="E51" s="13">
+        <v>0.26616993764204</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0.23543815887179001</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.37587931685714898</v>
+      </c>
+      <c r="H51" s="13">
+        <v>1.16572502240483E-2</v>
+      </c>
+      <c r="I51" s="13">
+        <v>1.31754006401835E-2</v>
+      </c>
+      <c r="J51" s="13">
+        <v>9.8091444851432907E-3</v>
+      </c>
+      <c r="K51" s="13">
+        <v>1.26987179452365E-18</v>
+      </c>
+      <c r="L51" s="13">
+        <v>1.0121356319855299</v>
+      </c>
+      <c r="M51" s="13">
+        <v>1.0549813929796401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3">
         <v>5</v>
       </c>
-      <c r="D51" s="13">
-        <v>0.245048514592725</v>
-      </c>
-      <c r="E51" s="13">
-        <v>0.231443016677399</v>
-      </c>
-      <c r="F51" s="13">
-        <v>0.189467308444665</v>
-      </c>
-      <c r="G51" s="13">
-        <v>0.34325067148764299</v>
-      </c>
-      <c r="H51" s="13">
-        <v>2.7734498326832599E-2</v>
-      </c>
-      <c r="I51" s="13">
-        <v>8.3967468224183696E-3</v>
-      </c>
-      <c r="J51" s="13">
-        <v>5.1395491470773201E-3</v>
-      </c>
-      <c r="K51" s="4">
-        <v>-6.9388939039072199E-18</v>
-      </c>
-      <c r="L51" s="3">
-        <v>1.01059524573398</v>
-      </c>
-      <c r="M51" s="3">
-        <v>1.0335468005759501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="2">
-        <v>50</v>
-      </c>
-      <c r="B52" s="3">
-        <v>15</v>
-      </c>
-      <c r="C52" s="3">
+      <c r="D52" s="13">
+        <v>0.22258352238814499</v>
+      </c>
+      <c r="E52" s="13">
+        <v>0.220101120279937</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0.22789492150436699</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.35819166466659202</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1.3710079259500901E-3</v>
+      </c>
+      <c r="I52" s="13">
+        <v>1.1441749794873699E-2</v>
+      </c>
+      <c r="J52" s="13">
+        <v>1.60646608867871E-2</v>
+      </c>
+      <c r="K52" s="13">
+        <v>-9.0259830859419508E-19</v>
+      </c>
+      <c r="L52" s="13">
+        <v>1.01488319674147</v>
+      </c>
+      <c r="M52" s="13">
+        <v>1.08168027917919</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3">
         <v>10</v>
       </c>
-      <c r="D52" s="13">
-        <v>0.24107637671138199</v>
-      </c>
-      <c r="E52" s="13">
-        <v>0.26079945941773802</v>
-      </c>
-      <c r="F52" s="13">
-        <v>0.33017422465428797</v>
-      </c>
-      <c r="G52" s="13">
-        <v>0.39372227366012202</v>
-      </c>
-      <c r="H52" s="13">
-        <v>1.74103751971416E-2</v>
-      </c>
-      <c r="I52" s="13">
-        <v>1.9662861483485301E-2</v>
-      </c>
-      <c r="J52" s="13">
-        <v>2.6157470459204302E-2</v>
-      </c>
-      <c r="K52" s="4">
-        <v>1.0842021724855E-18</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1.0077865388977501</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1.02928568190952</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="2">
-        <v>100</v>
-      </c>
-      <c r="B53" s="3">
-        <v>10</v>
-      </c>
-      <c r="C53" s="3">
-        <v>3</v>
-      </c>
       <c r="D53" s="13">
-        <v>0.25925392519921497</v>
+        <v>0.25843803486479899</v>
       </c>
       <c r="E53" s="13">
-        <v>0.188977138832471</v>
+        <v>0.26588876227466401</v>
       </c>
       <c r="F53" s="13">
-        <v>0.12533150975832499</v>
+        <v>0.31441312589791698</v>
       </c>
       <c r="G53" s="13">
-        <v>0.280303404821173</v>
+        <v>0.38256060577877499</v>
       </c>
       <c r="H53" s="13">
-        <v>-1.9149448380611899E-2</v>
+        <v>-1.8820720539502799E-2</v>
       </c>
       <c r="I53" s="13">
-        <v>1.04692381229484E-4</v>
+        <v>9.2147764461949205E-3</v>
       </c>
       <c r="J53" s="13">
-        <v>-8.5201551873198902E-3</v>
-      </c>
-      <c r="K53" s="4">
-        <v>8.6736173798839295E-19</v>
-      </c>
-      <c r="L53" s="3">
-        <v>1.0335707957301901</v>
-      </c>
-      <c r="M53" s="3">
-        <v>1.23026286272984</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="2">
-        <v>100</v>
+        <v>-4.3702191058516901E-2</v>
+      </c>
+      <c r="K53" s="13">
+        <v>-5.5104575416575797E-18</v>
+      </c>
+      <c r="L53" s="13">
+        <v>1.01326196932387</v>
+      </c>
+      <c r="M53" s="13">
+        <v>1.04397690600298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40">
+      <c r="A54" s="3">
+        <v>90</v>
       </c>
       <c r="B54" s="3">
         <v>10</v>
       </c>
       <c r="C54" s="3">
+        <v>3</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0.26158813147408799</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0.233616835258287</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0.136870904290738</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.29534177774569498</v>
+      </c>
+      <c r="H54" s="13">
+        <v>-1.20984707156696E-2</v>
+      </c>
+      <c r="I54" s="13">
+        <v>-2.06359851067629E-2</v>
+      </c>
+      <c r="J54" s="13">
+        <v>-1.92877633600461E-2</v>
+      </c>
+      <c r="K54" s="13">
+        <v>1.0842021724855499E-19</v>
+      </c>
+      <c r="L54" s="13">
+        <v>1.01004490252977</v>
+      </c>
+      <c r="M54" s="13">
+        <v>1.05650423347155</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN54" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3">
         <v>5</v>
       </c>
-      <c r="D54" s="13">
-        <v>0.27257523961109698</v>
-      </c>
-      <c r="E54" s="13">
-        <v>0.19245959791022901</v>
-      </c>
-      <c r="F54" s="13">
-        <v>0.13325375708943901</v>
-      </c>
-      <c r="G54" s="13">
-        <v>0.26820918926683801</v>
-      </c>
-      <c r="H54" s="13">
-        <v>1.00631636524599E-2</v>
-      </c>
-      <c r="I54" s="13">
-        <v>-3.4370073235118499E-3</v>
-      </c>
-      <c r="J54" s="13">
-        <v>3.7664612752103701E-3</v>
-      </c>
-      <c r="K54" s="4">
-        <v>1.0950441942103599E-17</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1.01860785784156</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1.1581341379269801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="2">
-        <v>100</v>
-      </c>
-      <c r="B55" s="3">
+      <c r="D55" s="13">
+        <v>0.26389514834925598</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0.24936259008343001</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0.16097266250613301</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.303244394235203</v>
+      </c>
+      <c r="H55" s="13">
+        <v>1.4767802612085301E-2</v>
+      </c>
+      <c r="I55" s="13">
+        <v>2.3728273329815901E-2</v>
+      </c>
+      <c r="J55" s="13">
+        <v>2.6744928955507001E-2</v>
+      </c>
+      <c r="K55" s="13">
+        <v>1.3010426069826099E-18</v>
+      </c>
+      <c r="L55" s="13">
+        <v>1.0085291558099401</v>
+      </c>
+      <c r="M55" s="13">
+        <v>1.0384662490965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3">
         <v>10</v>
       </c>
-      <c r="C55" s="3">
-        <v>10</v>
-      </c>
-      <c r="D55" s="13">
-        <v>0.26464046943210001</v>
-      </c>
-      <c r="E55" s="13">
-        <v>0.17815895870541401</v>
-      </c>
-      <c r="F55" s="13">
-        <v>0.185486776255474</v>
-      </c>
-      <c r="G55" s="13">
-        <v>0.29821944290921398</v>
-      </c>
-      <c r="H55" s="13">
-        <v>-2.35891144827199E-2</v>
-      </c>
-      <c r="I55" s="13">
-        <v>2.1907368710976101E-2</v>
-      </c>
-      <c r="J55" s="13">
-        <v>-2.9559108102827199E-2</v>
-      </c>
-      <c r="K55" s="4">
-        <v>-1.3010426069825999E-18</v>
-      </c>
-      <c r="L55" s="3">
-        <v>1.0059714849650001</v>
-      </c>
-      <c r="M55" s="3">
-        <v>1.0222091445266099</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="2">
-        <v>100</v>
-      </c>
-      <c r="B56" s="3">
-        <v>15</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3</v>
-      </c>
       <c r="D56" s="13">
-        <v>0.23196637434600501</v>
+        <v>0.28629101722484701</v>
       </c>
       <c r="E56" s="13">
-        <v>0.22192446731632201</v>
+        <v>0.26997905120122201</v>
       </c>
       <c r="F56" s="13">
-        <v>0.19534481293780101</v>
+        <v>0.22922059665255601</v>
       </c>
       <c r="G56" s="13">
-        <v>0.30360859202741097</v>
+        <v>0.30939056677208499</v>
       </c>
       <c r="H56" s="13">
-        <v>1.92547959750664E-3</v>
+        <v>-1.70329251009337E-3</v>
       </c>
       <c r="I56" s="13">
-        <v>1.6128221571730699E-2</v>
+        <v>2.6177661132598201E-2</v>
       </c>
       <c r="J56" s="13">
-        <v>-1.29134701634532E-3</v>
-      </c>
-      <c r="K56" s="4">
-        <v>1.9515639104738799E-18</v>
-      </c>
-      <c r="L56" s="3">
-        <v>1.00452064151073</v>
-      </c>
-      <c r="M56" s="3">
-        <v>1.02577233979979</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="2">
-        <v>100</v>
-      </c>
+        <v>1.6120785620988801E-2</v>
+      </c>
+      <c r="K56" s="13">
+        <v>1.8214596497756398E-18</v>
+      </c>
+      <c r="L56" s="13">
+        <v>1.00972119033783</v>
+      </c>
+      <c r="M56" s="13">
+        <v>1.03292174498869</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40">
+      <c r="A57" s="3"/>
       <c r="B57" s="3">
         <v>15</v>
       </c>
       <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="13">
+        <v>0.21431721557370301</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0.207073591529848</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0.17396731852157299</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.324518955703745</v>
+      </c>
+      <c r="H57" s="13">
+        <v>3.3076215234663302E-2</v>
+      </c>
+      <c r="I57" s="13">
+        <v>8.8419083762186993E-3</v>
+      </c>
+      <c r="J57" s="13">
+        <v>5.6110317707355799E-2</v>
+      </c>
+      <c r="K57" s="13">
+        <v>-2.4774019641293701E-18</v>
+      </c>
+      <c r="L57" s="13">
+        <v>1.0051605011182301</v>
+      </c>
+      <c r="M57" s="13">
+        <v>1.0262267634150299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3">
         <v>5</v>
       </c>
-      <c r="D57" s="13">
-        <v>0.23102704020703599</v>
-      </c>
-      <c r="E57" s="13">
-        <v>0.20162169987282999</v>
-      </c>
-      <c r="F57" s="13">
-        <v>0.17506193742655399</v>
-      </c>
-      <c r="G57" s="13">
-        <v>0.30685892280523103</v>
-      </c>
-      <c r="H57" s="13">
-        <v>2.7002792090656001E-2</v>
-      </c>
-      <c r="I57" s="13">
-        <v>8.9805322787849494E-3</v>
-      </c>
-      <c r="J57" s="13">
-        <v>5.7046334543498001E-2</v>
-      </c>
-      <c r="K57" s="4">
-        <v>1.7347234759768102E-18</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1.00747908615534</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1.02963986756677</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="2">
-        <v>100</v>
-      </c>
-      <c r="B58" s="3">
-        <v>15</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="D58" s="13">
+        <v>0.235311249656074</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0.208627939484645</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0.21133767767606099</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0.34157968918377901</v>
+      </c>
+      <c r="H58" s="13">
+        <v>2.1444148979765099E-3</v>
+      </c>
+      <c r="I58" s="13">
+        <v>2.6738795270764802E-3</v>
+      </c>
+      <c r="J58" s="13">
+        <v>-1.4896303846975901E-2</v>
+      </c>
+      <c r="K58" s="13">
+        <v>-2.81892564846231E-18</v>
+      </c>
+      <c r="L58" s="13">
+        <v>1.0116509815938799</v>
+      </c>
+      <c r="M58" s="13">
+        <v>1.04309034229666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3">
         <v>10</v>
       </c>
-      <c r="D58" s="13">
-        <v>0.237842382241683</v>
-      </c>
-      <c r="E58" s="13">
-        <v>0.25176752266607499</v>
-      </c>
-      <c r="F58" s="13">
-        <v>0.401418057983498</v>
-      </c>
-      <c r="G58" s="13">
-        <v>0.38261091099821198</v>
-      </c>
-      <c r="H58" s="13">
-        <v>1.2591765625792299E-2</v>
-      </c>
-      <c r="I58" s="13">
-        <v>2.3712468527091E-2</v>
-      </c>
-      <c r="J58" s="13">
-        <v>-5.0894787184215399E-3</v>
-      </c>
-      <c r="K58" s="4">
-        <v>1.8070036208091499E-18</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1.0036966632663</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1.0164156326891101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="D59" s="13">
+        <v>0.23131806612265499</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0.23990192802145799</v>
+      </c>
+      <c r="F59" s="13">
+        <v>0.26229545315825897</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0.349690517806652</v>
+      </c>
+      <c r="H59" s="13">
+        <v>-6.5121073513029603E-3</v>
+      </c>
+      <c r="I59" s="13">
+        <v>1.63023422473485E-2</v>
+      </c>
+      <c r="J59" s="13">
+        <v>-8.1713636969099699E-3</v>
+      </c>
+      <c r="K59" s="13">
+        <v>-3.2092384305570998E-18</v>
+      </c>
+      <c r="L59" s="13">
+        <v>1.00922594158553</v>
+      </c>
+      <c r="M59" s="13">
+        <v>1.0291126989016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="3">
-        <v>120</v>
-      </c>
+      <c r="B60" s="3">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
+      <c r="D60" s="13">
+        <v>0.25811251913378802</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0.18809796196918099</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0.15327110948976999</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0.273287581080986</v>
+      </c>
+      <c r="H60" s="13">
+        <v>-1.0542003726492799E-2</v>
+      </c>
+      <c r="I60" s="13">
+        <v>6.08089079659648E-3</v>
+      </c>
+      <c r="J60" s="13">
+        <v>-4.9507490789273004E-3</v>
+      </c>
+      <c r="K60" s="13">
+        <v>-4.3584927333917297E-18</v>
+      </c>
+      <c r="L60" s="13">
+        <v>1.0058561400691599</v>
+      </c>
+      <c r="M60" s="13">
+        <v>1.0286967701511101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
+      <c r="D61" s="13">
+        <v>0.28124017641568999</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0.208384591284173</v>
+      </c>
+      <c r="F61" s="13">
+        <v>0.17846483687194201</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0.31643322508529098</v>
+      </c>
+      <c r="H61" s="13">
+        <v>-7.6797678090615904E-4</v>
+      </c>
+      <c r="I61" s="13">
+        <v>1.2414188504055E-2</v>
+      </c>
+      <c r="J61" s="13">
+        <v>-1.0668083300957899E-2</v>
+      </c>
+      <c r="K61" s="13">
+        <v>-2.36898174688082E-18</v>
+      </c>
+      <c r="L61" s="13">
+        <v>1.0134606608146299</v>
+      </c>
+      <c r="M61" s="13">
+        <v>1.06668724106651</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3">
+        <v>10</v>
+      </c>
+      <c r="D62" s="13">
+        <v>0.28174432805086203</v>
+      </c>
+      <c r="E62" s="13">
+        <v>0.19691152570224699</v>
+      </c>
+      <c r="F62" s="13">
+        <v>0.252244938691705</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0.29273368626181701</v>
+      </c>
+      <c r="H62" s="13">
+        <v>-1.48714314137771E-2</v>
+      </c>
+      <c r="I62" s="13">
+        <v>4.3631271139640999E-3</v>
+      </c>
+      <c r="J62" s="13">
+        <v>-2.8150130267567901E-2</v>
+      </c>
+      <c r="K62" s="13">
+        <v>1.0570971181733601E-18</v>
+      </c>
+      <c r="L62" s="13">
+        <v>1.0047073859443001</v>
+      </c>
+      <c r="M62" s="13">
+        <v>1.02141414840286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3">
+        <v>3</v>
+      </c>
+      <c r="D63" s="13">
+        <v>0.22226301548180999</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0.189653222893504</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0.12609992946368501</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0.23602552303861299</v>
+      </c>
+      <c r="H63" s="13">
+        <v>2.3307976322765201E-2</v>
+      </c>
+      <c r="I63" s="13">
+        <v>5.7300149241429495E-4</v>
+      </c>
+      <c r="J63" s="13">
+        <v>2.6119073340397599E-2</v>
+      </c>
+      <c r="K63" s="13">
+        <v>-1.69135538907739E-18</v>
+      </c>
+      <c r="L63" s="13">
+        <v>1.0055531617331499</v>
+      </c>
+      <c r="M63" s="13">
+        <v>1.0265511474900999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
+      <c r="D64" s="13">
+        <v>0.22675860843414</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0.17392332332721699</v>
+      </c>
+      <c r="F64" s="13">
+        <v>0.18284987900945099</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0.31039916712286902</v>
+      </c>
+      <c r="H64" s="13">
+        <v>1.7251668782444E-2</v>
+      </c>
+      <c r="I64" s="13">
+        <v>1.5582242933511001E-2</v>
+      </c>
+      <c r="J64" s="13">
+        <v>4.8677549255131201E-2</v>
+      </c>
+      <c r="K64" s="13">
+        <v>7.5189420661869803E-18</v>
+      </c>
+      <c r="L64" s="13">
+        <v>1.00868028869821</v>
+      </c>
+      <c r="M64" s="13">
+        <v>1.06211377603409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3">
+        <v>10</v>
+      </c>
+      <c r="D65" s="13">
+        <v>0.241987963955446</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0.20075385186592801</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0.259606829038245</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0.29861998730505102</v>
+      </c>
+      <c r="H65" s="13">
+        <v>-4.9880375941717897E-3</v>
+      </c>
+      <c r="I65" s="13">
+        <v>8.9614999459094492E-3</v>
+      </c>
+      <c r="J65" s="13">
+        <v>-3.9297879361687004E-3</v>
+      </c>
+      <c r="K65" s="13">
+        <v>1.08420217248551E-18</v>
+      </c>
+      <c r="L65" s="13">
+        <v>1.0068629185228499</v>
+      </c>
+      <c r="M65" s="13">
+        <v>1.02492002437817</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="14">
+        <f>AVERAGE(D48:D65)</f>
+        <v>0.25410690035632577</v>
+      </c>
+      <c r="E66" s="14">
+        <f t="shared" ref="E66:J66" si="0">AVERAGE(E48:E65)</f>
+        <v>0.22492726835085916</v>
+      </c>
+      <c r="F66" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20980766702195733</v>
+      </c>
+      <c r="G66" s="14">
+        <f t="shared" si="0"/>
+        <v>0.32485596527892013</v>
+      </c>
+      <c r="H66" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0509098090445517E-3</v>
+      </c>
+      <c r="I66" s="14">
+        <f t="shared" si="0"/>
+        <v>9.8963332714978834E-3</v>
+      </c>
+      <c r="J66" s="14">
+        <f t="shared" si="0"/>
+        <v>1.9217894288966189E-3</v>
+      </c>
+      <c r="K66" s="14">
+        <f>AVERAGE(K48:K65)</f>
+        <v>-5.3600244902252054E-19</v>
+      </c>
+      <c r="L66" s="14">
+        <f t="shared" ref="L66" si="1">AVERAGE(L48:L65)</f>
+        <v>1.0102462902501304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -13500,8 +14587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59088491-4DA9-9046-B8F1-E0B2E1149923}">
   <dimension ref="A2:AT71"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="N70" sqref="B59:N70"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17117,64 +18204,64 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AM1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28" t="s">
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
       <c r="BM1" s="12"/>
-      <c r="BN1" s="28" t="s">
+      <c r="BN1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="28"/>
-      <c r="BR1" s="28"/>
-      <c r="BS1" s="28"/>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="28"/>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="28"/>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="28"/>
-      <c r="CC1" s="28"/>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="28"/>
-      <c r="CF1" s="28"/>
-      <c r="CG1" s="28"/>
-      <c r="CH1" s="28"/>
-      <c r="CI1" s="28"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
     </row>
     <row r="2" spans="1:87">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -17353,7 +18440,7 @@
       <c r="CI2" s="2"/>
     </row>
     <row r="3" spans="1:87">
-      <c r="A3" s="28"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -17504,7 +18591,7 @@
       </c>
     </row>
     <row r="4" spans="1:87">
-      <c r="A4" s="28"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
@@ -17746,7 +18833,7 @@
       </c>
     </row>
     <row r="5" spans="1:87">
-      <c r="A5" s="28"/>
+      <c r="A5" s="36"/>
       <c r="AL5">
         <f t="shared" ref="AL5:AL37" si="1">AL4+1</f>
         <v>2</v>
@@ -17885,7 +18972,7 @@
       </c>
     </row>
     <row r="6" spans="1:87">
-      <c r="A6" s="28"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
@@ -18132,7 +19219,7 @@
       </c>
     </row>
     <row r="7" spans="1:87">
-      <c r="A7" s="28"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>2</v>
@@ -18377,7 +19464,7 @@
       </c>
     </row>
     <row r="8" spans="1:87">
-      <c r="A8" s="28"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>3</v>
@@ -18622,7 +19709,7 @@
       </c>
     </row>
     <row r="9" spans="1:87">
-      <c r="A9" s="28"/>
+      <c r="A9" s="36"/>
       <c r="AL9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -18761,7 +19848,7 @@
       </c>
     </row>
     <row r="10" spans="1:87">
-      <c r="A10" s="28"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
@@ -19008,7 +20095,7 @@
       </c>
     </row>
     <row r="11" spans="1:87">
-      <c r="A11" s="28"/>
+      <c r="A11" s="36"/>
       <c r="C11" s="2">
         <v>3</v>
       </c>
@@ -19252,7 +20339,7 @@
       </c>
     </row>
     <row r="12" spans="1:87">
-      <c r="A12" s="28"/>
+      <c r="A12" s="36"/>
       <c r="C12" s="2">
         <v>4</v>
       </c>
@@ -19496,7 +20583,7 @@
       </c>
     </row>
     <row r="13" spans="1:87">
-      <c r="A13" s="28"/>
+      <c r="A13" s="36"/>
       <c r="C13" s="2">
         <v>5</v>
       </c>
@@ -19740,7 +20827,7 @@
       </c>
     </row>
     <row r="14" spans="1:87">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -19986,7 +21073,7 @@
       </c>
     </row>
     <row r="15" spans="1:87">
-      <c r="A15" s="28"/>
+      <c r="A15" s="36"/>
       <c r="AL15">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -20125,7 +21212,7 @@
       </c>
     </row>
     <row r="16" spans="1:87">
-      <c r="A16" s="28"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
@@ -20369,7 +21456,7 @@
       </c>
     </row>
     <row r="17" spans="1:87">
-      <c r="A17" s="28"/>
+      <c r="A17" s="36"/>
       <c r="AL17">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -20508,7 +21595,7 @@
       </c>
     </row>
     <row r="18" spans="1:87">
-      <c r="A18" s="28"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
@@ -20755,7 +21842,7 @@
       </c>
     </row>
     <row r="19" spans="1:87">
-      <c r="A19" s="28"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="2"/>
       <c r="C19">
         <v>2</v>
@@ -21000,7 +22087,7 @@
       </c>
     </row>
     <row r="20" spans="1:87">
-      <c r="A20" s="28"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="2"/>
       <c r="C20">
         <v>3</v>
@@ -21245,7 +22332,7 @@
       </c>
     </row>
     <row r="21" spans="1:87">
-      <c r="A21" s="28"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="2"/>
       <c r="C21">
         <v>4</v>
@@ -21490,7 +22577,7 @@
       </c>
     </row>
     <row r="22" spans="1:87">
-      <c r="A22" s="28"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="2"/>
       <c r="C22">
         <v>5</v>
@@ -21735,7 +22822,7 @@
       </c>
     </row>
     <row r="23" spans="1:87">
-      <c r="A23" s="28"/>
+      <c r="A23" s="36"/>
       <c r="AL23">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -21874,7 +22961,7 @@
       </c>
     </row>
     <row r="24" spans="1:87">
-      <c r="A24" s="28"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
@@ -22121,7 +23208,7 @@
       </c>
     </row>
     <row r="25" spans="1:87">
-      <c r="A25" s="28"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2"/>
       <c r="C25">
         <v>3</v>
@@ -22366,7 +23453,7 @@
       </c>
     </row>
     <row r="26" spans="1:87">
-      <c r="A26" s="28"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="2"/>
       <c r="C26">
         <v>4</v>
@@ -22611,7 +23698,7 @@
       </c>
     </row>
     <row r="27" spans="1:87">
-      <c r="A27" s="28"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="2"/>
       <c r="C27">
         <v>5</v>
@@ -22856,7 +23943,7 @@
       </c>
     </row>
     <row r="28" spans="1:87">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -23102,7 +24189,7 @@
       </c>
     </row>
     <row r="29" spans="1:87">
-      <c r="A29" s="28"/>
+      <c r="A29" s="36"/>
       <c r="AL29">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -23241,7 +24328,7 @@
       </c>
     </row>
     <row r="30" spans="1:87">
-      <c r="A30" s="28"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
@@ -23485,7 +24572,7 @@
       </c>
     </row>
     <row r="31" spans="1:87">
-      <c r="A31" s="28"/>
+      <c r="A31" s="36"/>
       <c r="AL31">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -23624,7 +24711,7 @@
       </c>
     </row>
     <row r="32" spans="1:87">
-      <c r="A32" s="28"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
@@ -23871,7 +24958,7 @@
       </c>
     </row>
     <row r="33" spans="1:87">
-      <c r="A33" s="28"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="2"/>
       <c r="C33">
         <v>2</v>
@@ -24116,7 +25203,7 @@
       </c>
     </row>
     <row r="34" spans="1:87">
-      <c r="A34" s="28"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="2"/>
       <c r="C34">
         <v>3</v>
@@ -24361,7 +25448,7 @@
       </c>
     </row>
     <row r="35" spans="1:87">
-      <c r="A35" s="28"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="2"/>
       <c r="C35">
         <v>4</v>
@@ -24606,7 +25693,7 @@
       </c>
     </row>
     <row r="36" spans="1:87">
-      <c r="A36" s="28"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="2"/>
       <c r="C36">
         <v>5</v>
@@ -24851,7 +25938,7 @@
       </c>
     </row>
     <row r="37" spans="1:87">
-      <c r="A37" s="28"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="2"/>
       <c r="C37">
         <v>6</v>
@@ -25096,7 +26183,7 @@
       </c>
     </row>
     <row r="38" spans="1:87">
-      <c r="A38" s="28"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="2"/>
       <c r="C38">
         <v>7</v>
@@ -25317,7 +26404,7 @@
       </c>
     </row>
     <row r="39" spans="1:87">
-      <c r="A39" s="28"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="2"/>
       <c r="C39">
         <v>8</v>
@@ -25426,7 +26513,7 @@
       </c>
     </row>
     <row r="40" spans="1:87">
-      <c r="A40" s="28"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="2"/>
       <c r="C40">
         <v>9</v>
@@ -25535,7 +26622,7 @@
       </c>
     </row>
     <row r="41" spans="1:87">
-      <c r="A41" s="28"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="2"/>
       <c r="C41">
         <v>10</v>
@@ -25644,10 +26731,10 @@
       </c>
     </row>
     <row r="42" spans="1:87">
-      <c r="A42" s="28"/>
+      <c r="A42" s="36"/>
     </row>
     <row r="43" spans="1:87">
-      <c r="A43" s="28"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
@@ -25758,7 +26845,7 @@
       </c>
     </row>
     <row r="44" spans="1:87">
-      <c r="A44" s="28"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="2"/>
       <c r="C44">
         <v>3</v>
@@ -25867,7 +26954,7 @@
       </c>
     </row>
     <row r="45" spans="1:87">
-      <c r="A45" s="28"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="2"/>
       <c r="C45">
         <v>4</v>
@@ -25976,7 +27063,7 @@
       </c>
     </row>
     <row r="46" spans="1:87">
-      <c r="A46" s="28"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="2"/>
       <c r="C46">
         <v>5</v>

--- a/ゼミ/結果.xlsx
+++ b/ゼミ/結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/ゼミ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6883386A-5D63-A74D-9679-BAD258334E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE294CE-CB8B-9043-A610-FCE8BF537BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35580" windowHeight="20300" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35580" windowHeight="20300" xr2:uid="{4346CF0E-6C19-7A41-AA5F-921CDE687FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="結果卒論用" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="144">
   <si>
     <t>j</t>
   </si>
@@ -811,10 +811,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>もう一回</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>こっちも論文に載せる</t>
     <rPh sb="4" eb="6">
       <t>ロンブn</t>
@@ -1206,14 +1202,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
@@ -1250,13 +1246,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>1202267</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>16934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>160867</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>245534</xdr:rowOff>
@@ -1294,14 +1290,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>186267</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>905933</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>905934</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>8466</xdr:rowOff>
     </xdr:to>
@@ -1382,14 +1378,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>863599</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601132</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601133</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -1426,14 +1422,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>448734</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>448733</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
@@ -1949,24 +1945,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF2B668-9505-0A46-A05A-3573DA92E6F2}">
-  <dimension ref="A1:FC69"/>
+  <dimension ref="A1:FE69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W2" zoomScale="75" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="AM23" sqref="AM23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="75" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="36" max="36" width="14.5703125" customWidth="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1"/>
-    <col min="38" max="38" width="21.28515625" customWidth="1"/>
-    <col min="39" max="39" width="15.85546875" customWidth="1"/>
-    <col min="40" max="40" width="15.7109375" customWidth="1"/>
-    <col min="41" max="41" width="15.42578125" customWidth="1"/>
-    <col min="224" max="224" width="10.7109375" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" customWidth="1"/>
+    <col min="39" max="39" width="15.42578125" customWidth="1"/>
+    <col min="40" max="40" width="21.28515625" customWidth="1"/>
+    <col min="41" max="41" width="15.85546875" customWidth="1"/>
+    <col min="42" max="42" width="15.7109375" customWidth="1"/>
+    <col min="43" max="43" width="15.42578125" customWidth="1"/>
+    <col min="226" max="226" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159">
+    <row r="1" spans="1:161">
       <c r="A1" s="30" t="s">
         <v>123</v>
       </c>
@@ -1983,21 +1979,21 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="32" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
       <c r="S1" s="33"/>
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
       <c r="V1" s="33"/>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
       <c r="Z1" s="46"/>
       <c r="AA1" s="46"/>
       <c r="AB1" s="46"/>
@@ -2016,8 +2012,10 @@
       <c r="AO1" s="46"/>
       <c r="AP1" s="46"/>
       <c r="AQ1" s="46"/>
-    </row>
-    <row r="2" spans="1:159">
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+    </row>
+    <row r="2" spans="1:161">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2032,20 +2030,20 @@
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="37" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="33"/>
       <c r="Y2" s="46"/>
       <c r="Z2" s="46"/>
       <c r="AA2" s="46"/>
@@ -2065,13 +2063,15 @@
       <c r="AO2" s="46"/>
       <c r="AP2" s="46"/>
       <c r="AQ2" s="46"/>
-    </row>
-    <row r="3" spans="1:159">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+    </row>
+    <row r="3" spans="1:161">
       <c r="A3" s="29" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -2085,33 +2085,35 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
-      <c r="P3" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="R3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:159">
+    <row r="4" spans="1:161">
       <c r="A4" t="s">
         <v>128</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="Q4" s="3" t="s">
+      <c r="P4" s="29"/>
+      <c r="S4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="3">
+      <c r="T4" s="3">
         <v>5361.5808993870796</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="3">
+      <c r="W4" s="3">
         <v>3279.4436183809698</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:159">
+    <row r="5" spans="1:161">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -2121,100 +2123,102 @@
       <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" s="29"/>
+      <c r="S5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="3">
+      <c r="T5" s="3">
         <v>1.002179747215</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="3">
+      <c r="W5" s="3">
         <v>1.00232780899533</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>1</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>2</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>3</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>4</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>5</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>6</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>7</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>8</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>9</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>10</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>11</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>12</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>13</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>14</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>15</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:159">
+    <row r="6" spans="1:161">
       <c r="A6" s="3">
         <v>60</v>
       </c>
@@ -2224,104 +2228,104 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="3"/>
+      <c r="E6" s="19">
         <v>0.31736431227270501</v>
       </c>
-      <c r="E6" s="19">
+      <c r="F6" s="19">
         <v>0.41272084216655402</v>
       </c>
-      <c r="F6" s="19">
+      <c r="G6" s="19">
         <v>0.50281736790838805</v>
       </c>
-      <c r="G6" s="19">
+      <c r="H6" s="19">
         <v>8.3609397538721195E-2</v>
       </c>
-      <c r="H6" s="19">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19">
         <v>-5.7750205454517999E-2</v>
       </c>
-      <c r="I6" s="19">
+      <c r="K6" s="19">
         <v>2.0851664172443299E-18</v>
       </c>
-      <c r="J6" s="19">
+      <c r="L6" s="19">
         <v>-7.2997571311605405E-2</v>
       </c>
-      <c r="K6" s="19">
+      <c r="M6" s="19">
         <v>-1.30537941567255E-17</v>
       </c>
-      <c r="L6" s="19">
+      <c r="N6" s="19">
         <v>1.0007471747721</v>
       </c>
-      <c r="M6" s="19">
+      <c r="O6" s="19">
         <v>1.0077266499906099</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="Q6" s="3" t="s">
+      <c r="P6" s="29"/>
+      <c r="S6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="3">
+      <c r="T6" s="3">
         <v>0.99919370507599303</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3"/>
+      <c r="V6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="3">
+      <c r="W6" s="3">
         <v>0.99944144575034</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="3">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="3">
         <v>0.23976685890713301</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AC6" s="3">
         <v>0.93747065443045097</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AD6" s="3">
         <v>0.67914696356174897</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AE6" s="3">
         <v>0.89320571753025901</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AF6" s="3">
         <v>0.23712436343846299</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AG6" s="3">
         <v>-0.45186907007163801</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AH6" s="3">
         <v>-0.64438039617835596</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AI6" s="3">
         <v>-0.11507573047303001</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AJ6" s="3">
         <v>-0.50231360120406898</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AK6" s="3">
         <v>0.19047185086375201</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AL6" s="3">
         <v>0.46479677423382298</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AM6" s="3">
         <v>-0.124727648078567</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AN6" s="3">
         <v>-0.84293417675798399</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AO6" s="3">
         <v>0.57181770526569597</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AP6" s="3">
         <v>5.9986712052074301E-2</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AQ6" s="3">
         <v>-1.56184272919909</v>
       </c>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
@@ -2438,512 +2442,506 @@
       <c r="FA6" s="3"/>
       <c r="FB6" s="3"/>
       <c r="FC6" s="3"/>
-    </row>
-    <row r="7" spans="1:159">
-      <c r="A7" s="3">
-        <v>60</v>
-      </c>
-      <c r="B7" s="3">
-        <v>15</v>
-      </c>
+      <c r="FD6" s="3"/>
+      <c r="FE6" s="3"/>
+    </row>
+    <row r="7" spans="1:161">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0.282842705085593</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0.58241671386084204</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="19">
+        <v>0.34269327679147299</v>
       </c>
       <c r="F7" s="20">
-        <v>0.57339130731735599</v>
-      </c>
-      <c r="G7" s="19">
-        <v>6.8592708867188504E-2</v>
+        <v>0.57162406085419504</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.67401994178382496</v>
       </c>
       <c r="H7" s="19">
-        <v>-6.2918626018631005E-2</v>
-      </c>
-      <c r="I7" s="19">
-        <v>-1.9014195599964501E-18</v>
-      </c>
+        <v>0.100061900495182</v>
+      </c>
+      <c r="I7" s="19"/>
       <c r="J7" s="19">
-        <v>-2.7872548848259501E-2</v>
+        <v>0.11741322287190201</v>
       </c>
       <c r="K7" s="19">
-        <v>-1.0690233420707099E-17</v>
+        <v>6.58961139777744E-18</v>
       </c>
       <c r="L7" s="19">
-        <v>1.0013505962292799</v>
+        <v>0.22018640521557001</v>
       </c>
       <c r="M7" s="19">
-        <v>1.0100081873545901</v>
-      </c>
-      <c r="N7" s="29"/>
-      <c r="Q7" s="3" t="s">
+        <v>-1.7347234759768E-18</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0.99995155512905298</v>
+      </c>
+      <c r="O7" s="19">
+        <v>1.00560839830552</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="S7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="3">
+      <c r="T7" s="3">
         <v>0.18557589176261899</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="3">
+      <c r="W7" s="3">
         <v>0.25009039947885803</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>17</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>18</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>19</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>20</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>21</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>22</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>23</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>24</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>25</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>26</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>27</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>28</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>29</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>30</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>31</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:159">
-      <c r="A8" s="3">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="8" spans="1:161">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0.34269327679147299</v>
-      </c>
-      <c r="E8" s="20">
-        <v>0.57162406085419504</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0.67401994178382496</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.100061900495182</v>
+      <c r="D8" s="3"/>
+      <c r="E8" s="19">
+        <v>0.346655439123983</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.47030674860335098</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.63518923654605897</v>
       </c>
       <c r="H8" s="19">
-        <v>0.11741322287190201</v>
-      </c>
-      <c r="I8" s="19">
-        <v>6.58961139777744E-18</v>
-      </c>
+        <v>9.9334186328600999E-2</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="19">
-        <v>0.22018640521557001</v>
+        <v>6.0027654744541997E-2</v>
       </c>
       <c r="K8" s="19">
-        <v>-1.7347234759768E-18</v>
+        <v>-3.1936530243276098E-18</v>
       </c>
       <c r="L8" s="19">
-        <v>0.99995155512905298</v>
+        <v>4.5961783470196201E-2</v>
       </c>
       <c r="M8" s="19">
-        <v>1.00560839830552</v>
-      </c>
-      <c r="N8" s="29"/>
-      <c r="Q8" s="3" t="s">
+        <v>1.7347234759768099E-17</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0.99964098373586097</v>
+      </c>
+      <c r="O8" s="19">
+        <v>1.0040345501249801</v>
+      </c>
+      <c r="P8" s="29"/>
+      <c r="S8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9.8434952870433308E-3</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1.4726089725229799E-2</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>-3.1740280849277797E-2</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>-0.12583867519854799</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>0.46651720018481901</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>0.234080925636587</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AF8" s="3">
         <v>0.28531507560341901</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AG8" s="3">
         <v>-0.70218089170854503</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AH8" s="3">
         <v>0.29746999671318203</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AI8" s="3">
         <v>0.195818115128538</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AJ8" s="3">
         <v>0.16689107921069801</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AK8" s="3">
         <v>0.199638954214789</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AL8" s="3">
         <v>0.53869904899189303</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AM8" s="3">
         <v>0.55263539304866804</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AN8" s="3">
         <v>0.820186296065056</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AO8" s="3">
         <v>0.94482272752009999</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AP8" s="3">
         <v>0.54050970562192402</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AQ8" s="3">
         <v>0.29809269429486401</v>
       </c>
     </row>
-    <row r="9" spans="1:159">
-      <c r="A9" s="3">
-        <v>60</v>
-      </c>
+    <row r="9" spans="1:161">
+      <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>15</v>
       </c>
       <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="19">
+        <v>0.282842705085593</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.58241671386084204</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.57339130731735599</v>
+      </c>
+      <c r="H9" s="19">
+        <v>6.8592708867188504E-2</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
+        <v>-6.2918626018631005E-2</v>
+      </c>
+      <c r="K9" s="19">
+        <v>-1.9014195599964501E-18</v>
+      </c>
+      <c r="L9" s="19">
+        <v>-2.7872548848259501E-2</v>
+      </c>
+      <c r="M9" s="19">
+        <v>-1.0690233420707099E-17</v>
+      </c>
+      <c r="N9" s="19">
+        <v>1.0013505962292799</v>
+      </c>
+      <c r="O9" s="19">
+        <v>1.0100081873545901</v>
+      </c>
+      <c r="P9" s="29"/>
+      <c r="S9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9">
+        <v>3071.7060000000001</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1927.2149999999999</v>
+      </c>
+      <c r="AB9">
+        <v>33</v>
+      </c>
+      <c r="AC9">
+        <v>34</v>
+      </c>
+      <c r="AD9">
+        <v>35</v>
+      </c>
+      <c r="AE9">
+        <v>36</v>
+      </c>
+      <c r="AF9">
+        <v>37</v>
+      </c>
+      <c r="AG9">
+        <v>38</v>
+      </c>
+      <c r="AH9">
+        <v>39</v>
+      </c>
+      <c r="AI9">
+        <v>40</v>
+      </c>
+      <c r="AJ9">
+        <v>41</v>
+      </c>
+      <c r="AK9">
+        <v>42</v>
+      </c>
+      <c r="AL9">
+        <v>43</v>
+      </c>
+      <c r="AM9">
+        <v>44</v>
+      </c>
+      <c r="AN9">
+        <v>45</v>
+      </c>
+      <c r="AO9">
+        <v>46</v>
+      </c>
+      <c r="AP9">
+        <v>47</v>
+      </c>
+      <c r="AQ9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:161">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D10" s="3"/>
+      <c r="E10" s="19">
         <v>0.25385354106593899</v>
       </c>
-      <c r="E9" s="19">
+      <c r="F10" s="19">
         <v>0.49823145932923302</v>
       </c>
-      <c r="F9" s="20">
+      <c r="G10" s="20">
         <v>0.57289481777307505</v>
       </c>
-      <c r="G9" s="19">
+      <c r="H10" s="19">
         <v>7.9606005375603306E-2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="I10" s="19"/>
+      <c r="J10" s="19">
         <v>-3.3692026053634402E-2</v>
       </c>
-      <c r="I9" s="19">
+      <c r="K10" s="19">
         <v>-3.6092977384316103E-18</v>
       </c>
-      <c r="J9" s="19">
+      <c r="L10" s="19">
         <v>-3.7611220900198299E-2</v>
       </c>
-      <c r="K9" s="19">
+      <c r="M10" s="19">
         <v>-2.3592239273284601E-17</v>
       </c>
-      <c r="L9" s="19">
+      <c r="N10" s="19">
         <v>1.0006855631576099</v>
       </c>
-      <c r="M9" s="19">
+      <c r="O10" s="19">
         <v>1.0086976995874299</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="Q9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9">
-        <v>3071.7060000000001</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1927.2149999999999</v>
-      </c>
-      <c r="Z9">
-        <v>33</v>
-      </c>
-      <c r="AA9">
-        <v>34</v>
-      </c>
-      <c r="AB9">
-        <v>35</v>
-      </c>
-      <c r="AC9">
-        <v>36</v>
-      </c>
-      <c r="AD9">
-        <v>37</v>
-      </c>
-      <c r="AE9">
-        <v>38</v>
-      </c>
-      <c r="AF9">
-        <v>39</v>
-      </c>
-      <c r="AG9">
-        <v>40</v>
-      </c>
-      <c r="AH9">
-        <v>41</v>
-      </c>
-      <c r="AI9">
-        <v>42</v>
-      </c>
-      <c r="AJ9">
-        <v>43</v>
-      </c>
-      <c r="AK9">
-        <v>44</v>
-      </c>
-      <c r="AL9">
-        <v>45</v>
-      </c>
-      <c r="AM9">
-        <v>46</v>
-      </c>
-      <c r="AN9">
-        <v>47</v>
-      </c>
-      <c r="AO9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:159">
-      <c r="A10" s="3">
-        <v>60</v>
-      </c>
-      <c r="B10" s="3">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.346655439123983</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0.47030674860335098</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0.63518923654605897</v>
-      </c>
-      <c r="G10" s="19">
-        <v>9.9334186328600999E-2</v>
-      </c>
-      <c r="H10" s="19">
-        <v>6.0027654744541997E-2</v>
-      </c>
-      <c r="I10" s="19">
-        <v>-3.1936530243276098E-18</v>
-      </c>
-      <c r="J10" s="19">
-        <v>4.5961783470196201E-2</v>
-      </c>
-      <c r="K10" s="19">
-        <v>1.7347234759768099E-17</v>
-      </c>
-      <c r="L10" s="19">
-        <v>0.99964098373586097</v>
-      </c>
-      <c r="M10" s="19">
-        <v>1.0040345501249801</v>
-      </c>
-      <c r="N10" s="29"/>
-      <c r="P10" t="s">
+      <c r="P10" s="29"/>
+      <c r="R10" t="s">
         <v>134</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>0.23882923735799999</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-0.24525178292594299</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>-0.61766548577491298</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>-0.60437468878273404</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AF10" s="3">
         <v>-0.439188860329078</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AG10" s="3">
         <v>-0.173149282737352</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AH10" s="3">
         <v>0.31787853636512198</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AI10" s="3">
         <v>0.33684687285667803</v>
       </c>
-      <c r="AH10" s="3">
+      <c r="AJ10" s="3">
         <v>6.3147960499926506E-2</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AK10" s="3">
         <v>0.61878325137249102</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AL10" s="3">
         <v>-0.11899239826420099</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AM10" s="3">
         <v>0.299916901157741</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AN10" s="3">
         <v>-0.30705981148460298</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AO10" s="3">
         <v>-0.172899770801656</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AP10" s="3">
         <v>0.78470058588593095</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AQ10" s="3">
         <v>-0.87864422581641799</v>
       </c>
     </row>
-    <row r="11" spans="1:159">
-      <c r="A11" s="3">
-        <v>60</v>
-      </c>
-      <c r="B11" s="3">
-        <v>15</v>
-      </c>
+    <row r="11" spans="1:161">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="3"/>
+      <c r="E11" s="19">
         <v>0.27869069469996399</v>
       </c>
-      <c r="E11" s="19">
+      <c r="F11" s="19">
         <v>0.47412719771202499</v>
       </c>
-      <c r="F11" s="20">
+      <c r="G11" s="20">
         <v>0.71774985525353896</v>
       </c>
-      <c r="G11" s="19">
+      <c r="H11" s="19">
         <v>8.3646086135586897E-2</v>
       </c>
-      <c r="H11" s="19">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19">
         <v>4.0255981249395299E-2</v>
       </c>
-      <c r="I11" s="19">
+      <c r="K11" s="19">
         <v>-3.05419751989167E-18</v>
       </c>
-      <c r="J11" s="19">
+      <c r="L11" s="19">
         <v>5.91825272293407E-3</v>
       </c>
-      <c r="K11" s="19">
+      <c r="M11" s="19">
         <v>1.65666091955785E-17</v>
       </c>
-      <c r="L11" s="19">
+      <c r="N11" s="19">
         <v>1.00001583511661</v>
       </c>
-      <c r="M11" s="19">
+      <c r="O11" s="19">
         <v>1.0054005800793999</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="Q11" s="3" t="s">
+      <c r="P11" s="29"/>
+      <c r="S11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="3">
+      <c r="T11" s="3">
         <v>5327.9079765643401</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="3">
+      <c r="W11" s="3">
         <v>3265.04487643722</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>49</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>50</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>51</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>52</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>53</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>54</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>55</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>56</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>57</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>58</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>59</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>60</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>61</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>62</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>63</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:159">
+    <row r="12" spans="1:161">
       <c r="A12" s="3">
         <v>90</v>
       </c>
@@ -2953,457 +2951,451 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="3"/>
+      <c r="E12" s="19">
         <v>0.31535263478393899</v>
       </c>
-      <c r="E12" s="20">
+      <c r="F12" s="20">
         <v>0.50261897537335098</v>
       </c>
-      <c r="F12" s="20">
+      <c r="G12" s="20">
         <v>0.56673396973934898</v>
       </c>
-      <c r="G12" s="19">
+      <c r="H12" s="19">
         <v>6.4200143781155294E-2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19">
         <v>-7.2114715272253604E-2</v>
       </c>
-      <c r="I12" s="19">
+      <c r="K12" s="19">
         <v>8.74259974310842E-18</v>
       </c>
-      <c r="J12" s="19">
+      <c r="L12" s="19">
         <v>-3.4189882116176198E-2</v>
       </c>
-      <c r="K12" s="19">
+      <c r="M12" s="19">
         <v>-5.8113236445223001E-18</v>
       </c>
-      <c r="L12" s="19">
+      <c r="N12" s="19">
         <v>1.00029974915176</v>
       </c>
-      <c r="M12" s="19">
+      <c r="O12" s="19">
         <v>1.00771333616546</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="Q12" s="3" t="s">
+      <c r="P12" s="29"/>
+      <c r="S12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1.0036283048992301</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1.0059136523927299</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>0.41214356501104599</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>-0.18525370303490099</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>-0.14718220585686201</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>0.61181616437236597</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AF12" s="3">
         <v>1.01244576567463E-2</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AG12" s="3">
         <v>-1.2568831684547199</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AH12" s="3">
         <v>0.42163044970829999</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AI12" s="3">
         <v>7.7920401330418998E-2</v>
       </c>
-      <c r="AH12" s="3">
+      <c r="AJ12" s="3">
         <v>-0.24514527469125399</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AK12" s="3">
         <v>0.165307198741349</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AL12" s="3">
         <v>-1.04420408061242</v>
       </c>
-      <c r="AK12" s="3">
+      <c r="AM12" s="3">
         <v>0.156969713420722</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AN12" s="3">
         <v>-6.9038509106680898E-2</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AO12" s="3">
         <v>0.10187435359659799</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AP12" s="3">
         <v>-0.18535705181382001</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AQ12" s="3">
         <v>-5.0757282919009002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:159">
-      <c r="A13" s="3">
-        <v>90</v>
-      </c>
-      <c r="B13" s="3">
-        <v>15</v>
-      </c>
+    <row r="13" spans="1:161">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.26232640006865099</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="19">
-        <v>0.42291617871051501</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0.51409582748430604</v>
-      </c>
-      <c r="G13" s="19">
-        <v>7.6882816191025993E-2</v>
+        <v>0.31322072217112101</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.46772595205721901</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.55020650603861898</v>
       </c>
       <c r="H13" s="19">
-        <v>-4.63162536034303E-2</v>
-      </c>
-      <c r="I13" s="19">
-        <v>3.5117873055436799E-18</v>
-      </c>
+        <v>7.1281997696996599E-2</v>
+      </c>
+      <c r="I13" s="19"/>
       <c r="J13" s="19">
-        <v>-6.8305755745301094E-2</v>
+        <v>-2.6153373153382599E-2</v>
       </c>
       <c r="K13" s="19">
-        <v>-6.93889390390727E-18</v>
+        <v>-6.9697259031872908E-18</v>
       </c>
       <c r="L13" s="19">
-        <v>1.00105550694257</v>
+        <v>-0.111475445625385</v>
       </c>
       <c r="M13" s="19">
-        <v>1.0090851475643501</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="Q13" s="3" t="s">
+        <v>-8.6736173798840701E-19</v>
+      </c>
+      <c r="N13" s="19">
+        <v>1.0002657947710301</v>
+      </c>
+      <c r="O13" s="19">
+        <v>1.0077413724906801</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="S13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="3">
+      <c r="T13" s="3">
         <v>0.999232100824054</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U13" s="3">
+      <c r="W13" s="3">
         <v>0.99972461934845203</v>
       </c>
     </row>
-    <row r="14" spans="1:159">
-      <c r="A14" s="3">
-        <v>90</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="14" spans="1:161">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
-        <v>5</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0.31322072217112101</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="19">
-        <v>0.46772595205721901</v>
+        <v>0.32262824555403302</v>
       </c>
       <c r="F14" s="20">
-        <v>0.55020650603861898</v>
-      </c>
-      <c r="G14" s="19">
-        <v>7.1281997696996599E-2</v>
+        <v>0.514967891428188</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.61205475345289195</v>
       </c>
       <c r="H14" s="19">
-        <v>-2.6153373153382599E-2</v>
-      </c>
-      <c r="I14" s="19">
-        <v>-6.9697259031872908E-18</v>
-      </c>
+        <v>9.4970520721408005E-2</v>
+      </c>
+      <c r="I14" s="19"/>
       <c r="J14" s="19">
-        <v>-0.111475445625385</v>
+        <v>-2.4030722613959998E-2</v>
       </c>
       <c r="K14" s="19">
-        <v>-8.6736173798840701E-19</v>
+        <v>-1.3892970873394001E-18</v>
       </c>
       <c r="L14" s="19">
-        <v>1.0002657947710301</v>
+        <v>-3.3295599323274701E-2</v>
       </c>
       <c r="M14" s="19">
-        <v>1.0077413724906801</v>
-      </c>
-      <c r="N14" s="29"/>
-      <c r="Q14" s="3" t="s">
+        <v>1.07552855510562E-17</v>
+      </c>
+      <c r="N14" s="19">
+        <v>0.99990917383069799</v>
+      </c>
+      <c r="O14" s="19">
+        <v>1.0070109254959601</v>
+      </c>
+      <c r="P14" s="29"/>
+      <c r="S14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>0.19099455643593599</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>0.25277721880635701</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>-3.9491073811865798E-2</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>6.2643749682223401E-2</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>0.22979055889278399</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>0.20406856334777199</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AF14" s="3">
         <v>-0.35533843256555497</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AG14" s="3">
         <v>-0.22161660615135301</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AH14" s="3">
         <v>-0.90421756148642596</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AI14" s="3">
         <v>0.80339805524535601</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AJ14" s="3">
         <v>-8.1516589021586094E-2</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AK14" s="3">
         <v>-0.392566397684118</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AL14" s="3">
         <v>-0.47130908294192497</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AM14" s="3">
         <v>-0.104116397454583</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AN14" s="3">
         <v>8.1688509753032407E-2</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AO14" s="3">
         <v>0.13550770415836499</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AP14" s="3">
         <v>0.58153786480564695</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AQ14" s="3">
         <v>0.81386527577104795</v>
       </c>
     </row>
-    <row r="15" spans="1:159">
-      <c r="A15" s="3">
-        <v>90</v>
-      </c>
+    <row r="15" spans="1:161">
+      <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>15</v>
       </c>
       <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="19">
+        <v>0.26232640006865099</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.42291617871051501</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.51409582748430604</v>
+      </c>
+      <c r="H15" s="19">
+        <v>7.6882816191025993E-2</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19">
+        <v>-4.63162536034303E-2</v>
+      </c>
+      <c r="K15" s="19">
+        <v>3.5117873055436799E-18</v>
+      </c>
+      <c r="L15" s="19">
+        <v>-6.8305755745301094E-2</v>
+      </c>
+      <c r="M15" s="19">
+        <v>-6.93889390390727E-18</v>
+      </c>
+      <c r="N15" s="19">
+        <v>1.00105550694257</v>
+      </c>
+      <c r="O15" s="19">
+        <v>1.0090851475643501</v>
+      </c>
+      <c r="P15" s="29"/>
+      <c r="S15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1.0055383326768299E-2</v>
+      </c>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1.45693132333303E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:161">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D16" s="3"/>
+      <c r="E16" s="19">
         <v>0.30929972183236398</v>
       </c>
-      <c r="E15" s="20">
+      <c r="F16" s="20">
         <v>0.78292977642624195</v>
       </c>
-      <c r="F15" s="20">
+      <c r="G16" s="20">
         <v>0.69439561604213396</v>
       </c>
-      <c r="G15" s="19">
+      <c r="H16" s="19">
         <v>8.2838574085091696E-2</v>
       </c>
-      <c r="H15" s="19">
+      <c r="I16" s="19"/>
+      <c r="J16" s="19">
         <v>1.00364478076488E-3</v>
       </c>
-      <c r="I15" s="19">
+      <c r="K16" s="19">
         <v>2.3058269703335398E-18</v>
       </c>
-      <c r="J15" s="19">
+      <c r="L16" s="19">
         <v>-7.7424393403651995E-2</v>
       </c>
-      <c r="K15" s="19">
+      <c r="M16" s="19">
         <v>1.94289029309403E-17</v>
       </c>
-      <c r="L15" s="19">
+      <c r="N16" s="19">
         <v>1.0001385198498001</v>
       </c>
-      <c r="M15" s="19">
+      <c r="O16" s="19">
         <v>1.0075783095159401</v>
       </c>
-      <c r="N15" s="29"/>
-      <c r="Q15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1.0055383326768299E-2</v>
-      </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1.45693132333303E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:159">
-      <c r="A16" s="3">
-        <v>90</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0.32262824555403302</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0.514967891428188</v>
-      </c>
-      <c r="F16" s="20">
-        <v>0.61205475345289195</v>
-      </c>
-      <c r="G16" s="19">
-        <v>9.4970520721408005E-2</v>
-      </c>
-      <c r="H16" s="19">
-        <v>-2.4030722613959998E-2</v>
-      </c>
-      <c r="I16" s="19">
-        <v>-1.3892970873394001E-18</v>
-      </c>
-      <c r="J16" s="19">
-        <v>-3.3295599323274701E-2</v>
-      </c>
-      <c r="K16" s="19">
-        <v>1.07552855510562E-17</v>
-      </c>
-      <c r="L16" s="19">
-        <v>0.99990917383069799</v>
-      </c>
-      <c r="M16" s="19">
-        <v>1.0070109254959601</v>
-      </c>
-      <c r="N16" s="29"/>
-      <c r="Q16" s="3" t="s">
+      <c r="P16" s="29"/>
+      <c r="S16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>3048.8739999999998</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="U16" s="3">
+      <c r="W16" s="3">
         <v>1916.6410000000001</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="AB16" s="3">
         <v>0.36313219794991303</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AC16" s="3">
         <v>0.16494075605912301</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AD16" s="3">
         <v>0.570855999675704</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AE16" s="3">
         <v>0.81901848044552505</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AF16" s="3">
         <v>0.139407952663958</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AG16" s="3">
         <v>-0.45106824185905497</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AH16" s="3">
         <v>-0.54125103497701998</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AI16" s="3">
         <v>-7.1298820100066204E-2</v>
       </c>
-      <c r="AH16" s="3">
+      <c r="AJ16" s="3">
         <v>-0.95977463180171296</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AK16" s="3">
         <v>0.50643118169672696</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AL16" s="3">
         <v>0.71460071530191605</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AM16" s="3">
         <v>3.1906871099532101E-2</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AN16" s="3">
         <v>-0.33060428622815002</v>
       </c>
-      <c r="AM16" s="3">
+      <c r="AO16" s="3">
         <v>0.129986675205256</v>
       </c>
-      <c r="AN16" s="3">
+      <c r="AP16" s="3">
         <v>-0.129024507747696</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AQ16" s="3">
         <v>0.160942457621885</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
-      <c r="A17" s="3">
-        <v>90</v>
-      </c>
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
+    <row r="17" spans="1:45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="3"/>
+      <c r="E17" s="19">
         <v>0.280557193198822</v>
       </c>
-      <c r="E17" s="20">
+      <c r="F17" s="20">
         <v>0.53157870136637297</v>
       </c>
-      <c r="F17" s="20">
+      <c r="G17" s="20">
         <v>0.59398714476334602</v>
       </c>
-      <c r="G17" s="19">
+      <c r="H17" s="19">
         <v>7.61346148936628E-2</v>
       </c>
-      <c r="H17" s="19">
+      <c r="I17" s="19"/>
+      <c r="J17" s="19">
         <v>4.4221715892948099E-2</v>
       </c>
-      <c r="I17" s="19">
+      <c r="K17" s="19">
         <v>6.7073941525363102E-18</v>
       </c>
-      <c r="J17" s="19">
+      <c r="L17" s="19">
         <v>-7.7393463785450006E-2</v>
       </c>
-      <c r="K17" s="19">
+      <c r="M17" s="19">
         <v>3.7296554733501598E-18</v>
       </c>
-      <c r="L17" s="19">
+      <c r="N17" s="19">
         <v>1.0002218104018901</v>
       </c>
-      <c r="M17" s="19">
+      <c r="O17" s="19">
         <v>1.0080535918648701</v>
       </c>
-      <c r="N17" s="29"/>
-    </row>
-    <row r="18" spans="1:43">
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="1:45">
       <c r="A18" s="3">
         <v>120</v>
       </c>
@@ -3413,451 +3405,486 @@
       <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="3"/>
+      <c r="E18" s="19">
         <v>0.31293849158876802</v>
       </c>
-      <c r="E18" s="20">
+      <c r="F18" s="20">
         <v>0.53466093567667194</v>
       </c>
-      <c r="F18" s="20">
+      <c r="G18" s="20">
         <v>0.58766168287542397</v>
       </c>
-      <c r="G18" s="19">
+      <c r="H18" s="19">
         <v>6.5998144190404298E-2</v>
       </c>
-      <c r="H18" s="19">
+      <c r="I18" s="19"/>
+      <c r="J18" s="19">
         <v>9.5721462571776605E-2</v>
       </c>
-      <c r="I18" s="19">
+      <c r="K18" s="19">
         <v>-1.52811519948254E-18</v>
       </c>
-      <c r="J18" s="19">
+      <c r="L18" s="19">
         <v>7.1799339231581799E-2</v>
       </c>
-      <c r="K18" s="19">
+      <c r="M18" s="19">
         <v>-6.0715321659188202E-18</v>
       </c>
-      <c r="L18" s="19">
+      <c r="N18" s="19">
         <v>1.00019510368961</v>
       </c>
-      <c r="M18" s="19">
+      <c r="O18" s="19">
         <v>1.0083234944399</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="P18" t="s">
+      <c r="P18" s="29"/>
+      <c r="R18" t="s">
         <v>95</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-0.39930727074402</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-0.25955307091370799</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-0.35085803088712902</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>0.83507449839757397</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-7.3912165927994905E-2</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AG18" s="3">
         <v>0.176104015966695</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AH18" s="3">
         <v>-0.220067561725175</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AI18" s="3">
         <v>-1.1357800307384799E-2</v>
       </c>
-      <c r="AH18" s="3">
+      <c r="AJ18" s="3">
         <v>-0.17284547011874499</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AK18" s="3">
         <v>-0.89202486837649897</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AL18" s="3">
         <v>0.63667224356187602</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AM18" s="3">
         <v>0.40798681733852898</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AN18" s="3">
         <v>0.90010601598221895</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AO18" s="3">
         <v>0.28479441195850502</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AP18" s="3">
         <v>0.82205139175563102</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AQ18" s="3">
         <v>0.73865791993032504</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
-      <c r="A19" s="3">
-        <v>120</v>
-      </c>
-      <c r="B19" s="3">
-        <v>15</v>
-      </c>
+    <row r="19" spans="1:45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0.26962274490546601</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="19">
-        <v>0.48407361378653002</v>
+        <v>0.32537568825635799</v>
       </c>
       <c r="F19" s="19">
-        <v>0.46031251471789397</v>
-      </c>
-      <c r="G19" s="19">
-        <v>5.58759194352818E-2</v>
+        <v>0.44652383594566297</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.53305007605335397</v>
       </c>
       <c r="H19" s="19">
-        <v>-2.99470441369806E-2</v>
-      </c>
-      <c r="I19" s="19">
-        <v>-1.6180362171630601E-18</v>
-      </c>
+        <v>6.5392593015028797E-2</v>
+      </c>
+      <c r="I19" s="19"/>
       <c r="J19" s="19">
-        <v>-0.10550333948867099</v>
+        <v>5.2944805805778899E-2</v>
       </c>
       <c r="K19" s="19">
-        <v>1.22298005056365E-17</v>
+        <v>1.10778356973706E-18</v>
       </c>
       <c r="L19" s="19">
-        <v>1.0018077479143199</v>
+        <v>8.2100902556140304E-2</v>
       </c>
       <c r="M19" s="19">
-        <v>1.0153562697430201</v>
-      </c>
-      <c r="N19" s="29"/>
-      <c r="Q19" s="3" t="s">
+        <v>2.5977484052752701E-17</v>
+      </c>
+      <c r="N19" s="19">
+        <v>1.0002026916228599</v>
+      </c>
+      <c r="O19" s="19">
+        <v>1.0098695349086899</v>
+      </c>
+      <c r="P19" s="29"/>
+      <c r="S19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R19" s="7">
+      <c r="T19" s="7">
         <v>5027.9510259888202</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U19" s="7">
+      <c r="W19" s="7">
         <v>3134.7193628984401</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
-      <c r="A20" s="3">
-        <v>120</v>
-      </c>
-      <c r="B20" s="3">
+    <row r="20" spans="1:45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
         <v>10</v>
       </c>
-      <c r="C20" s="3">
-        <v>5</v>
-      </c>
-      <c r="D20" s="19">
-        <v>0.32537568825635799</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="19">
-        <v>0.44652383594566297</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0.53305007605335397</v>
-      </c>
-      <c r="G20" s="19">
-        <v>6.5392593015028797E-2</v>
+        <v>0.32370206181317401</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.44809867631100497</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.61388625613410897</v>
       </c>
       <c r="H20" s="19">
-        <v>5.2944805805778899E-2</v>
-      </c>
-      <c r="I20" s="19">
-        <v>1.10778356973706E-18</v>
-      </c>
+        <v>8.1236302743691605E-2</v>
+      </c>
+      <c r="I20" s="19"/>
       <c r="J20" s="19">
-        <v>8.2100902556140304E-2</v>
+        <v>-1.6701244186039001E-2</v>
       </c>
       <c r="K20" s="19">
-        <v>2.5977484052752701E-17</v>
+        <v>6.9352347215751001E-18</v>
       </c>
       <c r="L20" s="19">
-        <v>1.0002026916228599</v>
+        <v>-7.9668158084937296E-2</v>
       </c>
       <c r="M20" s="19">
-        <v>1.0098695349086899</v>
-      </c>
-      <c r="N20" s="29"/>
-      <c r="Q20" s="3" t="s">
+        <v>3.5561831257524504E-18</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0.99972985940468795</v>
+      </c>
+      <c r="O20" s="19">
+        <v>1.0067801752683601</v>
+      </c>
+      <c r="P20" s="29"/>
+      <c r="S20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1.02590569140754</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1.0183638944897899</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-0.53513442505826803</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>1.0844746432379</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>0.46029820069119598</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-1.2714011640335201</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AF20" s="3">
         <v>0.29500863785590598</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AG20" s="3">
         <v>-0.37052344649894497</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AH20" s="3">
         <v>-0.89141406939590195</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AI20" s="3">
         <v>0.47667593595399199</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AJ20" s="3">
         <v>0.14209318813952401</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AK20" s="3">
         <v>-3.6330178115795801E-2</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AL20" s="3">
         <v>-1.07603667403723</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AM20" s="3">
         <v>-0.43562142882063198</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AN20" s="3">
         <v>-0.14228632379410699</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AO20" s="3">
         <v>-0.18316506657523901</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AP20" s="3">
         <v>-0.552247353610548</v>
       </c>
-      <c r="AO20" s="3">
+      <c r="AQ20" s="3">
         <v>0.23959107892125001</v>
       </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-    </row>
-    <row r="21" spans="1:43">
-      <c r="A21" s="3">
-        <v>120</v>
-      </c>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>15</v>
       </c>
       <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="19">
+        <v>0.26962274490546601</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.48407361378653002</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0.46031251471789397</v>
+      </c>
+      <c r="H21" s="19">
+        <v>5.58759194352818E-2</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19">
+        <v>-2.99470441369806E-2</v>
+      </c>
+      <c r="K21" s="19">
+        <v>-1.6180362171630601E-18</v>
+      </c>
+      <c r="L21" s="19">
+        <v>-0.10550333948867099</v>
+      </c>
+      <c r="M21" s="19">
+        <v>1.22298005056365E-17</v>
+      </c>
+      <c r="N21" s="19">
+        <v>1.0018077479143199</v>
+      </c>
+      <c r="O21" s="19">
+        <v>1.0153562697430201</v>
+      </c>
+      <c r="P21" s="29"/>
+      <c r="S21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1.0076595875987</v>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1.0040694843250799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
         <v>5</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D22" s="3"/>
+      <c r="E22" s="19">
         <v>0.26926093678540602</v>
       </c>
-      <c r="E21" s="19">
+      <c r="F22" s="19">
         <v>0.456632924605617</v>
       </c>
-      <c r="F21" s="20">
+      <c r="G22" s="20">
         <v>0.57554015614666199</v>
       </c>
-      <c r="G21" s="19">
+      <c r="H22" s="19">
         <v>6.7135855476701603E-2</v>
       </c>
-      <c r="H21" s="19">
+      <c r="I22" s="19"/>
+      <c r="J22" s="19">
         <v>-1.32337598331696E-2</v>
       </c>
-      <c r="I21" s="19">
+      <c r="K22" s="19">
         <v>4.63270553284956E-19</v>
       </c>
-      <c r="J21" s="19">
+      <c r="L22" s="19">
         <v>1.35559914493949E-2</v>
       </c>
-      <c r="K21" s="19">
+      <c r="M22" s="19">
         <v>9.0205620750794003E-18</v>
       </c>
-      <c r="L21" s="19">
+      <c r="N22" s="19">
         <v>1.0015171153810101</v>
       </c>
-      <c r="M21" s="19">
+      <c r="O22" s="19">
         <v>1.01515638003644</v>
       </c>
-      <c r="N21" s="29"/>
-      <c r="Q21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1.0076595875987</v>
-      </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U21" s="3">
-        <v>1.0040694843250799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43">
-      <c r="A22" s="3">
-        <v>120</v>
-      </c>
-      <c r="B22" s="3">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0.32370206181317401</v>
-      </c>
-      <c r="E22" s="19">
-        <v>0.44809867631100497</v>
-      </c>
-      <c r="F22" s="20">
-        <v>0.61388625613410897</v>
-      </c>
-      <c r="G22" s="19">
-        <v>8.1236302743691605E-2</v>
-      </c>
-      <c r="H22" s="19">
-        <v>-1.6701244186039001E-2</v>
-      </c>
-      <c r="I22" s="19">
-        <v>6.9352347215751001E-18</v>
-      </c>
-      <c r="J22" s="19">
-        <v>-7.9668158084937296E-2</v>
-      </c>
-      <c r="K22" s="19">
-        <v>3.5561831257524504E-18</v>
-      </c>
-      <c r="L22" s="19">
-        <v>0.99972985940468795</v>
-      </c>
-      <c r="M22" s="19">
-        <v>1.0067801752683601</v>
-      </c>
-      <c r="N22" s="29"/>
-      <c r="Q22" s="3" t="s">
+      <c r="P22" s="29"/>
+      <c r="S22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>0.20720681025329701</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>0.273527756233858</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>8.9743801136487097E-2</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>-0.30993865490371902</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>0.57193314158837305</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>0.18007701030773701</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AF22" s="3">
         <v>0.20565401777318201</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AG22" s="3">
         <v>-0.74967354585665102</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
-      <c r="A23" s="3">
-        <v>120</v>
-      </c>
-      <c r="B23" s="3">
-        <v>15</v>
-      </c>
+    <row r="23" spans="1:45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="3">
         <v>10</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="3"/>
+      <c r="E23" s="19">
         <v>0.27764981805047401</v>
       </c>
-      <c r="E23" s="20">
+      <c r="F23" s="20">
         <v>0.50871876460494003</v>
       </c>
-      <c r="F23" s="20">
+      <c r="G23" s="20">
         <v>0.63868642601622605</v>
       </c>
-      <c r="G23" s="19">
+      <c r="H23" s="19">
         <v>6.8737560665830796E-2</v>
       </c>
-      <c r="H23" s="19">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19">
         <v>-2.1744873587466601E-2</v>
       </c>
-      <c r="I23" s="19">
+      <c r="K23" s="19">
         <v>-8.3302866919303004E-19</v>
       </c>
-      <c r="J23" s="19">
+      <c r="L23" s="19">
         <v>-5.25162212360143E-2</v>
       </c>
-      <c r="K23" s="19">
+      <c r="M23" s="19">
         <v>-2.54136989230602E-17</v>
       </c>
-      <c r="L23" s="19">
+      <c r="N23" s="19">
         <v>0.99998082888365902</v>
       </c>
-      <c r="M23" s="19">
+      <c r="O23" s="19">
         <v>1.00754652670929</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="Q23" s="3" t="s">
+      <c r="P23" s="29"/>
+      <c r="S23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1.12280061570503E-2</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3"/>
+      <c r="V23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1.5252328202346E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:45">
       <c r="A24" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="Q24" s="3" t="s">
+      <c r="E24" s="35">
+        <f>AVERAGE(E6:E23)</f>
+        <v>0.30022414600267955</v>
+      </c>
+      <c r="F24" s="35">
+        <f t="shared" ref="F24:O24" si="0">AVERAGE(F6:F23)</f>
+        <v>0.50615962493436184</v>
+      </c>
+      <c r="G24" s="35">
+        <f t="shared" si="0"/>
+        <v>0.58981519200258647</v>
+      </c>
+      <c r="H24" s="35">
+        <f t="shared" si="0"/>
+        <v>7.6974184868731227E-2</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35">
+        <f t="shared" si="0"/>
+        <v>3.8809133353567068E-4</v>
+      </c>
+      <c r="K24" s="35">
+        <f t="shared" si="0"/>
+        <v>7.9732799511823202E-19</v>
+      </c>
+      <c r="L24" s="35">
+        <f t="shared" si="0"/>
+        <v>-1.8818384734617086E-2</v>
+      </c>
+      <c r="M24" s="35">
+        <f t="shared" si="0"/>
+        <v>1.3576620537679619E-18</v>
+      </c>
+      <c r="N24" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0004286449991335</v>
+      </c>
+      <c r="O24" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0084272849803051</v>
+      </c>
+      <c r="P24" s="26"/>
+      <c r="S24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>3033.7530000000002</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1900.211</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:45">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
@@ -3867,94 +3894,96 @@
       <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="L25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="N25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="O25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="P25" t="s">
+      <c r="P25" s="29"/>
+      <c r="R25" t="s">
         <v>78</v>
       </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" t="s">
+      <c r="Z25" s="2"/>
+      <c r="AA25" t="s">
         <v>15</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>1</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>2</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>3</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>4</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>5</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <v>6</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>7</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>8</v>
       </c>
-      <c r="AH25">
+      <c r="AJ25">
         <v>9</v>
       </c>
-      <c r="AI25">
+      <c r="AK25">
         <v>10</v>
       </c>
-      <c r="AJ25">
+      <c r="AL25">
         <v>11</v>
       </c>
-      <c r="AK25">
+      <c r="AM25">
         <v>12</v>
       </c>
-      <c r="AL25">
+      <c r="AN25">
         <v>13</v>
       </c>
-      <c r="AM25">
+      <c r="AO25">
         <v>14</v>
       </c>
-      <c r="AN25">
+      <c r="AP25">
         <v>15</v>
       </c>
-      <c r="AO25">
+      <c r="AQ25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:45">
       <c r="A26" s="2">
         <v>60</v>
       </c>
@@ -3964,97 +3993,97 @@
       <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="3"/>
+      <c r="E26" s="19">
         <v>0.28079799244321602</v>
       </c>
-      <c r="E26" s="20">
+      <c r="F26" s="20">
         <v>0.58137311717906903</v>
       </c>
-      <c r="F26" s="20">
+      <c r="G26" s="20">
         <v>0.65130613065614895</v>
       </c>
-      <c r="G26" s="19">
+      <c r="H26" s="19">
         <v>8.8624338664887295E-2</v>
       </c>
-      <c r="H26" s="19">
+      <c r="I26" s="19"/>
+      <c r="J26" s="19">
         <v>-4.9282714790983397E-3</v>
       </c>
-      <c r="I26" s="19">
+      <c r="K26" s="19">
         <v>-3.1895533848629101E-18</v>
       </c>
-      <c r="J26" s="19">
+      <c r="L26" s="19">
         <v>-2.2979499085714301E-2</v>
       </c>
-      <c r="K26" s="19">
+      <c r="M26" s="19">
         <v>7.8062556418956304E-18</v>
       </c>
-      <c r="L26" s="19">
+      <c r="N26" s="19">
         <v>1.0023510714919599</v>
       </c>
-      <c r="M26" s="19">
+      <c r="O26" s="19">
         <v>1.01046894074951</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="P26" t="s">
+      <c r="P26" s="29"/>
+      <c r="R26" t="s">
         <v>58</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="X26" s="2" t="s">
+      <c r="V26" s="3"/>
+      <c r="Z26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="19">
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="19">
         <v>0.71187347465492701</v>
       </c>
-      <c r="AA26" s="19">
+      <c r="AC26" s="19">
         <v>1.0693202825131101</v>
       </c>
-      <c r="AB26" s="19">
+      <c r="AD26" s="19">
         <v>1.56456134999693</v>
       </c>
-      <c r="AC26" s="19">
+      <c r="AE26" s="19">
         <v>0.968535090133823</v>
       </c>
-      <c r="AD26" s="19">
+      <c r="AF26" s="19">
         <v>1.1398783342565999</v>
       </c>
-      <c r="AE26" s="19">
+      <c r="AG26" s="19">
         <v>0.92962941416420097</v>
       </c>
-      <c r="AF26" s="19">
+      <c r="AH26" s="19">
         <v>0.81654302851472504</v>
       </c>
-      <c r="AG26" s="19">
+      <c r="AI26" s="19">
         <v>1.3159026238884299</v>
       </c>
-      <c r="AH26" s="19">
+      <c r="AJ26" s="19">
         <v>0.76828076218042796</v>
       </c>
-      <c r="AI26" s="19">
+      <c r="AK26" s="19">
         <v>0.99982151335349301</v>
       </c>
-      <c r="AJ26" s="19">
+      <c r="AL26" s="19">
         <v>1.15776534903107</v>
       </c>
-      <c r="AK26" s="19">
+      <c r="AM26" s="19">
         <v>1.23008233331965</v>
       </c>
-      <c r="AL26" s="19">
+      <c r="AN26" s="19">
         <v>1.02101966450786</v>
       </c>
-      <c r="AM26" s="19">
+      <c r="AO26" s="19">
         <v>0.68083604901520001</v>
       </c>
-      <c r="AN26" s="19">
+      <c r="AP26" s="19">
         <v>1.15612640234993</v>
       </c>
-      <c r="AO26" s="19">
+      <c r="AQ26" s="19">
         <v>0.86602635868098699</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:45">
       <c r="A27" s="2">
         <v>60</v>
       </c>
@@ -4064,50 +4093,50 @@
       <c r="C27" s="3">
         <v>3</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="3"/>
+      <c r="E27" s="19">
         <v>0.225972140739052</v>
       </c>
-      <c r="E27" s="19">
+      <c r="F27" s="19">
         <v>0.46322137119197998</v>
       </c>
-      <c r="F27" s="20">
+      <c r="G27" s="20">
         <v>0.64905378611547204</v>
       </c>
-      <c r="G27" s="19">
+      <c r="H27" s="19">
         <v>6.9719401782332796E-2</v>
       </c>
-      <c r="H27" s="19">
+      <c r="I27" s="19"/>
+      <c r="J27" s="19">
         <v>7.3169033380917504E-3</v>
       </c>
-      <c r="I27" s="19">
+      <c r="K27" s="19">
         <v>7.0600309091372303E-18</v>
       </c>
-      <c r="J27" s="19">
+      <c r="L27" s="19">
         <v>5.7827598121102899E-2</v>
       </c>
-      <c r="K27" s="19">
+      <c r="M27" s="19">
         <v>-1.5612511283791201E-18</v>
       </c>
-      <c r="L27" s="19">
+      <c r="N27" s="19">
         <v>1.00196404991031</v>
       </c>
-      <c r="M27" s="19">
+      <c r="O27" s="19">
         <v>1.0095675648453399</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>5225.0498435906602</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U27" s="3">
-        <v>3186.2791051388299</v>
-      </c>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
+      <c r="W27" s="3">
+        <v>3190.8015010095501</v>
+      </c>
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
       <c r="AD27" s="35"/>
@@ -4122,8 +4151,10 @@
       <c r="AM27" s="35"/>
       <c r="AN27" s="35"/>
       <c r="AO27" s="35"/>
-    </row>
-    <row r="28" spans="1:43">
+      <c r="AP27" s="35"/>
+      <c r="AQ27" s="35"/>
+    </row>
+    <row r="28" spans="1:45">
       <c r="A28" s="2">
         <v>60</v>
       </c>
@@ -4133,104 +4164,106 @@
       <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="3"/>
+      <c r="E28" s="19">
         <v>0.33448606070307302</v>
       </c>
-      <c r="E28" s="20">
+      <c r="F28" s="20">
         <v>1.07139265679732</v>
       </c>
-      <c r="F28" s="20">
+      <c r="G28" s="20">
         <v>0.91664734721305496</v>
       </c>
-      <c r="G28" s="19">
+      <c r="H28" s="19">
         <v>7.3531608307410498E-2</v>
       </c>
-      <c r="H28" s="19">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19">
         <v>-9.6056097787686895E-3</v>
       </c>
-      <c r="I28" s="19">
+      <c r="K28" s="19">
         <v>-2.6411164921746799E-18</v>
       </c>
-      <c r="J28" s="19">
+      <c r="L28" s="19">
         <v>6.9321106084177997E-3</v>
       </c>
-      <c r="K28" s="19">
+      <c r="M28" s="19">
         <v>-9.1940344226770696E-18</v>
       </c>
-      <c r="L28" s="19">
+      <c r="N28" s="19">
         <v>1.0018132311260699</v>
       </c>
-      <c r="M28" s="19">
+      <c r="O28" s="19">
         <v>1.0090211604713899</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R28" s="3">
+      <c r="T28" s="3">
         <v>1.0523828269467099</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U28" s="3">
-        <v>1.1755461823514</v>
-      </c>
-      <c r="X28" s="2" t="s">
+      <c r="W28" s="3">
+        <v>1.02308290943308</v>
+      </c>
+      <c r="Z28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="AA28" s="2">
         <v>1</v>
       </c>
-      <c r="Z28" s="13">
+      <c r="AB28" s="13">
         <v>-0.48146592172718</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AC28" s="13">
         <v>-3.3894617067079399E-2</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AD28" s="13">
         <v>-0.86973733920308405</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AE28" s="13">
         <v>-0.58215137561629604</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AF28" s="13">
         <v>-0.136731402670007</v>
       </c>
-      <c r="AE28" s="13">
+      <c r="AG28" s="13">
         <v>0.47494073185102598</v>
       </c>
-      <c r="AF28" s="13">
+      <c r="AH28" s="13">
         <v>-0.28915573518086701</v>
       </c>
-      <c r="AG28" s="13">
+      <c r="AI28" s="13">
         <v>3.46177054559084E-2</v>
       </c>
-      <c r="AH28" s="13">
+      <c r="AJ28" s="13">
         <v>-0.82248827174498795</v>
       </c>
-      <c r="AI28" s="13">
+      <c r="AK28" s="13">
         <v>-0.30665135728943099</v>
       </c>
-      <c r="AJ28" s="39">
+      <c r="AL28" s="39">
         <v>-1.04747371968679</v>
       </c>
-      <c r="AK28" s="40">
+      <c r="AM28" s="40">
         <v>0.68166340355840804</v>
       </c>
-      <c r="AL28" s="41">
+      <c r="AN28" s="41">
         <v>-0.270122867326056</v>
       </c>
-      <c r="AM28" s="42">
+      <c r="AO28" s="42">
         <v>-8.9262652667477793E-2</v>
       </c>
-      <c r="AN28" s="43">
+      <c r="AP28" s="43">
         <v>-0.21644157791659199</v>
       </c>
-      <c r="AO28" s="44">
+      <c r="AQ28" s="44">
         <v>-0.106617013766833</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:45">
       <c r="A29" s="2">
         <v>60</v>
       </c>
@@ -4240,102 +4273,104 @@
       <c r="C29" s="3">
         <v>5</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="3"/>
+      <c r="E29" s="19">
         <v>0.24012820806250501</v>
       </c>
-      <c r="E29" s="19">
+      <c r="F29" s="19">
         <v>0.36187883067914201</v>
       </c>
-      <c r="F29" s="20">
+      <c r="G29" s="20">
         <v>0.641691392181026</v>
       </c>
-      <c r="G29" s="19">
+      <c r="H29" s="19">
         <v>7.8791317176950898E-2</v>
       </c>
-      <c r="H29" s="19">
+      <c r="I29" s="19"/>
+      <c r="J29" s="19">
         <v>-2.9856171711371702E-4</v>
       </c>
-      <c r="I29" s="19">
+      <c r="K29" s="19">
         <v>-2.9586804378729599E-18</v>
       </c>
-      <c r="J29" s="19">
+      <c r="L29" s="19">
         <v>6.4378763511548906E-2</v>
       </c>
-      <c r="K29" s="19">
+      <c r="M29" s="19">
         <v>4.8572257327350603E-18</v>
       </c>
-      <c r="L29" s="19">
+      <c r="N29" s="19">
         <v>1.0036356340044901</v>
       </c>
-      <c r="M29" s="19">
+      <c r="O29" s="19">
         <v>1.0146627892050799</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>1.0174102945818699</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U29" s="3">
-        <v>1.03555255614762</v>
-      </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2">
+      <c r="W29" s="3">
+        <v>1.00358614799183</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2">
         <v>2</v>
       </c>
-      <c r="Z29" s="13">
+      <c r="AB29" s="13">
         <v>-0.46409804021283002</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AC29" s="13">
         <v>0.27879973534338898</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AD29" s="13">
         <v>-0.92082505619296195</v>
       </c>
-      <c r="AC29" s="13">
+      <c r="AE29" s="13">
         <v>-0.90195048948394796</v>
       </c>
-      <c r="AD29" s="13">
+      <c r="AF29" s="13">
         <v>-0.22645140931722299</v>
       </c>
-      <c r="AE29" s="13">
+      <c r="AG29" s="13">
         <v>0.13844303923339901</v>
       </c>
-      <c r="AF29" s="13">
+      <c r="AH29" s="13">
         <v>-0.432537234288563</v>
       </c>
-      <c r="AG29" s="13">
+      <c r="AI29" s="13">
         <v>0.34797949183733301</v>
       </c>
-      <c r="AH29" s="13">
+      <c r="AJ29" s="13">
         <v>-0.83872701581266096</v>
       </c>
-      <c r="AI29" s="13">
+      <c r="AK29" s="13">
         <v>-0.50518151693315205</v>
       </c>
-      <c r="AJ29" s="39">
+      <c r="AL29" s="39">
         <v>-0.85470487491427405</v>
       </c>
-      <c r="AK29" s="40">
+      <c r="AM29" s="40">
         <v>0.27509934507253497</v>
       </c>
-      <c r="AL29" s="41">
+      <c r="AN29" s="41">
         <v>5.1483469153192699E-3</v>
       </c>
-      <c r="AM29" s="42">
+      <c r="AO29" s="42">
         <v>-0.15397149768961599</v>
       </c>
-      <c r="AN29" s="43">
+      <c r="AP29" s="43">
         <v>-0.23197265550365601</v>
       </c>
-      <c r="AO29" s="44">
+      <c r="AQ29" s="44">
         <v>5.1231287725315301E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:45">
       <c r="A30" s="2">
         <v>60</v>
       </c>
@@ -4345,102 +4380,104 @@
       <c r="C30" s="3">
         <v>10</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="3"/>
+      <c r="E30" s="19">
         <v>0.284487376521113</v>
       </c>
-      <c r="E30" s="19">
+      <c r="F30" s="19">
         <v>0.41340674355712298</v>
       </c>
-      <c r="F30" s="20">
+      <c r="G30" s="20">
         <v>0.88954379542435402</v>
       </c>
-      <c r="G30" s="19">
+      <c r="H30" s="19">
         <v>8.5770216295986093E-2</v>
       </c>
-      <c r="H30" s="19">
+      <c r="I30" s="19"/>
+      <c r="J30" s="19">
         <v>7.2504906817158696E-3</v>
       </c>
-      <c r="I30" s="19">
+      <c r="K30" s="19">
         <v>-5.2766764482153897E-18</v>
       </c>
-      <c r="J30" s="19">
+      <c r="L30" s="19">
         <v>-3.9931940412692497E-2</v>
       </c>
-      <c r="K30" s="19">
+      <c r="M30" s="19">
         <v>-2.77555756156289E-18</v>
       </c>
-      <c r="L30" s="19">
+      <c r="N30" s="19">
         <v>1.00179918143363</v>
       </c>
-      <c r="M30" s="19">
+      <c r="O30" s="19">
         <v>1.0089348732994201</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R30" s="3">
+      <c r="T30" s="3">
         <v>0.197776627762179</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U30" s="3">
-        <v>0.27988121542815803</v>
-      </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2">
+      <c r="W30" s="3">
+        <v>0.28281533712955798</v>
+      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2">
         <v>3</v>
       </c>
-      <c r="Z30" s="13">
+      <c r="AB30" s="13">
         <v>-0.45460754062900899</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AC30" s="13">
         <v>0.24816407064153301</v>
       </c>
-      <c r="AB30" s="13">
+      <c r="AD30" s="13">
         <v>-1.0156092518520099</v>
       </c>
-      <c r="AC30" s="13">
+      <c r="AE30" s="13">
         <v>-0.56011040074124196</v>
       </c>
-      <c r="AD30" s="13">
+      <c r="AF30" s="13">
         <v>-0.23109197274735599</v>
       </c>
-      <c r="AE30" s="13">
+      <c r="AG30" s="13">
         <v>-5.2844899020035203E-2</v>
       </c>
-      <c r="AF30" s="13">
+      <c r="AH30" s="13">
         <v>-0.47229047302757399</v>
       </c>
-      <c r="AG30" s="13">
+      <c r="AI30" s="13">
         <v>0.366982358928783</v>
       </c>
-      <c r="AH30" s="13">
+      <c r="AJ30" s="13">
         <v>-0.72510210562275601</v>
       </c>
-      <c r="AI30" s="13">
+      <c r="AK30" s="13">
         <v>-0.63546393355407205</v>
       </c>
-      <c r="AJ30" s="39">
+      <c r="AL30" s="39">
         <v>-3.3243850686896899E-2</v>
       </c>
-      <c r="AK30" s="40">
+      <c r="AM30" s="40">
         <v>0.15930734824467599</v>
       </c>
-      <c r="AL30" s="41">
+      <c r="AN30" s="41">
         <v>-0.45472820442243</v>
       </c>
-      <c r="AM30" s="42">
+      <c r="AO30" s="42">
         <v>-0.179706118940234</v>
       </c>
-      <c r="AN30" s="43">
+      <c r="AP30" s="43">
         <v>-0.22476625856858001</v>
       </c>
-      <c r="AO30" s="44">
+      <c r="AQ30" s="44">
         <v>-7.7236245933909306E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:45">
       <c r="A31" s="2">
         <v>60</v>
       </c>
@@ -4450,101 +4487,103 @@
       <c r="C31" s="3">
         <v>10</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="3"/>
+      <c r="E31" s="19">
         <v>0.244586034003931</v>
       </c>
-      <c r="E31" s="20">
+      <c r="F31" s="20">
         <v>0.59066426141057904</v>
       </c>
-      <c r="F31" s="20">
+      <c r="G31" s="20">
         <v>0.95244148135463502</v>
       </c>
-      <c r="G31" s="19">
+      <c r="H31" s="19">
         <v>7.1997382398300405E-2</v>
       </c>
-      <c r="H31" s="19">
+      <c r="I31" s="19"/>
+      <c r="J31" s="19">
         <v>-8.7649382670095704E-4</v>
       </c>
-      <c r="I31" s="19">
+      <c r="K31" s="19">
         <v>-1.68850484086556E-17</v>
       </c>
-      <c r="J31" s="19">
+      <c r="L31" s="19">
         <v>2.5429404812871401E-2</v>
       </c>
-      <c r="K31" s="19">
+      <c r="M31" s="19">
         <v>1.8041124150158801E-17</v>
       </c>
-      <c r="L31" s="19">
+      <c r="N31" s="19">
         <v>1.0020442381608601</v>
       </c>
-      <c r="M31" s="19">
+      <c r="O31" s="19">
         <v>1.00971868716071</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R31" s="3">
+      <c r="T31" s="3">
         <v>9.5192436157520797E-3</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U31" s="3">
-        <v>2.72786878727963E-2</v>
-      </c>
-      <c r="Y31" s="2">
+      <c r="W31" s="3">
+        <v>1.6069522750980399E-2</v>
+      </c>
+      <c r="AA31" s="2">
         <v>4</v>
       </c>
-      <c r="Z31" s="13">
+      <c r="AB31" s="13">
         <v>-0.71879750693912903</v>
       </c>
-      <c r="AA31" s="13">
+      <c r="AC31" s="13">
         <v>0.213595544989371</v>
       </c>
-      <c r="AB31" s="13">
+      <c r="AD31" s="13">
         <v>-0.90207579802170701</v>
       </c>
-      <c r="AC31" s="13">
+      <c r="AE31" s="13">
         <v>-0.34876806773015501</v>
       </c>
-      <c r="AD31" s="13">
+      <c r="AF31" s="13">
         <v>-0.32766230501267302</v>
       </c>
-      <c r="AE31" s="13">
+      <c r="AG31" s="13">
         <v>4.0114721148092503E-2</v>
       </c>
-      <c r="AF31" s="13">
+      <c r="AH31" s="13">
         <v>-0.40245630372563301</v>
       </c>
-      <c r="AG31" s="13">
+      <c r="AI31" s="13">
         <v>0.316694572331298</v>
       </c>
-      <c r="AH31" s="13">
+      <c r="AJ31" s="13">
         <v>-0.826085670996345</v>
       </c>
-      <c r="AI31" s="13">
+      <c r="AK31" s="13">
         <v>-0.493582257404029</v>
       </c>
-      <c r="AJ31" s="39">
+      <c r="AL31" s="39">
         <v>0.21840025153182899</v>
       </c>
-      <c r="AK31" s="40">
+      <c r="AM31" s="40">
         <v>-2.1167213440965001E-2</v>
       </c>
-      <c r="AL31" s="41">
+      <c r="AN31" s="41">
         <v>7.7863116774793503E-2</v>
       </c>
-      <c r="AM31" s="42">
+      <c r="AO31" s="42">
         <v>-0.15082738989334499</v>
       </c>
-      <c r="AN31" s="43">
+      <c r="AP31" s="43">
         <v>-0.41767706828741402</v>
       </c>
-      <c r="AO31" s="44">
+      <c r="AQ31" s="44">
         <v>-3.4510079958779902E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:45">
       <c r="A32" s="2">
         <v>90</v>
       </c>
@@ -4554,50 +4593,50 @@
       <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="3"/>
+      <c r="E32" s="19">
         <v>0.28458816589046099</v>
       </c>
-      <c r="E32" s="19">
+      <c r="F32" s="19">
         <v>0.25173404436720498</v>
       </c>
-      <c r="F32" s="20">
+      <c r="G32" s="20">
         <v>0.63878122562628004</v>
       </c>
-      <c r="G32" s="19">
+      <c r="H32" s="19">
         <v>8.0321635861489799E-2</v>
       </c>
-      <c r="H32" s="19">
+      <c r="I32" s="19"/>
+      <c r="J32" s="19">
         <v>-9.2654461182485708E-3</v>
       </c>
-      <c r="I32" s="19">
+      <c r="K32" s="19">
         <v>1.7252367069674401E-19</v>
       </c>
-      <c r="J32" s="19">
+      <c r="L32" s="19">
         <v>0.194314979401704</v>
       </c>
-      <c r="K32" s="19">
+      <c r="M32" s="19">
         <v>1.0408340855860799E-17</v>
       </c>
-      <c r="L32" s="19">
+      <c r="N32" s="19">
         <v>1.00212606119982</v>
       </c>
-      <c r="M32" s="19">
+      <c r="O32" s="19">
         <v>1.01183011156989</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>3038.6</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="U32" s="15">
+      <c r="W32" s="15">
         <v>1863.71</v>
       </c>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
@@ -4612,8 +4651,10 @@
       <c r="AM32" s="14"/>
       <c r="AN32" s="14"/>
       <c r="AO32" s="14"/>
-    </row>
-    <row r="33" spans="1:41">
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="2">
         <v>90</v>
       </c>
@@ -4623,50 +4664,46 @@
       <c r="C33" s="3">
         <v>3</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="3"/>
+      <c r="E33" s="19">
         <v>0.237034361727952</v>
       </c>
-      <c r="E33" s="19">
+      <c r="F33" s="19">
         <v>0.43076337641352902</v>
       </c>
-      <c r="F33" s="20">
+      <c r="G33" s="20">
         <v>0.74409343773032199</v>
       </c>
-      <c r="G33" s="19">
+      <c r="H33" s="19">
         <v>5.9764478850223499E-2</v>
       </c>
-      <c r="H33" s="19">
+      <c r="I33" s="19"/>
+      <c r="J33" s="19">
         <v>1.9125876891182201E-2</v>
       </c>
-      <c r="I33" s="19">
+      <c r="K33" s="19">
         <v>4.0732060369397502E-18</v>
       </c>
-      <c r="J33" s="19">
+      <c r="L33" s="19">
         <v>-2.4903842435834399E-2</v>
       </c>
-      <c r="K33" s="19">
+      <c r="M33" s="19">
         <v>-3.1918911957973297E-17</v>
       </c>
-      <c r="L33" s="19">
+      <c r="N33" s="19">
         <v>1.0019684309836701</v>
       </c>
-      <c r="M33" s="19">
+      <c r="O33" s="19">
         <v>1.0096548405100101</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>76</v>
       </c>
-      <c r="X33" s="11" t="s">
+      <c r="Z33" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="AA33" s="2">
         <v>1</v>
-      </c>
-      <c r="Z33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="13">
-        <v>0</v>
       </c>
       <c r="AB33" s="13">
         <v>0</v>
@@ -4710,8 +4747,14 @@
       <c r="AO33" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:41">
+      <c r="AP33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="2">
         <v>90</v>
       </c>
@@ -4721,92 +4764,94 @@
       <c r="C34" s="3">
         <v>5</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="3"/>
+      <c r="E34" s="19">
         <v>0.29483800445462699</v>
       </c>
-      <c r="E34" s="19">
+      <c r="F34" s="19">
         <v>0.48729018663921803</v>
       </c>
-      <c r="F34" s="20">
+      <c r="G34" s="20">
         <v>0.86091952686383</v>
       </c>
-      <c r="G34" s="19">
+      <c r="H34" s="19">
         <v>6.5711389810718293E-2</v>
       </c>
-      <c r="H34" s="19">
+      <c r="I34" s="19"/>
+      <c r="J34" s="19">
         <v>1.31696216203539E-2</v>
       </c>
-      <c r="I34" s="19">
+      <c r="K34" s="19">
         <v>-4.5077060573800402E-18</v>
       </c>
-      <c r="J34" s="19">
+      <c r="L34" s="19">
         <v>-0.107838642263208</v>
       </c>
-      <c r="K34" s="19">
+      <c r="M34" s="19">
         <v>1.27935856353289E-17</v>
       </c>
-      <c r="L34" s="19">
+      <c r="N34" s="19">
         <v>1.00154027099008</v>
       </c>
-      <c r="M34" s="19">
+      <c r="O34" s="19">
         <v>1.0113562911198499</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>59</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="AA34" s="2">
         <v>2</v>
       </c>
-      <c r="Z34" s="13">
+      <c r="AB34" s="13">
         <v>-2.1259221246215598</v>
       </c>
-      <c r="AA34" s="13">
+      <c r="AC34" s="13">
         <v>-0.86227063998443298</v>
       </c>
-      <c r="AB34" s="13">
+      <c r="AD34" s="13">
         <v>-0.92236221144214303</v>
       </c>
-      <c r="AC34" s="13">
+      <c r="AE34" s="13">
         <v>-1.6206184698460799</v>
       </c>
-      <c r="AD34" s="13">
+      <c r="AF34" s="13">
         <v>-2.2970653590966101</v>
       </c>
-      <c r="AE34" s="13">
+      <c r="AG34" s="13">
         <v>-1.6332749568581399</v>
       </c>
-      <c r="AF34" s="13">
+      <c r="AH34" s="13">
         <v>-1.18263706029059</v>
       </c>
-      <c r="AG34" s="13">
+      <c r="AI34" s="13">
         <v>-1.4109329572023901</v>
       </c>
-      <c r="AH34" s="13">
+      <c r="AJ34" s="13">
         <v>-1.00306938384755</v>
       </c>
-      <c r="AI34" s="13">
+      <c r="AK34" s="13">
         <v>-1.51637994985769</v>
       </c>
-      <c r="AJ34" s="13">
+      <c r="AL34" s="13">
         <v>-1.6571342502361699</v>
       </c>
-      <c r="AK34" s="13">
+      <c r="AM34" s="13">
         <v>-0.95592464854996395</v>
       </c>
-      <c r="AL34" s="13">
+      <c r="AN34" s="13">
         <v>-1.07863493735049</v>
       </c>
-      <c r="AM34" s="13">
+      <c r="AO34" s="13">
         <v>-1.6853223030192901</v>
       </c>
-      <c r="AN34" s="13">
+      <c r="AP34" s="13">
         <v>0.187022324222062</v>
       </c>
-      <c r="AO34" s="13">
+      <c r="AQ34" s="13">
         <v>-0.896442143454382</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:43">
       <c r="A35" s="2">
         <v>90</v>
       </c>
@@ -4816,101 +4861,103 @@
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="3"/>
+      <c r="E35" s="19">
         <v>0.240817048447</v>
       </c>
-      <c r="E35" s="19">
+      <c r="F35" s="19">
         <v>0.47391415776387102</v>
       </c>
-      <c r="F35" s="20">
+      <c r="G35" s="20">
         <v>0.88288085810989403</v>
       </c>
-      <c r="G35" s="19">
+      <c r="H35" s="19">
         <v>5.0436829494738503E-2</v>
       </c>
-      <c r="H35" s="19">
+      <c r="I35" s="19"/>
+      <c r="J35" s="19">
         <v>3.31553952746955E-3</v>
       </c>
-      <c r="I35" s="19">
+      <c r="K35" s="19">
         <v>3.3753924134904801E-18</v>
       </c>
-      <c r="J35" s="19">
+      <c r="L35" s="19">
         <v>-3.29579623534485E-2</v>
       </c>
-      <c r="K35" s="19">
+      <c r="M35" s="19">
         <v>-6.4184768611142097E-18</v>
       </c>
-      <c r="L35" s="19">
+      <c r="N35" s="19">
         <v>1.0028923536252701</v>
       </c>
-      <c r="M35" s="19">
+      <c r="O35" s="19">
         <v>1.01229119819312</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>5104.4631396023296</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="V35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>3154.3312668721701</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="AA35" s="2">
         <v>3</v>
       </c>
-      <c r="Z35" s="13">
+      <c r="AB35" s="13">
         <v>-0.22990657667457501</v>
       </c>
-      <c r="AA35" s="13">
+      <c r="AC35" s="13">
         <v>-0.50597646845640398</v>
       </c>
-      <c r="AB35" s="13">
+      <c r="AD35" s="13">
         <v>-1.25871538512154</v>
       </c>
-      <c r="AC35" s="13">
+      <c r="AE35" s="13">
         <v>-1.27269092955914</v>
       </c>
-      <c r="AD35" s="13">
+      <c r="AF35" s="13">
         <v>-0.27970713685765702</v>
       </c>
-      <c r="AE35" s="13">
+      <c r="AG35" s="13">
         <v>-0.64439647261350796</v>
       </c>
-      <c r="AF35" s="13">
+      <c r="AH35" s="13">
         <v>-8.6654656867717603E-2</v>
       </c>
-      <c r="AG35" s="13">
+      <c r="AI35" s="13">
         <v>-0.64733379547604297</v>
       </c>
-      <c r="AH35" s="13">
+      <c r="AJ35" s="13">
         <v>-0.44952101767338498</v>
       </c>
-      <c r="AI35" s="13">
+      <c r="AK35" s="13">
         <v>-0.12733617001662501</v>
       </c>
-      <c r="AJ35" s="13">
+      <c r="AL35" s="13">
         <v>-0.658135901913659</v>
       </c>
-      <c r="AK35" s="13">
+      <c r="AM35" s="13">
         <v>-9.6555327645774E-2</v>
       </c>
-      <c r="AL35" s="13">
+      <c r="AN35" s="13">
         <v>-0.70284957208203103</v>
       </c>
-      <c r="AM35" s="13">
+      <c r="AO35" s="13">
         <v>-0.70754799147306202</v>
       </c>
-      <c r="AN35" s="13">
+      <c r="AP35" s="13">
         <v>-1.1988028116262499</v>
       </c>
-      <c r="AO35" s="13">
+      <c r="AQ35" s="13">
         <v>-0.45725691305221</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:43">
       <c r="A36" s="2">
         <v>90</v>
       </c>
@@ -4920,101 +4967,103 @@
       <c r="C36" s="3">
         <v>10</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="3"/>
+      <c r="E36" s="19">
         <v>0.29668176145846298</v>
       </c>
-      <c r="E36" s="19">
+      <c r="F36" s="19">
         <v>0.31949230036392101</v>
       </c>
-      <c r="F36" s="20">
+      <c r="G36" s="20">
         <v>0.90054351230975804</v>
       </c>
-      <c r="G36" s="19">
+      <c r="H36" s="19">
         <v>4.8811724192124997E-2</v>
       </c>
-      <c r="H36" s="19">
+      <c r="I36" s="19"/>
+      <c r="J36" s="19">
         <v>1.21943603648691E-2</v>
       </c>
-      <c r="I36" s="19">
+      <c r="K36" s="19">
         <v>-1.7979460151598599E-18</v>
       </c>
-      <c r="J36" s="19">
+      <c r="L36" s="19">
         <v>-0.261333772400549</v>
       </c>
-      <c r="K36" s="19">
+      <c r="M36" s="19">
         <v>1.09287578986539E-17</v>
       </c>
-      <c r="L36" s="19">
+      <c r="N36" s="19">
         <v>1.00175516380023</v>
       </c>
-      <c r="M36" s="19">
+      <c r="O36" s="19">
         <v>1.01162782305909</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R36" s="3">
+      <c r="T36" s="3">
         <v>1.0077306562207999</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="V36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U36" s="3">
+      <c r="W36" s="3">
         <v>1.0030952762557901</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="AA36" s="2">
         <v>4</v>
       </c>
-      <c r="Z36" s="13">
+      <c r="AB36" s="13">
         <v>0.62950461757961296</v>
       </c>
-      <c r="AA36" s="13">
+      <c r="AC36" s="13">
         <v>0.54011888821568199</v>
       </c>
-      <c r="AB36" s="13">
+      <c r="AD36" s="13">
         <v>0.38648413372511897</v>
       </c>
-      <c r="AC36" s="13">
+      <c r="AE36" s="13">
         <v>0.77189828765649104</v>
       </c>
-      <c r="AD36" s="13">
+      <c r="AF36" s="13">
         <v>0.79845473771481401</v>
       </c>
-      <c r="AE36" s="13">
+      <c r="AG36" s="13">
         <v>0.48196435826826001</v>
       </c>
-      <c r="AF36" s="13">
+      <c r="AH36" s="13">
         <v>0.70629053777835205</v>
       </c>
-      <c r="AG36" s="13">
+      <c r="AI36" s="13">
         <v>0.74836011073993502</v>
       </c>
-      <c r="AH36" s="13">
+      <c r="AJ36" s="13">
         <v>0.47148403601431199</v>
       </c>
-      <c r="AI36" s="13">
+      <c r="AK36" s="13">
         <v>0.38443000671869798</v>
       </c>
-      <c r="AJ36" s="13">
+      <c r="AL36" s="13">
         <v>0.91631341181425696</v>
       </c>
-      <c r="AK36" s="13">
+      <c r="AM36" s="13">
         <v>0.20754601558251801</v>
       </c>
-      <c r="AL36" s="13">
+      <c r="AN36" s="13">
         <v>0.73332773077116797</v>
       </c>
-      <c r="AM36" s="13">
+      <c r="AO36" s="13">
         <v>0.42416997741331602</v>
       </c>
-      <c r="AN36" s="13">
+      <c r="AP36" s="13">
         <v>1.37213606168056</v>
       </c>
-      <c r="AO36" s="13">
+      <c r="AQ36" s="13">
         <v>6.2737265644588702E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:43">
       <c r="A37" s="2">
         <v>90</v>
       </c>
@@ -5024,101 +5073,103 @@
       <c r="C37" s="3">
         <v>10</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="3"/>
+      <c r="E37" s="19">
         <v>0.23479252980346399</v>
       </c>
-      <c r="E37" s="19">
+      <c r="F37" s="19">
         <v>0.34543631150953202</v>
       </c>
-      <c r="F37" s="20">
+      <c r="G37" s="20">
         <v>0.77421729376541204</v>
       </c>
-      <c r="G37" s="19">
+      <c r="H37" s="19">
         <v>6.1933459737729499E-2</v>
       </c>
-      <c r="H37" s="19">
+      <c r="I37" s="19"/>
+      <c r="J37" s="19">
         <v>-1.7097698503601599E-2</v>
       </c>
-      <c r="I37" s="19">
+      <c r="K37" s="19">
         <v>2.4054380449306601E-18</v>
       </c>
-      <c r="J37" s="19">
+      <c r="L37" s="19">
         <v>2.1661170286716099E-2</v>
       </c>
-      <c r="K37" s="19">
+      <c r="M37" s="19">
         <v>2.2551405187698401E-18</v>
       </c>
-      <c r="L37" s="19">
+      <c r="N37" s="19">
         <v>1.00236473985916</v>
       </c>
-      <c r="M37" s="19">
+      <c r="O37" s="19">
         <v>1.01230426727613</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R37" s="3">
+      <c r="T37" s="3">
         <v>0.99999035990084295</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="V37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U37" s="3">
+      <c r="W37" s="3">
         <v>0.999414034203012</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="AA37" s="2">
         <v>5</v>
       </c>
-      <c r="Z37" s="13">
+      <c r="AB37" s="13">
         <v>1.7263240837165199</v>
       </c>
-      <c r="AA37" s="13">
+      <c r="AC37" s="13">
         <v>0.82812822022515498</v>
       </c>
-      <c r="AB37" s="13">
+      <c r="AD37" s="13">
         <v>1.79459346283856</v>
       </c>
-      <c r="AC37" s="13">
+      <c r="AE37" s="13">
         <v>2.12141111174873</v>
       </c>
-      <c r="AD37" s="13">
+      <c r="AF37" s="13">
         <v>1.77831775823945</v>
       </c>
-      <c r="AE37" s="13">
+      <c r="AG37" s="13">
         <v>1.79570707120339</v>
       </c>
-      <c r="AF37" s="13">
+      <c r="AH37" s="13">
         <v>0.56300117937995398</v>
       </c>
-      <c r="AG37" s="13">
+      <c r="AI37" s="13">
         <v>1.3099066419384999</v>
       </c>
-      <c r="AH37" s="13">
+      <c r="AJ37" s="13">
         <v>0.981106365506624</v>
       </c>
-      <c r="AI37" s="13">
+      <c r="AK37" s="13">
         <v>1.2592861131556099</v>
       </c>
-      <c r="AJ37" s="13">
+      <c r="AL37" s="13">
         <v>1.39895674033557</v>
       </c>
-      <c r="AK37" s="13">
+      <c r="AM37" s="13">
         <v>0.84493396061322001</v>
       </c>
-      <c r="AL37" s="13">
+      <c r="AN37" s="13">
         <v>1.0481567786613599</v>
       </c>
-      <c r="AM37" s="13">
+      <c r="AO37" s="13">
         <v>1.96870031707903</v>
       </c>
-      <c r="AN37" s="13">
+      <c r="AP37" s="13">
         <v>-0.36035557427637499</v>
       </c>
-      <c r="AO37" s="13">
+      <c r="AQ37" s="13">
         <v>1.2909617908619999</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:43">
       <c r="A38" s="2">
         <v>120</v>
       </c>
@@ -5128,51 +5179,53 @@
       <c r="C38" s="3">
         <v>3</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="3"/>
+      <c r="E38" s="19">
         <v>0.278510276480394</v>
       </c>
-      <c r="E38" s="19">
+      <c r="F38" s="19">
         <v>0.26261228664411701</v>
       </c>
-      <c r="F38" s="20">
+      <c r="G38" s="20">
         <v>0.69006871394535096</v>
       </c>
-      <c r="G38" s="19">
+      <c r="H38" s="19">
         <v>5.0963009403136902E-2</v>
       </c>
-      <c r="H38" s="19">
+      <c r="I38" s="19"/>
+      <c r="J38" s="19">
         <v>-1.02797732884536E-2</v>
       </c>
-      <c r="I38" s="19">
+      <c r="K38" s="19">
         <v>4.8597244799294197E-19</v>
       </c>
-      <c r="J38" s="19">
+      <c r="L38" s="19">
         <v>-1.3978887681620299E-4</v>
       </c>
-      <c r="K38" s="19">
+      <c r="M38" s="19">
         <v>4.16333634234435E-18</v>
       </c>
-      <c r="L38" s="19">
+      <c r="N38" s="19">
         <v>1.0005829773589601</v>
       </c>
-      <c r="M38" s="19">
+      <c r="O38" s="19">
         <v>1.0067508019523499</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R38" s="3">
+      <c r="T38" s="3">
         <v>0.18446899339627701</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="V38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U38" s="3">
+      <c r="W38" s="3">
         <v>0.270536887205651</v>
       </c>
-      <c r="AN38" s="34"/>
-    </row>
-    <row r="39" spans="1:41">
+      <c r="AP38" s="34"/>
+    </row>
+    <row r="39" spans="1:43">
       <c r="A39" s="2">
         <v>120</v>
       </c>
@@ -5182,68 +5235,70 @@
       <c r="C39" s="3">
         <v>3</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="3"/>
+      <c r="E39" s="19">
         <v>0.23641711562874099</v>
       </c>
-      <c r="E39" s="20">
+      <c r="F39" s="20">
         <v>0.55796215063136401</v>
       </c>
-      <c r="F39" s="20">
+      <c r="G39" s="20">
         <v>0.65950333515346604</v>
       </c>
-      <c r="G39" s="19">
+      <c r="H39" s="19">
         <v>4.9676209189990099E-2</v>
       </c>
-      <c r="H39" s="19">
+      <c r="I39" s="19"/>
+      <c r="J39" s="19">
         <v>-9.4680365266507204E-3</v>
       </c>
-      <c r="I39" s="19">
+      <c r="K39" s="19">
         <v>4.5289835250150696E-18</v>
       </c>
-      <c r="J39" s="19">
+      <c r="L39" s="19">
         <v>7.2553870881835597E-2</v>
       </c>
-      <c r="K39" s="19">
+      <c r="M39" s="19">
         <v>-1.64798730217798E-18</v>
       </c>
-      <c r="L39" s="19">
+      <c r="N39" s="19">
         <v>1.0016395073061699</v>
       </c>
-      <c r="M39" s="19">
+      <c r="O39" s="19">
         <v>1.0095054132702399</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R39" s="3">
+      <c r="T39" s="3">
         <v>1.21594064227475E-2</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="V39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U39" s="3">
+      <c r="W39" s="3">
         <v>1.6866806191788E-2</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AL39" t="s">
         <v>108</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AM39" t="s">
         <v>129</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AN39" t="s">
         <v>130</v>
       </c>
-      <c r="AM39" t="s">
+      <c r="AO39" t="s">
         <v>131</v>
       </c>
-      <c r="AN39" t="s">
+      <c r="AP39" t="s">
         <v>132</v>
       </c>
-      <c r="AO39" t="s">
+      <c r="AQ39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:43">
       <c r="A40" s="2">
         <v>120</v>
       </c>
@@ -5253,50 +5308,52 @@
       <c r="C40" s="3">
         <v>5</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="3"/>
+      <c r="E40" s="19">
         <v>0.29186772406930001</v>
       </c>
-      <c r="E40" s="19">
+      <c r="F40" s="19">
         <v>0.425690557641064</v>
       </c>
-      <c r="F40" s="20">
+      <c r="G40" s="20">
         <v>0.801987365647853</v>
       </c>
-      <c r="G40" s="19">
+      <c r="H40" s="19">
         <v>6.2503310479304894E-2</v>
       </c>
-      <c r="H40" s="19">
+      <c r="I40" s="19"/>
+      <c r="J40" s="19">
         <v>6.5522520905533495E-4</v>
       </c>
-      <c r="I40" s="19">
+      <c r="K40" s="19">
         <v>4.0942184538483803E-18</v>
       </c>
-      <c r="J40" s="19">
+      <c r="L40" s="19">
         <v>1.29388741854397E-2</v>
       </c>
-      <c r="K40" s="19">
+      <c r="M40" s="19">
         <v>1.11022302462516E-17</v>
       </c>
-      <c r="L40" s="19">
+      <c r="N40" s="19">
         <v>1.00069569618889</v>
       </c>
-      <c r="M40" s="19">
+      <c r="O40" s="19">
         <v>1.0083708282972299</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <v>3056.3490000000002</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="V40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <v>1924.21</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:43">
       <c r="A41" s="2">
         <v>120</v>
       </c>
@@ -5306,41 +5363,43 @@
       <c r="C41" s="3">
         <v>5</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="3"/>
+      <c r="E41" s="19">
         <v>0.23350792989025601</v>
       </c>
-      <c r="E41" s="20">
+      <c r="F41" s="20">
         <v>0.60572788908842601</v>
       </c>
-      <c r="F41" s="20">
+      <c r="G41" s="20">
         <v>0.84012893670669997</v>
       </c>
-      <c r="G41" s="19">
+      <c r="H41" s="19">
         <v>5.5010289684205502E-2</v>
       </c>
-      <c r="H41" s="19">
+      <c r="I41" s="19"/>
+      <c r="J41" s="19">
         <v>6.8316204649336004E-3</v>
       </c>
-      <c r="I41" s="19">
+      <c r="K41" s="19">
         <v>8.46897421982739E-19</v>
       </c>
-      <c r="J41" s="19">
+      <c r="L41" s="19">
         <v>-0.11245449654435501</v>
       </c>
-      <c r="K41" s="19">
+      <c r="M41" s="19">
         <v>-1.15359111152458E-17</v>
       </c>
-      <c r="L41" s="19">
+      <c r="N41" s="19">
         <v>1.0016705683727301</v>
       </c>
-      <c r="M41" s="19">
+      <c r="O41" s="19">
         <v>1.0098040509917401</v>
       </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:43">
       <c r="A42" s="2">
         <v>120</v>
       </c>
@@ -5350,41 +5409,43 @@
       <c r="C42" s="3">
         <v>10</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="3"/>
+      <c r="E42" s="19">
         <v>0.27817889351791403</v>
       </c>
-      <c r="E42" s="19">
+      <c r="F42" s="19">
         <v>0.31475360910977201</v>
       </c>
-      <c r="F42" s="20">
+      <c r="G42" s="20">
         <v>0.93213898015577401</v>
       </c>
-      <c r="G42" s="19">
+      <c r="H42" s="19">
         <v>5.36695799098732E-2</v>
       </c>
-      <c r="H42" s="19">
+      <c r="I42" s="19"/>
+      <c r="J42" s="19">
         <v>-1.24122135303539E-2</v>
       </c>
-      <c r="I42" s="19">
+      <c r="K42" s="19">
         <v>-5.8912412030957401E-19</v>
       </c>
-      <c r="J42" s="19">
+      <c r="L42" s="19">
         <v>-7.96760119152429E-2</v>
       </c>
-      <c r="K42" s="19">
+      <c r="M42" s="19">
         <v>-3.9898639947466498E-18</v>
       </c>
-      <c r="L42" s="19">
+      <c r="N42" s="19">
         <v>1.0010609822703</v>
       </c>
-      <c r="M42" s="19">
+      <c r="O42" s="19">
         <v>1.0087556257689501</v>
       </c>
-      <c r="P42" t="s">
+      <c r="R42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:43">
       <c r="A43" s="2">
         <v>120</v>
       </c>
@@ -5394,51 +5455,52 @@
       <c r="C43" s="3">
         <v>10</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="3"/>
+      <c r="E43" s="19">
         <v>0.23725512660727399</v>
       </c>
-      <c r="E43" s="19">
+      <c r="F43" s="19">
         <v>0.433811937545244</v>
       </c>
-      <c r="F43" s="20">
+      <c r="G43" s="20">
         <v>0.88594581153159102</v>
       </c>
-      <c r="G43" s="19">
+      <c r="H43" s="19">
         <v>4.4637923970146001E-2</v>
       </c>
-      <c r="H43" s="19">
+      <c r="I43" s="19"/>
+      <c r="J43" s="19">
         <v>-8.0528264638870094E-3</v>
       </c>
-      <c r="I43" s="19">
+      <c r="K43" s="19">
         <v>-5.5738833687479802E-18</v>
       </c>
-      <c r="J43" s="19">
+      <c r="L43" s="19">
         <v>-6.5331977340728903E-2</v>
       </c>
-      <c r="K43" s="19">
+      <c r="M43" s="19">
         <v>-8.6736173798850206E-20</v>
       </c>
-      <c r="L43" s="19">
+      <c r="N43" s="19">
         <v>1.0037407055538401</v>
       </c>
-      <c r="M43" s="19">
+      <c r="O43" s="19">
         <v>1.0160293437572401</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>5032.3620483268996</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3137.1370598329499</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
-      <c r="D44" s="35"/>
+    <row r="44" spans="1:43">
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -5448,51 +5510,53 @@
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
-      <c r="Q44" s="3" t="s">
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="S44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1.02622739189868</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1.0682917370110401</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
-      <c r="Q45" s="3" t="s">
+    <row r="45" spans="1:43">
+      <c r="S45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1.0075910858275501</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1.0072726912708201</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:43">
       <c r="A46" t="s">
         <v>95</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>0.20684850634715701</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>0.261022556352631</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:43">
       <c r="A47" s="8" t="s">
         <v>16</v>
       </c>
@@ -5502,50 +5566,52 @@
       <c r="C47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I47" s="5"/>
+      <c r="J47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="K47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="L47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="M47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="N47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="O47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1.1595825166654399E-2</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1.6187143527022801E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:43">
       <c r="A48" s="3">
         <v>60</v>
       </c>
@@ -5555,124 +5621,166 @@
       <c r="C48" s="3">
         <v>3</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="3"/>
+      <c r="E48" s="13">
         <v>0.28126509603599797</v>
       </c>
-      <c r="E48" s="13">
+      <c r="F48" s="13">
         <v>0.234926111992384</v>
       </c>
-      <c r="F48" s="13">
+      <c r="G48" s="13">
         <v>0.192921370569588</v>
       </c>
-      <c r="G48" s="13">
+      <c r="H48" s="13">
         <v>0.34434251922497999</v>
       </c>
-      <c r="H48" s="13">
+      <c r="I48" s="13"/>
+      <c r="J48" s="13">
         <v>-1.11421521531033E-2</v>
       </c>
-      <c r="I48" s="13">
+      <c r="K48" s="13">
         <v>7.2805923502324201E-3</v>
       </c>
-      <c r="J48" s="13">
+      <c r="L48" s="13">
         <v>-6.3790228619541398E-3</v>
       </c>
-      <c r="K48" s="13">
+      <c r="M48" s="13">
         <v>-1.6479873021779699E-18</v>
       </c>
-      <c r="L48" s="13">
+      <c r="N48" s="13">
         <v>1.0284417497565499</v>
       </c>
-      <c r="M48" s="13">
+      <c r="O48" s="13">
         <v>1.1559632403964</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R48" s="15">
+      <c r="T48" s="15">
         <v>3028.6489999999999</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="U48">
+      <c r="W48">
         <v>1910.6990000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:40">
+    <row r="49" spans="1:42">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3">
         <v>5</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="3"/>
+      <c r="E49" s="13">
         <v>0.29046743574902101</v>
       </c>
-      <c r="E49" s="13">
+      <c r="F49" s="13">
         <v>0.26378011001209101</v>
       </c>
-      <c r="F49" s="13">
+      <c r="G49" s="13">
         <v>0.24824572526666799</v>
       </c>
-      <c r="G49" s="13">
+      <c r="H49" s="13">
         <v>0.36710962587376</v>
       </c>
-      <c r="H49" s="13">
+      <c r="I49" s="13"/>
+      <c r="J49" s="13">
         <v>-7.4923454081512E-4</v>
       </c>
-      <c r="I49" s="13">
+      <c r="K49" s="13">
         <v>2.3098282751024799E-2</v>
       </c>
-      <c r="J49" s="13">
+      <c r="L49" s="13">
         <v>-2.5196477977485299E-2</v>
       </c>
-      <c r="K49" s="13">
+      <c r="M49" s="13">
         <v>6.5485811218124697E-18</v>
       </c>
-      <c r="L49" s="13">
+      <c r="N49" s="13">
         <v>1.00696348682845</v>
       </c>
-      <c r="M49" s="13">
+      <c r="O49" s="13">
         <v>1.0294033202255699</v>
       </c>
     </row>
-    <row r="50" spans="1:40">
+    <row r="50" spans="1:42">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3">
         <v>10</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="3"/>
+      <c r="E50" s="13">
         <v>0.28746789284411201</v>
       </c>
-      <c r="E50" s="13">
+      <c r="F50" s="13">
         <v>0.23153837549320899</v>
       </c>
-      <c r="F50" s="13">
+      <c r="G50" s="13">
         <v>0.23042256891478399</v>
       </c>
-      <c r="G50" s="13">
+      <c r="H50" s="13">
         <v>0.36805857127752101</v>
       </c>
-      <c r="H50" s="13">
+      <c r="I50" s="13"/>
+      <c r="J50" s="13">
         <v>-2.4645321112957801E-3</v>
       </c>
-      <c r="I50" s="13">
+      <c r="K50" s="13">
         <v>8.8601666117072899E-3</v>
       </c>
-      <c r="J50" s="13">
+      <c r="L50" s="13">
         <v>2.7762285433846103E-4</v>
       </c>
-      <c r="K50" s="13">
+      <c r="M50" s="13">
         <v>-5.3722217646656803E-18</v>
       </c>
-      <c r="L50" s="13">
+      <c r="N50" s="13">
         <v>1.0092939611089999</v>
       </c>
-      <c r="M50" s="13">
+      <c r="O50" s="13">
         <v>1.03771080190905</v>
       </c>
-    </row>
-    <row r="51" spans="1:40">
+      <c r="R50" s="3">
+        <v>10</v>
+      </c>
+      <c r="S50" s="3">
+        <v>3</v>
+      </c>
+      <c r="T50" s="19">
+        <v>0.31293849158876802</v>
+      </c>
+      <c r="U50" s="20">
+        <v>0.53466093567667194</v>
+      </c>
+      <c r="V50" s="20">
+        <v>0.58766168287542397</v>
+      </c>
+      <c r="W50" s="19">
+        <v>6.5998144190404298E-2</v>
+      </c>
+      <c r="X50" s="19">
+        <v>9.5721462571776605E-2</v>
+      </c>
+      <c r="Y50" s="19">
+        <v>-1.52811519948254E-18</v>
+      </c>
+      <c r="Z50" s="19">
+        <v>7.1799339231581799E-2</v>
+      </c>
+      <c r="AA50" s="19">
+        <v>-6.0715321659188202E-18</v>
+      </c>
+      <c r="AB50" s="19">
+        <v>1.00019510368961</v>
+      </c>
+      <c r="AC50" s="19">
+        <v>1.0083234944399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42">
       <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>15</v>
@@ -5680,112 +5788,226 @@
       <c r="C51" s="3">
         <v>3</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="3"/>
+      <c r="E51" s="13">
         <v>0.22887478465942901</v>
       </c>
-      <c r="E51" s="13">
+      <c r="F51" s="13">
         <v>0.26616993764204</v>
       </c>
-      <c r="F51" s="13">
+      <c r="G51" s="13">
         <v>0.23543815887179001</v>
       </c>
-      <c r="G51" s="13">
+      <c r="H51" s="13">
         <v>0.37587931685714898</v>
       </c>
-      <c r="H51" s="13">
+      <c r="I51" s="13"/>
+      <c r="J51" s="13">
         <v>1.16572502240483E-2</v>
       </c>
-      <c r="I51" s="13">
+      <c r="K51" s="13">
         <v>1.31754006401835E-2</v>
       </c>
-      <c r="J51" s="13">
+      <c r="L51" s="13">
         <v>9.8091444851432907E-3</v>
       </c>
-      <c r="K51" s="13">
+      <c r="M51" s="13">
         <v>1.26987179452365E-18</v>
       </c>
-      <c r="L51" s="13">
+      <c r="N51" s="13">
         <v>1.0121356319855299</v>
       </c>
-      <c r="M51" s="13">
+      <c r="O51" s="13">
         <v>1.0549813929796401</v>
       </c>
-    </row>
-    <row r="52" spans="1:40">
+      <c r="R51" s="3">
+        <v>15</v>
+      </c>
+      <c r="S51" s="3">
+        <v>3</v>
+      </c>
+      <c r="T51" s="19">
+        <v>0.26962274490546601</v>
+      </c>
+      <c r="U51" s="19">
+        <v>0.48407361378653002</v>
+      </c>
+      <c r="V51" s="19">
+        <v>0.46031251471789397</v>
+      </c>
+      <c r="W51" s="19">
+        <v>5.58759194352818E-2</v>
+      </c>
+      <c r="X51" s="19">
+        <v>-2.99470441369806E-2</v>
+      </c>
+      <c r="Y51" s="19">
+        <v>-1.6180362171630601E-18</v>
+      </c>
+      <c r="Z51" s="19">
+        <v>-0.10550333948867099</v>
+      </c>
+      <c r="AA51" s="19">
+        <v>1.22298005056365E-17</v>
+      </c>
+      <c r="AB51" s="19">
+        <v>1.0018077479143199</v>
+      </c>
+      <c r="AC51" s="19">
+        <v>1.0153562697430201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3">
         <v>5</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="3"/>
+      <c r="E52" s="13">
         <v>0.22258352238814499</v>
       </c>
-      <c r="E52" s="13">
+      <c r="F52" s="13">
         <v>0.220101120279937</v>
       </c>
-      <c r="F52" s="13">
+      <c r="G52" s="13">
         <v>0.22789492150436699</v>
       </c>
-      <c r="G52" s="13">
+      <c r="H52" s="13">
         <v>0.35819166466659202</v>
       </c>
-      <c r="H52" s="13">
+      <c r="I52" s="13"/>
+      <c r="J52" s="13">
         <v>1.3710079259500901E-3</v>
       </c>
-      <c r="I52" s="13">
+      <c r="K52" s="13">
         <v>1.1441749794873699E-2</v>
       </c>
-      <c r="J52" s="13">
+      <c r="L52" s="13">
         <v>1.60646608867871E-2</v>
       </c>
-      <c r="K52" s="13">
+      <c r="M52" s="13">
         <v>-9.0259830859419508E-19</v>
       </c>
-      <c r="L52" s="13">
+      <c r="N52" s="13">
         <v>1.01488319674147</v>
       </c>
-      <c r="M52" s="13">
+      <c r="O52" s="13">
         <v>1.08168027917919</v>
       </c>
-    </row>
-    <row r="53" spans="1:40">
+      <c r="R52" s="3">
+        <v>10</v>
+      </c>
+      <c r="S52" s="3">
+        <v>5</v>
+      </c>
+      <c r="T52" s="19">
+        <v>0.32537568825635799</v>
+      </c>
+      <c r="U52" s="19">
+        <v>0.44652383594566297</v>
+      </c>
+      <c r="V52" s="20">
+        <v>0.53305007605335397</v>
+      </c>
+      <c r="W52" s="19">
+        <v>6.5392593015028797E-2</v>
+      </c>
+      <c r="X52" s="19">
+        <v>5.2944805805778899E-2</v>
+      </c>
+      <c r="Y52" s="19">
+        <v>1.10778356973706E-18</v>
+      </c>
+      <c r="Z52" s="19">
+        <v>8.2100902556140304E-2</v>
+      </c>
+      <c r="AA52" s="19">
+        <v>2.5977484052752701E-17</v>
+      </c>
+      <c r="AB52" s="19">
+        <v>1.0002026916228599</v>
+      </c>
+      <c r="AC52" s="19">
+        <v>1.0098695349086899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3">
         <v>10</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="3"/>
+      <c r="E53" s="13">
         <v>0.25843803486479899</v>
       </c>
-      <c r="E53" s="13">
+      <c r="F53" s="13">
         <v>0.26588876227466401</v>
       </c>
-      <c r="F53" s="13">
+      <c r="G53" s="13">
         <v>0.31441312589791698</v>
       </c>
-      <c r="G53" s="13">
+      <c r="H53" s="13">
         <v>0.38256060577877499</v>
       </c>
-      <c r="H53" s="13">
+      <c r="I53" s="13"/>
+      <c r="J53" s="13">
         <v>-1.8820720539502799E-2</v>
       </c>
-      <c r="I53" s="13">
+      <c r="K53" s="13">
         <v>9.2147764461949205E-3</v>
       </c>
-      <c r="J53" s="13">
+      <c r="L53" s="13">
         <v>-4.3702191058516901E-2</v>
       </c>
-      <c r="K53" s="13">
+      <c r="M53" s="13">
         <v>-5.5104575416575797E-18</v>
       </c>
-      <c r="L53" s="13">
+      <c r="N53" s="13">
         <v>1.01326196932387</v>
       </c>
-      <c r="M53" s="13">
+      <c r="O53" s="13">
         <v>1.04397690600298</v>
       </c>
-    </row>
-    <row r="54" spans="1:40">
+      <c r="R53" s="3">
+        <v>15</v>
+      </c>
+      <c r="S53" s="3">
+        <v>5</v>
+      </c>
+      <c r="T53" s="19">
+        <v>0.26926093678540602</v>
+      </c>
+      <c r="U53" s="19">
+        <v>0.456632924605617</v>
+      </c>
+      <c r="V53" s="20">
+        <v>0.57554015614666199</v>
+      </c>
+      <c r="W53" s="19">
+        <v>6.7135855476701603E-2</v>
+      </c>
+      <c r="X53" s="19">
+        <v>-1.32337598331696E-2</v>
+      </c>
+      <c r="Y53" s="19">
+        <v>4.63270553284956E-19</v>
+      </c>
+      <c r="Z53" s="19">
+        <v>1.35559914493949E-2</v>
+      </c>
+      <c r="AA53" s="19">
+        <v>9.0205620750794003E-18</v>
+      </c>
+      <c r="AB53" s="19">
+        <v>1.0015171153810101</v>
+      </c>
+      <c r="AC53" s="19">
+        <v>1.01515638003644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42">
       <c r="A54" s="3">
         <v>90</v>
       </c>
@@ -5795,118 +6017,196 @@
       <c r="C54" s="3">
         <v>3</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="3"/>
+      <c r="E54" s="13">
         <v>0.26158813147408799</v>
       </c>
-      <c r="E54" s="13">
+      <c r="F54" s="13">
         <v>0.233616835258287</v>
       </c>
-      <c r="F54" s="13">
+      <c r="G54" s="13">
         <v>0.136870904290738</v>
       </c>
-      <c r="G54" s="13">
+      <c r="H54" s="13">
         <v>0.29534177774569498</v>
       </c>
-      <c r="H54" s="13">
+      <c r="I54" s="13"/>
+      <c r="J54" s="13">
         <v>-1.20984707156696E-2</v>
       </c>
-      <c r="I54" s="13">
+      <c r="K54" s="13">
         <v>-2.06359851067629E-2</v>
       </c>
-      <c r="J54" s="13">
+      <c r="L54" s="13">
         <v>-1.92877633600461E-2</v>
       </c>
-      <c r="K54" s="13">
+      <c r="M54" s="13">
         <v>1.0842021724855499E-19</v>
       </c>
-      <c r="L54" s="13">
+      <c r="N54" s="13">
         <v>1.01004490252977</v>
       </c>
-      <c r="M54" s="13">
+      <c r="O54" s="13">
         <v>1.05650423347155</v>
       </c>
-      <c r="AL54" t="s">
+      <c r="R54" s="3">
+        <v>10</v>
+      </c>
+      <c r="S54" s="3">
+        <v>10</v>
+      </c>
+      <c r="T54" s="19">
+        <v>0.32370206181317401</v>
+      </c>
+      <c r="U54" s="19">
+        <v>0.44809867631100497</v>
+      </c>
+      <c r="V54" s="20">
+        <v>0.61388625613410897</v>
+      </c>
+      <c r="W54" s="19">
+        <v>8.1236302743691605E-2</v>
+      </c>
+      <c r="X54" s="19">
+        <v>-1.6701244186039001E-2</v>
+      </c>
+      <c r="Y54" s="19">
+        <v>6.9352347215751001E-18</v>
+      </c>
+      <c r="Z54" s="19">
+        <v>-7.9668158084937296E-2</v>
+      </c>
+      <c r="AA54" s="19">
+        <v>3.5561831257524504E-18</v>
+      </c>
+      <c r="AB54" s="19">
+        <v>0.99972985940468795</v>
+      </c>
+      <c r="AC54" s="19">
+        <v>1.0067801752683601</v>
+      </c>
+      <c r="AN54" t="s">
         <v>139</v>
       </c>
-      <c r="AN54" s="28" t="s">
+      <c r="AP54" s="28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:40">
+    <row r="55" spans="1:42">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3">
         <v>5</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="3"/>
+      <c r="E55" s="13">
         <v>0.26389514834925598</v>
       </c>
-      <c r="E55" s="13">
+      <c r="F55" s="13">
         <v>0.24936259008343001</v>
       </c>
-      <c r="F55" s="13">
+      <c r="G55" s="13">
         <v>0.16097266250613301</v>
       </c>
-      <c r="G55" s="13">
+      <c r="H55" s="13">
         <v>0.303244394235203</v>
       </c>
-      <c r="H55" s="13">
+      <c r="I55" s="13"/>
+      <c r="J55" s="13">
         <v>1.4767802612085301E-2</v>
       </c>
-      <c r="I55" s="13">
+      <c r="K55" s="13">
         <v>2.3728273329815901E-2</v>
       </c>
-      <c r="J55" s="13">
+      <c r="L55" s="13">
         <v>2.6744928955507001E-2</v>
       </c>
-      <c r="K55" s="13">
+      <c r="M55" s="13">
         <v>1.3010426069826099E-18</v>
       </c>
-      <c r="L55" s="13">
+      <c r="N55" s="13">
         <v>1.0085291558099401</v>
       </c>
-      <c r="M55" s="13">
+      <c r="O55" s="13">
         <v>1.0384662490965</v>
       </c>
-    </row>
-    <row r="56" spans="1:40">
+      <c r="R55" s="3">
+        <v>15</v>
+      </c>
+      <c r="S55" s="3">
+        <v>10</v>
+      </c>
+      <c r="T55" s="19">
+        <v>0.27764981805047401</v>
+      </c>
+      <c r="U55" s="20">
+        <v>0.50871876460494003</v>
+      </c>
+      <c r="V55" s="20">
+        <v>0.63868642601622605</v>
+      </c>
+      <c r="W55" s="19">
+        <v>6.8737560665830796E-2</v>
+      </c>
+      <c r="X55" s="19">
+        <v>-2.1744873587466601E-2</v>
+      </c>
+      <c r="Y55" s="19">
+        <v>-8.3302866919303004E-19</v>
+      </c>
+      <c r="Z55" s="19">
+        <v>-5.25162212360143E-2</v>
+      </c>
+      <c r="AA55" s="19">
+        <v>-2.54136989230602E-17</v>
+      </c>
+      <c r="AB55" s="19">
+        <v>0.99998082888365902</v>
+      </c>
+      <c r="AC55" s="19">
+        <v>1.00754652670929</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3">
         <v>10</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="3"/>
+      <c r="E56" s="13">
         <v>0.28629101722484701</v>
       </c>
-      <c r="E56" s="13">
+      <c r="F56" s="13">
         <v>0.26997905120122201</v>
       </c>
-      <c r="F56" s="13">
+      <c r="G56" s="13">
         <v>0.22922059665255601</v>
       </c>
-      <c r="G56" s="13">
+      <c r="H56" s="13">
         <v>0.30939056677208499</v>
       </c>
-      <c r="H56" s="13">
+      <c r="I56" s="13"/>
+      <c r="J56" s="13">
         <v>-1.70329251009337E-3</v>
       </c>
-      <c r="I56" s="13">
+      <c r="K56" s="13">
         <v>2.6177661132598201E-2</v>
       </c>
-      <c r="J56" s="13">
+      <c r="L56" s="13">
         <v>1.6120785620988801E-2</v>
       </c>
-      <c r="K56" s="13">
+      <c r="M56" s="13">
         <v>1.8214596497756398E-18</v>
       </c>
-      <c r="L56" s="13">
+      <c r="N56" s="13">
         <v>1.00972119033783</v>
       </c>
-      <c r="M56" s="13">
+      <c r="O56" s="13">
         <v>1.03292174498869</v>
       </c>
     </row>
-    <row r="57" spans="1:40">
+    <row r="57" spans="1:42">
       <c r="A57" s="3"/>
       <c r="B57" s="3">
         <v>15</v>
@@ -5914,112 +6214,118 @@
       <c r="C57" s="3">
         <v>3</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="3"/>
+      <c r="E57" s="13">
         <v>0.21431721557370301</v>
       </c>
-      <c r="E57" s="13">
+      <c r="F57" s="13">
         <v>0.207073591529848</v>
       </c>
-      <c r="F57" s="13">
+      <c r="G57" s="13">
         <v>0.17396731852157299</v>
       </c>
-      <c r="G57" s="13">
+      <c r="H57" s="13">
         <v>0.324518955703745</v>
       </c>
-      <c r="H57" s="13">
+      <c r="I57" s="13"/>
+      <c r="J57" s="13">
         <v>3.3076215234663302E-2</v>
       </c>
-      <c r="I57" s="13">
+      <c r="K57" s="13">
         <v>8.8419083762186993E-3</v>
       </c>
-      <c r="J57" s="13">
+      <c r="L57" s="13">
         <v>5.6110317707355799E-2</v>
       </c>
-      <c r="K57" s="13">
+      <c r="M57" s="13">
         <v>-2.4774019641293701E-18</v>
       </c>
-      <c r="L57" s="13">
+      <c r="N57" s="13">
         <v>1.0051605011182301</v>
       </c>
-      <c r="M57" s="13">
+      <c r="O57" s="13">
         <v>1.0262267634150299</v>
       </c>
     </row>
-    <row r="58" spans="1:40">
+    <row r="58" spans="1:42">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3">
         <v>5</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="3"/>
+      <c r="E58" s="13">
         <v>0.235311249656074</v>
       </c>
-      <c r="E58" s="13">
+      <c r="F58" s="13">
         <v>0.208627939484645</v>
       </c>
-      <c r="F58" s="13">
+      <c r="G58" s="13">
         <v>0.21133767767606099</v>
       </c>
-      <c r="G58" s="13">
+      <c r="H58" s="13">
         <v>0.34157968918377901</v>
       </c>
-      <c r="H58" s="13">
+      <c r="I58" s="13"/>
+      <c r="J58" s="13">
         <v>2.1444148979765099E-3</v>
       </c>
-      <c r="I58" s="13">
+      <c r="K58" s="13">
         <v>2.6738795270764802E-3</v>
       </c>
-      <c r="J58" s="13">
+      <c r="L58" s="13">
         <v>-1.4896303846975901E-2</v>
       </c>
-      <c r="K58" s="13">
+      <c r="M58" s="13">
         <v>-2.81892564846231E-18</v>
       </c>
-      <c r="L58" s="13">
+      <c r="N58" s="13">
         <v>1.0116509815938799</v>
       </c>
-      <c r="M58" s="13">
+      <c r="O58" s="13">
         <v>1.04309034229666</v>
       </c>
     </row>
-    <row r="59" spans="1:40">
+    <row r="59" spans="1:42">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3">
         <v>10</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="3"/>
+      <c r="E59" s="13">
         <v>0.23131806612265499</v>
       </c>
-      <c r="E59" s="13">
+      <c r="F59" s="13">
         <v>0.23990192802145799</v>
       </c>
-      <c r="F59" s="13">
+      <c r="G59" s="13">
         <v>0.26229545315825897</v>
       </c>
-      <c r="G59" s="13">
+      <c r="H59" s="13">
         <v>0.349690517806652</v>
       </c>
-      <c r="H59" s="13">
+      <c r="I59" s="13"/>
+      <c r="J59" s="13">
         <v>-6.5121073513029603E-3</v>
       </c>
-      <c r="I59" s="13">
+      <c r="K59" s="13">
         <v>1.63023422473485E-2</v>
       </c>
-      <c r="J59" s="13">
+      <c r="L59" s="13">
         <v>-8.1713636969099699E-3</v>
       </c>
-      <c r="K59" s="13">
+      <c r="M59" s="13">
         <v>-3.2092384305570998E-18</v>
       </c>
-      <c r="L59" s="13">
+      <c r="N59" s="13">
         <v>1.00922594158553</v>
       </c>
-      <c r="M59" s="13">
+      <c r="O59" s="13">
         <v>1.0291126989016</v>
       </c>
     </row>
-    <row r="60" spans="1:40">
+    <row r="60" spans="1:42">
       <c r="A60" s="3">
         <v>120</v>
       </c>
@@ -6029,112 +6335,118 @@
       <c r="C60" s="3">
         <v>3</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="3"/>
+      <c r="E60" s="13">
         <v>0.25811251913378802</v>
       </c>
-      <c r="E60" s="13">
+      <c r="F60" s="13">
         <v>0.18809796196918099</v>
       </c>
-      <c r="F60" s="13">
+      <c r="G60" s="13">
         <v>0.15327110948976999</v>
       </c>
-      <c r="G60" s="13">
+      <c r="H60" s="13">
         <v>0.273287581080986</v>
       </c>
-      <c r="H60" s="13">
+      <c r="I60" s="13"/>
+      <c r="J60" s="13">
         <v>-1.0542003726492799E-2</v>
       </c>
-      <c r="I60" s="13">
+      <c r="K60" s="13">
         <v>6.08089079659648E-3</v>
       </c>
-      <c r="J60" s="13">
+      <c r="L60" s="13">
         <v>-4.9507490789273004E-3</v>
       </c>
-      <c r="K60" s="13">
+      <c r="M60" s="13">
         <v>-4.3584927333917297E-18</v>
       </c>
-      <c r="L60" s="13">
+      <c r="N60" s="13">
         <v>1.0058561400691599</v>
       </c>
-      <c r="M60" s="13">
+      <c r="O60" s="13">
         <v>1.0286967701511101</v>
       </c>
     </row>
-    <row r="61" spans="1:40">
+    <row r="61" spans="1:42">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3">
         <v>5</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="3"/>
+      <c r="E61" s="13">
         <v>0.28124017641568999</v>
       </c>
-      <c r="E61" s="13">
+      <c r="F61" s="13">
         <v>0.208384591284173</v>
       </c>
-      <c r="F61" s="13">
+      <c r="G61" s="13">
         <v>0.17846483687194201</v>
       </c>
-      <c r="G61" s="13">
+      <c r="H61" s="13">
         <v>0.31643322508529098</v>
       </c>
-      <c r="H61" s="13">
+      <c r="I61" s="13"/>
+      <c r="J61" s="13">
         <v>-7.6797678090615904E-4</v>
       </c>
-      <c r="I61" s="13">
+      <c r="K61" s="13">
         <v>1.2414188504055E-2</v>
       </c>
-      <c r="J61" s="13">
+      <c r="L61" s="13">
         <v>-1.0668083300957899E-2</v>
       </c>
-      <c r="K61" s="13">
+      <c r="M61" s="13">
         <v>-2.36898174688082E-18</v>
       </c>
-      <c r="L61" s="13">
+      <c r="N61" s="13">
         <v>1.0134606608146299</v>
       </c>
-      <c r="M61" s="13">
+      <c r="O61" s="13">
         <v>1.06668724106651</v>
       </c>
     </row>
-    <row r="62" spans="1:40">
+    <row r="62" spans="1:42">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3">
         <v>10</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="3"/>
+      <c r="E62" s="13">
         <v>0.28174432805086203</v>
       </c>
-      <c r="E62" s="13">
+      <c r="F62" s="13">
         <v>0.19691152570224699</v>
       </c>
-      <c r="F62" s="13">
+      <c r="G62" s="13">
         <v>0.252244938691705</v>
       </c>
-      <c r="G62" s="13">
+      <c r="H62" s="13">
         <v>0.29273368626181701</v>
       </c>
-      <c r="H62" s="13">
+      <c r="I62" s="13"/>
+      <c r="J62" s="13">
         <v>-1.48714314137771E-2</v>
       </c>
-      <c r="I62" s="13">
+      <c r="K62" s="13">
         <v>4.3631271139640999E-3</v>
       </c>
-      <c r="J62" s="13">
+      <c r="L62" s="13">
         <v>-2.8150130267567901E-2</v>
       </c>
-      <c r="K62" s="13">
+      <c r="M62" s="13">
         <v>1.0570971181733601E-18</v>
       </c>
-      <c r="L62" s="13">
+      <c r="N62" s="13">
         <v>1.0047073859443001</v>
       </c>
-      <c r="M62" s="13">
+      <c r="O62" s="13">
         <v>1.02141414840286</v>
       </c>
     </row>
-    <row r="63" spans="1:40">
+    <row r="63" spans="1:42">
       <c r="A63" s="3"/>
       <c r="B63" s="3">
         <v>15</v>
@@ -6142,158 +6454,166 @@
       <c r="C63" s="3">
         <v>3</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="3"/>
+      <c r="E63" s="13">
         <v>0.22226301548180999</v>
       </c>
-      <c r="E63" s="13">
+      <c r="F63" s="13">
         <v>0.189653222893504</v>
       </c>
-      <c r="F63" s="13">
+      <c r="G63" s="13">
         <v>0.12609992946368501</v>
       </c>
-      <c r="G63" s="13">
+      <c r="H63" s="13">
         <v>0.23602552303861299</v>
       </c>
-      <c r="H63" s="13">
+      <c r="I63" s="13"/>
+      <c r="J63" s="13">
         <v>2.3307976322765201E-2</v>
       </c>
-      <c r="I63" s="13">
+      <c r="K63" s="13">
         <v>5.7300149241429495E-4</v>
       </c>
-      <c r="J63" s="13">
+      <c r="L63" s="13">
         <v>2.6119073340397599E-2</v>
       </c>
-      <c r="K63" s="13">
+      <c r="M63" s="13">
         <v>-1.69135538907739E-18</v>
       </c>
-      <c r="L63" s="13">
+      <c r="N63" s="13">
         <v>1.0055531617331499</v>
       </c>
-      <c r="M63" s="13">
+      <c r="O63" s="13">
         <v>1.0265511474900999</v>
       </c>
     </row>
-    <row r="64" spans="1:40">
+    <row r="64" spans="1:42">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3">
         <v>5</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="3"/>
+      <c r="E64" s="13">
         <v>0.22675860843414</v>
       </c>
-      <c r="E64" s="13">
+      <c r="F64" s="13">
         <v>0.17392332332721699</v>
       </c>
-      <c r="F64" s="13">
+      <c r="G64" s="13">
         <v>0.18284987900945099</v>
       </c>
-      <c r="G64" s="13">
+      <c r="H64" s="13">
         <v>0.31039916712286902</v>
       </c>
-      <c r="H64" s="13">
+      <c r="I64" s="13"/>
+      <c r="J64" s="13">
         <v>1.7251668782444E-2</v>
       </c>
-      <c r="I64" s="13">
+      <c r="K64" s="13">
         <v>1.5582242933511001E-2</v>
       </c>
-      <c r="J64" s="13">
+      <c r="L64" s="13">
         <v>4.8677549255131201E-2</v>
       </c>
-      <c r="K64" s="13">
+      <c r="M64" s="13">
         <v>7.5189420661869803E-18</v>
       </c>
-      <c r="L64" s="13">
+      <c r="N64" s="13">
         <v>1.00868028869821</v>
       </c>
-      <c r="M64" s="13">
+      <c r="O64" s="13">
         <v>1.06211377603409</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:15">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3">
         <v>10</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="3"/>
+      <c r="E65" s="13">
         <v>0.241987963955446</v>
       </c>
-      <c r="E65" s="13">
+      <c r="F65" s="13">
         <v>0.20075385186592801</v>
       </c>
-      <c r="F65" s="13">
+      <c r="G65" s="13">
         <v>0.259606829038245</v>
       </c>
-      <c r="G65" s="13">
+      <c r="H65" s="13">
         <v>0.29861998730505102</v>
       </c>
-      <c r="H65" s="13">
+      <c r="I65" s="13"/>
+      <c r="J65" s="13">
         <v>-4.9880375941717897E-3</v>
       </c>
-      <c r="I65" s="13">
+      <c r="K65" s="13">
         <v>8.9614999459094492E-3</v>
       </c>
-      <c r="J65" s="13">
+      <c r="L65" s="13">
         <v>-3.9297879361687004E-3</v>
       </c>
-      <c r="K65" s="13">
+      <c r="M65" s="13">
         <v>1.08420217248551E-18</v>
       </c>
-      <c r="L65" s="13">
+      <c r="N65" s="13">
         <v>1.0068629185228499</v>
       </c>
-      <c r="M65" s="13">
+      <c r="O65" s="13">
         <v>1.02492002437817</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="14">
-        <f>AVERAGE(D48:D65)</f>
+      <c r="E66" s="14">
+        <f>AVERAGE(E48:E65)</f>
         <v>0.25410690035632577</v>
       </c>
-      <c r="E66" s="14">
-        <f t="shared" ref="E66:J66" si="0">AVERAGE(E48:E65)</f>
+      <c r="F66" s="14">
+        <f t="shared" ref="F66:L66" si="1">AVERAGE(F48:F65)</f>
         <v>0.22492726835085916</v>
       </c>
-      <c r="F66" s="14">
-        <f t="shared" si="0"/>
+      <c r="G66" s="14">
+        <f t="shared" si="1"/>
         <v>0.20980766702195733</v>
       </c>
-      <c r="G66" s="14">
-        <f t="shared" si="0"/>
+      <c r="H66" s="14">
+        <f t="shared" si="1"/>
         <v>0.32485596527892013</v>
       </c>
-      <c r="H66" s="14">
-        <f t="shared" si="0"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14">
+        <f t="shared" si="1"/>
         <v>1.0509098090445517E-3</v>
       </c>
-      <c r="I66" s="14">
-        <f t="shared" si="0"/>
+      <c r="K66" s="14">
+        <f t="shared" si="1"/>
         <v>9.8963332714978834E-3</v>
       </c>
-      <c r="J66" s="14">
-        <f t="shared" si="0"/>
+      <c r="L66" s="14">
+        <f t="shared" si="1"/>
         <v>1.9217894288966189E-3</v>
       </c>
-      <c r="K66" s="14">
-        <f>AVERAGE(K48:K65)</f>
+      <c r="M66" s="14">
+        <f>AVERAGE(M48:M65)</f>
         <v>-5.3600244902252054E-19</v>
       </c>
-      <c r="L66" s="14">
-        <f t="shared" ref="L66" si="1">AVERAGE(L48:L65)</f>
+      <c r="N66" s="14">
+        <f t="shared" ref="N66" si="2">AVERAGE(N48:N65)</f>
         <v>1.0102462902501304</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:15">
       <c r="A69" s="45" t="s">
         <v>141</v>
       </c>
       <c r="B69" s="45"/>
       <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
